--- a/blackjack.xlsx
+++ b/blackjack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F063DB7A-AECB-3240-9162-11D7B12D275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A82851-207F-6549-833A-7614D8E5E506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="49500" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="819">
   <si>
     <t>1</t>
   </si>
@@ -2393,12 +2393,6 @@
     <t>HANDS(1,0,0)=5 :: HANDS(1,1,0)=11 :: HANDS(1,2,0)=3 :: HANDS(1,3,0)=13 :: HANDS(1,4,0)=14</t>
   </si>
   <si>
-    <t>DISPLAY AT (1,26): PSCORE</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (2,26):DSCORE</t>
-  </si>
-  <si>
     <t>IF PSCORE=SCORE THEN DISPLAY AT (12,10): "TIE GAME"</t>
   </si>
   <si>
@@ -2450,54 +2444,18 @@
     <t>DISPLAY AT (1, 1): "HOW TO PLAY:"</t>
   </si>
   <si>
-    <t>DISPLAY AT (1, 1): "RULES:"</t>
-  </si>
-  <si>
     <t>DISPLAY AT (3, 1): "BOTH YOU AND THE DEALER WILL"</t>
   </si>
   <si>
     <t>DISPLAY AT (4, 1): "BE GIVEN TWO CARDS TO START."</t>
   </si>
   <si>
-    <t>DISPLAY AT (5, 1): "THEN TAKE AS MANY CARDS AS"</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (6, 1): "YOU WISH. IF YOUR HAND IS"</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (7, 1): "OVER 21 YOU LOSE."</t>
-  </si>
-  <si>
     <t>DISPLAY AT (3, 1): "THIS IS A GAME BETWEEN YOU"</t>
   </si>
   <si>
     <t>DISPLAY AT (4, 1): "AND THE DEALER (COMPUTER)."</t>
   </si>
   <si>
-    <t>DISPLAY AT (6, 1): "OBJECT OF GAME:"</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (8, 1): "THE OBJECT OF THIS GAME IS"</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (9, 1): "TO COLLECT A SET OF CARDS"</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (10, 1): "THAT IS LESS THAN OR EQUAL"</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (11, 1): "TO 21. IF YOUR SET OF CARDS"</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (12, 1): "IS HIGHER THAN THE DEALER'S"</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (13, 1): "AND NOT OVER 21 THEN YOU WIN"</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (15, 1): "VALUES:"</t>
-  </si>
-  <si>
     <t>DISPLAY AT (17, 1): "NUMBER CARDS = FACE VALUE"</t>
   </si>
   <si>
@@ -2511,6 +2469,66 @@
   </si>
   <si>
     <t>DISPLAY AT (24,1): "PRESS ENTER TO BEGIN:"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (8, 1): "THE OBJECT OF THE GAME IS TO"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (9, 1): "COLLECT A SET OF CARDS LESS"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (10, 1): "THAN OR EQUAL TO 21. IF YOUR"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (11, 1): "SET OF CARDS IS HIGHER THAN"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (12, 1): "THE DEALER'S AND NOT OVER 21"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (13, 1): "THEN YOU WIN."</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (15, 1): "CARD VALUES:"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (6, 1): "OBJECT OF THE GAME:"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (1, 1): "PREFACE:"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (5, 1): "TAKE AS MANY CARDS AS YOU"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (6, 1): "WISH (UP TO 5 CARDS). IF"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (7, 1): "THE VALUE OF YOUR HAND"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (8, 1): "EXCEEDS 21 YOU BUST. ONCE"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (9, 1): "YOU STOP TAKING CARDS, THE"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (10, 1): "DEALER WILL TAKE CARDS"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (11, 1): "TRYING NOT TO BUST AS WELL."</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (12, 1): "THE PLAYER WITH THE HIGHEST"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (13, 1): "HAND VALUE WINS."</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (1,24): "P:"&amp;STR$(PSCORE)</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (2,24):"D:"&amp;STR$(DSCORE)</t>
   </si>
 </sst>
 </file>
@@ -2697,7 +2715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2724,8 +2742,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -3062,7 +3078,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3089,7 +3105,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
+      <c r="A2" s="26"/>
       <c r="B2">
         <v>100</v>
       </c>
@@ -3102,7 +3118,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="A3" s="26"/>
       <c r="B3">
         <v>110</v>
       </c>
@@ -3116,7 +3132,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="A4" s="26"/>
       <c r="B4">
         <v>120</v>
       </c>
@@ -3125,7 +3141,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="B5">
         <v>130</v>
       </c>
@@ -3134,7 +3150,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="A6" s="26"/>
       <c r="B6">
         <v>140</v>
       </c>
@@ -3143,7 +3159,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="26"/>
       <c r="B7">
         <v>150</v>
       </c>
@@ -3152,35 +3168,35 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="B8">
         <v>160</v>
       </c>
       <c r="C8" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D8,A:A,0),0)," :: REM CALL ",D8,"")</f>
-        <v>GOSUB 540 :: REM CALL SETCHARS</v>
+        <v>GOSUB 600 :: REM CALL SETCHARS</v>
       </c>
       <c r="D8" t="str">
-        <f>A46</f>
+        <f>A52</f>
         <v>SETCHARS</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="26"/>
       <c r="B9">
         <v>170</v>
       </c>
       <c r="C9" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D9,A:A,0),0)," :: REM CALL ",D9,"")</f>
-        <v>GOSUB 990 :: REM CALL SETCOLORSCHEME</v>
+        <v>GOSUB 1050 :: REM CALL SETCOLORSCHEME</v>
       </c>
       <c r="D9" t="str">
-        <f>A91</f>
+        <f>A97</f>
         <v>SETCOLORSCHEME</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>763</v>
       </c>
       <c r="B10">
@@ -3192,53 +3208,53 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="26"/>
       <c r="B11">
         <v>190</v>
       </c>
       <c r="C11" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D11,A:A,0),0)," :: REM CALL ",D11,"")</f>
-        <v>GOSUB 2260 :: REM CALL PLAY</v>
+        <v>GOSUB 2320 :: REM CALL PLAY</v>
       </c>
       <c r="D11" t="str">
-        <f>A218</f>
+        <f>A224</f>
         <v>PLAY</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="26"/>
       <c r="B12">
         <v>200</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="A13" s="26"/>
       <c r="B13">
         <v>210</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="26"/>
       <c r="B14">
         <v>220</v>
       </c>
-      <c r="C14" s="26" t="str" cm="1">
+      <c r="C14" t="str" cm="1">
         <f t="array" ref="C14">CONCATENATE("IF A$=""N"" THEN GOSUB ",INDEX(B:B,MATCH(D14,A:A,0),0)," :: REM CALL ",D14,"")</f>
-        <v>IF A$="N" THEN GOSUB 2880 :: REM CALL TERMINATE</v>
+        <v>IF A$="N" THEN GOSUB 2940 :: REM CALL TERMINATE</v>
       </c>
       <c r="D14" t="str">
-        <f>A280</f>
+        <f>A286</f>
         <v>TERMINATE</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="26"/>
       <c r="B15">
         <v>230</v>
       </c>
@@ -3252,7 +3268,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="26" t="s">
         <v>501</v>
       </c>
       <c r="B16">
@@ -3264,7 +3280,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="26"/>
       <c r="B17">
         <v>250</v>
       </c>
@@ -3273,7 +3289,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="A18" s="26"/>
       <c r="B18">
         <v>260</v>
       </c>
@@ -3282,7 +3298,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="A19" s="26"/>
       <c r="B19">
         <v>270</v>
       </c>
@@ -3291,151 +3307,151 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="A20" s="26"/>
       <c r="B20">
         <v>280</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="A21" s="26"/>
       <c r="B21">
         <v>290</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="A22" s="26"/>
       <c r="B22">
         <v>300</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="26"/>
       <c r="B23">
         <v>310</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="A24" s="26"/>
       <c r="B24">
         <v>320</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="A25" s="26"/>
       <c r="B25">
         <v>330</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
+      <c r="A26" s="26"/>
       <c r="B26">
         <v>340</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="A27" s="26"/>
       <c r="B27">
         <v>350</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="A28" s="26"/>
       <c r="B28">
         <v>360</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="A29" s="26"/>
       <c r="B29">
         <v>370</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="A30" s="26"/>
       <c r="B30">
         <v>380</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="A31" s="26"/>
       <c r="B31">
         <v>390</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="A32" s="26"/>
       <c r="B32">
         <v>400</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
+        <v>795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
       <c r="B33">
         <v>410</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="26"/>
       <c r="B34">
         <v>420</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="26"/>
       <c r="B35">
         <v>430</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
+        <v>788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="26"/>
       <c r="B36">
         <v>440</v>
       </c>
@@ -3443,330 +3459,322 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
       <c r="B37">
         <v>450</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
+        <v>789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="26"/>
       <c r="B38">
         <v>460</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="26"/>
       <c r="B39">
         <v>470</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
+        <v>791</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="26"/>
       <c r="B40">
         <v>480</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
       <c r="B41">
         <v>490</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="26"/>
       <c r="B42">
         <v>500</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="26"/>
       <c r="B43">
         <v>510</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="26"/>
       <c r="B44">
         <v>520</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="26"/>
       <c r="B45">
         <v>530</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="28" t="s">
-        <v>663</v>
-      </c>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="26"/>
       <c r="B46">
         <v>540</v>
       </c>
-      <c r="C46" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A46,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARS***</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
+      <c r="C46" s="11" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="26"/>
       <c r="B47">
         <v>550</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="26"/>
       <c r="B48">
         <v>560</v>
       </c>
-      <c r="C48" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D48,A:A,0),0)," :: REM CALL ",D48,"")</f>
-        <v>GOSUB 640 :: REM CALL SETCHARSREDSUIT</v>
-      </c>
-      <c r="D48" t="str">
-        <f>A56</f>
-        <v>SETCHARSREDSUIT</v>
+      <c r="C48" s="11" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
+      <c r="A49" s="26"/>
       <c r="B49">
         <v>570</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>702</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
+      <c r="A50" s="26"/>
       <c r="B50">
         <v>580</v>
       </c>
-      <c r="C50" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D50,A:A,0),0)," :: REM CALL ",D50,"")</f>
-        <v>GOSUB 720 :: REM CALL SETCHARSBLACKSUIT</v>
-      </c>
-      <c r="D50" t="str">
-        <f>A64</f>
-        <v>SETCHARSBLACKSUIT</v>
+      <c r="C50" s="11" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
+      <c r="A51" s="26"/>
       <c r="B51">
         <v>590</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>703</v>
+        <v>662</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
+      <c r="A52" s="26" t="s">
+        <v>663</v>
+      </c>
       <c r="B52">
         <v>600</v>
       </c>
-      <c r="C52" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D52,A:A,0),0)," :: REM CALL ",D52,"")</f>
-        <v>GOSUB 940 :: REM CALL SETCHARSEDGES</v>
-      </c>
-      <c r="D52" t="str">
-        <f>A86</f>
-        <v>SETCHARSEDGES</v>
+      <c r="C52" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A52,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARS***</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
+      <c r="A53" s="26"/>
       <c r="B53">
         <v>610</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
+      <c r="A54" s="26"/>
       <c r="B54">
         <v>620</v>
       </c>
-      <c r="C54" t="s">
-        <v>692</v>
+      <c r="C54" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D54,A:A,0),0)," :: REM CALL ",D54,"")</f>
+        <v>GOSUB 700 :: REM CALL SETCHARSREDSUIT</v>
+      </c>
+      <c r="D54" t="str">
+        <f>A62</f>
+        <v>SETCHARSREDSUIT</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
+      <c r="A55" s="26"/>
       <c r="B55">
         <v>630</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="28" t="s">
-        <v>689</v>
-      </c>
+      <c r="A56" s="26"/>
       <c r="B56">
         <v>640</v>
       </c>
-      <c r="C56" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A56,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSREDSUIT***</v>
+      <c r="C56" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D56,A:A,0),0)," :: REM CALL ",D56,"")</f>
+        <v>GOSUB 780 :: REM CALL SETCHARSBLACKSUIT</v>
+      </c>
+      <c r="D56" t="str">
+        <f>A70</f>
+        <v>SETCHARSBLACKSUIT</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
+      <c r="A57" s="26"/>
       <c r="B57">
         <v>650</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>666</v>
+        <v>703</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
+      <c r="A58" s="26"/>
       <c r="B58">
         <v>660</v>
       </c>
-      <c r="C58" t="s">
-        <v>680</v>
+      <c r="C58" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D58,A:A,0),0)," :: REM CALL ",D58,"")</f>
+        <v>GOSUB 1000 :: REM CALL SETCHARSEDGES</v>
+      </c>
+      <c r="D58" t="str">
+        <f>A92</f>
+        <v>SETCHARSEDGES</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
+      <c r="A59" s="26"/>
       <c r="B59">
         <v>670</v>
       </c>
-      <c r="C59" t="s">
-        <v>710</v>
+      <c r="C59" s="11" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
+      <c r="A60" s="26"/>
       <c r="B60">
         <v>680</v>
       </c>
-      <c r="C60" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D60,A:A,0),0)," :: REM CALL ",D60,"")</f>
-        <v>GOSUB 780 :: REM CALL SETCHARSVALS</v>
-      </c>
-      <c r="D60" t="str">
-        <f>A70</f>
-        <v>SETCHARSVALS</v>
+      <c r="C60" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
+      <c r="A61" s="26"/>
       <c r="B61">
         <v>690</v>
       </c>
-      <c r="C61" t="s">
-        <v>686</v>
+      <c r="C61" s="11" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="28"/>
+      <c r="A62" s="26" t="s">
+        <v>689</v>
+      </c>
       <c r="B62">
         <v>700</v>
       </c>
-      <c r="C62" t="s">
-        <v>683</v>
+      <c r="C62" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A62,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSREDSUIT***</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
+      <c r="A63" s="26"/>
       <c r="B63">
         <v>710</v>
       </c>
-      <c r="C63" t="s">
-        <v>662</v>
+      <c r="C63" s="11" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>690</v>
-      </c>
+      <c r="A64" s="26"/>
       <c r="B64">
         <v>720</v>
       </c>
-      <c r="C64" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A64,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSBLACKSUIT***</v>
+      <c r="C64" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
+      <c r="A65" s="26"/>
       <c r="B65">
         <v>730</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>682</v>
+      <c r="C65" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
+      <c r="A66" s="26"/>
       <c r="B66">
         <v>740</v>
       </c>
-      <c r="C66" t="s">
-        <v>681</v>
+      <c r="C66" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D66,A:A,0),0)," :: REM CALL ",D66,"")</f>
+        <v>GOSUB 840 :: REM CALL SETCHARSVALS</v>
+      </c>
+      <c r="D66" t="str">
+        <f>A76</f>
+        <v>SETCHARSVALS</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
+      <c r="A67" s="26"/>
       <c r="B67">
         <v>750</v>
       </c>
       <c r="C67" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
+      <c r="A68" s="26"/>
       <c r="B68">
         <v>760</v>
       </c>
-      <c r="C68" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D68,A:A,0),0)," :: REM CALL ",D68,"")</f>
-        <v>GOSUB 780 :: REM CALL SETCHARSVALS</v>
-      </c>
-      <c r="D68" t="str">
-        <f>A70</f>
-        <v>SETCHARSVALS</v>
+      <c r="C68" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
+      <c r="A69" s="26"/>
       <c r="B69">
         <v>770</v>
       </c>
@@ -3775,632 +3783,637 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
-        <v>665</v>
+      <c r="A70" s="26" t="s">
+        <v>690</v>
       </c>
       <c r="B70">
         <v>780</v>
       </c>
       <c r="C70" s="11" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A70,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSVALS***</v>
+        <v>REM SUBROUTINE ***SETCHARSBLACKSUIT***</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
+      <c r="A71" s="26"/>
       <c r="B71">
         <v>790</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
+      <c r="A72" s="26"/>
       <c r="B72">
         <v>800</v>
       </c>
       <c r="C72" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="28"/>
+      <c r="A73" s="26"/>
       <c r="B73">
         <v>810</v>
       </c>
       <c r="C73" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
+      <c r="A74" s="26"/>
       <c r="B74">
         <v>820</v>
       </c>
-      <c r="C74" t="s">
-        <v>669</v>
+      <c r="C74" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D74,A:A,0),0)," :: REM CALL ",D74,"")</f>
+        <v>GOSUB 840 :: REM CALL SETCHARSVALS</v>
+      </c>
+      <c r="D74" t="str">
+        <f>A76</f>
+        <v>SETCHARSVALS</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
+      <c r="A75" s="26"/>
       <c r="B75">
         <v>830</v>
       </c>
       <c r="C75" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
+      <c r="A76" s="26" t="s">
+        <v>665</v>
+      </c>
       <c r="B76">
         <v>840</v>
       </c>
-      <c r="C76" t="s">
-        <v>671</v>
+      <c r="C76" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A76,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSVALS***</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="28"/>
+      <c r="A77" s="26"/>
       <c r="B77">
         <v>850</v>
       </c>
-      <c r="C77" t="s">
-        <v>672</v>
+      <c r="C77" s="11" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="28"/>
+      <c r="A78" s="26"/>
       <c r="B78">
         <v>860</v>
       </c>
       <c r="C78" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="28"/>
+      <c r="A79" s="26"/>
       <c r="B79">
         <v>870</v>
       </c>
       <c r="C79" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
+      <c r="A80" s="26"/>
       <c r="B80">
         <v>880</v>
       </c>
       <c r="C80" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
+      <c r="A81" s="26"/>
       <c r="B81">
         <v>890</v>
       </c>
       <c r="C81" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
+      <c r="A82" s="26"/>
       <c r="B82">
         <v>900</v>
       </c>
       <c r="C82" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="28"/>
+      <c r="A83" s="26"/>
       <c r="B83">
         <v>910</v>
       </c>
       <c r="C83" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
+      <c r="A84" s="26"/>
       <c r="B84">
         <v>920</v>
       </c>
       <c r="C84" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="28"/>
+      <c r="A85" s="26"/>
       <c r="B85">
         <v>930</v>
       </c>
       <c r="C85" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="28" t="s">
-        <v>684</v>
-      </c>
+      <c r="A86" s="26"/>
       <c r="B86">
         <v>940</v>
       </c>
-      <c r="C86" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A86,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSEDGES***</v>
+      <c r="C86" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
+      <c r="A87" s="26"/>
       <c r="B87">
         <v>950</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>685</v>
+      <c r="C87" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="28"/>
+      <c r="A88" s="26"/>
       <c r="B88">
         <v>960</v>
       </c>
       <c r="C88" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="28"/>
+      <c r="A89" s="26"/>
       <c r="B89">
         <v>970</v>
       </c>
       <c r="C89" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="28"/>
+      <c r="A90" s="26"/>
       <c r="B90">
         <v>980</v>
       </c>
       <c r="C90" t="s">
-        <v>662</v>
+        <v>679</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="28" t="s">
-        <v>694</v>
-      </c>
+      <c r="A91" s="26"/>
       <c r="B91">
         <v>990</v>
       </c>
-      <c r="C91" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A91,"***")</f>
-        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
+      <c r="C91" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="28"/>
+      <c r="A92" s="26" t="s">
+        <v>684</v>
+      </c>
       <c r="B92">
         <v>1000</v>
       </c>
-      <c r="C92" s="11" t="s">
-        <v>696</v>
+      <c r="C92" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A92,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSEDGES***</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
+      <c r="A93" s="26"/>
       <c r="B93">
         <v>1010</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
+      <c r="A94" s="26"/>
       <c r="B94">
         <v>1020</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>698</v>
+      <c r="C94" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
+      <c r="A95" s="26"/>
       <c r="B95">
         <v>1030</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>699</v>
+      <c r="C95" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
+      <c r="A96" s="26"/>
       <c r="B96">
         <v>1040</v>
       </c>
-      <c r="C96" s="11" t="s">
-        <v>700</v>
+      <c r="C96" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
+      <c r="A97" s="26" t="s">
+        <v>694</v>
+      </c>
       <c r="B97">
         <v>1050</v>
       </c>
-      <c r="C97" s="11" t="s">
-        <v>705</v>
+      <c r="C97" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A97,"***")</f>
+        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
+      <c r="A98" s="26"/>
       <c r="B98">
         <v>1060</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
+      <c r="A99" s="26"/>
       <c r="B99">
         <v>1070</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>662</v>
+        <v>697</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="28" t="s">
-        <v>577</v>
-      </c>
+      <c r="A100" s="26"/>
       <c r="B100">
         <v>1080</v>
       </c>
-      <c r="C100" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A100,"***")</f>
-        <v>REM SUBROUTINE ***RENDERCARD***</v>
+      <c r="C100" s="11" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="28"/>
+      <c r="A101" s="26"/>
       <c r="B101">
         <v>1090</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
+      <c r="A102" s="26"/>
       <c r="B102">
         <v>1100</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="28"/>
+      <c r="A103" s="26"/>
       <c r="B103">
         <v>1110</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="28"/>
+      <c r="A104" s="26"/>
       <c r="B104">
         <v>1120</v>
       </c>
-      <c r="C104" t="s">
-        <v>130</v>
+      <c r="C104" s="11" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="28"/>
+      <c r="A105" s="26"/>
       <c r="B105">
         <v>1130</v>
       </c>
-      <c r="C105" t="s">
-        <v>132</v>
+      <c r="C105" s="11" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="28"/>
+      <c r="A106" s="26" t="s">
+        <v>577</v>
+      </c>
       <c r="B106">
         <v>1140</v>
       </c>
-      <c r="C106" t="s">
-        <v>57</v>
+      <c r="C106" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A106,"***")</f>
+        <v>REM SUBROUTINE ***RENDERCARD***</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="28"/>
+      <c r="A107" s="26"/>
       <c r="B107">
         <v>1150</v>
       </c>
-      <c r="C107" t="s">
-        <v>707</v>
+      <c r="C107" s="11" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="28"/>
+      <c r="A108" s="26"/>
       <c r="B108">
         <v>1160</v>
       </c>
-      <c r="C108" t="s">
-        <v>708</v>
+      <c r="C108" s="11" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="28"/>
+      <c r="A109" s="26"/>
       <c r="B109">
         <v>1170</v>
       </c>
-      <c r="C109" t="s">
-        <v>724</v>
+      <c r="C109" s="11" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="28"/>
+      <c r="A110" s="26"/>
       <c r="B110">
         <v>1180</v>
       </c>
       <c r="C110" t="s">
-        <v>714</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="28"/>
+      <c r="A111" s="26"/>
       <c r="B111">
         <v>1190</v>
       </c>
       <c r="C111" t="s">
-        <v>740</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="28"/>
+      <c r="A112" s="26"/>
       <c r="B112">
         <v>1200</v>
       </c>
       <c r="C112" t="s">
-        <v>741</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="28"/>
+      <c r="A113" s="26"/>
       <c r="B113">
         <v>1210</v>
       </c>
       <c r="C113" t="s">
-        <v>742</v>
+        <v>707</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="28"/>
+      <c r="A114" s="26"/>
       <c r="B114">
         <v>1220</v>
       </c>
       <c r="C114" t="s">
-        <v>743</v>
+        <v>708</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="28"/>
+      <c r="A115" s="26"/>
       <c r="B115">
         <v>1230</v>
       </c>
       <c r="C115" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="28"/>
+      <c r="A116" s="26"/>
       <c r="B116">
         <v>1240</v>
       </c>
       <c r="C116" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="28"/>
+      <c r="A117" s="26"/>
       <c r="B117">
         <v>1250</v>
       </c>
       <c r="C117" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="28"/>
+      <c r="A118" s="26"/>
       <c r="B118">
         <v>1260</v>
       </c>
       <c r="C118" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="28"/>
+      <c r="A119" s="26"/>
       <c r="B119">
         <v>1270</v>
       </c>
       <c r="C119" t="s">
-        <v>719</v>
+        <v>742</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="28"/>
+      <c r="A120" s="26"/>
       <c r="B120">
         <v>1280</v>
       </c>
       <c r="C120" t="s">
-        <v>717</v>
+        <v>743</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="28"/>
+      <c r="A121" s="26"/>
       <c r="B121">
         <v>1290</v>
       </c>
       <c r="C121" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="28"/>
+      <c r="A122" s="26"/>
       <c r="B122">
         <v>1300</v>
       </c>
       <c r="C122" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="28"/>
+      <c r="A123" s="26"/>
       <c r="B123">
         <v>1310</v>
       </c>
-      <c r="C123" t="str">
-        <f>_xlfn.CONCAT("ON CARDVAL-1 GOSUB ",B125,",",B129,",",B132,",",B138,",",B142,",",B146,",",B150,",",B160,",",B167,",",B171,",",B176,",",B182,",",B188," :: REM CALL RENDERX")</f>
-        <v>ON CARDVAL-1 GOSUB 1330,1370,1400,1460,1500,1540,1580,1680,1750,1790,1840,1900,1960 :: REM CALL RENDERX</v>
+      <c r="C123" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="28"/>
+      <c r="A124" s="26"/>
       <c r="B124">
         <v>1320</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>662</v>
+      <c r="C124" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="28" t="s">
-        <v>715</v>
-      </c>
+      <c r="A125" s="26"/>
       <c r="B125">
         <v>1330</v>
       </c>
-      <c r="C125" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A125,"***")</f>
-        <v>REM SUBROUTINE ***RENDER2***</v>
+      <c r="C125" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="28"/>
+      <c r="A126" s="26"/>
       <c r="B126">
         <v>1340</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>717</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="28"/>
+      <c r="A127" s="26"/>
       <c r="B127">
         <v>1350</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>718</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="28"/>
+      <c r="A128" s="26"/>
       <c r="B128">
         <v>1360</v>
       </c>
       <c r="C128" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="28" t="s">
-        <v>578</v>
-      </c>
+        <v>716</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="26"/>
       <c r="B129">
         <v>1370</v>
       </c>
-      <c r="C129" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A129,"***")</f>
-        <v>REM SUBROUTINE ***RENDER3***</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="28"/>
+      <c r="C129" t="str">
+        <f>_xlfn.CONCAT("ON CARDVAL-1 GOSUB ",B131,",",B135,",",B138,",",B144,",",B148,",",B152,",",B156,",",B166,",",B173,",",B177,",",B182,",",B188,",",B194," :: REM CALL RENDERX")</f>
+        <v>ON CARDVAL-1 GOSUB 1390,1430,1460,1520,1560,1600,1640,1740,1810,1850,1900,1960,2020 :: REM CALL RENDERX</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="26"/>
       <c r="B130">
         <v>1380</v>
       </c>
-      <c r="C130" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="28"/>
+      <c r="C130" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="26" t="s">
+        <v>715</v>
+      </c>
       <c r="B131">
         <v>1390</v>
       </c>
-      <c r="C131" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="28" t="s">
-        <v>579</v>
-      </c>
+      <c r="C131" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A131,"***")</f>
+        <v>REM SUBROUTINE ***RENDER2***</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="26"/>
       <c r="B132">
         <v>1400</v>
       </c>
-      <c r="C132" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A132,"***")</f>
-        <v>REM SUBROUTINE ***RENDER4***</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="28"/>
+      <c r="C132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="26"/>
       <c r="B133">
         <v>1410</v>
       </c>
       <c r="C133" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="28"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="26"/>
       <c r="B134">
         <v>1420</v>
       </c>
       <c r="C134" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="28"/>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="26" t="s">
+        <v>578</v>
+      </c>
       <c r="B135">
         <v>1430</v>
       </c>
-      <c r="C135" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="28"/>
+      <c r="C135" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A135,"***")</f>
+        <v>REM SUBROUTINE ***RENDER3***</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="26"/>
       <c r="B136">
         <v>1440</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="28"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="26"/>
       <c r="B137">
         <v>1450</v>
       </c>
@@ -4408,402 +4421,402 @@
         <v>662</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="28" t="s">
-        <v>580</v>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="26" t="s">
+        <v>579</v>
       </c>
       <c r="B138">
         <v>1460</v>
       </c>
       <c r="C138" s="11" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A138,"***")</f>
-        <v>REM SUBROUTINE ***RENDER5***</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="28"/>
+        <v>REM SUBROUTINE ***RENDER4***</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="26"/>
       <c r="B139">
         <v>1470</v>
       </c>
-      <c r="C139" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D139,A:A,0),0)," :: REM CALL ",D139,"")</f>
-        <v>GOSUB 1400 :: REM CALL RENDER4</v>
-      </c>
-      <c r="D139" t="str">
-        <f>A132</f>
-        <v>RENDER4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="28"/>
+      <c r="C139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="26"/>
       <c r="B140">
         <v>1480</v>
       </c>
       <c r="C140" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="28"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="26"/>
       <c r="B141">
         <v>1490</v>
       </c>
       <c r="C141" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="28" t="s">
-        <v>581</v>
-      </c>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="26"/>
       <c r="B142">
         <v>1500</v>
       </c>
-      <c r="C142" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A142,"***")</f>
-        <v>REM SUBROUTINE ***RENDER6***</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="28"/>
+      <c r="C142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="26"/>
       <c r="B143">
         <v>1510</v>
       </c>
       <c r="C143" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="28"/>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="26" t="s">
+        <v>580</v>
+      </c>
       <c r="B144">
         <v>1520</v>
       </c>
-      <c r="C144" t="s">
-        <v>201</v>
+      <c r="C144" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A144,"***")</f>
+        <v>REM SUBROUTINE ***RENDER5***</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="28"/>
+      <c r="A145" s="26"/>
       <c r="B145">
         <v>1530</v>
       </c>
-      <c r="C145" t="s">
-        <v>662</v>
+      <c r="C145" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D145,A:A,0),0)," :: REM CALL ",D145,"")</f>
+        <v>GOSUB 1460 :: REM CALL RENDER4</v>
+      </c>
+      <c r="D145" t="str">
+        <f>A138</f>
+        <v>RENDER4</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="28" t="s">
-        <v>582</v>
-      </c>
+      <c r="A146" s="26"/>
       <c r="B146">
         <v>1540</v>
       </c>
-      <c r="C146" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A146,"***")</f>
-        <v>REM SUBROUTINE ***RENDER7***</v>
+      <c r="C146" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="28"/>
+      <c r="A147" s="26"/>
       <c r="B147">
         <v>1550</v>
       </c>
-      <c r="C147" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D147,A:A,0),0)," :: REM CALL ",D147,"")</f>
-        <v>GOSUB 1500 :: REM CALL RENDER6</v>
-      </c>
-      <c r="D147" t="str">
-        <f>A142</f>
-        <v>RENDER6</v>
+      <c r="C147" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="28"/>
+      <c r="A148" s="26" t="s">
+        <v>581</v>
+      </c>
       <c r="B148">
         <v>1560</v>
       </c>
-      <c r="C148" t="s">
-        <v>207</v>
+      <c r="C148" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A148,"***")</f>
+        <v>REM SUBROUTINE ***RENDER6***</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="28"/>
+      <c r="A149" s="26"/>
       <c r="B149">
         <v>1570</v>
       </c>
       <c r="C149" t="s">
-        <v>662</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="28" t="s">
-        <v>583</v>
-      </c>
+      <c r="A150" s="26"/>
       <c r="B150">
         <v>1580</v>
       </c>
-      <c r="C150" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A150,"***")</f>
-        <v>REM SUBROUTINE ***RENDER8***</v>
+      <c r="C150" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="28"/>
+      <c r="A151" s="26"/>
       <c r="B151">
         <v>1590</v>
       </c>
       <c r="C151" t="s">
-        <v>214</v>
+        <v>662</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="28"/>
+      <c r="A152" s="26" t="s">
+        <v>582</v>
+      </c>
       <c r="B152">
         <v>1600</v>
       </c>
-      <c r="C152" t="s">
-        <v>216</v>
+      <c r="C152" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A152,"***")</f>
+        <v>REM SUBROUTINE ***RENDER7***</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="28"/>
+      <c r="A153" s="26"/>
       <c r="B153">
         <v>1610</v>
       </c>
-      <c r="C153" t="s">
-        <v>163</v>
+      <c r="C153" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D153,A:A,0),0)," :: REM CALL ",D153,"")</f>
+        <v>GOSUB 1560 :: REM CALL RENDER6</v>
+      </c>
+      <c r="D153" t="str">
+        <f>A148</f>
+        <v>RENDER6</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="28"/>
+      <c r="A154" s="26"/>
       <c r="B154">
         <v>1620</v>
       </c>
       <c r="C154" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="28"/>
+      <c r="A155" s="26"/>
       <c r="B155">
         <v>1630</v>
       </c>
       <c r="C155" t="s">
-        <v>221</v>
+        <v>662</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="28"/>
+      <c r="A156" s="26" t="s">
+        <v>583</v>
+      </c>
       <c r="B156">
         <v>1640</v>
       </c>
-      <c r="C156" t="s">
-        <v>165</v>
+      <c r="C156" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A156,"***")</f>
+        <v>REM SUBROUTINE ***RENDER8***</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="28"/>
+      <c r="A157" s="26"/>
       <c r="B157">
         <v>1650</v>
       </c>
       <c r="C157" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="28"/>
+      <c r="A158" s="26"/>
       <c r="B158">
         <v>1660</v>
       </c>
       <c r="C158" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="28"/>
+      <c r="A159" s="26"/>
       <c r="B159">
         <v>1670</v>
       </c>
       <c r="C159" t="s">
-        <v>662</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="28" t="s">
-        <v>584</v>
-      </c>
+      <c r="A160" s="26"/>
       <c r="B160">
         <v>1680</v>
       </c>
-      <c r="C160" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A160,"***")</f>
-        <v>REM SUBROUTINE ***RENDER9***</v>
+      <c r="C160" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="28"/>
+      <c r="A161" s="26"/>
       <c r="B161">
         <v>1690</v>
       </c>
       <c r="C161" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="28"/>
+      <c r="A162" s="26"/>
       <c r="B162">
         <v>1700</v>
       </c>
       <c r="C162" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="28"/>
+      <c r="A163" s="26"/>
       <c r="B163">
         <v>1710</v>
       </c>
       <c r="C163" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="28"/>
+      <c r="A164" s="26"/>
       <c r="B164">
         <v>1720</v>
       </c>
       <c r="C164" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="28"/>
+      <c r="A165" s="26"/>
       <c r="B165">
         <v>1730</v>
       </c>
       <c r="C165" t="s">
-        <v>192</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="28"/>
+      <c r="A166" s="26" t="s">
+        <v>584</v>
+      </c>
       <c r="B166">
         <v>1740</v>
       </c>
-      <c r="C166" t="s">
-        <v>662</v>
+      <c r="C166" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A166,"***")</f>
+        <v>REM SUBROUTINE ***RENDER9***</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="28" t="s">
-        <v>585</v>
-      </c>
+      <c r="A167" s="26"/>
       <c r="B167">
         <v>1750</v>
       </c>
-      <c r="C167" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A167,"***")</f>
-        <v>REM SUBROUTINE ***RENDER10***</v>
+      <c r="C167" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="28"/>
+      <c r="A168" s="26"/>
       <c r="B168">
         <v>1760</v>
       </c>
       <c r="C168" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="28"/>
+      <c r="A169" s="26"/>
       <c r="B169">
         <v>1770</v>
       </c>
       <c r="C169" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="28"/>
+      <c r="A170" s="26"/>
       <c r="B170">
         <v>1780</v>
       </c>
       <c r="C170" t="s">
-        <v>662</v>
+        <v>239</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="28" t="s">
-        <v>586</v>
-      </c>
+      <c r="A171" s="26"/>
       <c r="B171">
         <v>1790</v>
       </c>
-      <c r="C171" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A171,"***")</f>
-        <v>REM SUBROUTINE ***RENDERJACK***</v>
+      <c r="C171" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="28"/>
+      <c r="A172" s="26"/>
       <c r="B172">
         <v>1800</v>
       </c>
       <c r="C172" t="s">
-        <v>249</v>
+        <v>662</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="28"/>
+      <c r="A173" s="26" t="s">
+        <v>585</v>
+      </c>
       <c r="B173">
         <v>1810</v>
       </c>
-      <c r="C173" t="s">
-        <v>257</v>
+      <c r="C173" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A173,"***")</f>
+        <v>REM SUBROUTINE ***RENDER10***</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="28"/>
+      <c r="A174" s="26"/>
       <c r="B174">
         <v>1820</v>
       </c>
       <c r="C174" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="28"/>
+      <c r="A175" s="26"/>
       <c r="B175">
         <v>1830</v>
       </c>
       <c r="C175" t="s">
-        <v>662</v>
+        <v>249</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="28" t="s">
-        <v>587</v>
-      </c>
+      <c r="A176" s="26"/>
       <c r="B176">
         <v>1840</v>
       </c>
-      <c r="C176" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A176,"***")</f>
-        <v>REM SUBROUTINE ***RENDERQUEEN***</v>
+      <c r="C176" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="28"/>
+      <c r="A177" s="26" t="s">
+        <v>586</v>
+      </c>
       <c r="B177">
         <v>1850</v>
       </c>
-      <c r="C177" t="s">
-        <v>247</v>
+      <c r="C177" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A177,"***")</f>
+        <v>REM SUBROUTINE ***RENDERJACK***</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="28"/>
+      <c r="A178" s="26"/>
       <c r="B178">
         <v>1860</v>
       </c>
@@ -4812,25 +4825,25 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="28"/>
+      <c r="A179" s="26"/>
       <c r="B179">
         <v>1870</v>
       </c>
       <c r="C179" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="28"/>
+      <c r="A180" s="26"/>
       <c r="B180">
         <v>1880</v>
       </c>
       <c r="C180" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="28"/>
+      <c r="A181" s="26"/>
       <c r="B181">
         <v>1890</v>
       </c>
@@ -4839,19 +4852,19 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="28" t="s">
-        <v>588</v>
+      <c r="A182" s="26" t="s">
+        <v>587</v>
       </c>
       <c r="B182">
         <v>1900</v>
       </c>
       <c r="C182" s="11" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A182,"***")</f>
-        <v>REM SUBROUTINE ***RENDERKING***</v>
+        <v>REM SUBROUTINE ***RENDERQUEEN***</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="28"/>
+      <c r="A183" s="26"/>
       <c r="B183">
         <v>1910</v>
       </c>
@@ -4860,34 +4873,34 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="28"/>
+      <c r="A184" s="26"/>
       <c r="B184">
         <v>1920</v>
       </c>
       <c r="C184" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="28"/>
+      <c r="A185" s="26"/>
       <c r="B185">
         <v>1930</v>
       </c>
       <c r="C185" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="28"/>
+      <c r="A186" s="26"/>
       <c r="B186">
         <v>1940</v>
       </c>
       <c r="C186" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="28"/>
+      <c r="A187" s="26"/>
       <c r="B187">
         <v>1950</v>
       </c>
@@ -4896,1009 +4909,1066 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="28" t="s">
-        <v>589</v>
+      <c r="A188" s="26" t="s">
+        <v>588</v>
       </c>
       <c r="B188">
         <v>1960</v>
       </c>
-      <c r="C188" t="s">
-        <v>192</v>
+      <c r="C188" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A188,"***")</f>
+        <v>REM SUBROUTINE ***RENDERKING***</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="28"/>
+      <c r="A189" s="26"/>
       <c r="B189">
         <v>1970</v>
       </c>
       <c r="C189" t="s">
-        <v>662</v>
+        <v>247</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="28" t="s">
-        <v>751</v>
-      </c>
+      <c r="A190" s="26"/>
       <c r="B190">
         <v>1980</v>
       </c>
-      <c r="C190" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A190,"***")</f>
-        <v>REM SUBROUTINE ***DRAWHANDS***</v>
+      <c r="C190" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="28"/>
+      <c r="A191" s="26"/>
       <c r="B191">
         <v>1990</v>
       </c>
-      <c r="C191" s="11" t="s">
-        <v>747</v>
+      <c r="C191" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="28"/>
+      <c r="A192" s="26"/>
       <c r="B192">
         <v>2000</v>
       </c>
-      <c r="C192" s="11" t="s">
-        <v>748</v>
+      <c r="C192" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="28"/>
+      <c r="A193" s="26"/>
       <c r="B193">
         <v>2010</v>
       </c>
-      <c r="C193" s="11" t="s">
-        <v>772</v>
+      <c r="C193" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="28"/>
+      <c r="A194" s="26" t="s">
+        <v>589</v>
+      </c>
       <c r="B194">
         <v>2020</v>
       </c>
-      <c r="C194" s="11" t="s">
-        <v>749</v>
+      <c r="C194" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="28"/>
+      <c r="A195" s="26"/>
       <c r="B195">
         <v>2030</v>
       </c>
-      <c r="C195" s="11" t="s">
-        <v>783</v>
+      <c r="C195" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="28"/>
+      <c r="A196" s="26" t="s">
+        <v>751</v>
+      </c>
       <c r="B196">
         <v>2040</v>
       </c>
-      <c r="C196" s="26" t="s">
-        <v>96</v>
+      <c r="C196" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A196,"***")</f>
+        <v>REM SUBROUTINE ***DRAWHANDS***</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="28"/>
+      <c r="A197" s="26"/>
       <c r="B197">
         <v>2050</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>787</v>
+        <v>747</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="28"/>
+      <c r="A198" s="26"/>
       <c r="B198">
         <v>2060</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>782</v>
+        <v>748</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="28"/>
+      <c r="A199" s="26"/>
       <c r="B199">
         <v>2070</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="28"/>
+      <c r="A200" s="26"/>
       <c r="B200">
         <v>2080</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="28"/>
+      <c r="A201" s="26"/>
       <c r="B201">
         <v>2090</v>
       </c>
       <c r="C201" s="11" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="28"/>
+      <c r="A202" s="26"/>
       <c r="B202">
         <v>2100</v>
       </c>
-      <c r="C202" s="26" t="s">
-        <v>57</v>
+      <c r="C202" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="28"/>
+      <c r="A203" s="26"/>
       <c r="B203">
         <v>2110</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>662</v>
+        <v>785</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="28" t="s">
-        <v>720</v>
-      </c>
+      <c r="A204" s="26"/>
       <c r="B204">
         <v>2120</v>
       </c>
-      <c r="C204" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A204,"***")</f>
-        <v>REM SUBROUTINE ***CLEARTABLE***</v>
+      <c r="C204" s="11" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="28"/>
+      <c r="A205" s="26"/>
       <c r="B205">
         <v>2130</v>
       </c>
-      <c r="C205" t="s">
-        <v>7</v>
+      <c r="C205" s="11" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="28"/>
+      <c r="A206" s="26"/>
       <c r="B206">
         <v>2140</v>
       </c>
-      <c r="C206" t="s">
-        <v>788</v>
+      <c r="C206" s="11" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="28"/>
+      <c r="A207" s="26"/>
       <c r="B207">
         <v>2150</v>
       </c>
-      <c r="C207" t="s">
-        <v>755</v>
+      <c r="C207" s="11" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="28"/>
+      <c r="A208" s="26"/>
       <c r="B208">
         <v>2160</v>
       </c>
       <c r="C208" t="s">
-        <v>662</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="28" t="s">
-        <v>721</v>
-      </c>
+      <c r="A209" s="26"/>
       <c r="B209">
         <v>2170</v>
       </c>
-      <c r="C209" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A209,"***")</f>
-        <v>REM SUBROUTINE ***DEAL***</v>
+      <c r="C209" s="11" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="28"/>
+      <c r="A210" s="26" t="s">
+        <v>720</v>
+      </c>
       <c r="B210">
         <v>2180</v>
       </c>
-      <c r="C210" s="11" t="s">
-        <v>756</v>
+      <c r="C210" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A210,"***")</f>
+        <v>REM SUBROUTINE ***CLEARTABLE***</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="28"/>
+      <c r="A211" s="26"/>
       <c r="B211">
         <v>2190</v>
       </c>
-      <c r="C211" s="11" t="s">
-        <v>757</v>
+      <c r="C211" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="28"/>
+      <c r="A212" s="26"/>
       <c r="B212">
         <v>2200</v>
       </c>
-      <c r="C212" s="11" t="s">
-        <v>750</v>
+      <c r="C212" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="28"/>
+      <c r="A213" s="26"/>
       <c r="B213">
         <v>2210</v>
       </c>
-      <c r="C213" s="11" t="str">
-        <f>_xlfn.CONCAT("IF CVAL&lt;10 THEN ",B215)</f>
-        <v>IF CVAL&lt;10 THEN 2230</v>
+      <c r="C213" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="28"/>
+      <c r="A214" s="26"/>
       <c r="B214">
         <v>2220</v>
       </c>
-      <c r="C214" s="11" t="s">
-        <v>734</v>
+      <c r="C214" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="28"/>
+      <c r="A215" s="26" t="s">
+        <v>721</v>
+      </c>
       <c r="B215">
         <v>2230</v>
       </c>
-      <c r="C215" s="11" t="s">
-        <v>758</v>
+      <c r="C215" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A215,"***")</f>
+        <v>REM SUBROUTINE ***DEAL***</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="28"/>
+      <c r="A216" s="26"/>
       <c r="B216">
         <v>2240</v>
       </c>
-      <c r="C216" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D216,A:A,0),0)," :: REM CALL ",D216,"")</f>
-        <v>GOSUB 1080 :: REM CALL RENDERCARD</v>
-      </c>
-      <c r="D216" t="str">
-        <f>A100</f>
-        <v>RENDERCARD</v>
+      <c r="C216" s="11" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="28"/>
+      <c r="A217" s="26"/>
       <c r="B217">
         <v>2250</v>
       </c>
       <c r="C217" s="11" t="s">
-        <v>662</v>
+        <v>757</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="28" t="s">
-        <v>722</v>
-      </c>
+      <c r="A218" s="26"/>
       <c r="B218">
         <v>2260</v>
       </c>
-      <c r="C218" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A218,"***")</f>
-        <v>REM SUBROUTINE ***PLAY***</v>
+      <c r="C218" s="11" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="28"/>
+      <c r="A219" s="26"/>
       <c r="B219">
         <v>2270</v>
       </c>
-      <c r="C219" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D219,A:A,0),0)," :: REM CALL ",D219,"")</f>
-        <v>GOSUB 2120 :: REM CALL CLEARTABLE</v>
-      </c>
-      <c r="D219" t="str">
-        <f>A204</f>
-        <v>CLEARTABLE</v>
+      <c r="C219" s="11" t="str">
+        <f>_xlfn.CONCAT("IF CVAL&lt;10 THEN ",B221)</f>
+        <v>IF CVAL&lt;10 THEN 2290</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="28"/>
+      <c r="A220" s="26"/>
       <c r="B220">
         <v>2280</v>
       </c>
-      <c r="C220" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D220,A:A,0),0)," :: REM CALL ",D220,"")</f>
-        <v>GOSUB 1980 :: REM CALL DRAWHANDS</v>
-      </c>
-      <c r="D220" t="str">
-        <f>A190</f>
-        <v>DRAWHANDS</v>
+      <c r="C220" s="11" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="28"/>
+      <c r="A221" s="26"/>
       <c r="B221">
         <v>2290</v>
       </c>
-      <c r="C221" t="s">
-        <v>725</v>
+      <c r="C221" s="11" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="28"/>
+      <c r="A222" s="26"/>
       <c r="B222">
         <v>2300</v>
       </c>
       <c r="C222" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D222,A:A,0),0)," :: REM CALL ",D222,"")</f>
-        <v>GOSUB 2170 :: REM CALL DEAL</v>
+        <v>GOSUB 1140 :: REM CALL RENDERCARD</v>
       </c>
       <c r="D222" t="str">
-        <f>A209</f>
-        <v>DEAL</v>
+        <f>A106</f>
+        <v>RENDERCARD</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="28"/>
+      <c r="A223" s="26"/>
       <c r="B223">
         <v>2310</v>
       </c>
-      <c r="C223" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D223,A:A,0),0)," :: REM CALL ",D223,"")</f>
-        <v>GOSUB 2170 :: REM CALL DEAL</v>
-      </c>
-      <c r="D223" t="str">
-        <f>A209</f>
-        <v>DEAL</v>
+      <c r="C223" s="11" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="28"/>
+      <c r="A224" s="26" t="s">
+        <v>722</v>
+      </c>
       <c r="B224">
         <v>2320</v>
       </c>
-      <c r="C224" t="s">
-        <v>726</v>
+      <c r="C224" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A224,"***")</f>
+        <v>REM SUBROUTINE ***PLAY***</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="28"/>
+      <c r="A225" s="26"/>
       <c r="B225">
         <v>2330</v>
       </c>
       <c r="C225" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D225,A:A,0),0)," :: REM CALL ",D225,"")</f>
-        <v>GOSUB 2170 :: REM CALL DEAL</v>
+        <v>GOSUB 2180 :: REM CALL CLEARTABLE</v>
       </c>
       <c r="D225" t="str">
-        <f>A209</f>
-        <v>DEAL</v>
+        <f>A210</f>
+        <v>CLEARTABLE</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="28"/>
+      <c r="A226" s="26"/>
       <c r="B226">
         <v>2340</v>
       </c>
-      <c r="C226" t="s">
-        <v>727</v>
+      <c r="C226" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D226,A:A,0),0)," :: REM CALL ",D226,"")</f>
+        <v>GOSUB 2040 :: REM CALL DRAWHANDS</v>
+      </c>
+      <c r="D226" t="str">
+        <f>A196</f>
+        <v>DRAWHANDS</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="28"/>
+      <c r="A227" s="26"/>
       <c r="B227">
         <v>2350</v>
       </c>
-      <c r="C227" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D227,A:A,0),0)," :: REM CALL ",D227,"")</f>
-        <v>GOSUB 2170 :: REM CALL DEAL</v>
-      </c>
-      <c r="D227" t="str">
-        <f>A209</f>
-        <v>DEAL</v>
+      <c r="C227" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="28" t="s">
-        <v>770</v>
-      </c>
+      <c r="A228" s="26"/>
       <c r="B228">
         <v>2360</v>
       </c>
       <c r="C228" t="str">
-        <f>_xlfn.CONCAT("REM ***",A228,"***")</f>
-        <v>REM ***PLAYER***</v>
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D228,A:A,0),0)," :: REM CALL ",D228,"")</f>
+        <v>GOSUB 2230 :: REM CALL DEAL</v>
+      </c>
+      <c r="D228" t="str">
+        <f>A215</f>
+        <v>DEAL</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="28"/>
+      <c r="A229" s="26"/>
       <c r="B229">
         <v>2370</v>
       </c>
-      <c r="C229" t="s">
-        <v>739</v>
+      <c r="C229" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D229,A:A,0),0)," :: REM CALL ",D229,"")</f>
+        <v>GOSUB 2230 :: REM CALL DEAL</v>
+      </c>
+      <c r="D229" t="str">
+        <f>A215</f>
+        <v>DEAL</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="28"/>
+      <c r="A230" s="26"/>
       <c r="B230">
         <v>2380</v>
       </c>
       <c r="C230" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="28"/>
+      <c r="A231" s="26"/>
       <c r="B231">
         <v>2390</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>769</v>
+      <c r="C231" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D231,A:A,0),0)," :: REM CALL ",D231,"")</f>
+        <v>GOSUB 2230 :: REM CALL DEAL</v>
+      </c>
+      <c r="D231" t="str">
+        <f>A215</f>
+        <v>DEAL</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="28"/>
+      <c r="A232" s="26"/>
       <c r="B232">
         <v>2400</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>334</v>
+      <c r="C232" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="28"/>
+      <c r="A233" s="26"/>
       <c r="B233">
         <v>2410</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>780</v>
+      <c r="C233" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D233,A:A,0),0)," :: REM CALL ",D233,"")</f>
+        <v>GOSUB 2230 :: REM CALL DEAL</v>
+      </c>
+      <c r="D233" t="str">
+        <f>A215</f>
+        <v>DEAL</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="28"/>
+      <c r="A234" s="26" t="s">
+        <v>770</v>
+      </c>
       <c r="B234">
         <v>2420</v>
       </c>
-      <c r="C234" s="1" t="str">
-        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D234,A:A,0),0)," :: REM GOTO ",D234,"")</f>
-        <v>IF A$="N" THEN 2490 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D234" t="str">
-        <f>A241</f>
-        <v>REVEAL</v>
+      <c r="C234" t="str">
+        <f>_xlfn.CONCAT("REM ***",A234,"***")</f>
+        <v>REM ***PLAYER***</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="28"/>
+      <c r="A235" s="26"/>
       <c r="B235">
         <v>2430</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>725</v>
+      <c r="C235" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="28"/>
+      <c r="A236" s="26"/>
       <c r="B236">
         <v>2440</v>
       </c>
-      <c r="C236" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D236,A:A,0),0)," :: REM CALL ",D236,"")</f>
-        <v>GOSUB 2170 :: REM CALL DEAL</v>
-      </c>
-      <c r="D236" t="str">
-        <f>A209</f>
-        <v>DEAL</v>
+      <c r="C236" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="28"/>
+      <c r="A237" s="26"/>
       <c r="B237">
         <v>2450</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="28"/>
+      <c r="A238" s="26"/>
       <c r="B238">
         <v>2460</v>
       </c>
-      <c r="C238" s="26" t="s">
-        <v>779</v>
+      <c r="C238" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="28"/>
+      <c r="A239" s="26"/>
       <c r="B239">
         <v>2470</v>
       </c>
-      <c r="C239" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D239,A:A,0),0)," :: REM GOTO ",D239,"")</f>
-        <v>IF BUSTED=1 THEN 2490 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D239" t="str">
-        <f>A241</f>
-        <v>REVEAL</v>
+      <c r="C239" s="1" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="28"/>
+      <c r="A240" s="26"/>
       <c r="B240">
         <v>2480</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>728</v>
+      <c r="C240" s="1" t="str">
+        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D240,A:A,0),0)," :: REM GOTO ",D240,"")</f>
+        <v>IF A$="N" THEN 2550 :: REM GOTO REVEAL</v>
+      </c>
+      <c r="D240" t="str">
+        <f>A247</f>
+        <v>REVEAL</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="29" t="s">
-        <v>732</v>
-      </c>
+      <c r="A241" s="26"/>
       <c r="B241">
         <v>2490</v>
       </c>
-      <c r="C241" t="str">
-        <f>_xlfn.CONCAT("REM ***",A241,"***")</f>
-        <v>REM ***REVEAL***</v>
+      <c r="C241" s="1" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="28"/>
+      <c r="A242" s="26"/>
       <c r="B242">
         <v>2500</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>764</v>
+      <c r="C242" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D242,A:A,0),0)," :: REM CALL ",D242,"")</f>
+        <v>GOSUB 2230 :: REM CALL DEAL</v>
+      </c>
+      <c r="D242" t="str">
+        <f>A215</f>
+        <v>DEAL</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="28"/>
+      <c r="A243" s="26"/>
       <c r="B243">
         <v>2510</v>
       </c>
-      <c r="C243" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D243,A:A,0),0)," :: REM CALL ",D243,"")</f>
-        <v>GOSUB 1080 :: REM CALL RENDERCARD</v>
-      </c>
-      <c r="D243" t="str">
-        <f>A100</f>
-        <v>RENDERCARD</v>
+      <c r="C243" s="1" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="28"/>
+      <c r="A244" s="26"/>
       <c r="B244">
         <v>2520</v>
       </c>
-      <c r="C244" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D244,A:A,0),0)," :: REM GOTO ",D244,"")</f>
-        <v>IF BUSTED=1 THEN 2660 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D244" t="str">
-        <f>A258</f>
-        <v>GAMEOVER</v>
+      <c r="C244" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="29" t="s">
-        <v>767</v>
-      </c>
+      <c r="A245" s="26"/>
       <c r="B245">
         <v>2530</v>
       </c>
-      <c r="C245" t="str">
-        <f>_xlfn.CONCAT("REM ***",A245,"***")</f>
-        <v>REM ***DEALER***</v>
+      <c r="C245" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D245,A:A,0),0)," :: REM GOTO ",D245,"")</f>
+        <v>IF BUSTED=1 THEN 2550 :: REM GOTO REVEAL</v>
+      </c>
+      <c r="D245" t="str">
+        <f>A247</f>
+        <v>REVEAL</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="29"/>
+      <c r="A246" s="26"/>
       <c r="B246">
         <v>2540</v>
       </c>
-      <c r="C246" t="s">
-        <v>739</v>
+      <c r="C246" s="1" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="29"/>
+      <c r="A247" s="27" t="s">
+        <v>732</v>
+      </c>
       <c r="B247">
         <v>2550</v>
       </c>
-      <c r="C247" t="s">
-        <v>729</v>
+      <c r="C247" t="str">
+        <f>_xlfn.CONCAT("REM ***",A247,"***")</f>
+        <v>REM ***REVEAL***</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="29"/>
+      <c r="A248" s="26"/>
       <c r="B248">
         <v>2560</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>726</v>
+        <v>764</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="29"/>
+      <c r="A249" s="26"/>
       <c r="B249">
         <v>2570</v>
       </c>
       <c r="C249" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D249,A:A,0),0)," :: REM CALL ",D249,"")</f>
-        <v>GOSUB 2810 :: REM CALL CALCSCORE</v>
+        <v>GOSUB 1140 :: REM CALL RENDERCARD</v>
       </c>
       <c r="D249" t="str">
-        <f>A273</f>
-        <v>CALCSCORE</v>
+        <f>A106</f>
+        <v>RENDERCARD</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="29"/>
+      <c r="A250" s="26"/>
       <c r="B250">
         <v>2580</v>
       </c>
-      <c r="C250" t="str">
-        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D250,A:A,0),0)," :: REM GOTO ",D250,"")</f>
-        <v>IF SCORE&gt;=17 THEN 2640 :: REM GOTO TALLY</v>
+      <c r="C250" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D250,A:A,0),0)," :: REM GOTO ",D250,"")</f>
+        <v>IF BUSTED=1 THEN 2720 :: REM GOTO GAMEOVER</v>
       </c>
       <c r="D250" t="str">
-        <f>A256</f>
-        <v>TALLY</v>
+        <f>A264</f>
+        <v>GAMEOVER</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="29"/>
+      <c r="A251" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="B251">
         <v>2590</v>
       </c>
       <c r="C251" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D251,A:A,0),0)," :: REM CALL ",D251,"")</f>
-        <v>GOSUB 2170 :: REM CALL DEAL</v>
-      </c>
-      <c r="D251" t="str">
-        <f>A209</f>
-        <v>DEAL</v>
+        <f>_xlfn.CONCAT("REM ***",A251,"***")</f>
+        <v>REM ***DEALER***</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="29"/>
+      <c r="A252" s="27"/>
       <c r="B252">
         <v>2600</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>768</v>
+      <c r="C252" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="29"/>
+      <c r="A253" s="27"/>
       <c r="B253">
         <v>2610</v>
       </c>
-      <c r="C253" s="26" t="s">
-        <v>778</v>
+      <c r="C253" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="29"/>
+      <c r="A254" s="27"/>
       <c r="B254">
         <v>2620</v>
       </c>
-      <c r="C254" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D254,A:A,0),0)," :: REM GOTO ",D254,"")</f>
-        <v>IF BUSTED=1 THEN 2660 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D254" t="str">
-        <f>A258</f>
-        <v>GAMEOVER</v>
+      <c r="C254" s="1" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="29"/>
+      <c r="A255" s="27"/>
       <c r="B255">
         <v>2630</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>728</v>
+      <c r="C255" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D255,A:A,0),0)," :: REM CALL ",D255,"")</f>
+        <v>GOSUB 2870 :: REM CALL CALCSCORE</v>
+      </c>
+      <c r="D255" t="str">
+        <f>A279</f>
+        <v>CALCSCORE</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="29" t="s">
-        <v>771</v>
-      </c>
+      <c r="A256" s="27"/>
       <c r="B256">
         <v>2640</v>
       </c>
       <c r="C256" t="str">
-        <f>_xlfn.CONCAT("REM ***",A256,"***")</f>
-        <v>REM ***TALLY***</v>
+        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D256,A:A,0),0)," :: REM GOTO ",D256,"")</f>
+        <v>IF SCORE&gt;=17 THEN 2700 :: REM GOTO TALLY</v>
+      </c>
+      <c r="D256" t="str">
+        <f>A262</f>
+        <v>TALLY</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="28"/>
+      <c r="A257" s="27"/>
       <c r="B257">
         <v>2650</v>
       </c>
       <c r="C257" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D257,A:A,0),0)," :: REM CALL ",D257,"")</f>
-        <v>GOSUB 2680 :: REM CALL WHOWON</v>
+        <v>GOSUB 2230 :: REM CALL DEAL</v>
       </c>
       <c r="D257" t="str">
-        <f>A260</f>
-        <v>WHOWON</v>
+        <f>A215</f>
+        <v>DEAL</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="29" t="s">
-        <v>765</v>
-      </c>
+      <c r="A258" s="27"/>
       <c r="B258">
         <v>2660</v>
       </c>
-      <c r="C258" t="str">
-        <f>_xlfn.CONCAT("REM ***",A258,"***")</f>
-        <v>REM ***GAMEOVER***</v>
+      <c r="C258" s="1" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="28"/>
+      <c r="A259" s="27"/>
       <c r="B259">
         <v>2670</v>
       </c>
       <c r="C259" t="s">
-        <v>662</v>
+        <v>776</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="28" t="s">
-        <v>614</v>
-      </c>
+      <c r="A260" s="27"/>
       <c r="B260">
         <v>2680</v>
       </c>
-      <c r="C260" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A260,"***")</f>
-        <v>REM SUBROUTINE ***WHOWON***</v>
+      <c r="C260" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D260,A:A,0),0)," :: REM GOTO ",D260,"")</f>
+        <v>IF BUSTED=1 THEN 2720 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D260" t="str">
+        <f>A264</f>
+        <v>GAMEOVER</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="28"/>
+      <c r="A261" s="27"/>
       <c r="B261">
         <v>2690</v>
       </c>
-      <c r="C261" t="s">
-        <v>736</v>
+      <c r="C261" s="1" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="28"/>
+      <c r="A262" s="27" t="s">
+        <v>771</v>
+      </c>
       <c r="B262">
         <v>2700</v>
       </c>
       <c r="C262" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D262,A:A,0),0)," :: REM CALL ",D262,"")</f>
-        <v>GOSUB 2810 :: REM CALL CALCSCORE</v>
-      </c>
-      <c r="D262" t="str">
-        <f>A273</f>
-        <v>CALCSCORE</v>
+        <f>_xlfn.CONCAT("REM ***",A262,"***")</f>
+        <v>REM ***TALLY***</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="28"/>
+      <c r="A263" s="26"/>
       <c r="B263">
         <v>2710</v>
       </c>
-      <c r="C263" t="s">
-        <v>737</v>
+      <c r="C263" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D263,A:A,0),0)," :: REM CALL ",D263,"")</f>
+        <v>GOSUB 2740 :: REM CALL WHOWON</v>
+      </c>
+      <c r="D263" t="str">
+        <f>A266</f>
+        <v>WHOWON</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="28"/>
+      <c r="A264" s="27" t="s">
+        <v>765</v>
+      </c>
       <c r="B264">
         <v>2720</v>
       </c>
-      <c r="C264" t="s">
-        <v>773</v>
+      <c r="C264" t="str">
+        <f>_xlfn.CONCAT("REM ***",A264,"***")</f>
+        <v>REM ***GAMEOVER***</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="28"/>
+      <c r="A265" s="26"/>
       <c r="B265">
         <v>2730</v>
       </c>
       <c r="C265" t="s">
-        <v>733</v>
+        <v>662</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="28"/>
+      <c r="A266" s="26" t="s">
+        <v>614</v>
+      </c>
       <c r="B266">
         <v>2740</v>
       </c>
-      <c r="C266" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D266,A:A,0),0)," :: REM CALL ",D266,"")</f>
-        <v>GOSUB 2810 :: REM CALL CALCSCORE</v>
-      </c>
-      <c r="D266" t="str">
-        <f>A273</f>
-        <v>CALCSCORE</v>
+      <c r="C266" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A266,"***")</f>
+        <v>REM SUBROUTINE ***WHOWON***</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="28"/>
+      <c r="A267" s="26"/>
       <c r="B267">
         <v>2750</v>
       </c>
       <c r="C267" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="28"/>
+      <c r="A268" s="26"/>
       <c r="B268">
         <v>2760</v>
       </c>
-      <c r="C268" t="s">
-        <v>774</v>
+      <c r="C268" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D268,A:A,0),0)," :: REM CALL ",D268,"")</f>
+        <v>GOSUB 2870 :: REM CALL CALCSCORE</v>
+      </c>
+      <c r="D268" t="str">
+        <f>A279</f>
+        <v>CALCSCORE</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="28"/>
+      <c r="A269" s="26"/>
       <c r="B269">
         <v>2770</v>
       </c>
       <c r="C269" t="s">
-        <v>775</v>
+        <v>737</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="28"/>
+      <c r="A270" s="26"/>
       <c r="B270">
         <v>2780</v>
       </c>
       <c r="C270" t="s">
-        <v>776</v>
+        <v>817</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="28"/>
+      <c r="A271" s="26"/>
       <c r="B271">
         <v>2790</v>
       </c>
       <c r="C271" t="s">
-        <v>777</v>
+        <v>733</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="28"/>
+      <c r="A272" s="26"/>
       <c r="B272">
         <v>2800</v>
       </c>
-      <c r="C272" t="s">
-        <v>662</v>
+      <c r="C272" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D272,A:A,0),0)," :: REM CALL ",D272,"")</f>
+        <v>GOSUB 2870 :: REM CALL CALCSCORE</v>
+      </c>
+      <c r="D272" t="str">
+        <f>A279</f>
+        <v>CALCSCORE</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="28" t="s">
-        <v>735</v>
-      </c>
+      <c r="A273" s="26"/>
       <c r="B273">
         <v>2810</v>
       </c>
-      <c r="C273" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A273,"***")</f>
-        <v>REM SUBROUTINE ***CALCSCORE***</v>
+      <c r="C273" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="28"/>
+      <c r="A274" s="26"/>
       <c r="B274">
         <v>2820</v>
       </c>
       <c r="C274" t="s">
-        <v>759</v>
+        <v>818</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="28"/>
+      <c r="A275" s="26"/>
       <c r="B275">
         <v>2830</v>
       </c>
       <c r="C275" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="28"/>
+      <c r="A276" s="26"/>
       <c r="B276">
         <v>2840</v>
       </c>
       <c r="C276" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="28"/>
+      <c r="A277" s="26"/>
       <c r="B277">
         <v>2850</v>
       </c>
-      <c r="C277" s="11" t="s">
-        <v>781</v>
+      <c r="C277" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="28"/>
+      <c r="A278" s="26"/>
       <c r="B278">
         <v>2860</v>
       </c>
-      <c r="C278" s="11" t="s">
-        <v>57</v>
+      <c r="C278" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="28"/>
+      <c r="A279" s="26" t="s">
+        <v>735</v>
+      </c>
       <c r="B279">
         <v>2870</v>
       </c>
-      <c r="C279" s="11" t="s">
-        <v>662</v>
+      <c r="C279" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A279,"***")</f>
+        <v>REM SUBROUTINE ***CALCSCORE***</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="28" t="s">
-        <v>730</v>
-      </c>
+      <c r="A280" s="26"/>
       <c r="B280">
         <v>2880</v>
       </c>
-      <c r="C280" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A280,"***")</f>
-        <v>REM SUBROUTINE ***TERMINATE***</v>
+      <c r="C280" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="28"/>
+      <c r="A281" s="26"/>
       <c r="B281">
         <v>2890</v>
       </c>
-      <c r="C281" s="26" t="s">
-        <v>385</v>
+      <c r="C281" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="28"/>
+      <c r="A282" s="26"/>
       <c r="B282">
         <v>2900</v>
       </c>
-      <c r="C282" s="26" t="s">
-        <v>731</v>
+      <c r="C282" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="28"/>
+      <c r="A283" s="26"/>
       <c r="B283">
         <v>2910</v>
       </c>
-      <c r="C283" s="27" t="s">
-        <v>691</v>
+      <c r="C283" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="28"/>
+      <c r="A284" s="26"/>
       <c r="B284">
         <v>2920</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="26"/>
+      <c r="B285">
+        <v>2930</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="B286">
+        <v>2940</v>
+      </c>
+      <c r="C286" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A286,"***")</f>
+        <v>REM SUBROUTINE ***TERMINATE***</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="26"/>
+      <c r="B287">
+        <v>2950</v>
+      </c>
+      <c r="C287" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="26"/>
+      <c r="B288">
+        <v>2960</v>
+      </c>
+      <c r="C288" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="26"/>
+      <c r="B289">
+        <v>2970</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="26"/>
+      <c r="B290">
+        <v>2980</v>
+      </c>
+      <c r="C290" t="s">
         <v>662</v>
       </c>
     </row>
@@ -5963,7 +6033,7 @@
         <v>551</v>
       </c>
       <c r="G2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -10561,7 +10631,7 @@
         <v/>
       </c>
       <c r="E258" t="str">
-        <f t="shared" ref="E258:E321" si="9">IFERROR(INDEX($A:$A,MATCH(D258,$B:$B,0)),"")</f>
+        <f t="shared" ref="E258:E272" si="9">IFERROR(INDEX($A:$A,MATCH(D258,$B:$B,0)),"")</f>
         <v/>
       </c>
     </row>

--- a/blackjack.xlsx
+++ b/blackjack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A82851-207F-6549-833A-7614D8E5E506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5FE0C4-6925-414E-9B62-8C1C426AB06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="49500" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
+    <workbookView xWindow="7620" yWindow="29560" windowWidth="34560" windowHeight="21580" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="REFACTORED" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="829">
   <si>
     <t>1</t>
   </si>
@@ -2222,9 +2222,6 @@
     <t>RENDER2</t>
   </si>
   <si>
-    <t>REM RENDER CENTERPIECE</t>
-  </si>
-  <si>
     <t>CALL HCHAR (4+ROW, 2+COL, CARDCHAR, 1)</t>
   </si>
   <si>
@@ -2261,9 +2258,6 @@
     <t>NEXT H</t>
   </si>
   <si>
-    <t>FOR H=3 TO 5</t>
-  </si>
-  <si>
     <t>TERMINATE</t>
   </si>
   <si>
@@ -2276,9 +2270,6 @@
     <t>PLAYER=1</t>
   </si>
   <si>
-    <t>IF CVAL&lt;14 THEN CVAL=10 ELSE CVAL=1</t>
-  </si>
-  <si>
     <t>CALCSCORE</t>
   </si>
   <si>
@@ -2315,21 +2306,9 @@
     <t>CARDVAL=HANDS(PLAYER,CARD,0)</t>
   </si>
   <si>
-    <t>HANDS(0,0,0)=10 :: HANDS(0,1,0)=14 :: HANDS(0,2,0)=11 :: HANDS(0,3,0)=2 :: HANDS(0,4,0)=3</t>
-  </si>
-  <si>
-    <t>HANDS(0,0,1)=1 :: HANDS(0,1,1)=2 :: HANDS(0,2,1)=3 :: HANDS(0,3,1)=4 :: HANDS(0,4,1)=1</t>
-  </si>
-  <si>
-    <t>HANDS(1,0,1)=1 :: HANDS(1,1,1)=2 :: HANDS(1,2,1)=3 :: HANDS(1,3,1)=4 :: HANDS(1,4,1)=1</t>
-  </si>
-  <si>
     <t>CVAL=HANDS(PLAYER,CARD,0)</t>
   </si>
   <si>
-    <t>DRAWHANDS</t>
-  </si>
-  <si>
     <t>DIM CARDS(1) :: REM CARDS[PLAYER]</t>
   </si>
   <si>
@@ -2375,66 +2354,15 @@
     <t>GOSUB/GOTO LABELS</t>
   </si>
   <si>
-    <t>DEALER</t>
-  </si>
-  <si>
     <t>IF SUMS(1)&gt;21 THEN BUSTED=1</t>
   </si>
   <si>
-    <t>DISPLAY AT (22,1): "DO YOU WANT ANOTHER CARD?"</t>
-  </si>
-  <si>
-    <t>PLAYER</t>
-  </si>
-  <si>
     <t>TALLY</t>
   </si>
   <si>
-    <t>HANDS(1,0,0)=5 :: HANDS(1,1,0)=11 :: HANDS(1,2,0)=3 :: HANDS(1,3,0)=13 :: HANDS(1,4,0)=14</t>
-  </si>
-  <si>
-    <t>IF PSCORE=SCORE THEN DISPLAY AT (12,10): "TIE GAME"</t>
-  </si>
-  <si>
-    <t>IF PSCORE&gt;SCORE THEN DISPLAY AT (12,10): "YOU WIN!"</t>
-  </si>
-  <si>
-    <t>IF PSCORE&lt;SCORE THEN DISPLAY AT (12,10): "YOU LOSE"</t>
-  </si>
-  <si>
-    <t>IF BUSTED=1 THEN DISPLAY AT (12,2) BEEP: "DEALER BUSTED. YOU WIN."</t>
-  </si>
-  <si>
-    <t>IF BUSTED=1 THEN DISPLAY AT (12,3) BEEP: "YOU BUSTED. YOU LOSE."</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (22,1): "                         " :: DISPLAY AT (23,14): " "</t>
-  </si>
-  <si>
     <t>IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: RETURN</t>
   </si>
   <si>
-    <t>HANDS(0,I,0)=INT(RND*13)+2</t>
-  </si>
-  <si>
-    <t>REM RETURN</t>
-  </si>
-  <si>
-    <t>HANDS(1,I,0)=INT(RND*13)+2</t>
-  </si>
-  <si>
-    <t>HANDS(0,I,1)=INT(RND*4)+1</t>
-  </si>
-  <si>
-    <t>HANDS(1,I,1)=INT(RND*4)+1</t>
-  </si>
-  <si>
-    <t>FOR I=0 TO 4</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (1, 9): "BLACK JACK"</t>
-  </si>
-  <si>
     <t>Dealer code missing!</t>
   </si>
   <si>
@@ -2525,10 +2453,112 @@
     <t>DISPLAY AT (13, 1): "HAND VALUE WINS."</t>
   </si>
   <si>
-    <t>DISPLAY AT (1,24): "P:"&amp;STR$(PSCORE)</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (2,24):"D:"&amp;STR$(DSCORE)</t>
+    <t>REM PLAYERS TURNS</t>
+  </si>
+  <si>
+    <t>REM DEALERS TURNS</t>
+  </si>
+  <si>
+    <t>REM RENDER CARD FACE</t>
+  </si>
+  <si>
+    <t>IF CVAL&gt;10 THEN IF CVAL=14 THEN CVAL=1 ELSE CVAL=10</t>
+  </si>
+  <si>
+    <t>FOR J=3 TO 5</t>
+  </si>
+  <si>
+    <t>NEXT J</t>
+  </si>
+  <si>
+    <t>DIM DECK(9)</t>
+  </si>
+  <si>
+    <t>CHECKDUP</t>
+  </si>
+  <si>
+    <t>DUP=0</t>
+  </si>
+  <si>
+    <t>FOR I=0 TO 9</t>
+  </si>
+  <si>
+    <t>FOR H=0 TO 9</t>
+  </si>
+  <si>
+    <t>DRAWLOOP</t>
+  </si>
+  <si>
+    <t>FOR H=0 TO 4</t>
+  </si>
+  <si>
+    <t>X=INT(RND*4)+1</t>
+  </si>
+  <si>
+    <t>X=X*16</t>
+  </si>
+  <si>
+    <t>X=X+INT(RND*13)+2</t>
+  </si>
+  <si>
+    <t>DECK(H)=X</t>
+  </si>
+  <si>
+    <t>IF DECK(I)=X THEN DUP=1 :: RETURN</t>
+  </si>
+  <si>
+    <t>HANDS(0,H,1)=INT(DECK(H)/16)</t>
+  </si>
+  <si>
+    <t>HANDS(0,H,0)=DECK(H)-HANDS(0,H,1)*16</t>
+  </si>
+  <si>
+    <t>HANDS(1,H,1)=INT(DECK(H+5)/16)</t>
+  </si>
+  <si>
+    <t>HANDS(1,H,0)=DECK(H+5)-HANDS(1,H,1)*16</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (22,2) BEEP: "DO YOU WISH TO PLAY AGAIN?"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (22,2): "DO YOU WANT ANOTHER CARD?"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (22,2): "                         " :: DISPLAY AT (23,14): " "</t>
+  </si>
+  <si>
+    <t>IF BUSTED=1 THEN DISPLAY AT (12,4) BEEP: "YOU BUSTED. YOU LOSE."</t>
+  </si>
+  <si>
+    <t>IF BUSTED=1 THEN DISPLAY AT (12,3) BEEP: "DEALER BUSTED. YOU WIN."</t>
+  </si>
+  <si>
+    <t>IF PSCORE=SCORE THEN DISPLAY AT (12,11): "TIE GAME"</t>
+  </si>
+  <si>
+    <t>IF PSCORE&gt;SCORE THEN DISPLAY AT (12,11): "YOU WIN!"</t>
+  </si>
+  <si>
+    <t>IF PSCORE&lt;SCORE THEN DISPLAY AT (12,11): "YOU LOSE"</t>
+  </si>
+  <si>
+    <t>FOR I=1 TO 5 :: CALL CLEAR :: DISPLAY AT (12,7) BEEP: "GAME TERMINATED" :: FOR J=1 TO 100 :: NEXT J :: NEXT I</t>
+  </si>
+  <si>
+    <t>DISPLAY AT(12,6): "SHUFFLING THE DECK"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT(12,6): "                  "</t>
+  </si>
+  <si>
+    <t>REM DISPLAY AT (1,24): "P:"&amp;STR$(PSCORE)</t>
+  </si>
+  <si>
+    <t>REM DISPLAY AT (2,24):"D:"&amp;STR$(DSCORE)</t>
+  </si>
+  <si>
+    <t>SHUFFLE</t>
   </si>
 </sst>
 </file>
@@ -3078,7 +3108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:D290"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3086,7 +3116,7 @@
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="108.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3101,7 +3131,7 @@
         <v>500</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3137,7 +3167,7 @@
         <v>120</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3146,7 +3176,7 @@
         <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3155,7 +3185,7 @@
         <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3197,14 +3227,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B10">
         <v>180</v>
       </c>
       <c r="C10" t="str">
-        <f>_xlfn.CONCAT("REM ***",A10,"***")</f>
-        <v>REM ***GAMELOOP***</v>
+        <f>_xlfn.CONCAT("REM LABEL ***",A10,"***")</f>
+        <v>REM LABEL ***GAMELOOP***</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3214,10 +3244,10 @@
       </c>
       <c r="C11" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D11,A:A,0),0)," :: REM CALL ",D11,"")</f>
-        <v>GOSUB 2320 :: REM CALL PLAY</v>
+        <v>GOSUB 2470 :: REM CALL PLAY</v>
       </c>
       <c r="D11" t="str">
-        <f>A224</f>
+        <f>A239</f>
         <v>PLAY</v>
       </c>
     </row>
@@ -3227,7 +3257,7 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3246,10 +3276,10 @@
       </c>
       <c r="C14" t="str" cm="1">
         <f t="array" ref="C14">CONCATENATE("IF A$=""N"" THEN GOSUB ",INDEX(B:B,MATCH(D14,A:A,0),0)," :: REM CALL ",D14,"")</f>
-        <v>IF A$="N" THEN GOSUB 2940 :: REM CALL TERMINATE</v>
+        <v>IF A$="N" THEN GOSUB 3090 :: REM CALL TERMINATE</v>
       </c>
       <c r="D14" t="str">
-        <f>A286</f>
+        <f>A301</f>
         <v>TERMINATE</v>
       </c>
     </row>
@@ -3312,7 +3342,7 @@
         <v>280</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>807</v>
+        <v>783</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3321,7 +3351,7 @@
         <v>290</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>792</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3330,7 +3360,7 @@
         <v>300</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3339,7 +3369,7 @@
         <v>310</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3348,7 +3378,7 @@
         <v>320</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>799</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3357,7 +3387,7 @@
         <v>330</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>800</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3366,7 +3396,7 @@
         <v>340</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>801</v>
+        <v>777</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3375,7 +3405,7 @@
         <v>350</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>802</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3384,7 +3414,7 @@
         <v>360</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>803</v>
+        <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3393,7 +3423,7 @@
         <v>370</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>804</v>
+        <v>780</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3402,7 +3432,7 @@
         <v>380</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>805</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3411,7 +3441,7 @@
         <v>390</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3420,7 +3450,7 @@
         <v>400</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3429,7 +3459,7 @@
         <v>410</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3438,7 +3468,7 @@
         <v>420</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3447,7 +3477,7 @@
         <v>430</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3465,7 +3495,7 @@
         <v>450</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3474,7 +3504,7 @@
         <v>460</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3483,7 +3513,7 @@
         <v>470</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3492,7 +3522,7 @@
         <v>480</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>808</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3501,7 +3531,7 @@
         <v>490</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>809</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3510,7 +3540,7 @@
         <v>500</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>810</v>
+        <v>786</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3519,7 +3549,7 @@
         <v>510</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>811</v>
+        <v>787</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3528,7 +3558,7 @@
         <v>520</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>812</v>
+        <v>788</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3537,7 +3567,7 @@
         <v>530</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>813</v>
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3546,7 +3576,7 @@
         <v>540</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>814</v>
+        <v>790</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3555,7 +3585,7 @@
         <v>550</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3564,7 +3594,7 @@
         <v>560</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>816</v>
+        <v>792</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3573,7 +3603,7 @@
         <v>570</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>798</v>
+        <v>774</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3582,7 +3612,7 @@
         <v>580</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4141,7 +4171,7 @@
         <v>1150</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -4213,7 +4243,7 @@
         <v>1230</v>
       </c>
       <c r="C115" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -4231,7 +4261,7 @@
         <v>1250</v>
       </c>
       <c r="C117" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -4240,7 +4270,7 @@
         <v>1260</v>
       </c>
       <c r="C118" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -4249,7 +4279,7 @@
         <v>1270</v>
       </c>
       <c r="C119" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -4258,7 +4288,7 @@
         <v>1280</v>
       </c>
       <c r="C120" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -4276,7 +4306,7 @@
         <v>1300</v>
       </c>
       <c r="C122" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -4285,7 +4315,7 @@
         <v>1310</v>
       </c>
       <c r="C123" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -4294,7 +4324,7 @@
         <v>1320</v>
       </c>
       <c r="C124" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -4303,7 +4333,7 @@
         <v>1330</v>
       </c>
       <c r="C125" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -4312,7 +4342,7 @@
         <v>1340</v>
       </c>
       <c r="C126" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -4321,7 +4351,7 @@
         <v>1350</v>
       </c>
       <c r="C127" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -4330,7 +4360,7 @@
         <v>1360</v>
       </c>
       <c r="C128" t="s">
-        <v>716</v>
+        <v>795</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -4956,7 +4986,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="26"/>
       <c r="B193">
         <v>2010</v>
@@ -4965,303 +4995,305 @@
         <v>662</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="26" t="s">
         <v>589</v>
       </c>
       <c r="B194">
         <v>2020</v>
       </c>
-      <c r="C194" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A194,"***")</f>
+        <v>REM SUBROUTINE ***RENDERACE***</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="26"/>
       <c r="B195">
         <v>2030</v>
       </c>
       <c r="C195" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="26" t="s">
-        <v>751</v>
-      </c>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="26"/>
       <c r="B196">
         <v>2040</v>
       </c>
-      <c r="C196" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A196,"***")</f>
-        <v>REM SUBROUTINE ***DRAWHANDS***</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="26"/>
+      <c r="C196" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="26" t="s">
+        <v>828</v>
+      </c>
       <c r="B197">
         <v>2050</v>
       </c>
-      <c r="C197" s="11" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C197" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A197,"***")</f>
+        <v>REM SUBROUTINE ***SHUFFLE***</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="26"/>
       <c r="B198">
         <v>2060</v>
       </c>
-      <c r="C198" s="11" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="26"/>
       <c r="B199">
         <v>2070</v>
       </c>
-      <c r="C199" s="11" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="26"/>
       <c r="B200">
         <v>2080</v>
       </c>
-      <c r="C200" s="11" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="26"/>
+      <c r="C200" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="26" t="s">
+        <v>804</v>
+      </c>
       <c r="B201">
         <v>2090</v>
       </c>
-      <c r="C201" s="11" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C201" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A201,"***")</f>
+        <v>REM LABEL ***DRAWLOOP***</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="26"/>
       <c r="B202">
         <v>2100</v>
       </c>
       <c r="C202" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="26"/>
       <c r="B203">
         <v>2110</v>
       </c>
-      <c r="C203" s="11" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="26"/>
       <c r="B204">
         <v>2120</v>
       </c>
-      <c r="C204" s="11" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="26"/>
       <c r="B205">
         <v>2130</v>
       </c>
-      <c r="C205" s="11" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="26"/>
       <c r="B206">
         <v>2140</v>
       </c>
-      <c r="C206" s="11" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C206" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D206,A:A,0),0)," :: REM CALL ",D206,"")</f>
+        <v>GOSUB 2280 :: REM CALL CHECKDUP</v>
+      </c>
+      <c r="D206" t="str">
+        <f>A220</f>
+        <v>CHECKDUP</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="26"/>
       <c r="B207">
         <v>2150</v>
       </c>
-      <c r="C207" s="11" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C207" t="str">
+        <f>_xlfn.CONCAT("IF DUP=1 THEN ",INDEX(B:B,MATCH(D207,A:A,0),0)," :: REM GOTO ",D207,"")</f>
+        <v>IF DUP=1 THEN 2090 :: REM GOTO DRAWLOOP</v>
+      </c>
+      <c r="D207" t="str">
+        <f>A201</f>
+        <v>DRAWLOOP</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="26"/>
       <c r="B208">
         <v>2160</v>
       </c>
       <c r="C208" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="26"/>
       <c r="B209">
         <v>2170</v>
       </c>
-      <c r="C209" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="26" t="s">
-        <v>720</v>
-      </c>
+      <c r="C209" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="26"/>
       <c r="B210">
         <v>2180</v>
       </c>
-      <c r="C210" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A210,"***")</f>
-        <v>REM SUBROUTINE ***CLEARTABLE***</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="26"/>
       <c r="B211">
         <v>2190</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="26"/>
       <c r="B212">
         <v>2200</v>
       </c>
       <c r="C212" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="26"/>
       <c r="B213">
         <v>2210</v>
       </c>
       <c r="C213" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="26"/>
       <c r="B214">
         <v>2220</v>
       </c>
       <c r="C214" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="26" t="s">
-        <v>721</v>
-      </c>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="26"/>
       <c r="B215">
         <v>2230</v>
       </c>
-      <c r="C215" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A215,"***")</f>
-        <v>REM SUBROUTINE ***DEAL***</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="26"/>
       <c r="B216">
         <v>2240</v>
       </c>
-      <c r="C216" s="11" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="26"/>
       <c r="B217">
         <v>2250</v>
       </c>
-      <c r="C217" s="11" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C217" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="26"/>
       <c r="B218">
         <v>2260</v>
       </c>
-      <c r="C218" s="11" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C218" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="26"/>
       <c r="B219">
         <v>2270</v>
       </c>
-      <c r="C219" s="11" t="str">
-        <f>_xlfn.CONCAT("IF CVAL&lt;10 THEN ",B221)</f>
-        <v>IF CVAL&lt;10 THEN 2290</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="26"/>
+      <c r="C219" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="26" t="s">
+        <v>800</v>
+      </c>
       <c r="B220">
         <v>2280</v>
       </c>
-      <c r="C220" s="11" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C220" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A220,"***")</f>
+        <v>REM SUBROUTINE ***CHECKDUP***</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="26"/>
       <c r="B221">
         <v>2290</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="26"/>
       <c r="B222">
         <v>2300</v>
       </c>
-      <c r="C222" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D222,A:A,0),0)," :: REM CALL ",D222,"")</f>
-        <v>GOSUB 1140 :: REM CALL RENDERCARD</v>
-      </c>
-      <c r="D222" t="str">
-        <f>A106</f>
-        <v>RENDERCARD</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C222" s="11" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="26"/>
       <c r="B223">
         <v>2310</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="26" t="s">
-        <v>722</v>
-      </c>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="26"/>
       <c r="B224">
         <v>2320</v>
       </c>
-      <c r="C224" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A224,"***")</f>
-        <v>REM SUBROUTINE ***PLAY***</v>
+      <c r="C224" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -5269,27 +5301,20 @@
       <c r="B225">
         <v>2330</v>
       </c>
-      <c r="C225" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D225,A:A,0),0)," :: REM CALL ",D225,"")</f>
-        <v>GOSUB 2180 :: REM CALL CLEARTABLE</v>
-      </c>
-      <c r="D225" t="str">
-        <f>A210</f>
-        <v>CLEARTABLE</v>
+      <c r="C225" s="11" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="26"/>
+      <c r="A226" s="26" t="s">
+        <v>719</v>
+      </c>
       <c r="B226">
         <v>2340</v>
       </c>
-      <c r="C226" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D226,A:A,0),0)," :: REM CALL ",D226,"")</f>
-        <v>GOSUB 2040 :: REM CALL DRAWHANDS</v>
-      </c>
-      <c r="D226" t="str">
-        <f>A196</f>
-        <v>DRAWHANDS</v>
+      <c r="C226" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A226,"***")</f>
+        <v>REM SUBROUTINE ***CLEARTABLE***</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -5298,7 +5323,7 @@
         <v>2350</v>
       </c>
       <c r="C227" t="s">
-        <v>725</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -5306,13 +5331,8 @@
       <c r="B228">
         <v>2360</v>
       </c>
-      <c r="C228" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D228,A:A,0),0)," :: REM CALL ",D228,"")</f>
-        <v>GOSUB 2230 :: REM CALL DEAL</v>
-      </c>
-      <c r="D228" t="str">
-        <f>A215</f>
-        <v>DEAL</v>
+      <c r="C228" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -5320,13 +5340,8 @@
       <c r="B229">
         <v>2370</v>
       </c>
-      <c r="C229" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D229,A:A,0),0)," :: REM CALL ",D229,"")</f>
-        <v>GOSUB 2230 :: REM CALL DEAL</v>
-      </c>
-      <c r="D229" t="str">
-        <f>A215</f>
-        <v>DEAL</v>
+      <c r="C229" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -5335,21 +5350,19 @@
         <v>2380</v>
       </c>
       <c r="C230" t="s">
-        <v>726</v>
+        <v>662</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="26"/>
+      <c r="A231" s="26" t="s">
+        <v>720</v>
+      </c>
       <c r="B231">
         <v>2390</v>
       </c>
-      <c r="C231" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D231,A:A,0),0)," :: REM CALL ",D231,"")</f>
-        <v>GOSUB 2230 :: REM CALL DEAL</v>
-      </c>
-      <c r="D231" t="str">
-        <f>A215</f>
-        <v>DEAL</v>
+      <c r="C231" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A231,"***")</f>
+        <v>REM SUBROUTINE ***DEAL***</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -5357,8 +5370,8 @@
       <c r="B232">
         <v>2400</v>
       </c>
-      <c r="C232" t="s">
-        <v>727</v>
+      <c r="C232" s="11" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -5366,25 +5379,17 @@
       <c r="B233">
         <v>2410</v>
       </c>
-      <c r="C233" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D233,A:A,0),0)," :: REM CALL ",D233,"")</f>
-        <v>GOSUB 2230 :: REM CALL DEAL</v>
-      </c>
-      <c r="D233" t="str">
-        <f>A215</f>
-        <v>DEAL</v>
+      <c r="C233" s="11" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="26" t="s">
-        <v>770</v>
-      </c>
+      <c r="A234" s="26"/>
       <c r="B234">
         <v>2420</v>
       </c>
-      <c r="C234" t="str">
-        <f>_xlfn.CONCAT("REM ***",A234,"***")</f>
-        <v>REM ***PLAYER***</v>
+      <c r="C234" s="11" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -5392,8 +5397,8 @@
       <c r="B235">
         <v>2430</v>
       </c>
-      <c r="C235" t="s">
-        <v>739</v>
+      <c r="C235" s="11" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -5401,8 +5406,8 @@
       <c r="B236">
         <v>2440</v>
       </c>
-      <c r="C236" t="s">
-        <v>729</v>
+      <c r="C236" s="11" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -5410,8 +5415,13 @@
       <c r="B237">
         <v>2450</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>769</v>
+      <c r="C237" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D237,A:A,0),0)," :: REM CALL ",D237,"")</f>
+        <v>GOSUB 1140 :: REM CALL RENDERCARD</v>
+      </c>
+      <c r="D237" t="str">
+        <f>A106</f>
+        <v>RENDERCARD</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -5419,17 +5429,20 @@
       <c r="B238">
         <v>2460</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>334</v>
+      <c r="C238" s="11" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="26"/>
+      <c r="A239" s="26" t="s">
+        <v>721</v>
+      </c>
       <c r="B239">
         <v>2470</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>778</v>
+      <c r="C239" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A239,"***")</f>
+        <v>REM SUBROUTINE ***PLAY***</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -5437,13 +5450,13 @@
       <c r="B240">
         <v>2480</v>
       </c>
-      <c r="C240" s="1" t="str">
-        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D240,A:A,0),0)," :: REM GOTO ",D240,"")</f>
-        <v>IF A$="N" THEN 2550 :: REM GOTO REVEAL</v>
+      <c r="C240" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D240,A:A,0),0)," :: REM CALL ",D240,"")</f>
+        <v>GOSUB 2340 :: REM CALL CLEARTABLE</v>
       </c>
       <c r="D240" t="str">
-        <f>A247</f>
-        <v>REVEAL</v>
+        <f>A226</f>
+        <v>CLEARTABLE</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -5451,8 +5464,13 @@
       <c r="B241">
         <v>2490</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>725</v>
+      <c r="C241" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D241,A:A,0),0)," :: REM CALL ",D241,"")</f>
+        <v>GOSUB 2050 :: REM CALL SHUFFLE</v>
+      </c>
+      <c r="D241" t="str">
+        <f>A197</f>
+        <v>SHUFFLE</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -5460,13 +5478,8 @@
       <c r="B242">
         <v>2500</v>
       </c>
-      <c r="C242" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D242,A:A,0),0)," :: REM CALL ",D242,"")</f>
-        <v>GOSUB 2230 :: REM CALL DEAL</v>
-      </c>
-      <c r="D242" t="str">
-        <f>A215</f>
-        <v>DEAL</v>
+      <c r="C242" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -5474,8 +5487,13 @@
       <c r="B243">
         <v>2510</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>762</v>
+      <c r="C243" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D243,A:A,0),0)," :: REM CALL ",D243,"")</f>
+        <v>GOSUB 2390 :: REM CALL DEAL</v>
+      </c>
+      <c r="D243" t="str">
+        <f>A231</f>
+        <v>DEAL</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -5483,8 +5501,13 @@
       <c r="B244">
         <v>2520</v>
       </c>
-      <c r="C244" t="s">
-        <v>777</v>
+      <c r="C244" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D244,A:A,0),0)," :: REM CALL ",D244,"")</f>
+        <v>GOSUB 2390 :: REM CALL DEAL</v>
+      </c>
+      <c r="D244" t="str">
+        <f>A231</f>
+        <v>DEAL</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -5492,13 +5515,8 @@
       <c r="B245">
         <v>2530</v>
       </c>
-      <c r="C245" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D245,A:A,0),0)," :: REM GOTO ",D245,"")</f>
-        <v>IF BUSTED=1 THEN 2550 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D245" t="str">
-        <f>A247</f>
-        <v>REVEAL</v>
+      <c r="C245" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -5506,20 +5524,22 @@
       <c r="B246">
         <v>2540</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>728</v>
+      <c r="C246" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D246,A:A,0),0)," :: REM CALL ",D246,"")</f>
+        <v>GOSUB 2390 :: REM CALL DEAL</v>
+      </c>
+      <c r="D246" t="str">
+        <f>A231</f>
+        <v>DEAL</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="27" t="s">
-        <v>732</v>
-      </c>
+      <c r="A247" s="26"/>
       <c r="B247">
         <v>2550</v>
       </c>
-      <c r="C247" t="str">
-        <f>_xlfn.CONCAT("REM ***",A247,"***")</f>
-        <v>REM ***REVEAL***</v>
+      <c r="C247" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -5527,8 +5547,13 @@
       <c r="B248">
         <v>2560</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>764</v>
+      <c r="C248" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D248,A:A,0),0)," :: REM CALL ",D248,"")</f>
+        <v>GOSUB 2390 :: REM CALL DEAL</v>
+      </c>
+      <c r="D248" t="str">
+        <f>A231</f>
+        <v>DEAL</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -5536,13 +5561,8 @@
       <c r="B249">
         <v>2570</v>
       </c>
-      <c r="C249" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D249,A:A,0),0)," :: REM CALL ",D249,"")</f>
-        <v>GOSUB 1140 :: REM CALL RENDERCARD</v>
-      </c>
-      <c r="D249" t="str">
-        <f>A106</f>
-        <v>RENDERCARD</v>
+      <c r="C249" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -5550,147 +5570,134 @@
       <c r="B250">
         <v>2580</v>
       </c>
-      <c r="C250" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D250,A:A,0),0)," :: REM GOTO ",D250,"")</f>
-        <v>IF BUSTED=1 THEN 2720 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D250" t="str">
-        <f>A264</f>
-        <v>GAMEOVER</v>
+      <c r="C250" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="27" t="s">
-        <v>767</v>
-      </c>
+      <c r="A251" s="26"/>
       <c r="B251">
         <v>2590</v>
       </c>
-      <c r="C251" t="str">
-        <f>_xlfn.CONCAT("REM ***",A251,"***")</f>
-        <v>REM ***DEALER***</v>
+      <c r="C251" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="27"/>
+      <c r="A252" s="26"/>
       <c r="B252">
         <v>2600</v>
       </c>
-      <c r="C252" t="s">
-        <v>739</v>
+      <c r="C252" s="1" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="27"/>
+      <c r="A253" s="26"/>
       <c r="B253">
         <v>2610</v>
       </c>
-      <c r="C253" t="s">
-        <v>729</v>
+      <c r="C253" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="27"/>
+      <c r="A254" s="26"/>
       <c r="B254">
         <v>2620</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>726</v>
+        <v>817</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="27"/>
+      <c r="A255" s="26"/>
       <c r="B255">
         <v>2630</v>
       </c>
-      <c r="C255" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D255,A:A,0),0)," :: REM CALL ",D255,"")</f>
-        <v>GOSUB 2870 :: REM CALL CALCSCORE</v>
+      <c r="C255" s="1" t="str">
+        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D255,A:A,0),0)," :: REM GOTO ",D255,"")</f>
+        <v>IF A$="N" THEN 2700 :: REM GOTO REVEAL</v>
       </c>
       <c r="D255" t="str">
-        <f>A279</f>
-        <v>CALCSCORE</v>
+        <f>A262</f>
+        <v>REVEAL</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="27"/>
+      <c r="A256" s="26"/>
       <c r="B256">
         <v>2640</v>
       </c>
-      <c r="C256" t="str">
-        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D256,A:A,0),0)," :: REM GOTO ",D256,"")</f>
-        <v>IF SCORE&gt;=17 THEN 2700 :: REM GOTO TALLY</v>
-      </c>
-      <c r="D256" t="str">
-        <f>A262</f>
-        <v>TALLY</v>
+      <c r="C256" s="1" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="27"/>
+      <c r="A257" s="26"/>
       <c r="B257">
         <v>2650</v>
       </c>
       <c r="C257" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D257,A:A,0),0)," :: REM CALL ",D257,"")</f>
-        <v>GOSUB 2230 :: REM CALL DEAL</v>
+        <v>GOSUB 2390 :: REM CALL DEAL</v>
       </c>
       <c r="D257" t="str">
-        <f>A215</f>
+        <f>A231</f>
         <v>DEAL</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="27"/>
+      <c r="A258" s="26"/>
       <c r="B258">
         <v>2660</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="27"/>
+      <c r="A259" s="26"/>
       <c r="B259">
         <v>2670</v>
       </c>
       <c r="C259" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="27"/>
+      <c r="A260" s="26"/>
       <c r="B260">
         <v>2680</v>
       </c>
       <c r="C260" s="1" t="str">
         <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D260,A:A,0),0)," :: REM GOTO ",D260,"")</f>
-        <v>IF BUSTED=1 THEN 2720 :: REM GOTO GAMEOVER</v>
+        <v>IF BUSTED=1 THEN 2700 :: REM GOTO REVEAL</v>
       </c>
       <c r="D260" t="str">
-        <f>A264</f>
-        <v>GAMEOVER</v>
+        <f>A262</f>
+        <v>REVEAL</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="27"/>
+      <c r="A261" s="26"/>
       <c r="B261">
         <v>2690</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>728</v>
+        <v>798</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="27" t="s">
-        <v>771</v>
+        <v>730</v>
       </c>
       <c r="B262">
         <v>2700</v>
       </c>
       <c r="C262" t="str">
-        <f>_xlfn.CONCAT("REM ***",A262,"***")</f>
-        <v>REM ***TALLY***</v>
+        <f>_xlfn.CONCAT("REM LABEL ***",A262,"***")</f>
+        <v>REM LABEL ***REVEAL***</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -5698,25 +5705,22 @@
       <c r="B263">
         <v>2710</v>
       </c>
-      <c r="C263" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D263,A:A,0),0)," :: REM CALL ",D263,"")</f>
-        <v>GOSUB 2740 :: REM CALL WHOWON</v>
-      </c>
-      <c r="D263" t="str">
-        <f>A266</f>
-        <v>WHOWON</v>
+      <c r="C263" s="1" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="27" t="s">
-        <v>765</v>
-      </c>
+      <c r="A264" s="26"/>
       <c r="B264">
         <v>2720</v>
       </c>
       <c r="C264" t="str">
-        <f>_xlfn.CONCAT("REM ***",A264,"***")</f>
-        <v>REM ***GAMEOVER***</v>
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D264,A:A,0),0)," :: REM CALL ",D264,"")</f>
+        <v>GOSUB 1140 :: REM CALL RENDERCARD</v>
+      </c>
+      <c r="D264" t="str">
+        <f>A106</f>
+        <v>RENDERCARD</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -5724,24 +5728,26 @@
       <c r="B265">
         <v>2730</v>
       </c>
-      <c r="C265" t="s">
-        <v>662</v>
+      <c r="C265" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D265,A:A,0),0)," :: REM GOTO ",D265,"")</f>
+        <v>IF BUSTED=1 THEN 2870 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D265" t="str">
+        <f>A279</f>
+        <v>GAMEOVER</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="26" t="s">
-        <v>614</v>
-      </c>
+      <c r="A266" s="27"/>
       <c r="B266">
         <v>2740</v>
       </c>
-      <c r="C266" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A266,"***")</f>
-        <v>REM SUBROUTINE ***WHOWON***</v>
+      <c r="C266" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="26"/>
+      <c r="A267" s="27"/>
       <c r="B267">
         <v>2750</v>
       </c>
@@ -5750,208 +5756,236 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="26"/>
+      <c r="A268" s="27"/>
       <c r="B268">
         <v>2760</v>
       </c>
-      <c r="C268" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D268,A:A,0),0)," :: REM CALL ",D268,"")</f>
-        <v>GOSUB 2870 :: REM CALL CALCSCORE</v>
-      </c>
-      <c r="D268" t="str">
-        <f>A279</f>
-        <v>CALCSCORE</v>
+      <c r="C268" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="26"/>
+      <c r="A269" s="27"/>
       <c r="B269">
         <v>2770</v>
       </c>
-      <c r="C269" t="s">
-        <v>737</v>
+      <c r="C269" s="1" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="26"/>
+      <c r="A270" s="27"/>
       <c r="B270">
         <v>2780</v>
       </c>
-      <c r="C270" t="s">
-        <v>817</v>
+      <c r="C270" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D270,A:A,0),0)," :: REM CALL ",D270,"")</f>
+        <v>GOSUB 3020 :: REM CALL CALCSCORE</v>
+      </c>
+      <c r="D270" t="str">
+        <f>A294</f>
+        <v>CALCSCORE</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="26"/>
+      <c r="A271" s="27"/>
       <c r="B271">
         <v>2790</v>
       </c>
-      <c r="C271" t="s">
-        <v>733</v>
+      <c r="C271" t="str">
+        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D271,A:A,0),0)," :: REM GOTO ",D271,"")</f>
+        <v>IF SCORE&gt;=17 THEN 2850 :: REM GOTO TALLY</v>
+      </c>
+      <c r="D271" t="str">
+        <f>A277</f>
+        <v>TALLY</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="26"/>
+      <c r="A272" s="27"/>
       <c r="B272">
         <v>2800</v>
       </c>
       <c r="C272" t="str">
         <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D272,A:A,0),0)," :: REM CALL ",D272,"")</f>
-        <v>GOSUB 2870 :: REM CALL CALCSCORE</v>
+        <v>GOSUB 2390 :: REM CALL DEAL</v>
       </c>
       <c r="D272" t="str">
-        <f>A279</f>
-        <v>CALCSCORE</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="26"/>
+        <f>A231</f>
+        <v>DEAL</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="27"/>
       <c r="B273">
         <v>2810</v>
       </c>
-      <c r="C273" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="26"/>
+      <c r="C273" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="27"/>
       <c r="B274">
         <v>2820</v>
       </c>
       <c r="C274" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="26"/>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="27"/>
       <c r="B275">
         <v>2830</v>
       </c>
-      <c r="C275" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="26"/>
+      <c r="C275" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D275,A:A,0),0)," :: REM GOTO ",D275,"")</f>
+        <v>IF BUSTED=1 THEN 2870 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D275" t="str">
+        <f>A279</f>
+        <v>GAMEOVER</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="27"/>
       <c r="B276">
         <v>2840</v>
       </c>
-      <c r="C276" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="26"/>
+      <c r="C276" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="27" t="s">
+        <v>761</v>
+      </c>
       <c r="B277">
         <v>2850</v>
       </c>
-      <c r="C277" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C277" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A277,"***")</f>
+        <v>REM LABEL ***TALLY***</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="26"/>
       <c r="B278">
         <v>2860</v>
       </c>
-      <c r="C278" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="26" t="s">
-        <v>735</v>
+      <c r="C278" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D278,A:A,0),0)," :: REM CALL ",D278,"")</f>
+        <v>GOSUB 2890 :: REM CALL WHOWON</v>
+      </c>
+      <c r="D278" t="str">
+        <f>A281</f>
+        <v>WHOWON</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="27" t="s">
+        <v>758</v>
       </c>
       <c r="B279">
         <v>2870</v>
       </c>
-      <c r="C279" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A279,"***")</f>
-        <v>REM SUBROUTINE ***CALCSCORE***</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C279" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A279,"***")</f>
+        <v>REM LABEL ***GAMEOVER***</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="26"/>
       <c r="B280">
         <v>2880</v>
       </c>
       <c r="C280" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="26"/>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="26" t="s">
+        <v>614</v>
+      </c>
       <c r="B281">
         <v>2890</v>
       </c>
-      <c r="C281" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C281" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A281,"***")</f>
+        <v>REM SUBROUTINE ***WHOWON***</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="26"/>
       <c r="B282">
         <v>2900</v>
       </c>
       <c r="C282" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="26"/>
       <c r="B283">
         <v>2910</v>
       </c>
-      <c r="C283" s="11" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C283" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D283,A:A,0),0)," :: REM CALL ",D283,"")</f>
+        <v>GOSUB 3020 :: REM CALL CALCSCORE</v>
+      </c>
+      <c r="D283" t="str">
+        <f>A294</f>
+        <v>CALCSCORE</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="26"/>
       <c r="B284">
         <v>2920</v>
       </c>
-      <c r="C284" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C284" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="26"/>
       <c r="B285">
         <v>2930</v>
       </c>
-      <c r="C285" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="26" t="s">
-        <v>730</v>
-      </c>
+      <c r="C285" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="26"/>
       <c r="B286">
         <v>2940</v>
       </c>
-      <c r="C286" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A286,"***")</f>
-        <v>REM SUBROUTINE ***TERMINATE***</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C286" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="26"/>
       <c r="B287">
         <v>2950</v>
       </c>
-      <c r="C287" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C287" t="str">
+        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D287,A:A,0),0)," :: REM CALL ",D287,"")</f>
+        <v>GOSUB 3020 :: REM CALL CALCSCORE</v>
+      </c>
+      <c r="D287" t="str">
+        <f>A294</f>
+        <v>CALCSCORE</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="26"/>
       <c r="B288">
         <v>2960</v>
       </c>
       <c r="C288" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -5959,8 +5993,8 @@
       <c r="B289">
         <v>2970</v>
       </c>
-      <c r="C289" s="11" t="s">
-        <v>691</v>
+      <c r="C289" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -5969,6 +6003,147 @@
         <v>2980</v>
       </c>
       <c r="C290" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="26"/>
+      <c r="B291">
+        <v>2990</v>
+      </c>
+      <c r="C291" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="26"/>
+      <c r="B292">
+        <v>3000</v>
+      </c>
+      <c r="C292" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="26"/>
+      <c r="B293">
+        <v>3010</v>
+      </c>
+      <c r="C293" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="B294">
+        <v>3020</v>
+      </c>
+      <c r="C294" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A294,"***")</f>
+        <v>REM SUBROUTINE ***CALCSCORE***</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="26"/>
+      <c r="B295">
+        <v>3030</v>
+      </c>
+      <c r="C295" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="26"/>
+      <c r="B296">
+        <v>3040</v>
+      </c>
+      <c r="C296" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="26"/>
+      <c r="B297">
+        <v>3050</v>
+      </c>
+      <c r="C297" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="26"/>
+      <c r="B298">
+        <v>3060</v>
+      </c>
+      <c r="C298" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="26"/>
+      <c r="B299">
+        <v>3070</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="26"/>
+      <c r="B300">
+        <v>3080</v>
+      </c>
+      <c r="C300" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="B301">
+        <v>3090</v>
+      </c>
+      <c r="C301" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A301,"***")</f>
+        <v>REM SUBROUTINE ***TERMINATE***</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="26"/>
+      <c r="B302">
+        <v>3100</v>
+      </c>
+      <c r="C302" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="26"/>
+      <c r="B303">
+        <v>3110</v>
+      </c>
+      <c r="C303" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="26"/>
+      <c r="B304">
+        <v>3120</v>
+      </c>
+      <c r="C304" s="11" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="26"/>
+      <c r="B305">
+        <v>3130</v>
+      </c>
+      <c r="C305" t="s">
         <v>662</v>
       </c>
     </row>
@@ -6033,7 +6208,7 @@
         <v>551</v>
       </c>
       <c r="G2" t="s">
-        <v>787</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">

--- a/blackjack.xlsx
+++ b/blackjack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5FE0C4-6925-414E-9B62-8C1C426AB06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AEDE34-A3EC-6541-B839-E36427A61DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7620" yWindow="29560" windowWidth="34560" windowHeight="21580" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="831">
   <si>
     <t>1</t>
   </si>
@@ -2559,6 +2559,12 @@
   </si>
   <si>
     <t>SHUFFLE</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (12,10): "BLACKJACK"</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (1, 10): "BLACKJACK"</t>
   </si>
 </sst>
 </file>
@@ -3315,7 +3321,7 @@
         <v>250</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>451</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5332,7 +5338,7 @@
         <v>2360</v>
       </c>
       <c r="C228" t="s">
-        <v>128</v>
+        <v>830</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">

--- a/blackjack.xlsx
+++ b/blackjack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AEDE34-A3EC-6541-B839-E36427A61DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F91DC8C-8071-654C-9008-1E070874D35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7620" yWindow="29560" windowWidth="34560" windowHeight="21580" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
@@ -39,30 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="871">
   <si>
     <t>1</t>
   </si>
@@ -2060,9 +2038,6 @@
     <t>Render card value</t>
   </si>
   <si>
-    <t>RETURN</t>
-  </si>
-  <si>
     <t>SETCHARS</t>
   </si>
   <si>
@@ -2072,9 +2047,6 @@
     <t>SETCHARSVALS</t>
   </si>
   <si>
-    <t>REM HEART, DIAMOND</t>
-  </si>
-  <si>
     <t>CALL CHAR (OFFSET, "003844040830407C") :: OFFSET=OFFSET+1</t>
   </si>
   <si>
@@ -2114,84 +2086,18 @@
     <t>CALL CHAR (OFFSET, "001824243C242424") :: OFFSET=OFFSET+1</t>
   </si>
   <si>
-    <t>CALL CHAR (OFFSET, "00367F7F7F3E1C08" ) :: HEART=OFFSET :: OFFSET=OFFSET+1</t>
-  </si>
-  <si>
-    <t>CALL CHAR (OFFSET, "0010387CFEFED638" ) :: SPADE=OFFSET :: OFFSET=OFFSET+1</t>
-  </si>
-  <si>
-    <t>REM SPADE, CLUB</t>
-  </si>
-  <si>
-    <t>CALL CHAR (OFFSET, "AA55AA55AA55AA55"):: CARDBACK=OFFSET :: OFFSET=OFFSET+1</t>
-  </si>
-  <si>
     <t>SETCHARSEDGES</t>
   </si>
   <si>
-    <t>REM CARDEDGE, CARDTOP</t>
-  </si>
-  <si>
-    <t>REM CARDBACK</t>
-  </si>
-  <si>
-    <t>CALL CHAR (OFFSET, "8080808080808080") :: CARDEDGE=OFFSET :: OFFSET=OFFSET+1</t>
-  </si>
-  <si>
-    <t>CALL CHAR (OFFSET, "00000000000000FF") :: CARDTOP=OFFSET :: OFFSET=OFFSET+1</t>
-  </si>
-  <si>
-    <t>SETCHARSREDSUIT</t>
-  </si>
-  <si>
-    <t>SETCHARSBLACKSUIT</t>
-  </si>
-  <si>
     <t>END</t>
   </si>
   <si>
-    <t>CALL CHAR (OFFSET, "FFFFFFFFFFFFFFFF") :: CARDFRONT=OFFSET</t>
-  </si>
-  <si>
     <t>LABELS</t>
   </si>
   <si>
     <t>SETCOLORSCHEME</t>
   </si>
   <si>
-    <t>USRDEFCHARSET=9</t>
-  </si>
-  <si>
-    <t>CALL COLOR (USRDEFCHARSET,7,16) :: REM DARK RED ON BLACK</t>
-  </si>
-  <si>
-    <t>CALL COLOR (USRDEFCHARSET+1,7,16) :: REM DARK RED ON BLACK</t>
-  </si>
-  <si>
-    <t>CALL COLOR (USRDEFCHARSET+2,2,16) :: REM BLACK ON WHITE</t>
-  </si>
-  <si>
-    <t>CALL COLOR (USRDEFCHARSET+3,2,16) :: REM BLACK ON WHITE</t>
-  </si>
-  <si>
-    <t>CALL COLOR (USRDEFCHARSET+4,2,1) :: REM BLACK ON TRANSPARENT</t>
-  </si>
-  <si>
-    <t>OFFSET=USRDEFCHARSET*8+24</t>
-  </si>
-  <si>
-    <t>OFFSET=(USRDEFCHARSET+2)*8+24</t>
-  </si>
-  <si>
-    <t>OFFSET=(USRDEFCHARSET+4)*8+24</t>
-  </si>
-  <si>
-    <t>OFFSET=(USRDEFCHARSET+5)*8+24</t>
-  </si>
-  <si>
-    <t>CALL COLOR (USRDEFCHARSET+5,16,16) :: REM WHITE ON WHITE</t>
-  </si>
-  <si>
     <t>CALL SCREEN (3) :: REM MED GREEN BACKGROUND</t>
   </si>
   <si>
@@ -2204,12 +2110,6 @@
     <t>COL=CARD*6 :: ROW=PLAYER*10</t>
   </si>
   <si>
-    <t>CALL CHAR (OFFSET, "00081C3E7F3E1C08" ) :: DIAMOND=OFFSET :: OFFSET=OFFSET+1 :: REDVALS=OFFSET</t>
-  </si>
-  <si>
-    <t>CALL CHAR (OFFSET, "00103854EE541038" ) :: CLUB=OFFSET :: OFFSET=OFFSET+1 :: BLACKVALS=OFFSET</t>
-  </si>
-  <si>
     <t>REM RENDER SURFACE</t>
   </si>
   <si>
@@ -2240,12 +2140,6 @@
     <t>PLAY</t>
   </si>
   <si>
-    <t>IF FACEDOWN=1 THEN FILL=CARDBACK ELSE FILL=CARDFRONT</t>
-  </si>
-  <si>
-    <t>IF FACEDOWN=1 THEN RETURN</t>
-  </si>
-  <si>
     <t>PLAYER=0 :: FACEDOWN=0</t>
   </si>
   <si>
@@ -2267,42 +2161,12 @@
     <t>REVEAL</t>
   </si>
   <si>
-    <t>PLAYER=1</t>
-  </si>
-  <si>
     <t>CALCSCORE</t>
   </si>
   <si>
-    <t>PLAYER=0</t>
-  </si>
-  <si>
-    <t>PSCORE=SCORE</t>
-  </si>
-  <si>
-    <t>DSCORE=SCORE</t>
-  </si>
-  <si>
     <t>BUSTED=0</t>
   </si>
   <si>
-    <t>IF HANDS(PLAYER,CARD,1)=1 THEN SUIT=HEART</t>
-  </si>
-  <si>
-    <t>IF HANDS(PLAYER,CARD,1)=2 THEN SUIT=DIAMOND</t>
-  </si>
-  <si>
-    <t>IF HANDS(PLAYER,CARD,1)=3 THEN SUIT=SPADE</t>
-  </si>
-  <si>
-    <t>IF HANDS(PLAYER,CARD,1)=4 THEN SUIT=CLUB</t>
-  </si>
-  <si>
-    <t>IF HANDS(PLAYER,CARD,1)&lt;3 THEN CARDCHAR=REDVALS</t>
-  </si>
-  <si>
-    <t>IF HANDS(PLAYER,CARD,1)&gt;2 THEN CARDCHAR=BLACKVALS</t>
-  </si>
-  <si>
     <t>CARDVAL=HANDS(PLAYER,CARD,0)</t>
   </si>
   <si>
@@ -2318,9 +2182,6 @@
     <t>DIM HANDS(1,4,1) :: REM HANDS[PLAYER,CARD,SUIT]</t>
   </si>
   <si>
-    <t>SUMS(0)=0 :: SUMS(1)=0 :: CARDS(0)=0 ::CARDS(1)=0</t>
-  </si>
-  <si>
     <t>CARDS(PLAYER)=CARDS(PLAYER)+1</t>
   </si>
   <si>
@@ -2336,12 +2197,6 @@
     <t>FOR I=0 TO CARDS(PLAYER)-1</t>
   </si>
   <si>
-    <t>IF SCORE+10&gt;21 THEN RETURN</t>
-  </si>
-  <si>
-    <t>IF SUMS(0)&gt;21 THEN BUSTED=1</t>
-  </si>
-  <si>
     <t>GAMELOOP</t>
   </si>
   <si>
@@ -2354,15 +2209,9 @@
     <t>GOSUB/GOTO LABELS</t>
   </si>
   <si>
-    <t>IF SUMS(1)&gt;21 THEN BUSTED=1</t>
-  </si>
-  <si>
     <t>TALLY</t>
   </si>
   <si>
-    <t>IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: RETURN</t>
-  </si>
-  <si>
     <t>Dealer code missing!</t>
   </si>
   <si>
@@ -2471,9 +2320,6 @@
     <t>NEXT J</t>
   </si>
   <si>
-    <t>DIM DECK(9)</t>
-  </si>
-  <si>
     <t>CHECKDUP</t>
   </si>
   <si>
@@ -2504,9 +2350,6 @@
     <t>DECK(H)=X</t>
   </si>
   <si>
-    <t>IF DECK(I)=X THEN DUP=1 :: RETURN</t>
-  </si>
-  <si>
     <t>HANDS(0,H,1)=INT(DECK(H)/16)</t>
   </si>
   <si>
@@ -2534,15 +2377,6 @@
     <t>IF BUSTED=1 THEN DISPLAY AT (12,3) BEEP: "DEALER BUSTED. YOU WIN."</t>
   </si>
   <si>
-    <t>IF PSCORE=SCORE THEN DISPLAY AT (12,11): "TIE GAME"</t>
-  </si>
-  <si>
-    <t>IF PSCORE&gt;SCORE THEN DISPLAY AT (12,11): "YOU WIN!"</t>
-  </si>
-  <si>
-    <t>IF PSCORE&lt;SCORE THEN DISPLAY AT (12,11): "YOU LOSE"</t>
-  </si>
-  <si>
     <t>FOR I=1 TO 5 :: CALL CLEAR :: DISPLAY AT (12,7) BEEP: "GAME TERMINATED" :: FOR J=1 TO 100 :: NEXT J :: NEXT I</t>
   </si>
   <si>
@@ -2565,13 +2399,277 @@
   </si>
   <si>
     <t>DISPLAY AT (1, 10): "BLACKJACK"</t>
+  </si>
+  <si>
+    <t>SUBEND</t>
+  </si>
+  <si>
+    <t>PLAYER=0 :: PSCORE=0</t>
+  </si>
+  <si>
+    <t>PLAYER=1 :: DSCORE=0</t>
+  </si>
+  <si>
+    <t>IF PSCORE=DSCORE THEN DISPLAY AT (12,11): "TIE GAME"</t>
+  </si>
+  <si>
+    <t>IF PSCORE&gt;DSCORE THEN DISPLAY AT (12,11): "YOU WIN!"</t>
+  </si>
+  <si>
+    <t>IF PSCORE&lt;DSCORE THEN DISPLAY AT (12,11): "YOU LOSE"</t>
+  </si>
+  <si>
+    <t>SUMS(),CARDS(),HANDS(,,)</t>
+  </si>
+  <si>
+    <t>ROW,COL,SUIT</t>
+  </si>
+  <si>
+    <t>CHARVAL=96</t>
+  </si>
+  <si>
+    <t>CHARVAL</t>
+  </si>
+  <si>
+    <t>CHARVAL=97</t>
+  </si>
+  <si>
+    <t>CHARVAL=98</t>
+  </si>
+  <si>
+    <t>CHARVAL=112</t>
+  </si>
+  <si>
+    <t>CHARVAL=111</t>
+  </si>
+  <si>
+    <t>CHARVAL=113</t>
+  </si>
+  <si>
+    <t>CHARVAL=114</t>
+  </si>
+  <si>
+    <t>CHARVAL=128</t>
+  </si>
+  <si>
+    <t>CHARVAL=129</t>
+  </si>
+  <si>
+    <t>GETBLACKVALS</t>
+  </si>
+  <si>
+    <t>GETCARDEDGE</t>
+  </si>
+  <si>
+    <t>GETCARDTOP</t>
+  </si>
+  <si>
+    <t>GETCLUB</t>
+  </si>
+  <si>
+    <t>GETSPADE</t>
+  </si>
+  <si>
+    <t>GETCARDBACK</t>
+  </si>
+  <si>
+    <t>GETREDVALS</t>
+  </si>
+  <si>
+    <t>GETDIAMOND</t>
+  </si>
+  <si>
+    <t>GETHEART</t>
+  </si>
+  <si>
+    <t>CHARVAL=136</t>
+  </si>
+  <si>
+    <t>GETCARDFRONT</t>
+  </si>
+  <si>
+    <t>HEART</t>
+  </si>
+  <si>
+    <t>CALL CHAR (HEART, "00367F7F7F3E1C08" )</t>
+  </si>
+  <si>
+    <t>DIAMOND</t>
+  </si>
+  <si>
+    <t>CALL CHAR (DIAMOND, "00081C3E7F3E1C08" )</t>
+  </si>
+  <si>
+    <t>REDVALS</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>(REDVALS)</t>
+  </si>
+  <si>
+    <t>CARDBACK</t>
+  </si>
+  <si>
+    <t>CALL CHAR (CARDBACK, "AA55AA55AA55AA55")</t>
+  </si>
+  <si>
+    <t>SPADE</t>
+  </si>
+  <si>
+    <t>CALL CHAR (SPADE, "0010387CFEFED638" )</t>
+  </si>
+  <si>
+    <t>CLUB</t>
+  </si>
+  <si>
+    <t>BLACKVALS</t>
+  </si>
+  <si>
+    <t>(BLACKVALS)</t>
+  </si>
+  <si>
+    <t>CARDEDGE</t>
+  </si>
+  <si>
+    <t>CALL CHAR (CARDEDGE, "8080808080808080")</t>
+  </si>
+  <si>
+    <t>CARDTOP</t>
+  </si>
+  <si>
+    <t>CALL CHAR (CARDTOP, "00000000000000FF")</t>
+  </si>
+  <si>
+    <t>CARDFRONT</t>
+  </si>
+  <si>
+    <t>CALL CHAR (CARDFRONT, "FFFFFFFFFFFFFFFF")</t>
+  </si>
+  <si>
+    <t>CALL COLOR (9,7,16) :: REM DARK RED ON BLACK</t>
+  </si>
+  <si>
+    <t>CALL COLOR (14,16,16) :: REM WHITE ON WHITE</t>
+  </si>
+  <si>
+    <t>CALL COLOR (13,2,1) :: REM BLACK ON TRANSPARENT</t>
+  </si>
+  <si>
+    <t>CALL COLOR (12,2,16) :: REM BLACK ON WHITE</t>
+  </si>
+  <si>
+    <t>CALL COLOR (11,2,16) :: REM BLACK ON WHITE</t>
+  </si>
+  <si>
+    <t>CALL COLOR (10,7,16) :: REM DARK RED ON BLACK</t>
+  </si>
+  <si>
+    <t>FILL</t>
+  </si>
+  <si>
+    <t>SUIT</t>
+  </si>
+  <si>
+    <t>CARDCHAR</t>
+  </si>
+  <si>
+    <t>PLAYER,CARD,FACEDOWN,HANDS(,,)</t>
+  </si>
+  <si>
+    <t>DUP,X,DECK()</t>
+  </si>
+  <si>
+    <t>DUP,(X),DECK()</t>
+  </si>
+  <si>
+    <t>DIM DECK(9) :: FOR I=0 TO 9 :: DECK(I)=0 :: NEXT I</t>
+  </si>
+  <si>
+    <t>(ROW),(COL),(SUIT)</t>
+  </si>
+  <si>
+    <t>(PLAYER),(CARD),(FACEDOWN),HANDS(,,)</t>
+  </si>
+  <si>
+    <t>CARDS(),SUMS(),PLAYER,FACEDOWN,HANDS(,,)</t>
+  </si>
+  <si>
+    <t>HANDS(,,)</t>
+  </si>
+  <si>
+    <t>CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,)</t>
+  </si>
+  <si>
+    <t>HANDS(,,),CARDS(),SUMS()</t>
+  </si>
+  <si>
+    <t>FOR I=0 TO 1 :: FOR J=0 TO 4 :: FOR K=0 TO 1 :: HANDS(I,J,K)=0 :: NEXT K :: NEXT J :: NEXT I</t>
+  </si>
+  <si>
+    <t>FOR I=0 TO 1 :: SUMS(I)=0 :: CARDS(I)=0 :: NEXT I</t>
+  </si>
+  <si>
+    <t>SETCHARSRED</t>
+  </si>
+  <si>
+    <t>SETCHARSBLACK</t>
+  </si>
+  <si>
+    <t>CALL CHAR (CLUB, "00103854EE541038" )</t>
+  </si>
+  <si>
+    <t>IF SUMS(PLAYER)&gt;21 THEN BUSTED=1</t>
+  </si>
+  <si>
+    <t>SCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,)</t>
+  </si>
+  <si>
+    <t>SCORE,PLAYER,SUMS(),CARDS(),HANDS(,,)</t>
+  </si>
+  <si>
+    <t>PSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,)</t>
+  </si>
+  <si>
+    <t>DSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,)</t>
+  </si>
+  <si>
+    <t>ASKAGAIN</t>
+  </si>
+  <si>
+    <t>ASKANOTHER</t>
+  </si>
+  <si>
+    <t>REM COPYRIGHT (C) 1987-2023 SEAN WOHLGEMUTH</t>
+  </si>
+  <si>
+    <t>REM &lt;HTTPS://WWW.GNU.ORG/LICENSES/&gt;.</t>
+  </si>
+  <si>
+    <t>REM THIS PROGRAM IS FREE SOFTWARE: YOU CAN REDISTRIBUTE IT AND/OR MODIFY IT UNDER THE TERMS OF THE GNU GENERAL PUBLIC LICENSE</t>
+  </si>
+  <si>
+    <t>REM AS PUBLISHED BY THE FREE SOFTWARE FOUNDATION, EITHER VERSION 3 OF THE LICENSE, OR (AT YOUR OPTION) ANY LATER VERSION.</t>
+  </si>
+  <si>
+    <t>REM THIS PROGRAM IS DISTRIBUTED IN THE HOPE THAT IT WILL BE USEFUL, BUT WITHOUT ANY WARRANTY; WITHOUT EVEN THE IMPLIED WARRANTY</t>
+  </si>
+  <si>
+    <t>REM OF MERCHANTABILITY OR FITNESS FOR A PARTICULAR PURPOSE. SEE THE GNU GENERAL PUBLIC LICENSE FOR MORE DETAILS.</t>
+  </si>
+  <si>
+    <t>REM YOU SHOULD HAVE RECEIVED A COPY OF THE GNU GENERAL PUBLIC LICENSE ALONG WITH THIS PROGRAM. IF NOT, SEE</t>
+  </si>
+  <si>
+    <t>REM ::</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2636,6 +2734,20 @@
     <font>
       <sz val="12"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2751,7 +2863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2780,6 +2892,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3114,21 +3229,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:F405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>504</v>
@@ -3137,3020 +3252,4452 @@
         <v>500</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="30">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="str">
-        <f>IFERROR(INDEX($A:$A,MATCH(#REF!,$B:$B,0)),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3">
+      <c r="C2" s="30" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="30">
         <v>110</v>
       </c>
-      <c r="C3" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D3,A:A,0),0)," :: REM CALL ",D3,"")</f>
-        <v>GOSUB 240 :: REM CALL INTRO</v>
-      </c>
-      <c r="D3" t="str">
-        <f>A16</f>
-        <v>INTRO</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4">
+      <c r="C3" s="30" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="30">
         <v>120</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5">
+      <c r="C4" s="30" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="30">
         <v>130</v>
       </c>
-      <c r="C5" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6">
+      <c r="C5" s="30" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="30">
         <v>140</v>
       </c>
-      <c r="C6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7">
+      <c r="C6" s="30" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="30">
         <v>150</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8">
+      <c r="C7" s="30" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="30">
         <v>160</v>
       </c>
-      <c r="C8" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D8,A:A,0),0)," :: REM CALL ",D8,"")</f>
-        <v>GOSUB 600 :: REM CALL SETCHARS</v>
-      </c>
-      <c r="D8" t="str">
-        <f>A52</f>
-        <v>SETCHARS</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9">
+      <c r="C8" s="30" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="30">
         <v>170</v>
       </c>
-      <c r="C9" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D9,A:A,0),0)," :: REM CALL ",D9,"")</f>
-        <v>GOSUB 1050 :: REM CALL SETCOLORSCHEME</v>
-      </c>
-      <c r="D9" t="str">
-        <f>A97</f>
-        <v>SETCOLORSCHEME</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>756</v>
-      </c>
-      <c r="B10">
+      <c r="C9" s="30" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30">
         <v>180</v>
       </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A10,"***")</f>
-        <v>REM LABEL ***GAMELOOP***</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11">
+      <c r="C10" s="30" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="30">
         <v>190</v>
       </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D11,A:A,0),0)," :: REM CALL ",D11,"")</f>
-        <v>GOSUB 2470 :: REM CALL PLAY</v>
-      </c>
-      <c r="D11" t="str">
-        <f>A239</f>
-        <v>PLAY</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12">
+      <c r="C11" s="30" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="30">
         <v>200</v>
       </c>
-      <c r="C12" t="s">
-        <v>815</v>
+      <c r="C12" s="30" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
-      <c r="B13">
+      <c r="B13" s="30">
         <v>210</v>
       </c>
-      <c r="C13" t="s">
-        <v>432</v>
+      <c r="C13" s="28" t="str">
+        <f>IF(ISBLANK(E13),_xlfn.CONCAT("CALL ",D13),_xlfn.CONCAT("CALL ",D13,"(",E13,")"))</f>
+        <v>CALL INTRO</v>
+      </c>
+      <c r="D13" s="28" t="str">
+        <f>A25</f>
+        <v>INTRO</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
-      <c r="B14">
+      <c r="B14" s="30">
         <v>220</v>
       </c>
-      <c r="C14" t="str" cm="1">
-        <f t="array" ref="C14">CONCATENATE("IF A$=""N"" THEN GOSUB ",INDEX(B:B,MATCH(D14,A:A,0),0)," :: REM CALL ",D14,"")</f>
-        <v>IF A$="N" THEN GOSUB 3090 :: REM CALL TERMINATE</v>
-      </c>
-      <c r="D14" t="str">
-        <f>A301</f>
-        <v>TERMINATE</v>
+      <c r="C14" s="28" t="str">
+        <f>IF(ISBLANK(E14),_xlfn.CONCAT("CALL ",D14),_xlfn.CONCAT("CALL ",D14,"(",E14,")"))</f>
+        <v>CALL SETCHARS</v>
+      </c>
+      <c r="D14" s="28" t="str">
+        <f>A63</f>
+        <v>SETCHARS</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
-      <c r="B15">
+      <c r="B15" s="30">
         <v>230</v>
       </c>
-      <c r="C15" t="str">
-        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D15,A:A,0),0)," :: REM GOTO ",D15,"")</f>
-        <v>GOTO 180 :: REM GOTO GAMELOOP</v>
-      </c>
-      <c r="D15" t="str">
-        <f>A10</f>
+      <c r="C15" s="28" t="str">
+        <f>IF(ISBLANK(E15),_xlfn.CONCAT("CALL ",D15),_xlfn.CONCAT("CALL ",D15,"(",E15,")"))</f>
+        <v>CALL SETCOLORSCHEME</v>
+      </c>
+      <c r="D15" s="28" t="str">
+        <f>A115</f>
+        <v>SETCOLORSCHEME</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>715</v>
+      </c>
+      <c r="B16" s="30">
+        <v>240</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A16,"***")</f>
+        <v>REM LABEL ***GAMELOOP***</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="30">
+        <v>250</v>
+      </c>
+      <c r="C17" s="28" t="str">
+        <f>IF(ISBLANK(E17),_xlfn.CONCAT("CALL ",D17),_xlfn.CONCAT("CALL ",D17,"(",E17,")"))</f>
+        <v>CALL PLAY</v>
+      </c>
+      <c r="D17" s="28" t="str">
+        <f>A244</f>
+        <v>PLAY</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>861</v>
+      </c>
+      <c r="B18" s="30">
+        <v>260</v>
+      </c>
+      <c r="C18" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A18,"***")</f>
+        <v>REM LABEL ***ASKAGAIN***</v>
+      </c>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="26"/>
+      <c r="B19" s="30">
+        <v>270</v>
+      </c>
+      <c r="C19" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="30">
+        <v>280</v>
+      </c>
+      <c r="C20" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="30">
+        <v>290</v>
+      </c>
+      <c r="C21" t="str">
+        <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D21,A:A,0),0)," :: REM GOTO ",D21,"")</f>
+        <v>IF A$="" THEN 260 :: REM GOTO ASKAGAIN</v>
+      </c>
+      <c r="D21" s="29" t="str">
+        <f>A18</f>
+        <v>ASKAGAIN</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="30">
+        <v>300</v>
+      </c>
+      <c r="C22" s="28" t="str">
+        <f>_xlfn.CONCAT("IF A$=""N"" THEN CALL ",D22)</f>
+        <v>IF A$="N" THEN CALL TERMINATE</v>
+      </c>
+      <c r="D22" s="28" t="str">
+        <f>A360</f>
+        <v>TERMINATE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="30">
+        <v>310</v>
+      </c>
+      <c r="C23" t="str">
+        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D23,A:A,0),0)," :: REM GOTO ",D23,"")</f>
+        <v>GOTO 240 :: REM GOTO GAMELOOP</v>
+      </c>
+      <c r="D23" s="29" t="str">
+        <f>A16</f>
         <v>GAMELOOP</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="30">
+        <v>320</v>
+      </c>
+      <c r="C24" t="s">
+        <v>679</v>
+      </c>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="B16">
-        <v>240</v>
-      </c>
-      <c r="C16" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A16,"***")</f>
+      <c r="B25" s="30">
+        <v>330</v>
+      </c>
+      <c r="C25" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A25,"***")</f>
         <v>REM SUBROUTINE ***INTRO***</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17">
-        <v>250</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18">
-        <v>260</v>
-      </c>
-      <c r="C18" s="11" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="30">
+        <v>340</v>
+      </c>
+      <c r="C26" s="11" t="str">
+        <f>IF(ISBLANK(E26),_xlfn.CONCAT("SUB ",A25),_xlfn.CONCAT("SUB ",A25,"(",E26,")"))</f>
+        <v>SUB INTRO</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="30">
+        <v>350</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="30">
+        <v>360</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="30">
+        <v>370</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19">
-        <v>270</v>
-      </c>
-      <c r="C19" s="11" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="30">
+        <v>380</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20">
-        <v>280</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21">
-        <v>290</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22">
-        <v>300</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23">
-        <v>310</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24">
-        <v>320</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25">
-        <v>330</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26">
-        <v>340</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27">
-        <v>350</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28">
-        <v>360</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29">
-        <v>370</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30">
-        <v>380</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
-      <c r="B31">
+      <c r="B31" s="30">
         <v>390</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
-      <c r="B32">
+      <c r="B32" s="30">
         <v>400</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>771</v>
+        <v>725</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
-      <c r="B33">
+      <c r="B33" s="30">
         <v>410</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>772</v>
+        <v>726</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
-      <c r="B34">
+      <c r="B34" s="30">
         <v>420</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>773</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
-      <c r="B35">
+      <c r="B35" s="30">
         <v>430</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
-      <c r="B36">
+      <c r="B36" s="30">
         <v>440</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>7</v>
+        <v>733</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
-      <c r="B37">
+      <c r="B37" s="30">
         <v>450</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>765</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
-      <c r="B38">
+      <c r="B38" s="30">
         <v>460</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>766</v>
+        <v>735</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
-      <c r="B39">
+      <c r="B39" s="30">
         <v>470</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>767</v>
+        <v>736</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
-      <c r="B40">
+      <c r="B40" s="30">
         <v>480</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>784</v>
+        <v>737</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
-      <c r="B41">
+      <c r="B41" s="30">
         <v>490</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>785</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
-      <c r="B42">
+      <c r="B42" s="30">
         <v>500</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>786</v>
+        <v>727</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
-      <c r="B43">
+      <c r="B43" s="30">
         <v>510</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
-      <c r="B44">
+      <c r="B44" s="30">
         <v>520</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>788</v>
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
-      <c r="B45">
+      <c r="B45" s="30">
         <v>530</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>789</v>
+        <v>730</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
-      <c r="B46">
+      <c r="B46" s="30">
         <v>540</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>790</v>
+        <v>721</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
-      <c r="B47">
+      <c r="B47" s="30">
         <v>550</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>791</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
-      <c r="B48">
+      <c r="B48" s="30">
         <v>560</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
-      <c r="B49">
+      <c r="B49" s="30">
         <v>570</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
-      <c r="B50">
+      <c r="B50" s="30">
         <v>580</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
-      <c r="B51">
+      <c r="B51" s="30">
         <v>590</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="26"/>
+      <c r="B52" s="30">
+        <v>600</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="26"/>
+      <c r="B53" s="30">
+        <v>610</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="26"/>
+      <c r="B54" s="30">
+        <v>620</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="26"/>
+      <c r="B55" s="30">
+        <v>630</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
+      <c r="B56" s="30">
+        <v>640</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="26"/>
+      <c r="B57" s="30">
+        <v>650</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="26"/>
+      <c r="B58" s="30">
+        <v>660</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="26"/>
+      <c r="B59" s="30">
+        <v>670</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="26"/>
+      <c r="B60" s="30">
+        <v>680</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="30">
+        <v>690</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="26"/>
+      <c r="B62" s="30">
+        <v>700</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="28" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="26" t="s">
+      <c r="B63" s="30">
+        <v>710</v>
+      </c>
+      <c r="C63" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A63,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARS***</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="26"/>
+      <c r="B64" s="30">
+        <v>720</v>
+      </c>
+      <c r="C64" s="11" t="str">
+        <f>IF(ISBLANK(E64),_xlfn.CONCAT("SUB ",A63),_xlfn.CONCAT("SUB ",A63,"(",E64,")"))</f>
+        <v>SUB SETCHARS</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="26"/>
+      <c r="B65" s="30">
+        <v>730</v>
+      </c>
+      <c r="C65" s="28" t="str">
+        <f>IF(ISBLANK(E65),_xlfn.CONCAT("CALL ",D65),_xlfn.CONCAT("CALL ",D65,"(",E65,")"))</f>
+        <v>CALL SETCHARSRED</v>
+      </c>
+      <c r="D65" s="28" t="str">
+        <f>A71</f>
+        <v>SETCHARSRED</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="26"/>
+      <c r="B66" s="30">
+        <v>740</v>
+      </c>
+      <c r="C66" s="28" t="str">
+        <f>IF(ISBLANK(E66),_xlfn.CONCAT("CALL ",D66),_xlfn.CONCAT("CALL ",D66,"(",E66,")"))</f>
+        <v>CALL SETCHARSBLACK</v>
+      </c>
+      <c r="D66" s="28" t="str">
+        <f>A82</f>
+        <v>SETCHARSBLACK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="26"/>
+      <c r="B67" s="30">
+        <v>750</v>
+      </c>
+      <c r="C67" s="28" t="str">
+        <f>IF(ISBLANK(E67),_xlfn.CONCAT("CALL ",D67),_xlfn.CONCAT("CALL ",D67,"(",E67,")"))</f>
+        <v>CALL SETCHARSEDGES</v>
+      </c>
+      <c r="D67" s="28" t="str">
+        <f>A108</f>
+        <v>SETCHARSEDGES</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="26"/>
+      <c r="B68" s="30">
+        <v>760</v>
+      </c>
+      <c r="C68" s="28" t="str">
+        <f>IF(ISBLANK(E68),_xlfn.CONCAT("CALL ",D68),_xlfn.CONCAT("CALL ",D68,"(",E68,")"))</f>
+        <v>CALL GETCARDFRONT(CARDFRONT)</v>
+      </c>
+      <c r="D68" s="28" t="str">
+        <f>A402</f>
+        <v>GETCARDFRONT</v>
+      </c>
+      <c r="E68" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="26"/>
+      <c r="B69" s="30">
+        <v>770</v>
+      </c>
+      <c r="C69" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="26"/>
+      <c r="B70" s="30">
+        <v>780</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="B71" s="30">
+        <v>790</v>
+      </c>
+      <c r="C71" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A71,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSRED***</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="28"/>
+      <c r="B72" s="30">
+        <v>800</v>
+      </c>
+      <c r="C72" s="11" t="str">
+        <f>IF(ISBLANK(E72),_xlfn.CONCAT("SUB ",A71),_xlfn.CONCAT("SUB ",A71,"(",E72,")"))</f>
+        <v>SUB SETCHARSRED</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="26"/>
+      <c r="B73" s="30">
+        <v>810</v>
+      </c>
+      <c r="C73" s="28" t="str">
+        <f>IF(ISBLANK(E73),_xlfn.CONCAT("CALL ",D73),_xlfn.CONCAT("CALL ",D73,"(",E73,")"))</f>
+        <v>CALL GETHEART(HEART)</v>
+      </c>
+      <c r="D73" s="28" t="str">
+        <f>A366</f>
+        <v>GETHEART</v>
+      </c>
+      <c r="E73" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="26"/>
+      <c r="B74" s="30">
+        <v>820</v>
+      </c>
+      <c r="C74" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="26"/>
+      <c r="B75" s="30">
+        <v>830</v>
+      </c>
+      <c r="C75" s="28" t="str">
+        <f>IF(ISBLANK(E75),_xlfn.CONCAT("CALL ",D75),_xlfn.CONCAT("CALL ",D75,"(",E75,")"))</f>
+        <v>CALL GETDIAMOND(DIAMOND)</v>
+      </c>
+      <c r="D75" s="28" t="str">
+        <f>A370</f>
+        <v>GETDIAMOND</v>
+      </c>
+      <c r="E75" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="26"/>
+      <c r="B76" s="30">
+        <v>840</v>
+      </c>
+      <c r="C76" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="26"/>
+      <c r="B77" s="30">
+        <v>850</v>
+      </c>
+      <c r="C77" s="28" t="str">
+        <f>IF(ISBLANK(E77),_xlfn.CONCAT("CALL ",D77),_xlfn.CONCAT("CALL ",D77,"(",E77,")"))</f>
+        <v>CALL GETREDVALS(REDVALS)</v>
+      </c>
+      <c r="D77" s="28" t="str">
+        <f>A374</f>
+        <v>GETREDVALS</v>
+      </c>
+      <c r="E77" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="26"/>
+      <c r="B78" s="30">
+        <v>860</v>
+      </c>
+      <c r="C78" s="28" t="str">
+        <f>IF(ISBLANK(E78),_xlfn.CONCAT("CALL ",D78),_xlfn.CONCAT("CALL ",D78,"(",E78,")"))</f>
+        <v>CALL SETCHARSVALS((REDVALS))</v>
+      </c>
+      <c r="D78" s="28" t="str">
+        <f>A91</f>
+        <v>SETCHARSVALS</v>
+      </c>
+      <c r="E78" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="26"/>
+      <c r="B79" s="30">
+        <v>870</v>
+      </c>
+      <c r="C79" s="28" t="str">
+        <f>IF(ISBLANK(E79),_xlfn.CONCAT("CALL ",D79),_xlfn.CONCAT("CALL ",D79,"(",E79,")"))</f>
+        <v>CALL GETCARDBACK(CARDBACK)</v>
+      </c>
+      <c r="D79" s="28" t="str">
+        <f>A378</f>
+        <v>GETCARDBACK</v>
+      </c>
+      <c r="E79" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="26"/>
+      <c r="B80" s="30">
+        <v>880</v>
+      </c>
+      <c r="C80" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="26"/>
+      <c r="B81" s="30">
+        <v>890</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="B82" s="30">
+        <v>900</v>
+      </c>
+      <c r="C82" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A82,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSBLACK***</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="28"/>
+      <c r="B83" s="30">
+        <v>910</v>
+      </c>
+      <c r="C83" s="11" t="str">
+        <f>IF(ISBLANK(E83),_xlfn.CONCAT("SUB ",A82),_xlfn.CONCAT("SUB ",A82,"(",E83,")"))</f>
+        <v>SUB SETCHARSBLACK</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="26"/>
+      <c r="B84" s="30">
+        <v>920</v>
+      </c>
+      <c r="C84" s="28" t="str">
+        <f>IF(ISBLANK(E84),_xlfn.CONCAT("CALL ",D84),_xlfn.CONCAT("CALL ",D84,"(",E84,")"))</f>
+        <v>CALL GETSPADE(SPADE)</v>
+      </c>
+      <c r="D84" s="28" t="str">
+        <f>A382</f>
+        <v>GETSPADE</v>
+      </c>
+      <c r="E84" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="26"/>
+      <c r="B85" s="30">
+        <v>930</v>
+      </c>
+      <c r="C85" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="26"/>
+      <c r="B86" s="30">
+        <v>940</v>
+      </c>
+      <c r="C86" s="28" t="str">
+        <f>IF(ISBLANK(E86),_xlfn.CONCAT("CALL ",D86),_xlfn.CONCAT("CALL ",D86,"(",E86,")"))</f>
+        <v>CALL GETCLUB(CLUB)</v>
+      </c>
+      <c r="D86" s="28" t="str">
+        <f>A386</f>
+        <v>GETCLUB</v>
+      </c>
+      <c r="E86" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="26"/>
+      <c r="B87" s="30">
+        <v>950</v>
+      </c>
+      <c r="C87" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="26"/>
+      <c r="B88" s="30">
+        <v>960</v>
+      </c>
+      <c r="C88" s="28" t="str">
+        <f>IF(ISBLANK(E88),_xlfn.CONCAT("CALL ",D88),_xlfn.CONCAT("CALL ",D88,"(",E88,")"))</f>
+        <v>CALL GETBLACKVALS(BLACKVALS)</v>
+      </c>
+      <c r="D88" s="28" t="str">
+        <f>A390</f>
+        <v>GETBLACKVALS</v>
+      </c>
+      <c r="E88" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="26"/>
+      <c r="B89" s="30">
+        <v>970</v>
+      </c>
+      <c r="C89" s="28" t="str">
+        <f>IF(ISBLANK(E89),_xlfn.CONCAT("CALL ",D89),_xlfn.CONCAT("CALL ",D89,"(",E89,")"))</f>
+        <v>CALL SETCHARSVALS((BLACKVALS))</v>
+      </c>
+      <c r="D89" s="28" t="str">
+        <f>A91</f>
+        <v>SETCHARSVALS</v>
+      </c>
+      <c r="E89" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="26"/>
+      <c r="B90" s="30">
+        <v>980</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="B91" s="30">
+        <v>990</v>
+      </c>
+      <c r="C91" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A91,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSVALS***</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="26"/>
+      <c r="B92" s="30">
+        <v>1000</v>
+      </c>
+      <c r="C92" s="11" t="str">
+        <f>IF(ISBLANK(E92),_xlfn.CONCAT("SUB ",A91),_xlfn.CONCAT("SUB ",A91,"(",E92,")"))</f>
+        <v>SUB SETCHARSVALS(OFFSET)</v>
+      </c>
+      <c r="E92" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="26"/>
+      <c r="B93" s="30">
+        <v>1010</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="B52">
-        <v>600</v>
-      </c>
-      <c r="C52" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A52,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARS***</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53">
-        <v>610</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="B54">
-        <v>620</v>
-      </c>
-      <c r="C54" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D54,A:A,0),0)," :: REM CALL ",D54,"")</f>
-        <v>GOSUB 700 :: REM CALL SETCHARSREDSUIT</v>
-      </c>
-      <c r="D54" t="str">
-        <f>A62</f>
-        <v>SETCHARSREDSUIT</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
-      <c r="B55">
-        <v>630</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="B56">
-        <v>640</v>
-      </c>
-      <c r="C56" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D56,A:A,0),0)," :: REM CALL ",D56,"")</f>
-        <v>GOSUB 780 :: REM CALL SETCHARSBLACKSUIT</v>
-      </c>
-      <c r="D56" t="str">
-        <f>A70</f>
-        <v>SETCHARSBLACKSUIT</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
-      <c r="B57">
-        <v>650</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
-      <c r="B58">
-        <v>660</v>
-      </c>
-      <c r="C58" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D58,A:A,0),0)," :: REM CALL ",D58,"")</f>
-        <v>GOSUB 1000 :: REM CALL SETCHARSEDGES</v>
-      </c>
-      <c r="D58" t="str">
-        <f>A92</f>
-        <v>SETCHARSEDGES</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="26"/>
-      <c r="B59">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="26"/>
+      <c r="B94" s="30">
+        <v>1020</v>
+      </c>
+      <c r="C94" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="26"/>
+      <c r="B95" s="30">
+        <v>1030</v>
+      </c>
+      <c r="C95" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="26"/>
+      <c r="B96" s="30">
+        <v>1040</v>
+      </c>
+      <c r="C96" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="26"/>
+      <c r="B97" s="30">
+        <v>1050</v>
+      </c>
+      <c r="C97" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="26"/>
+      <c r="B98" s="30">
+        <v>1060</v>
+      </c>
+      <c r="C98" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="26"/>
+      <c r="B99" s="30">
+        <v>1070</v>
+      </c>
+      <c r="C99" t="s">
         <v>670</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
-      <c r="B60">
-        <v>680</v>
-      </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="26"/>
+      <c r="B100" s="30">
+        <v>1080</v>
+      </c>
+      <c r="C100" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="26"/>
+      <c r="B101" s="30">
+        <v>1090</v>
+      </c>
+      <c r="C101" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="26"/>
+      <c r="B102" s="30">
+        <v>1100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="26"/>
+      <c r="B103" s="30">
+        <v>1110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="26"/>
+      <c r="B104" s="30">
+        <v>1120</v>
+      </c>
+      <c r="C104" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="26"/>
+      <c r="B105" s="30">
+        <v>1130</v>
+      </c>
+      <c r="C105" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="26"/>
+      <c r="B106" s="30">
+        <v>1140</v>
+      </c>
+      <c r="C106" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="26"/>
+      <c r="B107" s="30">
+        <v>1150</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="B108" s="30">
+        <v>1160</v>
+      </c>
+      <c r="C108" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A108,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSEDGES***</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="26"/>
+      <c r="B109" s="30">
+        <v>1170</v>
+      </c>
+      <c r="C109" s="11" t="str">
+        <f>IF(ISBLANK(E109),_xlfn.CONCAT("SUB ",A108),_xlfn.CONCAT("SUB ",A108,"(",E109,")"))</f>
+        <v>SUB SETCHARSEDGES</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="26"/>
+      <c r="B110" s="30">
+        <v>1180</v>
+      </c>
+      <c r="C110" s="28" t="str">
+        <f>IF(ISBLANK(E110),_xlfn.CONCAT("CALL ",D110),_xlfn.CONCAT("CALL ",D110,"(",E110,")"))</f>
+        <v>CALL GETCARDEDGE(CARDEDGE)</v>
+      </c>
+      <c r="D110" s="28" t="str">
+        <f>A394</f>
+        <v>GETCARDEDGE</v>
+      </c>
+      <c r="E110" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="26"/>
+      <c r="B111" s="30">
+        <v>1190</v>
+      </c>
+      <c r="C111" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="26"/>
+      <c r="B112" s="30">
+        <v>1200</v>
+      </c>
+      <c r="C112" s="28" t="str">
+        <f>IF(ISBLANK(E112),_xlfn.CONCAT("CALL ",D112),_xlfn.CONCAT("CALL ",D112,"(",E112,")"))</f>
+        <v>CALL GETCARDTOP(CARDTOP)</v>
+      </c>
+      <c r="D112" s="28" t="str">
+        <f>A398</f>
+        <v>GETCARDTOP</v>
+      </c>
+      <c r="E112" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="26"/>
+      <c r="B113" s="30">
+        <v>1210</v>
+      </c>
+      <c r="C113" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="26"/>
+      <c r="B114" s="30">
+        <v>1220</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="28" t="s">
+        <v>681</v>
+      </c>
+      <c r="B115" s="30">
+        <v>1230</v>
+      </c>
+      <c r="C115" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A115,"***")</f>
+        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="26"/>
+      <c r="B116" s="30">
+        <v>1240</v>
+      </c>
+      <c r="C116" s="11" t="str">
+        <f>IF(ISBLANK(E116),_xlfn.CONCAT("SUB ",A115),_xlfn.CONCAT("SUB ",A115,"(",E116,")"))</f>
+        <v>SUB SETCOLORSCHEME</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="26"/>
+      <c r="B117" s="30">
+        <v>1250</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="26"/>
+      <c r="B118" s="30">
+        <v>1260</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="26"/>
+      <c r="B119" s="30">
+        <v>1270</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="26"/>
+      <c r="B120" s="30">
+        <v>1280</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="26"/>
+      <c r="B121" s="30">
+        <v>1290</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="26"/>
+      <c r="B122" s="30">
+        <v>1300</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="26"/>
+      <c r="B123" s="30">
+        <v>1310</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="26"/>
+      <c r="B124" s="30">
+        <v>1320</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="B125" s="30">
+        <v>1330</v>
+      </c>
+      <c r="C125" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A125,"***")</f>
+        <v>REM SUBROUTINE ***RENDERCARD***</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="26"/>
+      <c r="B126" s="30">
+        <v>1340</v>
+      </c>
+      <c r="C126" s="11" t="str">
+        <f>IF(ISBLANK(E126),_xlfn.CONCAT("SUB ",A125),_xlfn.CONCAT("SUB ",A125,"(",E126,")"))</f>
+        <v>SUB RENDERCARD(PLAYER,CARD,FACEDOWN,HANDS(,,))</v>
+      </c>
+      <c r="E126" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="26"/>
+      <c r="B127" s="30">
+        <v>1350</v>
+      </c>
+      <c r="C127" s="28" t="str">
+        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN CALL ",D127,"(",F127,") ELSE CALL ",E127,"(",F127,")")</f>
+        <v>IF FACEDOWN=1 THEN CALL GETCARDBACK(FILL) ELSE CALL GETCARDFRONT(FILL)</v>
+      </c>
+      <c r="D127" s="28" t="str">
+        <f>A378</f>
+        <v>GETCARDBACK</v>
+      </c>
+      <c r="E127" s="28" t="str">
+        <f>A402</f>
+        <v>GETCARDFRONT</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="26"/>
+      <c r="B128" s="30">
+        <v>1360</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="26"/>
+      <c r="B129" s="30">
+        <v>1370</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="26"/>
+      <c r="B130" s="30">
+        <v>1380</v>
+      </c>
+      <c r="C130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="26"/>
+      <c r="B131" s="30">
+        <v>1390</v>
+      </c>
+      <c r="C131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="26"/>
+      <c r="B132" s="30">
+        <v>1400</v>
+      </c>
+      <c r="C132" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="26"/>
+      <c r="B133" s="30">
+        <v>1410</v>
+      </c>
+      <c r="C133" s="28" t="str">
+        <f>IF(ISBLANK(E133),_xlfn.CONCAT("CALL ",D133),_xlfn.CONCAT("CALL ",D133,"(",E133,")"))</f>
+        <v>CALL GETCARDTOP(CARDTOP)</v>
+      </c>
+      <c r="D133" s="28" t="str">
+        <f>A398</f>
+        <v>GETCARDTOP</v>
+      </c>
+      <c r="E133" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="26"/>
+      <c r="B134" s="30">
+        <v>1420</v>
+      </c>
+      <c r="C134" s="28" t="str">
+        <f>IF(ISBLANK(E134),_xlfn.CONCAT("CALL ",D134),_xlfn.CONCAT("CALL ",D134,"(",E134,")"))</f>
+        <v>CALL GETCARDEDGE(CARDEDGE)</v>
+      </c>
+      <c r="D134" s="28" t="str">
+        <f>A394</f>
+        <v>GETCARDEDGE</v>
+      </c>
+      <c r="E134" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="26"/>
+      <c r="B135" s="30">
+        <v>1430</v>
+      </c>
+      <c r="C135" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="26"/>
+      <c r="B136" s="30">
+        <v>1440</v>
+      </c>
+      <c r="C136" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="26"/>
+      <c r="B137" s="30">
+        <v>1450</v>
+      </c>
+      <c r="C137" t="str">
+        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN ",INDEX(B:B,MATCH(D137,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF FACEDOWN=1 THEN 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D137" s="29" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="26"/>
+      <c r="B138" s="30">
+        <v>1460</v>
+      </c>
+      <c r="C138" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="26"/>
+      <c r="B139" s="30">
+        <v>1470</v>
+      </c>
+      <c r="C139" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=1 THEN CALL ",D139,"(",E139,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=1 THEN CALL GETHEART(SUIT)</v>
+      </c>
+      <c r="D139" s="28" t="str">
+        <f>A366</f>
+        <v>GETHEART</v>
+      </c>
+      <c r="E139" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="26"/>
+      <c r="B140" s="30">
+        <v>1480</v>
+      </c>
+      <c r="C140" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=2 THEN CALL ",D140,"(",E140,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=2 THEN CALL GETDIAMOND(SUIT)</v>
+      </c>
+      <c r="D140" s="28" t="str">
+        <f>A370</f>
+        <v>GETDIAMOND</v>
+      </c>
+      <c r="E140" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="26"/>
+      <c r="B141" s="30">
+        <v>1490</v>
+      </c>
+      <c r="C141" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=3 THEN CALL ",D141,"(",E141,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=3 THEN CALL GETSPADE(SUIT)</v>
+      </c>
+      <c r="D141" s="28" t="str">
+        <f>A382</f>
+        <v>GETSPADE</v>
+      </c>
+      <c r="E141" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="26"/>
+      <c r="B142" s="30">
+        <v>1500</v>
+      </c>
+      <c r="C142" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=4 THEN CALL ",D142,"(",E142,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=4 THEN CALL GETCLUB(SUIT)</v>
+      </c>
+      <c r="D142" s="28" t="str">
+        <f>A386</f>
+        <v>GETCLUB</v>
+      </c>
+      <c r="E142" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="26"/>
+      <c r="B143" s="30">
+        <v>1510</v>
+      </c>
+      <c r="C143" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="26"/>
+      <c r="B144" s="30">
+        <v>1520</v>
+      </c>
+      <c r="C144" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL ",D144,"(",E144,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL GETREDVALS(CARDCHAR)</v>
+      </c>
+      <c r="D144" s="28" t="str">
+        <f>A374</f>
+        <v>GETREDVALS</v>
+      </c>
+      <c r="E144" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="26"/>
+      <c r="B145" s="30">
+        <v>1530</v>
+      </c>
+      <c r="C145" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL ",D145,"(",E145,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL GETBLACKVALS(CARDCHAR)</v>
+      </c>
+      <c r="D145" s="28" t="str">
+        <f>A390</f>
+        <v>GETBLACKVALS</v>
+      </c>
+      <c r="E145" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="26"/>
+      <c r="B146" s="30">
+        <v>1540</v>
+      </c>
+      <c r="C146" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="26"/>
+      <c r="B147" s="30">
+        <v>1550</v>
+      </c>
+      <c r="C147" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="B61">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="26"/>
+      <c r="B148" s="30">
+        <v>1560</v>
+      </c>
+      <c r="C148" t="s">
         <v>690</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="26" t="s">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="26"/>
+      <c r="B149" s="30">
+        <v>1570</v>
+      </c>
+      <c r="C149" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="26"/>
+      <c r="B150" s="30">
+        <v>1580</v>
+      </c>
+      <c r="C150" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="26"/>
+      <c r="B151" s="30">
+        <v>1590</v>
+      </c>
+      <c r="C151" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=2 THEN CALL ",D151,"(",E151,") :: GOTO ",INDEX(B:B,MATCH(F151,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=2 THEN CALL RENDER2(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D151" s="28" t="str">
+        <f>A165</f>
+        <v>RENDER2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>790</v>
+      </c>
+      <c r="F151" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="26"/>
+      <c r="B152" s="30">
+        <v>1600</v>
+      </c>
+      <c r="C152" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=3 THEN CALL ",D152,"(",E152,") :: GOTO ",INDEX(B:B,MATCH(F152,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=3 THEN CALL RENDER3(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D152" s="28" t="str">
+        <f>A170</f>
+        <v>RENDER3</v>
+      </c>
+      <c r="E152" t="s">
+        <v>790</v>
+      </c>
+      <c r="F152" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="26"/>
+      <c r="B153" s="30">
+        <v>1610</v>
+      </c>
+      <c r="C153" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=4 THEN CALL ",D153,"(",E153,") :: GOTO ",INDEX(B:B,MATCH(F153,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=4 THEN CALL RENDER4(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D153" s="28" t="str">
+        <f>A174</f>
+        <v>RENDER4</v>
+      </c>
+      <c r="E153" t="s">
+        <v>790</v>
+      </c>
+      <c r="F153" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="26"/>
+      <c r="B154" s="30">
+        <v>1620</v>
+      </c>
+      <c r="C154" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=5 THEN CALL ",D154,"(",E154,") :: GOTO ",INDEX(B:B,MATCH(F154,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=5 THEN CALL RENDER5(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D154" s="28" t="str">
+        <f>A181</f>
+        <v>RENDER5</v>
+      </c>
+      <c r="E154" t="s">
+        <v>790</v>
+      </c>
+      <c r="F154" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="26"/>
+      <c r="B155" s="30">
+        <v>1630</v>
+      </c>
+      <c r="C155" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=6 THEN CALL ",D155,"(",E155,") :: GOTO ",INDEX(B:B,MATCH(F155,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=6 THEN CALL RENDER6(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D155" s="28" t="str">
+        <f>A186</f>
+        <v>RENDER6</v>
+      </c>
+      <c r="E155" t="s">
+        <v>790</v>
+      </c>
+      <c r="F155" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="26"/>
+      <c r="B156" s="30">
+        <v>1640</v>
+      </c>
+      <c r="C156" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=7 THEN CALL ",D156,"(",E156,") :: GOTO ",INDEX(B:B,MATCH(F156,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=7 THEN CALL RENDER7(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D156" s="28" t="str">
+        <f>A191</f>
+        <v>RENDER7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>790</v>
+      </c>
+      <c r="F156" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="26"/>
+      <c r="B157" s="30">
+        <v>1650</v>
+      </c>
+      <c r="C157" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=8 THEN CALL ",D157,"(",E157,") :: GOTO ",INDEX(B:B,MATCH(F157,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=8 THEN CALL RENDER8(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D157" s="28" t="str">
+        <f>A196</f>
+        <v>RENDER8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>790</v>
+      </c>
+      <c r="F157" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="26"/>
+      <c r="B158" s="30">
+        <v>1660</v>
+      </c>
+      <c r="C158" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=9 THEN CALL ",D158,"(",E158,") :: GOTO ",INDEX(B:B,MATCH(F158,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=9 THEN CALL RENDER9(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D158" s="28" t="str">
+        <f>A207</f>
+        <v>RENDER9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>790</v>
+      </c>
+      <c r="F158" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="26"/>
+      <c r="B159" s="30">
+        <v>1670</v>
+      </c>
+      <c r="C159" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=10 THEN CALL ",D159,"(",E159,") :: GOTO ",INDEX(B:B,MATCH(F159,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=10 THEN CALL RENDER10(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D159" s="28" t="str">
+        <f>A215</f>
+        <v>RENDER10</v>
+      </c>
+      <c r="E159" t="s">
+        <v>790</v>
+      </c>
+      <c r="F159" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="26"/>
+      <c r="B160" s="30">
+        <v>1680</v>
+      </c>
+      <c r="C160" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=11 THEN CALL ",D160,"(",E160,") :: GOTO ",INDEX(B:B,MATCH(F160,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=11 THEN CALL RENDERJACK(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D160" s="28" t="str">
+        <f>A220</f>
+        <v>RENDERJACK</v>
+      </c>
+      <c r="E160" t="s">
+        <v>790</v>
+      </c>
+      <c r="F160" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="26"/>
+      <c r="B161" s="30">
+        <v>1690</v>
+      </c>
+      <c r="C161" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=12 THEN CALL ",D161,"(",E161,") :: GOTO ",INDEX(B:B,MATCH(F161,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=12 THEN CALL RENDERQUEEN(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D161" s="28" t="str">
+        <f>A226</f>
+        <v>RENDERQUEEN</v>
+      </c>
+      <c r="E161" t="s">
+        <v>790</v>
+      </c>
+      <c r="F161" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="26"/>
+      <c r="B162" s="30">
+        <v>1700</v>
+      </c>
+      <c r="C162" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=13 THEN CALL ",D162,"(",E162,") :: GOTO ",INDEX(B:B,MATCH(F162,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=13 THEN CALL RENDERKING(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D162" s="28" t="str">
+        <f>A233</f>
+        <v>RENDERKING</v>
+      </c>
+      <c r="E162" t="s">
+        <v>790</v>
+      </c>
+      <c r="F162" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="26"/>
+      <c r="B163" s="30">
+        <v>1710</v>
+      </c>
+      <c r="C163" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=14 THEN CALL ",D163,"(",E163,") :: GOTO ",INDEX(B:B,MATCH(F163,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=14 THEN CALL RENDERACE(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+      </c>
+      <c r="D163" s="28" t="str">
+        <f>A240</f>
+        <v>RENDERACE</v>
+      </c>
+      <c r="E163" t="s">
+        <v>790</v>
+      </c>
+      <c r="F163" t="str">
+        <f>A164</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="29" t="str">
+        <f>_xlfn.CONCAT(A125,".SUBEND")</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
+      <c r="B164" s="30">
+        <v>1720</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="B62">
-        <v>700</v>
-      </c>
-      <c r="C62" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A62,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSREDSUIT***</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="26"/>
-      <c r="B63">
-        <v>710</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="26"/>
-      <c r="B64">
-        <v>720</v>
-      </c>
-      <c r="C64" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="26"/>
-      <c r="B65">
-        <v>730</v>
-      </c>
-      <c r="C65" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="26"/>
-      <c r="B66">
-        <v>740</v>
-      </c>
-      <c r="C66" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D66,A:A,0),0)," :: REM CALL ",D66,"")</f>
-        <v>GOSUB 840 :: REM CALL SETCHARSVALS</v>
-      </c>
-      <c r="D66" t="str">
-        <f>A76</f>
-        <v>SETCHARSVALS</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="26"/>
-      <c r="B67">
-        <v>750</v>
-      </c>
-      <c r="C67" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="26"/>
-      <c r="B68">
-        <v>760</v>
-      </c>
-      <c r="C68" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="26"/>
-      <c r="B69">
-        <v>770</v>
-      </c>
-      <c r="C69" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="B70">
-        <v>780</v>
-      </c>
-      <c r="C70" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A70,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSBLACKSUIT***</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
-      <c r="B71">
+      <c r="B165" s="30">
+        <v>1730</v>
+      </c>
+      <c r="C165" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A165,"***")</f>
+        <v>REM SUBROUTINE ***RENDER2***</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="26"/>
+      <c r="B166" s="30">
+        <v>1740</v>
+      </c>
+      <c r="C166" s="11" t="str">
+        <f>IF(ISBLANK(E166),_xlfn.CONCAT("SUB ",A165),_xlfn.CONCAT("SUB ",A165,"(",E166,")"))</f>
+        <v>SUB RENDER2(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E166" t="s">
         <v>790</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="26"/>
-      <c r="B72">
-        <v>800</v>
-      </c>
-      <c r="C72" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
-      <c r="B73">
-        <v>810</v>
-      </c>
-      <c r="C73" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="26"/>
-      <c r="B74">
-        <v>820</v>
-      </c>
-      <c r="C74" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D74,A:A,0),0)," :: REM CALL ",D74,"")</f>
-        <v>GOSUB 840 :: REM CALL SETCHARSVALS</v>
-      </c>
-      <c r="D74" t="str">
-        <f>A76</f>
-        <v>SETCHARSVALS</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="26"/>
-      <c r="B75">
-        <v>830</v>
-      </c>
-      <c r="C75" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="B76">
-        <v>840</v>
-      </c>
-      <c r="C76" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A76,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSVALS***</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="26"/>
-      <c r="B77">
-        <v>850</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
-      <c r="B78">
-        <v>860</v>
-      </c>
-      <c r="C78" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
-      <c r="B79">
-        <v>870</v>
-      </c>
-      <c r="C79" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
-      <c r="B80">
-        <v>880</v>
-      </c>
-      <c r="C80" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="26"/>
-      <c r="B81">
-        <v>890</v>
-      </c>
-      <c r="C81" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82">
-        <v>900</v>
-      </c>
-      <c r="C82" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="26"/>
-      <c r="B83">
-        <v>910</v>
-      </c>
-      <c r="C83" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="26"/>
-      <c r="B84">
-        <v>920</v>
-      </c>
-      <c r="C84" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="26"/>
-      <c r="B85">
-        <v>930</v>
-      </c>
-      <c r="C85" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="26"/>
-      <c r="B86">
-        <v>940</v>
-      </c>
-      <c r="C86" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="26"/>
-      <c r="B87">
-        <v>950</v>
-      </c>
-      <c r="C87" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="26"/>
-      <c r="B88">
-        <v>960</v>
-      </c>
-      <c r="C88" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="26"/>
-      <c r="B89">
-        <v>970</v>
-      </c>
-      <c r="C89" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="26"/>
-      <c r="B90">
-        <v>980</v>
-      </c>
-      <c r="C90" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="26"/>
-      <c r="B91">
-        <v>990</v>
-      </c>
-      <c r="C91" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="B92">
-        <v>1000</v>
-      </c>
-      <c r="C92" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A92,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSEDGES***</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
-      <c r="B93">
-        <v>1010</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="26"/>
-      <c r="B94">
-        <v>1020</v>
-      </c>
-      <c r="C94" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="26"/>
-      <c r="B95">
-        <v>1030</v>
-      </c>
-      <c r="C95" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="26"/>
-      <c r="B96">
-        <v>1040</v>
-      </c>
-      <c r="C96" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="B97">
-        <v>1050</v>
-      </c>
-      <c r="C97" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A97,"***")</f>
-        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="B98">
-        <v>1060</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
-      <c r="B99">
-        <v>1070</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="26"/>
-      <c r="B100">
-        <v>1080</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="26"/>
-      <c r="B101">
-        <v>1090</v>
-      </c>
-      <c r="C101" s="11" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="26"/>
-      <c r="B102">
-        <v>1100</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="26"/>
-      <c r="B103">
-        <v>1110</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="26"/>
-      <c r="B104">
-        <v>1120</v>
-      </c>
-      <c r="C104" s="11" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="26"/>
-      <c r="B105">
-        <v>1130</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="26" t="s">
-        <v>577</v>
-      </c>
-      <c r="B106">
-        <v>1140</v>
-      </c>
-      <c r="C106" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A106,"***")</f>
-        <v>REM SUBROUTINE ***RENDERCARD***</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="26"/>
-      <c r="B107">
-        <v>1150</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="26"/>
-      <c r="B108">
-        <v>1160</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="26"/>
-      <c r="B109">
-        <v>1170</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="26"/>
-      <c r="B110">
-        <v>1180</v>
-      </c>
-      <c r="C110" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="26"/>
-      <c r="B111">
-        <v>1190</v>
-      </c>
-      <c r="C111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="26"/>
-      <c r="B112">
-        <v>1200</v>
-      </c>
-      <c r="C112" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="26"/>
-      <c r="B113">
-        <v>1210</v>
-      </c>
-      <c r="C113" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="26"/>
-      <c r="B114">
-        <v>1220</v>
-      </c>
-      <c r="C114" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="26"/>
-      <c r="B115">
-        <v>1230</v>
-      </c>
-      <c r="C115" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="26"/>
-      <c r="B116">
-        <v>1240</v>
-      </c>
-      <c r="C116" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="26"/>
-      <c r="B117">
-        <v>1250</v>
-      </c>
-      <c r="C117" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="26"/>
-      <c r="B118">
-        <v>1260</v>
-      </c>
-      <c r="C118" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="26"/>
-      <c r="B119">
-        <v>1270</v>
-      </c>
-      <c r="C119" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="26"/>
-      <c r="B120">
-        <v>1280</v>
-      </c>
-      <c r="C120" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="26"/>
-      <c r="B121">
-        <v>1290</v>
-      </c>
-      <c r="C121" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="26"/>
-      <c r="B122">
-        <v>1300</v>
-      </c>
-      <c r="C122" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="26"/>
-      <c r="B123">
-        <v>1310</v>
-      </c>
-      <c r="C123" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="26"/>
-      <c r="B124">
-        <v>1320</v>
-      </c>
-      <c r="C124" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="26"/>
-      <c r="B125">
-        <v>1330</v>
-      </c>
-      <c r="C125" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="26"/>
-      <c r="B126">
-        <v>1340</v>
-      </c>
-      <c r="C126" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="26"/>
-      <c r="B127">
-        <v>1350</v>
-      </c>
-      <c r="C127" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="26"/>
-      <c r="B128">
-        <v>1360</v>
-      </c>
-      <c r="C128" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="26"/>
-      <c r="B129">
-        <v>1370</v>
-      </c>
-      <c r="C129" t="str">
-        <f>_xlfn.CONCAT("ON CARDVAL-1 GOSUB ",B131,",",B135,",",B138,",",B144,",",B148,",",B152,",",B156,",",B166,",",B173,",",B177,",",B182,",",B188,",",B194," :: REM CALL RENDERX")</f>
-        <v>ON CARDVAL-1 GOSUB 1390,1430,1460,1520,1560,1600,1640,1740,1810,1850,1900,1960,2020 :: REM CALL RENDERX</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="26"/>
-      <c r="B130">
-        <v>1380</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="B131">
-        <v>1390</v>
-      </c>
-      <c r="C131" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A131,"***")</f>
-        <v>REM SUBROUTINE ***RENDER2***</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="26"/>
-      <c r="B132">
-        <v>1400</v>
-      </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="26"/>
+      <c r="B167" s="30">
+        <v>1750</v>
+      </c>
+      <c r="C167" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="26"/>
-      <c r="B133">
-        <v>1410</v>
-      </c>
-      <c r="C133" t="s">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="26"/>
+      <c r="B168" s="30">
+        <v>1760</v>
+      </c>
+      <c r="C168" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="26"/>
-      <c r="B134">
-        <v>1420</v>
-      </c>
-      <c r="C134" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="26" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="26"/>
+      <c r="B169" s="30">
+        <v>1770</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="B135">
-        <v>1430</v>
-      </c>
-      <c r="C135" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A135,"***")</f>
+      <c r="B170" s="30">
+        <v>1780</v>
+      </c>
+      <c r="C170" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A170,"***")</f>
         <v>REM SUBROUTINE ***RENDER3***</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="26"/>
-      <c r="B136">
-        <v>1440</v>
-      </c>
-      <c r="C136" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="26"/>
+      <c r="B171" s="30">
+        <v>1790</v>
+      </c>
+      <c r="C171" s="11" t="str">
+        <f>IF(ISBLANK(E171),_xlfn.CONCAT("SUB ",A170),_xlfn.CONCAT("SUB ",A170,"(",E171,")"))</f>
+        <v>SUB RENDER3(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E171" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="26"/>
+      <c r="B172" s="30">
+        <v>1800</v>
+      </c>
+      <c r="C172" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="26"/>
-      <c r="B137">
-        <v>1450</v>
-      </c>
-      <c r="C137" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="26" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="26"/>
+      <c r="B173" s="30">
+        <v>1810</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="B138">
-        <v>1460</v>
-      </c>
-      <c r="C138" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A138,"***")</f>
+      <c r="B174" s="30">
+        <v>1820</v>
+      </c>
+      <c r="C174" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A174,"***")</f>
         <v>REM SUBROUTINE ***RENDER4***</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="26"/>
-      <c r="B139">
-        <v>1470</v>
-      </c>
-      <c r="C139" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="26"/>
+      <c r="B175" s="30">
+        <v>1830</v>
+      </c>
+      <c r="C175" s="11" t="str">
+        <f>IF(ISBLANK(E175),_xlfn.CONCAT("SUB ",A174),_xlfn.CONCAT("SUB ",A174,"(",E175,")"))</f>
+        <v>SUB RENDER4(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E175" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="26"/>
+      <c r="B176" s="30">
+        <v>1840</v>
+      </c>
+      <c r="C176" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="26"/>
-      <c r="B140">
-        <v>1480</v>
-      </c>
-      <c r="C140" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="26"/>
+      <c r="B177" s="30">
+        <v>1850</v>
+      </c>
+      <c r="C177" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="26"/>
-      <c r="B141">
-        <v>1490</v>
-      </c>
-      <c r="C141" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="26"/>
+      <c r="B178" s="30">
+        <v>1860</v>
+      </c>
+      <c r="C178" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="26"/>
-      <c r="B142">
-        <v>1500</v>
-      </c>
-      <c r="C142" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="26"/>
+      <c r="B179" s="30">
+        <v>1870</v>
+      </c>
+      <c r="C179" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="26"/>
-      <c r="B143">
-        <v>1510</v>
-      </c>
-      <c r="C143" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="26" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="26"/>
+      <c r="B180" s="30">
+        <v>1880</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="B144">
-        <v>1520</v>
-      </c>
-      <c r="C144" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A144,"***")</f>
+      <c r="B181" s="30">
+        <v>1890</v>
+      </c>
+      <c r="C181" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A181,"***")</f>
         <v>REM SUBROUTINE ***RENDER5***</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="26"/>
-      <c r="B145">
-        <v>1530</v>
-      </c>
-      <c r="C145" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D145,A:A,0),0)," :: REM CALL ",D145,"")</f>
-        <v>GOSUB 1460 :: REM CALL RENDER4</v>
-      </c>
-      <c r="D145" t="str">
-        <f>A138</f>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="26"/>
+      <c r="B182" s="30">
+        <v>1900</v>
+      </c>
+      <c r="C182" s="11" t="str">
+        <f>IF(ISBLANK(E182),_xlfn.CONCAT("SUB ",A181),_xlfn.CONCAT("SUB ",A181,"(",E182,")"))</f>
+        <v>SUB RENDER5(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E182" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="26"/>
+      <c r="B183" s="30">
+        <v>1910</v>
+      </c>
+      <c r="C183" s="28" t="str">
+        <f>IF(ISBLANK(E183),_xlfn.CONCAT("CALL ",D183),_xlfn.CONCAT("CALL ",D183,"(",E183,")"))</f>
+        <v>CALL RENDER4((ROW),(COL),(SUIT))</v>
+      </c>
+      <c r="D183" s="28" t="str">
+        <f>A174</f>
         <v>RENDER4</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="26"/>
-      <c r="B146">
-        <v>1540</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="E183" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="26"/>
+      <c r="B184" s="30">
+        <v>1920</v>
+      </c>
+      <c r="C184" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="26"/>
-      <c r="B147">
-        <v>1550</v>
-      </c>
-      <c r="C147" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="26" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="26"/>
+      <c r="B185" s="30">
+        <v>1930</v>
+      </c>
+      <c r="C185" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="B148">
-        <v>1560</v>
-      </c>
-      <c r="C148" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A148,"***")</f>
+      <c r="B186" s="30">
+        <v>1940</v>
+      </c>
+      <c r="C186" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A186,"***")</f>
         <v>REM SUBROUTINE ***RENDER6***</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="26"/>
-      <c r="B149">
-        <v>1570</v>
-      </c>
-      <c r="C149" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="26"/>
+      <c r="B187" s="30">
+        <v>1950</v>
+      </c>
+      <c r="C187" s="11" t="str">
+        <f>IF(ISBLANK(E187),_xlfn.CONCAT("SUB ",A186),_xlfn.CONCAT("SUB ",A186,"(",E187,")"))</f>
+        <v>SUB RENDER6(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E187" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="26"/>
+      <c r="B188" s="30">
+        <v>1960</v>
+      </c>
+      <c r="C188" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="26"/>
-      <c r="B150">
-        <v>1580</v>
-      </c>
-      <c r="C150" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="26"/>
+      <c r="B189" s="30">
+        <v>1970</v>
+      </c>
+      <c r="C189" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="26"/>
-      <c r="B151">
-        <v>1590</v>
-      </c>
-      <c r="C151" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="26" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="26"/>
+      <c r="B190" s="30">
+        <v>1980</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="B152">
-        <v>1600</v>
-      </c>
-      <c r="C152" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A152,"***")</f>
+      <c r="B191" s="30">
+        <v>1990</v>
+      </c>
+      <c r="C191" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A191,"***")</f>
         <v>REM SUBROUTINE ***RENDER7***</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="26"/>
-      <c r="B153">
-        <v>1610</v>
-      </c>
-      <c r="C153" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D153,A:A,0),0)," :: REM CALL ",D153,"")</f>
-        <v>GOSUB 1560 :: REM CALL RENDER6</v>
-      </c>
-      <c r="D153" t="str">
-        <f>A148</f>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="26"/>
+      <c r="B192" s="30">
+        <v>2000</v>
+      </c>
+      <c r="C192" s="11" t="str">
+        <f>IF(ISBLANK(E192),_xlfn.CONCAT("SUB ",A191),_xlfn.CONCAT("SUB ",A191,"(",E192,")"))</f>
+        <v>SUB RENDER7(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E192" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="26"/>
+      <c r="B193" s="30">
+        <v>2010</v>
+      </c>
+      <c r="C193" s="28" t="str">
+        <f>IF(ISBLANK(E193),_xlfn.CONCAT("CALL ",D193),_xlfn.CONCAT("CALL ",D193,"(",E193,")"))</f>
+        <v>CALL RENDER6((ROW),(COL),(SUIT))</v>
+      </c>
+      <c r="D193" s="28" t="str">
+        <f>A186</f>
         <v>RENDER6</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="26"/>
-      <c r="B154">
-        <v>1620</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="E193" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="26"/>
+      <c r="B194" s="30">
+        <v>2020</v>
+      </c>
+      <c r="C194" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="26"/>
-      <c r="B155">
-        <v>1630</v>
-      </c>
-      <c r="C155" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="26" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="26"/>
+      <c r="B195" s="30">
+        <v>2030</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="B156">
-        <v>1640</v>
-      </c>
-      <c r="C156" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A156,"***")</f>
+      <c r="B196" s="30">
+        <v>2040</v>
+      </c>
+      <c r="C196" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A196,"***")</f>
         <v>REM SUBROUTINE ***RENDER8***</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="26"/>
-      <c r="B157">
-        <v>1650</v>
-      </c>
-      <c r="C157" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="26"/>
+      <c r="B197" s="30">
+        <v>2050</v>
+      </c>
+      <c r="C197" s="11" t="str">
+        <f>IF(ISBLANK(E197),_xlfn.CONCAT("SUB ",A196),_xlfn.CONCAT("SUB ",A196,"(",E197,")"))</f>
+        <v>SUB RENDER8(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E197" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="26"/>
+      <c r="B198" s="30">
+        <v>2060</v>
+      </c>
+      <c r="C198" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="26"/>
-      <c r="B158">
-        <v>1660</v>
-      </c>
-      <c r="C158" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="26"/>
+      <c r="B199" s="30">
+        <v>2070</v>
+      </c>
+      <c r="C199" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="26"/>
-      <c r="B159">
-        <v>1670</v>
-      </c>
-      <c r="C159" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="26"/>
+      <c r="B200" s="30">
+        <v>2080</v>
+      </c>
+      <c r="C200" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="26"/>
-      <c r="B160">
-        <v>1680</v>
-      </c>
-      <c r="C160" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="26"/>
+      <c r="B201" s="30">
+        <v>2090</v>
+      </c>
+      <c r="C201" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="26"/>
-      <c r="B161">
-        <v>1690</v>
-      </c>
-      <c r="C161" t="s">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="26"/>
+      <c r="B202" s="30">
+        <v>2100</v>
+      </c>
+      <c r="C202" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="26"/>
-      <c r="B162">
-        <v>1700</v>
-      </c>
-      <c r="C162" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="26"/>
+      <c r="B203" s="30">
+        <v>2110</v>
+      </c>
+      <c r="C203" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="26"/>
-      <c r="B163">
-        <v>1710</v>
-      </c>
-      <c r="C163" t="s">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="26"/>
+      <c r="B204" s="30">
+        <v>2120</v>
+      </c>
+      <c r="C204" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="26"/>
-      <c r="B164">
-        <v>1720</v>
-      </c>
-      <c r="C164" t="s">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="26"/>
+      <c r="B205" s="30">
+        <v>2130</v>
+      </c>
+      <c r="C205" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="26"/>
-      <c r="B165">
-        <v>1730</v>
-      </c>
-      <c r="C165" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="26" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="26"/>
+      <c r="B206" s="30">
+        <v>2140</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="B166">
-        <v>1740</v>
-      </c>
-      <c r="C166" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A166,"***")</f>
+      <c r="B207" s="30">
+        <v>2150</v>
+      </c>
+      <c r="C207" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A207,"***")</f>
         <v>REM SUBROUTINE ***RENDER9***</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="26"/>
-      <c r="B167">
-        <v>1750</v>
-      </c>
-      <c r="C167" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="26"/>
+      <c r="B208" s="30">
+        <v>2160</v>
+      </c>
+      <c r="C208" s="11" t="str">
+        <f>IF(ISBLANK(E208),_xlfn.CONCAT("SUB ",A207),_xlfn.CONCAT("SUB ",A207,"(",E208,")"))</f>
+        <v>SUB RENDER9(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E208" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="26"/>
+      <c r="B209" s="30">
+        <v>2170</v>
+      </c>
+      <c r="C209" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="26"/>
-      <c r="B168">
-        <v>1760</v>
-      </c>
-      <c r="C168" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="26"/>
+      <c r="B210" s="30">
+        <v>2180</v>
+      </c>
+      <c r="C210" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="26"/>
-      <c r="B169">
-        <v>1770</v>
-      </c>
-      <c r="C169" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="26"/>
+      <c r="B211" s="30">
+        <v>2190</v>
+      </c>
+      <c r="C211" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="26"/>
-      <c r="B170">
-        <v>1780</v>
-      </c>
-      <c r="C170" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="26"/>
+      <c r="B212" s="30">
+        <v>2200</v>
+      </c>
+      <c r="C212" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="26"/>
-      <c r="B171">
-        <v>1790</v>
-      </c>
-      <c r="C171" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="26"/>
+      <c r="B213" s="30">
+        <v>2210</v>
+      </c>
+      <c r="C213" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="26"/>
-      <c r="B172">
-        <v>1800</v>
-      </c>
-      <c r="C172" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="26" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="26"/>
+      <c r="B214" s="30">
+        <v>2220</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="B173">
-        <v>1810</v>
-      </c>
-      <c r="C173" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A173,"***")</f>
+      <c r="B215" s="30">
+        <v>2230</v>
+      </c>
+      <c r="C215" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A215,"***")</f>
         <v>REM SUBROUTINE ***RENDER10***</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="26"/>
-      <c r="B174">
-        <v>1820</v>
-      </c>
-      <c r="C174" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="26"/>
+      <c r="B216" s="30">
+        <v>2240</v>
+      </c>
+      <c r="C216" s="11" t="str">
+        <f>IF(ISBLANK(E216),_xlfn.CONCAT("SUB ",A215),_xlfn.CONCAT("SUB ",A215,"(",E216,")"))</f>
+        <v>SUB RENDER10(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E216" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="26"/>
+      <c r="B217" s="30">
+        <v>2250</v>
+      </c>
+      <c r="C217" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="26"/>
-      <c r="B175">
-        <v>1830</v>
-      </c>
-      <c r="C175" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="26"/>
+      <c r="B218" s="30">
+        <v>2260</v>
+      </c>
+      <c r="C218" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="26"/>
-      <c r="B176">
-        <v>1840</v>
-      </c>
-      <c r="C176" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="26" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="26"/>
+      <c r="B219" s="30">
+        <v>2270</v>
+      </c>
+      <c r="C219" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="B177">
-        <v>1850</v>
-      </c>
-      <c r="C177" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A177,"***")</f>
-        <v>REM SUBROUTINE ***RENDERJACK***</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="26"/>
-      <c r="B178">
-        <v>1860</v>
-      </c>
-      <c r="C178" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="26"/>
-      <c r="B179">
-        <v>1870</v>
-      </c>
-      <c r="C179" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="26"/>
-      <c r="B180">
-        <v>1880</v>
-      </c>
-      <c r="C180" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="26"/>
-      <c r="B181">
-        <v>1890</v>
-      </c>
-      <c r="C181" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="26" t="s">
-        <v>587</v>
-      </c>
-      <c r="B182">
-        <v>1900</v>
-      </c>
-      <c r="C182" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A182,"***")</f>
-        <v>REM SUBROUTINE ***RENDERQUEEN***</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="26"/>
-      <c r="B183">
-        <v>1910</v>
-      </c>
-      <c r="C183" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="26"/>
-      <c r="B184">
-        <v>1920</v>
-      </c>
-      <c r="C184" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="26"/>
-      <c r="B185">
-        <v>1930</v>
-      </c>
-      <c r="C185" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="26"/>
-      <c r="B186">
-        <v>1940</v>
-      </c>
-      <c r="C186" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="26"/>
-      <c r="B187">
-        <v>1950</v>
-      </c>
-      <c r="C187" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="26" t="s">
-        <v>588</v>
-      </c>
-      <c r="B188">
-        <v>1960</v>
-      </c>
-      <c r="C188" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A188,"***")</f>
-        <v>REM SUBROUTINE ***RENDERKING***</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="26"/>
-      <c r="B189">
-        <v>1970</v>
-      </c>
-      <c r="C189" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="26"/>
-      <c r="B190">
-        <v>1980</v>
-      </c>
-      <c r="C190" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="26"/>
-      <c r="B191">
-        <v>1990</v>
-      </c>
-      <c r="C191" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="26"/>
-      <c r="B192">
-        <v>2000</v>
-      </c>
-      <c r="C192" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="26"/>
-      <c r="B193">
-        <v>2010</v>
-      </c>
-      <c r="C193" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="26" t="s">
-        <v>589</v>
-      </c>
-      <c r="B194">
-        <v>2020</v>
-      </c>
-      <c r="C194" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A194,"***")</f>
-        <v>REM SUBROUTINE ***RENDERACE***</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="26"/>
-      <c r="B195">
-        <v>2030</v>
-      </c>
-      <c r="C195" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="26"/>
-      <c r="B196">
-        <v>2040</v>
-      </c>
-      <c r="C196" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="26" t="s">
-        <v>828</v>
-      </c>
-      <c r="B197">
-        <v>2050</v>
-      </c>
-      <c r="C197" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A197,"***")</f>
-        <v>REM SUBROUTINE ***SHUFFLE***</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="26"/>
-      <c r="B198">
-        <v>2060</v>
-      </c>
-      <c r="C198" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="26"/>
-      <c r="B199">
-        <v>2070</v>
-      </c>
-      <c r="C199" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="26"/>
-      <c r="B200">
-        <v>2080</v>
-      </c>
-      <c r="C200" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="26" t="s">
-        <v>804</v>
-      </c>
-      <c r="B201">
-        <v>2090</v>
-      </c>
-      <c r="C201" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A201,"***")</f>
-        <v>REM LABEL ***DRAWLOOP***</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="26"/>
-      <c r="B202">
-        <v>2100</v>
-      </c>
-      <c r="C202" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="26"/>
-      <c r="B203">
-        <v>2110</v>
-      </c>
-      <c r="C203" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="26"/>
-      <c r="B204">
-        <v>2120</v>
-      </c>
-      <c r="C204" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="26"/>
-      <c r="B205">
-        <v>2130</v>
-      </c>
-      <c r="C205" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="26"/>
-      <c r="B206">
-        <v>2140</v>
-      </c>
-      <c r="C206" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D206,A:A,0),0)," :: REM CALL ",D206,"")</f>
-        <v>GOSUB 2280 :: REM CALL CHECKDUP</v>
-      </c>
-      <c r="D206" t="str">
-        <f>A220</f>
-        <v>CHECKDUP</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="26"/>
-      <c r="B207">
-        <v>2150</v>
-      </c>
-      <c r="C207" t="str">
-        <f>_xlfn.CONCAT("IF DUP=1 THEN ",INDEX(B:B,MATCH(D207,A:A,0),0)," :: REM GOTO ",D207,"")</f>
-        <v>IF DUP=1 THEN 2090 :: REM GOTO DRAWLOOP</v>
-      </c>
-      <c r="D207" t="str">
-        <f>A201</f>
-        <v>DRAWLOOP</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="26"/>
-      <c r="B208">
-        <v>2160</v>
-      </c>
-      <c r="C208" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="26"/>
-      <c r="B209">
-        <v>2170</v>
-      </c>
-      <c r="C209" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="26"/>
-      <c r="B210">
-        <v>2180</v>
-      </c>
-      <c r="C210" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="26"/>
-      <c r="B211">
-        <v>2190</v>
-      </c>
-      <c r="C211" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="26"/>
-      <c r="B212">
-        <v>2200</v>
-      </c>
-      <c r="C212" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="26"/>
-      <c r="B213">
-        <v>2210</v>
-      </c>
-      <c r="C213" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="26"/>
-      <c r="B214">
-        <v>2220</v>
-      </c>
-      <c r="C214" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="26"/>
-      <c r="B215">
-        <v>2230</v>
-      </c>
-      <c r="C215" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="26"/>
-      <c r="B216">
-        <v>2240</v>
-      </c>
-      <c r="C216" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="26"/>
-      <c r="B217">
-        <v>2250</v>
-      </c>
-      <c r="C217" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="26"/>
-      <c r="B218">
-        <v>2260</v>
-      </c>
-      <c r="C218" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="26"/>
-      <c r="B219">
-        <v>2270</v>
-      </c>
-      <c r="C219" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="26" t="s">
-        <v>800</v>
-      </c>
-      <c r="B220">
+      <c r="B220" s="30">
         <v>2280</v>
       </c>
       <c r="C220" s="11" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A220,"***")</f>
-        <v>REM SUBROUTINE ***CHECKDUP***</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+        <v>REM SUBROUTINE ***RENDERJACK***</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="26"/>
-      <c r="B221">
+      <c r="B221" s="30">
         <v>2290</v>
       </c>
-      <c r="C221" s="11" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C221" s="11" t="str">
+        <f>IF(ISBLANK(E221),_xlfn.CONCAT("SUB ",A220),_xlfn.CONCAT("SUB ",A220,"(",E221,")"))</f>
+        <v>SUB RENDERJACK(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E221" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="26"/>
-      <c r="B222">
+      <c r="B222" s="30">
         <v>2300</v>
       </c>
-      <c r="C222" s="11" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C222" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="26"/>
-      <c r="B223">
+      <c r="B223" s="30">
         <v>2310</v>
       </c>
-      <c r="C223" s="11" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C223" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="26"/>
-      <c r="B224">
+      <c r="B224" s="30">
         <v>2320</v>
       </c>
-      <c r="C224" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="26"/>
-      <c r="B225">
+      <c r="B225" s="30">
         <v>2330</v>
       </c>
       <c r="C225" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="B226">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="B226" s="30">
         <v>2340</v>
       </c>
       <c r="C226" s="11" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A226,"***")</f>
-        <v>REM SUBROUTINE ***CLEARTABLE***</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+        <v>REM SUBROUTINE ***RENDERQUEEN***</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="26"/>
-      <c r="B227">
+      <c r="B227" s="30">
         <v>2350</v>
       </c>
-      <c r="C227" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C227" s="11" t="str">
+        <f>IF(ISBLANK(E227),_xlfn.CONCAT("SUB ",A226),_xlfn.CONCAT("SUB ",A226,"(",E227,")"))</f>
+        <v>SUB RENDERQUEEN(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E227" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="26"/>
-      <c r="B228">
+      <c r="B228" s="30">
         <v>2360</v>
       </c>
       <c r="C228" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="26"/>
-      <c r="B229">
+      <c r="B229" s="30">
         <v>2370</v>
       </c>
       <c r="C229" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="26"/>
-      <c r="B230">
+      <c r="B230" s="30">
         <v>2380</v>
       </c>
       <c r="C230" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="B231">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="26"/>
+      <c r="B231" s="30">
         <v>2390</v>
       </c>
-      <c r="C231" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A231,"***")</f>
-        <v>REM SUBROUTINE ***DEAL***</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C231" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="26"/>
-      <c r="B232">
+      <c r="B232" s="30">
         <v>2400</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="26"/>
-      <c r="B233">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="B233" s="30">
         <v>2410</v>
       </c>
-      <c r="C233" s="11" t="s">
+      <c r="C233" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A233,"***")</f>
+        <v>REM SUBROUTINE ***RENDERKING***</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="26"/>
+      <c r="B234" s="30">
+        <v>2420</v>
+      </c>
+      <c r="C234" s="11" t="str">
+        <f>IF(ISBLANK(E234),_xlfn.CONCAT("SUB ",A233),_xlfn.CONCAT("SUB ",A233,"(",E234,")"))</f>
+        <v>SUB RENDERKING(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E234" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="26"/>
+      <c r="B235" s="30">
+        <v>2430</v>
+      </c>
+      <c r="C235" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="26"/>
+      <c r="B236" s="30">
+        <v>2440</v>
+      </c>
+      <c r="C236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="26"/>
+      <c r="B237" s="30">
+        <v>2450</v>
+      </c>
+      <c r="C237" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="26"/>
+      <c r="B238" s="30">
+        <v>2460</v>
+      </c>
+      <c r="C238" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="26"/>
+      <c r="B239" s="30">
+        <v>2470</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="B240" s="30">
+        <v>2480</v>
+      </c>
+      <c r="C240" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A240,"***")</f>
+        <v>REM SUBROUTINE ***RENDERACE***</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="26"/>
+      <c r="B241" s="30">
+        <v>2490</v>
+      </c>
+      <c r="C241" s="11" t="str">
+        <f>IF(ISBLANK(E241),_xlfn.CONCAT("SUB ",A240),_xlfn.CONCAT("SUB ",A240,"(",E241,")"))</f>
+        <v>SUB RENDERACE(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E241" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="26"/>
+      <c r="B242" s="30">
+        <v>2500</v>
+      </c>
+      <c r="C242" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="26"/>
+      <c r="B243" s="30">
+        <v>2510</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="B244" s="30">
+        <v>2520</v>
+      </c>
+      <c r="C244" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A244,"***")</f>
+        <v>REM SUBROUTINE ***PLAY***</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="26"/>
+      <c r="B245" s="30">
+        <v>2530</v>
+      </c>
+      <c r="C245" s="11" t="str">
+        <f>IF(ISBLANK(E245),_xlfn.CONCAT("SUB ",A244),_xlfn.CONCAT("SUB ",A244,"(",E245,")"))</f>
+        <v>SUB PLAY</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="26"/>
+      <c r="B246" s="30">
+        <v>2540</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="26"/>
+      <c r="B247" s="30">
+        <v>2550</v>
+      </c>
+      <c r="C247" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="26"/>
+      <c r="B248" s="30">
+        <v>2560</v>
+      </c>
+      <c r="C248" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="26"/>
+      <c r="B249" s="30">
+        <v>2570</v>
+      </c>
+      <c r="C249" s="28" t="str">
+        <f>IF(ISBLANK(E249),_xlfn.CONCAT("CALL ",D249),_xlfn.CONCAT("CALL ",D249,"(",E249,")"))</f>
+        <v>CALL CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
+      </c>
+      <c r="D249" s="28" t="str">
+        <f>A292</f>
+        <v>CLEARTABLE</v>
+      </c>
+      <c r="E249" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="26"/>
+      <c r="B250" s="30">
+        <v>2580</v>
+      </c>
+      <c r="C250" s="28" t="str">
+        <f>IF(ISBLANK(E250),_xlfn.CONCAT("CALL ",D250),_xlfn.CONCAT("CALL ",D250,"(",E250,")"))</f>
+        <v>CALL SHUFFLE(HANDS(,,))</v>
+      </c>
+      <c r="D250" s="28" t="str">
+        <f>A299</f>
+        <v>SHUFFLE</v>
+      </c>
+      <c r="E250" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="26"/>
+      <c r="B251" s="30">
+        <v>2590</v>
+      </c>
+      <c r="C251" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="26"/>
+      <c r="B252" s="30">
+        <v>2600</v>
+      </c>
+      <c r="C252" s="28" t="str">
+        <f>IF(ISBLANK(E252),_xlfn.CONCAT("CALL ",D252),_xlfn.CONCAT("CALL ",D252,"(",E252,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D252" s="28" t="str">
+        <f>A331</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E252" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="26"/>
+      <c r="B253" s="30">
+        <v>2610</v>
+      </c>
+      <c r="C253" s="28" t="str">
+        <f>IF(ISBLANK(E253),_xlfn.CONCAT("CALL ",D253),_xlfn.CONCAT("CALL ",D253,"(",E253,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D253" s="28" t="str">
+        <f>A331</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E253" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="26"/>
+      <c r="B254" s="30">
+        <v>2620</v>
+      </c>
+      <c r="C254" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="26"/>
+      <c r="B255" s="30">
+        <v>2630</v>
+      </c>
+      <c r="C255" s="28" t="str">
+        <f>IF(ISBLANK(E255),_xlfn.CONCAT("CALL ",D255),_xlfn.CONCAT("CALL ",D255,"(",E255,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D255" s="28" t="str">
+        <f>A331</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E255" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="26"/>
+      <c r="B256" s="30">
+        <v>2640</v>
+      </c>
+      <c r="C256" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="26"/>
+      <c r="B257" s="30">
+        <v>2650</v>
+      </c>
+      <c r="C257" s="28" t="str">
+        <f>IF(ISBLANK(E257),_xlfn.CONCAT("CALL ",D257),_xlfn.CONCAT("CALL ",D257,"(",E257,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D257" s="28" t="str">
+        <f>A331</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E257" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="26"/>
+      <c r="B258" s="30">
+        <v>2660</v>
+      </c>
+      <c r="C258" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="26"/>
-      <c r="B234">
-        <v>2420</v>
-      </c>
-      <c r="C234" s="11" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="26"/>
-      <c r="B235">
-        <v>2430</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="26"/>
-      <c r="B236">
-        <v>2440</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="26"/>
-      <c r="B237">
-        <v>2450</v>
-      </c>
-      <c r="C237" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D237,A:A,0),0)," :: REM CALL ",D237,"")</f>
-        <v>GOSUB 1140 :: REM CALL RENDERCARD</v>
-      </c>
-      <c r="D237" t="str">
-        <f>A106</f>
-        <v>RENDERCARD</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="26"/>
-      <c r="B238">
-        <v>2460</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="B239">
-        <v>2470</v>
-      </c>
-      <c r="C239" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A239,"***")</f>
-        <v>REM SUBROUTINE ***PLAY***</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="26"/>
-      <c r="B240">
-        <v>2480</v>
-      </c>
-      <c r="C240" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D240,A:A,0),0)," :: REM CALL ",D240,"")</f>
-        <v>GOSUB 2340 :: REM CALL CLEARTABLE</v>
-      </c>
-      <c r="D240" t="str">
-        <f>A226</f>
-        <v>CLEARTABLE</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="26"/>
-      <c r="B241">
-        <v>2490</v>
-      </c>
-      <c r="C241" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D241,A:A,0),0)," :: REM CALL ",D241,"")</f>
-        <v>GOSUB 2050 :: REM CALL SHUFFLE</v>
-      </c>
-      <c r="D241" t="str">
-        <f>A197</f>
-        <v>SHUFFLE</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="26"/>
-      <c r="B242">
-        <v>2500</v>
-      </c>
-      <c r="C242" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="26"/>
-      <c r="B243">
-        <v>2510</v>
-      </c>
-      <c r="C243" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D243,A:A,0),0)," :: REM CALL ",D243,"")</f>
-        <v>GOSUB 2390 :: REM CALL DEAL</v>
-      </c>
-      <c r="D243" t="str">
-        <f>A231</f>
-        <v>DEAL</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="26"/>
-      <c r="B244">
-        <v>2520</v>
-      </c>
-      <c r="C244" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D244,A:A,0),0)," :: REM CALL ",D244,"")</f>
-        <v>GOSUB 2390 :: REM CALL DEAL</v>
-      </c>
-      <c r="D244" t="str">
-        <f>A231</f>
-        <v>DEAL</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="26"/>
-      <c r="B245">
-        <v>2530</v>
-      </c>
-      <c r="C245" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="26"/>
-      <c r="B246">
-        <v>2540</v>
-      </c>
-      <c r="C246" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D246,A:A,0),0)," :: REM CALL ",D246,"")</f>
-        <v>GOSUB 2390 :: REM CALL DEAL</v>
-      </c>
-      <c r="D246" t="str">
-        <f>A231</f>
-        <v>DEAL</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="26"/>
-      <c r="B247">
-        <v>2550</v>
-      </c>
-      <c r="C247" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="26"/>
-      <c r="B248">
-        <v>2560</v>
-      </c>
-      <c r="C248" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D248,A:A,0),0)," :: REM CALL ",D248,"")</f>
-        <v>GOSUB 2390 :: REM CALL DEAL</v>
-      </c>
-      <c r="D248" t="str">
-        <f>A231</f>
-        <v>DEAL</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="26"/>
-      <c r="B249">
-        <v>2570</v>
-      </c>
-      <c r="C249" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="26"/>
-      <c r="B250">
-        <v>2580</v>
-      </c>
-      <c r="C250" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="26"/>
-      <c r="B251">
-        <v>2590</v>
-      </c>
-      <c r="C251" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="26"/>
-      <c r="B252">
-        <v>2600</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="26"/>
-      <c r="B253">
-        <v>2610</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="26"/>
-      <c r="B254">
-        <v>2620</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="26"/>
-      <c r="B255">
-        <v>2630</v>
-      </c>
-      <c r="C255" s="1" t="str">
-        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D255,A:A,0),0)," :: REM GOTO ",D255,"")</f>
-        <v>IF A$="N" THEN 2700 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D255" t="str">
-        <f>A262</f>
-        <v>REVEAL</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="26"/>
-      <c r="B256">
-        <v>2640</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="26"/>
-      <c r="B257">
-        <v>2650</v>
-      </c>
-      <c r="C257" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D257,A:A,0),0)," :: REM CALL ",D257,"")</f>
-        <v>GOSUB 2390 :: REM CALL DEAL</v>
-      </c>
-      <c r="D257" t="str">
-        <f>A231</f>
-        <v>DEAL</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="26"/>
-      <c r="B258">
-        <v>2660</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="26"/>
-      <c r="B259">
+      <c r="B259" s="30">
         <v>2670</v>
       </c>
       <c r="C259" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="26"/>
-      <c r="B260">
+      <c r="B260" s="30">
         <v>2680</v>
       </c>
-      <c r="C260" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D260,A:A,0),0)," :: REM GOTO ",D260,"")</f>
-        <v>IF BUSTED=1 THEN 2700 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D260" t="str">
-        <f>A262</f>
-        <v>REVEAL</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C260" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="26"/>
-      <c r="B261">
+      <c r="B261" s="30">
         <v>2690</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="B262">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="B262" s="30">
         <v>2700</v>
       </c>
       <c r="C262" t="str">
         <f>_xlfn.CONCAT("REM LABEL ***",A262,"***")</f>
+        <v>REM LABEL ***ASKANOTHER***</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="26"/>
+      <c r="B263" s="30">
+        <v>2710</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="26"/>
+      <c r="B264" s="30">
+        <v>2720</v>
+      </c>
+      <c r="C264" t="str">
+        <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D264,A:A,0),0)," :: REM GOTO ",D264,"")</f>
+        <v>IF A$="" THEN 2700 :: REM GOTO ASKANOTHER</v>
+      </c>
+      <c r="D264" s="29" t="str">
+        <f>A262</f>
+        <v>ASKANOTHER</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="26"/>
+      <c r="B265" s="30">
+        <v>2730</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="26"/>
+      <c r="B266" s="30">
+        <v>2740</v>
+      </c>
+      <c r="C266" s="1" t="str">
+        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D266,A:A,0),0)," :: REM GOTO ",D266,"")</f>
+        <v>IF A$="N" THEN 2810 :: REM GOTO REVEAL</v>
+      </c>
+      <c r="D266" s="29" t="str">
+        <f>A273</f>
+        <v>REVEAL</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="26"/>
+      <c r="B267" s="30">
+        <v>2750</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="26"/>
+      <c r="B268" s="30">
+        <v>2760</v>
+      </c>
+      <c r="C268" s="28" t="str">
+        <f>IF(ISBLANK(E268),_xlfn.CONCAT("CALL ",D268),_xlfn.CONCAT("CALL ",D268,"(",E268,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D268" s="28" t="str">
+        <f>A331</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E268" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="26"/>
+      <c r="B269" s="30">
+        <v>2770</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="26"/>
+      <c r="B270" s="30">
+        <v>2780</v>
+      </c>
+      <c r="C270" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="26"/>
+      <c r="B271" s="30">
+        <v>2790</v>
+      </c>
+      <c r="C271" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D271,A:A,0),0)," :: REM GOTO ",D271,"")</f>
+        <v>IF BUSTED=1 THEN 2810 :: REM GOTO REVEAL</v>
+      </c>
+      <c r="D271" s="29" t="str">
+        <f>A273</f>
+        <v>REVEAL</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="26"/>
+      <c r="B272" s="30">
+        <v>2800</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="B273" s="30">
+        <v>2810</v>
+      </c>
+      <c r="C273" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A273,"***")</f>
         <v>REM LABEL ***REVEAL***</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="26"/>
-      <c r="B263">
-        <v>2710</v>
-      </c>
-      <c r="C263" s="1" t="s">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="26"/>
+      <c r="B274" s="30">
+        <v>2820</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="26"/>
+      <c r="B275" s="30">
+        <v>2830</v>
+      </c>
+      <c r="C275" s="28" t="str">
+        <f>IF(ISBLANK(E275),_xlfn.CONCAT("CALL ",D275),_xlfn.CONCAT("CALL ",D275,"(",E275,")"))</f>
+        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D275" s="28" t="str">
+        <f>A125</f>
+        <v>RENDERCARD</v>
+      </c>
+      <c r="E275" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="26"/>
+      <c r="B276" s="30">
+        <v>2840</v>
+      </c>
+      <c r="C276" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D276,A:A,0),0)," :: REM GOTO ",D276,"")</f>
+        <v>IF BUSTED=1 THEN 2980 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D276" s="29" t="str">
+        <f>A290</f>
+        <v>GAMEOVER</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="27"/>
+      <c r="B277" s="30">
+        <v>2850</v>
+      </c>
+      <c r="C277" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="27"/>
+      <c r="B278" s="30">
+        <v>2860</v>
+      </c>
+      <c r="C278" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="27"/>
+      <c r="B279" s="30">
+        <v>2870</v>
+      </c>
+      <c r="C279" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="27"/>
+      <c r="B280" s="30">
+        <v>2880</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="27"/>
+      <c r="B281" s="30">
+        <v>2890</v>
+      </c>
+      <c r="C281" s="28" t="str">
+        <f>IF(ISBLANK(E281),_xlfn.CONCAT("CALL ",D281),_xlfn.CONCAT("CALL ",D281,"(",E281,")"))</f>
+        <v>CALL CALCSCORE(SCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D281" s="28" t="str">
+        <f>A340</f>
+        <v>CALCSCORE</v>
+      </c>
+      <c r="E281" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="27"/>
+      <c r="B282" s="30">
+        <v>2900</v>
+      </c>
+      <c r="C282" t="str">
+        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D282,A:A,0),0)," :: REM GOTO ",D282,"")</f>
+        <v>IF SCORE&gt;=17 THEN 2960 :: REM GOTO TALLY</v>
+      </c>
+      <c r="D282" s="29" t="str">
+        <f>A288</f>
+        <v>TALLY</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="27"/>
+      <c r="B283" s="30">
+        <v>2910</v>
+      </c>
+      <c r="C283" s="28" t="str">
+        <f>IF(ISBLANK(E283),_xlfn.CONCAT("CALL ",D283),_xlfn.CONCAT("CALL ",D283,"(",E283,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D283" s="28" t="str">
+        <f>A331</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E283" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="27"/>
+      <c r="B284" s="30">
+        <v>2920</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="27"/>
+      <c r="B285" s="30">
+        <v>2930</v>
+      </c>
+      <c r="C285" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="27"/>
+      <c r="B286" s="30">
+        <v>2940</v>
+      </c>
+      <c r="C286" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D286,A:A,0),0)," :: REM GOTO ",D286,"")</f>
+        <v>IF BUSTED=1 THEN 2980 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D286" s="29" t="str">
+        <f>A290</f>
+        <v>GAMEOVER</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="27"/>
+      <c r="B287" s="30">
+        <v>2950</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="27" t="s">
+        <v>719</v>
+      </c>
+      <c r="B288" s="30">
+        <v>2960</v>
+      </c>
+      <c r="C288" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A288,"***")</f>
+        <v>REM LABEL ***TALLY***</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="26"/>
+      <c r="B289" s="30">
+        <v>2970</v>
+      </c>
+      <c r="C289" s="28" t="str">
+        <f>IF(ISBLANK(E289),_xlfn.CONCAT("CALL ",D289),_xlfn.CONCAT("CALL ",D289,"(",E289,")"))</f>
+        <v>CALL WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D289" s="28" t="str">
+        <f>A348</f>
+        <v>WHOWON</v>
+      </c>
+      <c r="E289" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="B290" s="30">
+        <v>2980</v>
+      </c>
+      <c r="C290" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A290,"***")</f>
+        <v>REM LABEL ***GAMEOVER***</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="26"/>
+      <c r="B291" s="30">
+        <v>2990</v>
+      </c>
+      <c r="C291" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="B292" s="30">
+        <v>3000</v>
+      </c>
+      <c r="C292" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A292,"***")</f>
+        <v>REM SUBROUTINE ***CLEARTABLE***</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="26"/>
+      <c r="B293" s="30">
+        <v>3010</v>
+      </c>
+      <c r="C293" s="11" t="str">
+        <f>IF(ISBLANK(E293),_xlfn.CONCAT("SUB ",A292),_xlfn.CONCAT("SUB ",A292,"(",E293,")"))</f>
+        <v>SUB CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
+      </c>
+      <c r="E293" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="26"/>
+      <c r="B294" s="30">
+        <v>3020</v>
+      </c>
+      <c r="C294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="26"/>
+      <c r="B295" s="30">
+        <v>3030</v>
+      </c>
+      <c r="C295" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="26"/>
+      <c r="B296" s="30">
+        <v>3040</v>
+      </c>
+      <c r="C296" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="26"/>
+      <c r="B297" s="30">
+        <v>3050</v>
+      </c>
+      <c r="C297" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="26"/>
+      <c r="B298" s="30">
+        <v>3060</v>
+      </c>
+      <c r="C298" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="28" t="s">
+        <v>780</v>
+      </c>
+      <c r="B299" s="30">
+        <v>3070</v>
+      </c>
+      <c r="C299" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A299,"***")</f>
+        <v>REM SUBROUTINE ***SHUFFLE***</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="26"/>
+      <c r="B300" s="30">
+        <v>3080</v>
+      </c>
+      <c r="C300" s="11" t="str">
+        <f>IF(ISBLANK(E300),_xlfn.CONCAT("SUB ",A299),_xlfn.CONCAT("SUB ",A299,"(",E300,")"))</f>
+        <v>SUB SHUFFLE(HANDS(,,))</v>
+      </c>
+      <c r="E300" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="26"/>
+      <c r="B301" s="30">
+        <v>3090</v>
+      </c>
+      <c r="C301" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="26"/>
+      <c r="B302" s="30">
+        <v>3100</v>
+      </c>
+      <c r="C302" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="26"/>
+      <c r="B303" s="30">
+        <v>3110</v>
+      </c>
+      <c r="C303" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="29" t="s">
+        <v>760</v>
+      </c>
+      <c r="B304" s="30">
+        <v>3120</v>
+      </c>
+      <c r="C304" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A304,"***")</f>
+        <v>REM LABEL ***DRAWLOOP***</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="26"/>
+      <c r="B305" s="30">
+        <v>3130</v>
+      </c>
+      <c r="C305" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="26"/>
+      <c r="B306" s="30">
+        <v>3140</v>
+      </c>
+      <c r="C306" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="26"/>
+      <c r="B307" s="30">
+        <v>3150</v>
+      </c>
+      <c r="C307" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="26"/>
+      <c r="B308" s="30">
+        <v>3160</v>
+      </c>
+      <c r="C308" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="26"/>
+      <c r="B309" s="30">
+        <v>3170</v>
+      </c>
+      <c r="C309" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="26"/>
-      <c r="B264">
-        <v>2720</v>
-      </c>
-      <c r="C264" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D264,A:A,0),0)," :: REM CALL ",D264,"")</f>
-        <v>GOSUB 1140 :: REM CALL RENDERCARD</v>
-      </c>
-      <c r="D264" t="str">
-        <f>A106</f>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="26"/>
+      <c r="B310" s="30">
+        <v>3180</v>
+      </c>
+      <c r="C310" s="28" t="str">
+        <f>IF(ISBLANK(E310),_xlfn.CONCAT("CALL ",D310),_xlfn.CONCAT("CALL ",D310,"(",E310,")"))</f>
+        <v>CALL CHECKDUP(DUP,(X),DECK())</v>
+      </c>
+      <c r="D310" s="28" t="str">
+        <f>A324</f>
+        <v>CHECKDUP</v>
+      </c>
+      <c r="E310" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="26"/>
+      <c r="B311" s="30">
+        <v>3190</v>
+      </c>
+      <c r="C311" t="str">
+        <f>_xlfn.CONCAT("IF DUP=1 THEN ",INDEX(B:B,MATCH(D311,A:A,0),0)," :: REM GOTO ",D311,"")</f>
+        <v>IF DUP=1 THEN 3120 :: REM GOTO DRAWLOOP</v>
+      </c>
+      <c r="D311" s="29" t="str">
+        <f>A304</f>
+        <v>DRAWLOOP</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="26"/>
+      <c r="B312" s="30">
+        <v>3200</v>
+      </c>
+      <c r="C312" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="26"/>
+      <c r="B313" s="30">
+        <v>3210</v>
+      </c>
+      <c r="C313" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="26"/>
+      <c r="B314" s="30">
+        <v>3220</v>
+      </c>
+      <c r="C314" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="26"/>
+      <c r="B315" s="30">
+        <v>3230</v>
+      </c>
+      <c r="C315" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="26"/>
+      <c r="B316" s="30">
+        <v>3240</v>
+      </c>
+      <c r="C316" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="26"/>
+      <c r="B317" s="30">
+        <v>3250</v>
+      </c>
+      <c r="C317" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="26"/>
+      <c r="B318" s="30">
+        <v>3260</v>
+      </c>
+      <c r="C318" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="26"/>
+      <c r="B319" s="30">
+        <v>3270</v>
+      </c>
+      <c r="C319" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="26"/>
+      <c r="B320" s="30">
+        <v>3280</v>
+      </c>
+      <c r="C320" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="26"/>
+      <c r="B321" s="30">
+        <v>3290</v>
+      </c>
+      <c r="C321" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="26"/>
+      <c r="B322" s="30">
+        <v>3300</v>
+      </c>
+      <c r="C322" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="26"/>
+      <c r="B323" s="30">
+        <v>3310</v>
+      </c>
+      <c r="C323" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="28" t="s">
+        <v>756</v>
+      </c>
+      <c r="B324" s="30">
+        <v>3320</v>
+      </c>
+      <c r="C324" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A324,"***")</f>
+        <v>REM SUBROUTINE ***CHECKDUP***</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="26"/>
+      <c r="B325" s="30">
+        <v>3330</v>
+      </c>
+      <c r="C325" s="11" t="str">
+        <f>IF(ISBLANK(E325),_xlfn.CONCAT("SUB ",A324),_xlfn.CONCAT("SUB ",A324,"(",E325,")"))</f>
+        <v>SUB CHECKDUP(DUP,X,DECK())</v>
+      </c>
+      <c r="E325" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="26"/>
+      <c r="B326" s="30">
+        <v>3340</v>
+      </c>
+      <c r="C326" s="11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="26"/>
+      <c r="B327" s="30">
+        <v>3350</v>
+      </c>
+      <c r="C327" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="26"/>
+      <c r="B328" s="30">
+        <v>3360</v>
+      </c>
+      <c r="C328" s="11" t="str">
+        <f>_xlfn.CONCAT("IF DECK(I)=X THEN DUP=1 :: GOTO ",INDEX(B:B,MATCH(D328,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF DECK(I)=X THEN DUP=1 :: GOTO 3380 :: REM SUBEND</v>
+      </c>
+      <c r="D328" s="29" t="str">
+        <f>A330</f>
+        <v>CHECKDUP.SUBEND</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="26"/>
+      <c r="B329" s="30">
+        <v>3370</v>
+      </c>
+      <c r="C329" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="29" t="str">
+        <f>_xlfn.CONCAT(A324,".SUBEND")</f>
+        <v>CHECKDUP.SUBEND</v>
+      </c>
+      <c r="B330" s="30">
+        <v>3380</v>
+      </c>
+      <c r="C330" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="B331" s="30">
+        <v>3390</v>
+      </c>
+      <c r="C331" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A331,"***")</f>
+        <v>REM SUBROUTINE ***DEAL***</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="26"/>
+      <c r="B332" s="30">
+        <v>3400</v>
+      </c>
+      <c r="C332" s="11" t="str">
+        <f>IF(ISBLANK(E332),_xlfn.CONCAT("SUB ",A331),_xlfn.CONCAT("SUB ",A331,"(",E332,")"))</f>
+        <v>SUB DEAL(CARDS(),SUMS(),PLAYER,FACEDOWN,HANDS(,,))</v>
+      </c>
+      <c r="E332" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="26"/>
+      <c r="B333" s="30">
+        <v>3410</v>
+      </c>
+      <c r="C333" s="11" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="26"/>
+      <c r="B334" s="30">
+        <v>3420</v>
+      </c>
+      <c r="C334" s="11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="26"/>
+      <c r="B335" s="30">
+        <v>3430</v>
+      </c>
+      <c r="C335" s="11" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="26"/>
+      <c r="B336" s="30">
+        <v>3440</v>
+      </c>
+      <c r="C336" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="26"/>
+      <c r="B337" s="30">
+        <v>3450</v>
+      </c>
+      <c r="C337" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="26"/>
+      <c r="B338" s="30">
+        <v>3460</v>
+      </c>
+      <c r="C338" s="28" t="str">
+        <f>IF(ISBLANK(E338),_xlfn.CONCAT("CALL ",D338),_xlfn.CONCAT("CALL ",D338,"(",E338,")"))</f>
+        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D338" s="28" t="str">
+        <f>A125</f>
         <v>RENDERCARD</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="26"/>
-      <c r="B265">
-        <v>2730</v>
-      </c>
-      <c r="C265" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D265,A:A,0),0)," :: REM GOTO ",D265,"")</f>
-        <v>IF BUSTED=1 THEN 2870 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D265" t="str">
-        <f>A279</f>
-        <v>GAMEOVER</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="27"/>
-      <c r="B266">
-        <v>2740</v>
-      </c>
-      <c r="C266" t="s">
+      <c r="E338" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="26"/>
+      <c r="B339" s="30">
+        <v>3470</v>
+      </c>
+      <c r="C339" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="B340" s="30">
+        <v>3480</v>
+      </c>
+      <c r="C340" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A340,"***")</f>
+        <v>REM SUBROUTINE ***CALCSCORE***</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="26"/>
+      <c r="B341" s="30">
+        <v>3490</v>
+      </c>
+      <c r="C341" s="11" t="str">
+        <f>IF(ISBLANK(E341),_xlfn.CONCAT("SUB ",A340),_xlfn.CONCAT("SUB ",A340,"(",E341,")"))</f>
+        <v>SUB CALCSCORE(SCORE,PLAYER,SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="E341" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="26"/>
+      <c r="B342" s="30">
+        <v>3500</v>
+      </c>
+      <c r="C342" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="26"/>
+      <c r="B343" s="30">
+        <v>3510</v>
+      </c>
+      <c r="C343" t="str">
+        <f>_xlfn.CONCAT("IF SCORE+10&gt;21 THEN ",INDEX(B:B,MATCH(D343,A:A,0),0)," :: REM GOTO ",D343,"")</f>
+        <v>IF SCORE+10&gt;21 THEN 3550 :: REM GOTO CALCSCORE.SUBEND</v>
+      </c>
+      <c r="D343" s="29" t="str">
+        <f>A347</f>
+        <v>CALCSCORE.SUBEND</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="26"/>
+      <c r="B344" s="30">
+        <v>3520</v>
+      </c>
+      <c r="C344" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="26"/>
+      <c r="B345" s="30">
+        <v>3530</v>
+      </c>
+      <c r="C345" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO ",INDEX(B:B,MATCH(D345,A:A,0),0)," :: REM GOTO ",D345,"")</f>
+        <v>IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO 3550 :: REM GOTO CALCSCORE.SUBEND</v>
+      </c>
+      <c r="D345" s="29" t="str">
+        <f>A347</f>
+        <v>CALCSCORE.SUBEND</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="26"/>
+      <c r="B346" s="30">
+        <v>3540</v>
+      </c>
+      <c r="C346" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="29" t="str">
+        <f>_xlfn.CONCAT(A340,".SUBEND")</f>
+        <v>CALCSCORE.SUBEND</v>
+      </c>
+      <c r="B347" s="30">
+        <v>3550</v>
+      </c>
+      <c r="C347" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="B348" s="30">
+        <v>3560</v>
+      </c>
+      <c r="C348" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A348,"***")</f>
+        <v>REM SUBROUTINE ***WHOWON***</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="26"/>
+      <c r="B349" s="30">
+        <v>3570</v>
+      </c>
+      <c r="C349" s="11" t="str">
+        <f>IF(ISBLANK(E349),_xlfn.CONCAT("SUB ",A348),_xlfn.CONCAT("SUB ",A348,"(",E349,")"))</f>
+        <v>SUB WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="E349" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="26"/>
+      <c r="B350" s="30">
+        <v>3580</v>
+      </c>
+      <c r="C350" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="26"/>
+      <c r="B351" s="30">
+        <v>3590</v>
+      </c>
+      <c r="C351" t="str">
+        <f>IF(ISBLANK(E351),_xlfn.CONCAT("CALL ",D351),_xlfn.CONCAT("CALL ",D351,"(",E351,")"))</f>
+        <v>CALL CALCSCORE(PSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D351" s="28" t="str">
+        <f>A340</f>
+        <v>CALCSCORE</v>
+      </c>
+      <c r="E351" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="26"/>
+      <c r="B352" s="30">
+        <v>3600</v>
+      </c>
+      <c r="C352" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="26"/>
+      <c r="B353" s="30">
+        <v>3610</v>
+      </c>
+      <c r="C353" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="26"/>
+      <c r="B354" s="30">
+        <v>3620</v>
+      </c>
+      <c r="C354" t="str">
+        <f>IF(ISBLANK(E354),_xlfn.CONCAT("CALL ",D354),_xlfn.CONCAT("CALL ",D354,"(",E354,")"))</f>
+        <v>CALL CALCSCORE(DSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D354" s="28" t="str">
+        <f>A340</f>
+        <v>CALCSCORE</v>
+      </c>
+      <c r="E354" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="26"/>
+      <c r="B355" s="30">
+        <v>3630</v>
+      </c>
+      <c r="C355" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" s="26"/>
+      <c r="B356" s="30">
+        <v>3640</v>
+      </c>
+      <c r="C356" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="26"/>
+      <c r="B357" s="30">
+        <v>3650</v>
+      </c>
+      <c r="C357" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" s="26"/>
+      <c r="B358" s="30">
+        <v>3660</v>
+      </c>
+      <c r="C358" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="26"/>
+      <c r="B359" s="30">
+        <v>3670</v>
+      </c>
+      <c r="C359" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="B360" s="30">
+        <v>3680</v>
+      </c>
+      <c r="C360" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A360,"***")</f>
+        <v>REM SUBROUTINE ***TERMINATE***</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" s="26"/>
+      <c r="B361" s="30">
+        <v>3690</v>
+      </c>
+      <c r="C361" s="11" t="str">
+        <f>IF(ISBLANK(E361),_xlfn.CONCAT("SUB ",A360),_xlfn.CONCAT("SUB ",A360,"(",E361,")"))</f>
+        <v>SUB TERMINATE</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" s="26"/>
+      <c r="B362" s="30">
+        <v>3700</v>
+      </c>
+      <c r="C362" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" s="26"/>
+      <c r="B363" s="30">
+        <v>3710</v>
+      </c>
+      <c r="C363" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" s="26"/>
+      <c r="B364" s="30">
+        <v>3720</v>
+      </c>
+      <c r="C364" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" s="26"/>
+      <c r="B365" s="30">
+        <v>3730</v>
+      </c>
+      <c r="C365" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="B366" s="30">
+        <v>3740</v>
+      </c>
+      <c r="C366" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A366,"***")</f>
+        <v>REM SUBROUTINE ***GETHEART***</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B367" s="30">
+        <v>3750</v>
+      </c>
+      <c r="C367" t="str">
+        <f>IF(ISBLANK(E367),_xlfn.CONCAT("SUB ",A366),_xlfn.CONCAT("SUB ",A366,"(",E367,")"))</f>
+        <v>SUB GETHEART(CHARVAL)</v>
+      </c>
+      <c r="E367" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B368" s="30">
+        <v>3760</v>
+      </c>
+      <c r="C368" s="11" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B369" s="30">
+        <v>3770</v>
+      </c>
+      <c r="C369" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="B370" s="30">
+        <v>3780</v>
+      </c>
+      <c r="C370" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A370,"***")</f>
+        <v>REM SUBROUTINE ***GETDIAMOND***</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B371" s="30">
+        <v>3790</v>
+      </c>
+      <c r="C371" t="str">
+        <f>IF(ISBLANK(E371),_xlfn.CONCAT("SUB ",A370),_xlfn.CONCAT("SUB ",A370,"(",E371,")"))</f>
+        <v>SUB GETDIAMOND(CHARVAL)</v>
+      </c>
+      <c r="E371" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B372" s="30">
+        <v>3800</v>
+      </c>
+      <c r="C372" s="11" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B373" s="30">
+        <v>3810</v>
+      </c>
+      <c r="C373" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="B374" s="30">
+        <v>3820</v>
+      </c>
+      <c r="C374" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A374,"***")</f>
+        <v>REM SUBROUTINE ***GETREDVALS***</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B375" s="30">
+        <v>3830</v>
+      </c>
+      <c r="C375" t="str">
+        <f>IF(ISBLANK(E375),_xlfn.CONCAT("SUB ",A374),_xlfn.CONCAT("SUB ",A374,"(",E375,")"))</f>
+        <v>SUB GETREDVALS(CHARVAL)</v>
+      </c>
+      <c r="E375" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B376" s="30">
+        <v>3840</v>
+      </c>
+      <c r="C376" s="11" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="27"/>
-      <c r="B267">
-        <v>2750</v>
-      </c>
-      <c r="C267" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="27"/>
-      <c r="B268">
-        <v>2760</v>
-      </c>
-      <c r="C268" t="s">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B377" s="30">
+        <v>3850</v>
+      </c>
+      <c r="C377" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="B378" s="30">
+        <v>3860</v>
+      </c>
+      <c r="C378" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A378,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDBACK***</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B379" s="30">
+        <v>3870</v>
+      </c>
+      <c r="C379" t="str">
+        <f>IF(ISBLANK(E379),_xlfn.CONCAT("SUB ",A378),_xlfn.CONCAT("SUB ",A378,"(",E379,")"))</f>
+        <v>SUB GETCARDBACK(CHARVAL)</v>
+      </c>
+      <c r="E379" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B380" s="30">
+        <v>3880</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B381" s="30">
+        <v>3890</v>
+      </c>
+      <c r="C381" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="28" t="s">
+        <v>805</v>
+      </c>
+      <c r="B382" s="30">
+        <v>3900</v>
+      </c>
+      <c r="C382" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A382,"***")</f>
+        <v>REM SUBROUTINE ***GETSPADE***</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B383" s="30">
+        <v>3910</v>
+      </c>
+      <c r="C383" t="str">
+        <f>IF(ISBLANK(E383),_xlfn.CONCAT("SUB ",A382),_xlfn.CONCAT("SUB ",A382,"(",E383,")"))</f>
+        <v>SUB GETSPADE(CHARVAL)</v>
+      </c>
+      <c r="E383" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B384" s="30">
+        <v>3920</v>
+      </c>
+      <c r="C384" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B385" s="30">
+        <v>3930</v>
+      </c>
+      <c r="C385" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="B386" s="30">
+        <v>3940</v>
+      </c>
+      <c r="C386" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A386,"***")</f>
+        <v>REM SUBROUTINE ***GETCLUB***</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B387" s="30">
+        <v>3950</v>
+      </c>
+      <c r="C387" t="str">
+        <f>IF(ISBLANK(E387),_xlfn.CONCAT("SUB ",A386),_xlfn.CONCAT("SUB ",A386,"(",E387,")"))</f>
+        <v>SUB GETCLUB(CHARVAL)</v>
+      </c>
+      <c r="E387" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B388" s="30">
+        <v>3960</v>
+      </c>
+      <c r="C388" s="11" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="27"/>
-      <c r="B269">
-        <v>2770</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A270" s="27"/>
-      <c r="B270">
-        <v>2780</v>
-      </c>
-      <c r="C270" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D270,A:A,0),0)," :: REM CALL ",D270,"")</f>
-        <v>GOSUB 3020 :: REM CALL CALCSCORE</v>
-      </c>
-      <c r="D270" t="str">
-        <f>A294</f>
-        <v>CALCSCORE</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A271" s="27"/>
-      <c r="B271">
-        <v>2790</v>
-      </c>
-      <c r="C271" t="str">
-        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D271,A:A,0),0)," :: REM GOTO ",D271,"")</f>
-        <v>IF SCORE&gt;=17 THEN 2850 :: REM GOTO TALLY</v>
-      </c>
-      <c r="D271" t="str">
-        <f>A277</f>
-        <v>TALLY</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="27"/>
-      <c r="B272">
-        <v>2800</v>
-      </c>
-      <c r="C272" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D272,A:A,0),0)," :: REM CALL ",D272,"")</f>
-        <v>GOSUB 2390 :: REM CALL DEAL</v>
-      </c>
-      <c r="D272" t="str">
-        <f>A231</f>
-        <v>DEAL</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A273" s="27"/>
-      <c r="B273">
-        <v>2810</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A274" s="27"/>
-      <c r="B274">
-        <v>2820</v>
-      </c>
-      <c r="C274" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="27"/>
-      <c r="B275">
-        <v>2830</v>
-      </c>
-      <c r="C275" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D275,A:A,0),0)," :: REM GOTO ",D275,"")</f>
-        <v>IF BUSTED=1 THEN 2870 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D275" t="str">
-        <f>A279</f>
-        <v>GAMEOVER</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="27"/>
-      <c r="B276">
-        <v>2840</v>
-      </c>
-      <c r="C276" s="1" t="s">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B389" s="30">
+        <v>3970</v>
+      </c>
+      <c r="C389" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="B390" s="30">
+        <v>3980</v>
+      </c>
+      <c r="C390" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A390,"***")</f>
+        <v>REM SUBROUTINE ***GETBLACKVALS***</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B391" s="30">
+        <v>3990</v>
+      </c>
+      <c r="C391" t="str">
+        <f>IF(ISBLANK(E391),_xlfn.CONCAT("SUB ",A390),_xlfn.CONCAT("SUB ",A390,"(",E391,")"))</f>
+        <v>SUB GETBLACKVALS(CHARVAL)</v>
+      </c>
+      <c r="E391" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B392" s="30">
+        <v>4000</v>
+      </c>
+      <c r="C392" s="11" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A277" s="27" t="s">
-        <v>761</v>
-      </c>
-      <c r="B277">
-        <v>2850</v>
-      </c>
-      <c r="C277" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A277,"***")</f>
-        <v>REM LABEL ***TALLY***</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A278" s="26"/>
-      <c r="B278">
-        <v>2860</v>
-      </c>
-      <c r="C278" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D278,A:A,0),0)," :: REM CALL ",D278,"")</f>
-        <v>GOSUB 2890 :: REM CALL WHOWON</v>
-      </c>
-      <c r="D278" t="str">
-        <f>A281</f>
-        <v>WHOWON</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A279" s="27" t="s">
-        <v>758</v>
-      </c>
-      <c r="B279">
-        <v>2870</v>
-      </c>
-      <c r="C279" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A279,"***")</f>
-        <v>REM LABEL ***GAMEOVER***</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A280" s="26"/>
-      <c r="B280">
-        <v>2880</v>
-      </c>
-      <c r="C280" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A281" s="26" t="s">
-        <v>614</v>
-      </c>
-      <c r="B281">
-        <v>2890</v>
-      </c>
-      <c r="C281" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A281,"***")</f>
-        <v>REM SUBROUTINE ***WHOWON***</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A282" s="26"/>
-      <c r="B282">
-        <v>2900</v>
-      </c>
-      <c r="C282" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A283" s="26"/>
-      <c r="B283">
-        <v>2910</v>
-      </c>
-      <c r="C283" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D283,A:A,0),0)," :: REM CALL ",D283,"")</f>
-        <v>GOSUB 3020 :: REM CALL CALCSCORE</v>
-      </c>
-      <c r="D283" t="str">
-        <f>A294</f>
-        <v>CALCSCORE</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A284" s="26"/>
-      <c r="B284">
-        <v>2920</v>
-      </c>
-      <c r="C284" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A285" s="26"/>
-      <c r="B285">
-        <v>2930</v>
-      </c>
-      <c r="C285" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A286" s="26"/>
-      <c r="B286">
-        <v>2940</v>
-      </c>
-      <c r="C286" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A287" s="26"/>
-      <c r="B287">
-        <v>2950</v>
-      </c>
-      <c r="C287" t="str">
-        <f>_xlfn.CONCAT("GOSUB ",INDEX(B:B,MATCH(D287,A:A,0),0)," :: REM CALL ",D287,"")</f>
-        <v>GOSUB 3020 :: REM CALL CALCSCORE</v>
-      </c>
-      <c r="D287" t="str">
-        <f>A294</f>
-        <v>CALCSCORE</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A288" s="26"/>
-      <c r="B288">
-        <v>2960</v>
-      </c>
-      <c r="C288" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="26"/>
-      <c r="B289">
-        <v>2970</v>
-      </c>
-      <c r="C289" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="26"/>
-      <c r="B290">
-        <v>2980</v>
-      </c>
-      <c r="C290" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="26"/>
-      <c r="B291">
-        <v>2990</v>
-      </c>
-      <c r="C291" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="26"/>
-      <c r="B292">
-        <v>3000</v>
-      </c>
-      <c r="C292" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="26"/>
-      <c r="B293">
-        <v>3010</v>
-      </c>
-      <c r="C293" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="26" t="s">
-        <v>732</v>
-      </c>
-      <c r="B294">
-        <v>3020</v>
-      </c>
-      <c r="C294" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A294,"***")</f>
-        <v>REM SUBROUTINE ***CALCSCORE***</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="26"/>
-      <c r="B295">
-        <v>3030</v>
-      </c>
-      <c r="C295" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="26"/>
-      <c r="B296">
-        <v>3040</v>
-      </c>
-      <c r="C296" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="26"/>
-      <c r="B297">
-        <v>3050</v>
-      </c>
-      <c r="C297" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="26"/>
-      <c r="B298">
-        <v>3060</v>
-      </c>
-      <c r="C298" s="11" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="26"/>
-      <c r="B299">
-        <v>3070</v>
-      </c>
-      <c r="C299" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="26"/>
-      <c r="B300">
-        <v>3080</v>
-      </c>
-      <c r="C300" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="26" t="s">
-        <v>728</v>
-      </c>
-      <c r="B301">
-        <v>3090</v>
-      </c>
-      <c r="C301" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A301,"***")</f>
-        <v>REM SUBROUTINE ***TERMINATE***</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="26"/>
-      <c r="B302">
-        <v>3100</v>
-      </c>
-      <c r="C302" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="26"/>
-      <c r="B303">
-        <v>3110</v>
-      </c>
-      <c r="C303" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="26"/>
-      <c r="B304">
-        <v>3120</v>
-      </c>
-      <c r="C304" s="11" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="26"/>
-      <c r="B305">
-        <v>3130</v>
-      </c>
-      <c r="C305" t="s">
-        <v>662</v>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B393" s="30">
+        <v>4010</v>
+      </c>
+      <c r="C393" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="B394" s="30">
+        <v>4020</v>
+      </c>
+      <c r="C394" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A394,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDEDGE***</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B395" s="30">
+        <v>4030</v>
+      </c>
+      <c r="C395" t="str">
+        <f>IF(ISBLANK(E395),_xlfn.CONCAT("SUB ",A394),_xlfn.CONCAT("SUB ",A394,"(",E395,")"))</f>
+        <v>SUB GETCARDEDGE(CHARVAL)</v>
+      </c>
+      <c r="E395" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B396" s="30">
+        <v>4040</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B397" s="30">
+        <v>4050</v>
+      </c>
+      <c r="C397" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="B398" s="30">
+        <v>4060</v>
+      </c>
+      <c r="C398" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A398,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDTOP***</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B399" s="30">
+        <v>4070</v>
+      </c>
+      <c r="C399" t="str">
+        <f>IF(ISBLANK(E399),_xlfn.CONCAT("SUB ",A398),_xlfn.CONCAT("SUB ",A398,"(",E399,")"))</f>
+        <v>SUB GETCARDTOP(CHARVAL)</v>
+      </c>
+      <c r="E399" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B400" s="30">
+        <v>4080</v>
+      </c>
+      <c r="C400" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B401" s="30">
+        <v>4090</v>
+      </c>
+      <c r="C401" s="11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="B402" s="30">
+        <v>4100</v>
+      </c>
+      <c r="C402" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A402,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDFRONT***</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B403" s="30">
+        <v>4110</v>
+      </c>
+      <c r="C403" t="str">
+        <f>IF(ISBLANK(E403),_xlfn.CONCAT("SUB ",A402),_xlfn.CONCAT("SUB ",A402,"(",E403,")"))</f>
+        <v>SUB GETCARDFRONT(CHARVAL)</v>
+      </c>
+      <c r="E403" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B404" s="30">
+        <v>4120</v>
+      </c>
+      <c r="C404" s="11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B405" s="30">
+        <v>4130</v>
+      </c>
+      <c r="C405" s="11" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -6214,7 +7761,7 @@
         <v>551</v>
       </c>
       <c r="G2" t="s">
-        <v>763</v>
+        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">

--- a/blackjack.xlsx
+++ b/blackjack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F91DC8C-8071-654C-9008-1E070874D35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2119038A-1E5B-D044-91FE-1447A055BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="29560" windowWidth="34560" windowHeight="21580" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="33000" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="REFACTORED" sheetId="4" r:id="rId1"/>
@@ -2863,7 +2863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2894,7 +2894,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3255,97 +3254,97 @@
         <v>718</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="30">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3">
         <v>110</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
         <v>120</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>130</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="30">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
         <v>140</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7">
         <v>150</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>160</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9">
         <v>170</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>180</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="30">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>190</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="30">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>200</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
-      <c r="B13" s="30">
+      <c r="B13">
         <v>210</v>
       </c>
       <c r="C13" s="28" t="str">
@@ -3359,7 +3358,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
-      <c r="B14" s="30">
+      <c r="B14">
         <v>220</v>
       </c>
       <c r="C14" s="28" t="str">
@@ -3373,7 +3372,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
-      <c r="B15" s="30">
+      <c r="B15">
         <v>230</v>
       </c>
       <c r="C15" s="28" t="str">
@@ -3386,20 +3385,19 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="B16">
+        <v>240</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A17,"***")</f>
+        <v>REM LABEL ***GAMELOOP***</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="B16" s="30">
-        <v>240</v>
-      </c>
-      <c r="C16" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A16,"***")</f>
-        <v>REM LABEL ***GAMELOOP***</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="30">
+      <c r="B17">
         <v>250</v>
       </c>
       <c r="C17" s="28" t="str">
@@ -3412,21 +3410,20 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="B18">
+        <v>260</v>
+      </c>
+      <c r="C18" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A19,"***")</f>
+        <v>REM LABEL ***ASKAGAIN***</v>
+      </c>
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
         <v>861</v>
       </c>
-      <c r="B18" s="30">
-        <v>260</v>
-      </c>
-      <c r="C18" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A18,"***")</f>
-        <v>REM LABEL ***ASKAGAIN***</v>
-      </c>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="30">
+      <c r="B19">
         <v>270</v>
       </c>
       <c r="C19" t="s">
@@ -3435,7 +3432,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
-      <c r="B20" s="30">
+      <c r="B20">
         <v>280</v>
       </c>
       <c r="C20" t="s">
@@ -3444,21 +3441,21 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
-      <c r="B21" s="30">
+      <c r="B21">
         <v>290</v>
       </c>
       <c r="C21" t="str">
         <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D21,A:A,0),0)," :: REM GOTO ",D21,"")</f>
-        <v>IF A$="" THEN 260 :: REM GOTO ASKAGAIN</v>
+        <v>IF A$="" THEN 270 :: REM GOTO ASKAGAIN</v>
       </c>
       <c r="D21" s="29" t="str">
-        <f>A18</f>
+        <f>A19</f>
         <v>ASKAGAIN</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
-      <c r="B22" s="30">
+      <c r="B22">
         <v>300</v>
       </c>
       <c r="C22" s="28" t="str">
@@ -3472,21 +3469,21 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
-      <c r="B23" s="30">
+      <c r="B23">
         <v>310</v>
       </c>
       <c r="C23" t="str">
         <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D23,A:A,0),0)," :: REM GOTO ",D23,"")</f>
-        <v>GOTO 240 :: REM GOTO GAMELOOP</v>
+        <v>GOTO 250 :: REM GOTO GAMELOOP</v>
       </c>
       <c r="D23" s="29" t="str">
-        <f>A16</f>
+        <f>A17</f>
         <v>GAMELOOP</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
-      <c r="B24" s="30">
+      <c r="B24">
         <v>320</v>
       </c>
       <c r="C24" t="s">
@@ -3498,7 +3495,7 @@
       <c r="A25" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25">
         <v>330</v>
       </c>
       <c r="C25" s="11" t="str">
@@ -3508,7 +3505,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
-      <c r="B26" s="30">
+      <c r="B26">
         <v>340</v>
       </c>
       <c r="C26" s="11" t="str">
@@ -3518,7 +3515,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
-      <c r="B27" s="30">
+      <c r="B27">
         <v>350</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -3527,7 +3524,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
-      <c r="B28" s="30">
+      <c r="B28">
         <v>360</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -3536,7 +3533,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
-      <c r="B29" s="30">
+      <c r="B29">
         <v>370</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -3545,7 +3542,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
-      <c r="B30" s="30">
+      <c r="B30">
         <v>380</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -3554,7 +3551,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
-      <c r="B31" s="30">
+      <c r="B31">
         <v>390</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -3563,7 +3560,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
-      <c r="B32" s="30">
+      <c r="B32">
         <v>400</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -3572,7 +3569,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
-      <c r="B33" s="30">
+      <c r="B33">
         <v>410</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -3581,7 +3578,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
-      <c r="B34" s="30">
+      <c r="B34">
         <v>420</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -3590,7 +3587,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
-      <c r="B35" s="30">
+      <c r="B35">
         <v>430</v>
       </c>
       <c r="C35" s="11" t="s">
@@ -3599,7 +3596,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
-      <c r="B36" s="30">
+      <c r="B36">
         <v>440</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -3608,7 +3605,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
-      <c r="B37" s="30">
+      <c r="B37">
         <v>450</v>
       </c>
       <c r="C37" s="11" t="s">
@@ -3617,7 +3614,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
-      <c r="B38" s="30">
+      <c r="B38">
         <v>460</v>
       </c>
       <c r="C38" s="11" t="s">
@@ -3626,7 +3623,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
-      <c r="B39" s="30">
+      <c r="B39">
         <v>470</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -3635,7 +3632,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
-      <c r="B40" s="30">
+      <c r="B40">
         <v>480</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -3644,7 +3641,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
-      <c r="B41" s="30">
+      <c r="B41">
         <v>490</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -3653,7 +3650,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
-      <c r="B42" s="30">
+      <c r="B42">
         <v>500</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -3662,7 +3659,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
-      <c r="B43" s="30">
+      <c r="B43">
         <v>510</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -3671,7 +3668,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
-      <c r="B44" s="30">
+      <c r="B44">
         <v>520</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -3680,7 +3677,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
-      <c r="B45" s="30">
+      <c r="B45">
         <v>530</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -3689,7 +3686,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
-      <c r="B46" s="30">
+      <c r="B46">
         <v>540</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -3698,7 +3695,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
-      <c r="B47" s="30">
+      <c r="B47">
         <v>550</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -3707,7 +3704,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
-      <c r="B48" s="30">
+      <c r="B48">
         <v>560</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -3716,7 +3713,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
-      <c r="B49" s="30">
+      <c r="B49">
         <v>570</v>
       </c>
       <c r="C49" s="11" t="s">
@@ -3725,7 +3722,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
-      <c r="B50" s="30">
+      <c r="B50">
         <v>580</v>
       </c>
       <c r="C50" s="11" t="s">
@@ -3734,7 +3731,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
-      <c r="B51" s="30">
+      <c r="B51">
         <v>590</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -3743,7 +3740,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
-      <c r="B52" s="30">
+      <c r="B52">
         <v>600</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -3752,7 +3749,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
-      <c r="B53" s="30">
+      <c r="B53">
         <v>610</v>
       </c>
       <c r="C53" s="11" t="s">
@@ -3761,7 +3758,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="26"/>
-      <c r="B54" s="30">
+      <c r="B54">
         <v>620</v>
       </c>
       <c r="C54" s="11" t="s">
@@ -3770,7 +3767,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="26"/>
-      <c r="B55" s="30">
+      <c r="B55">
         <v>630</v>
       </c>
       <c r="C55" s="11" t="s">
@@ -3779,7 +3776,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
-      <c r="B56" s="30">
+      <c r="B56">
         <v>640</v>
       </c>
       <c r="C56" s="11" t="s">
@@ -3788,7 +3785,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
-      <c r="B57" s="30">
+      <c r="B57">
         <v>650</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -3797,7 +3794,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="26"/>
-      <c r="B58" s="30">
+      <c r="B58">
         <v>660</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -3806,7 +3803,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="26"/>
-      <c r="B59" s="30">
+      <c r="B59">
         <v>670</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -3815,7 +3812,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
-      <c r="B60" s="30">
+      <c r="B60">
         <v>680</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -3824,7 +3821,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="26"/>
-      <c r="B61" s="30">
+      <c r="B61">
         <v>690</v>
       </c>
       <c r="C61" s="11" t="s">
@@ -3833,7 +3830,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="26"/>
-      <c r="B62" s="30">
+      <c r="B62">
         <v>700</v>
       </c>
       <c r="C62" s="11" t="s">
@@ -3844,7 +3841,7 @@
       <c r="A63" s="28" t="s">
         <v>662</v>
       </c>
-      <c r="B63" s="30">
+      <c r="B63">
         <v>710</v>
       </c>
       <c r="C63" s="11" t="str">
@@ -3854,7 +3851,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
-      <c r="B64" s="30">
+      <c r="B64">
         <v>720</v>
       </c>
       <c r="C64" s="11" t="str">
@@ -3864,7 +3861,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
-      <c r="B65" s="30">
+      <c r="B65">
         <v>730</v>
       </c>
       <c r="C65" s="28" t="str">
@@ -3878,7 +3875,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
-      <c r="B66" s="30">
+      <c r="B66">
         <v>740</v>
       </c>
       <c r="C66" s="28" t="str">
@@ -3892,7 +3889,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
-      <c r="B67" s="30">
+      <c r="B67">
         <v>750</v>
       </c>
       <c r="C67" s="28" t="str">
@@ -3906,7 +3903,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="26"/>
-      <c r="B68" s="30">
+      <c r="B68">
         <v>760</v>
       </c>
       <c r="C68" s="28" t="str">
@@ -3923,7 +3920,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="26"/>
-      <c r="B69" s="30">
+      <c r="B69">
         <v>770</v>
       </c>
       <c r="C69" t="s">
@@ -3932,7 +3929,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
-      <c r="B70" s="30">
+      <c r="B70">
         <v>780</v>
       </c>
       <c r="C70" s="11" t="s">
@@ -3943,7 +3940,7 @@
       <c r="A71" s="28" t="s">
         <v>853</v>
       </c>
-      <c r="B71" s="30">
+      <c r="B71">
         <v>790</v>
       </c>
       <c r="C71" s="11" t="str">
@@ -3953,7 +3950,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="28"/>
-      <c r="B72" s="30">
+      <c r="B72">
         <v>800</v>
       </c>
       <c r="C72" s="11" t="str">
@@ -3963,7 +3960,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
-      <c r="B73" s="30">
+      <c r="B73">
         <v>810</v>
       </c>
       <c r="C73" s="28" t="str">
@@ -3980,7 +3977,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
-      <c r="B74" s="30">
+      <c r="B74">
         <v>820</v>
       </c>
       <c r="C74" t="s">
@@ -3989,7 +3986,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
-      <c r="B75" s="30">
+      <c r="B75">
         <v>830</v>
       </c>
       <c r="C75" s="28" t="str">
@@ -4006,7 +4003,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="26"/>
-      <c r="B76" s="30">
+      <c r="B76">
         <v>840</v>
       </c>
       <c r="C76" t="s">
@@ -4015,7 +4012,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="26"/>
-      <c r="B77" s="30">
+      <c r="B77">
         <v>850</v>
       </c>
       <c r="C77" s="28" t="str">
@@ -4032,7 +4029,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="26"/>
-      <c r="B78" s="30">
+      <c r="B78">
         <v>860</v>
       </c>
       <c r="C78" s="28" t="str">
@@ -4049,7 +4046,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
-      <c r="B79" s="30">
+      <c r="B79">
         <v>870</v>
       </c>
       <c r="C79" s="28" t="str">
@@ -4066,7 +4063,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="26"/>
-      <c r="B80" s="30">
+      <c r="B80">
         <v>880</v>
       </c>
       <c r="C80" t="s">
@@ -4075,7 +4072,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="26"/>
-      <c r="B81" s="30">
+      <c r="B81">
         <v>890</v>
       </c>
       <c r="C81" s="11" t="s">
@@ -4086,7 +4083,7 @@
       <c r="A82" s="28" t="s">
         <v>854</v>
       </c>
-      <c r="B82" s="30">
+      <c r="B82">
         <v>900</v>
       </c>
       <c r="C82" s="11" t="str">
@@ -4096,7 +4093,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="28"/>
-      <c r="B83" s="30">
+      <c r="B83">
         <v>910</v>
       </c>
       <c r="C83" s="11" t="str">
@@ -4106,7 +4103,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
-      <c r="B84" s="30">
+      <c r="B84">
         <v>920</v>
       </c>
       <c r="C84" s="28" t="str">
@@ -4123,7 +4120,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="26"/>
-      <c r="B85" s="30">
+      <c r="B85">
         <v>930</v>
       </c>
       <c r="C85" t="s">
@@ -4132,7 +4129,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
-      <c r="B86" s="30">
+      <c r="B86">
         <v>940</v>
       </c>
       <c r="C86" s="28" t="str">
@@ -4149,7 +4146,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="26"/>
-      <c r="B87" s="30">
+      <c r="B87">
         <v>950</v>
       </c>
       <c r="C87" t="s">
@@ -4158,7 +4155,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
-      <c r="B88" s="30">
+      <c r="B88">
         <v>960</v>
       </c>
       <c r="C88" s="28" t="str">
@@ -4175,7 +4172,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
-      <c r="B89" s="30">
+      <c r="B89">
         <v>970</v>
       </c>
       <c r="C89" s="28" t="str">
@@ -4192,7 +4189,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
-      <c r="B90" s="30">
+      <c r="B90">
         <v>980</v>
       </c>
       <c r="C90" s="11" t="s">
@@ -4203,7 +4200,7 @@
       <c r="A91" s="28" t="s">
         <v>664</v>
       </c>
-      <c r="B91" s="30">
+      <c r="B91">
         <v>990</v>
       </c>
       <c r="C91" s="11" t="str">
@@ -4213,7 +4210,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
-      <c r="B92" s="30">
+      <c r="B92">
         <v>1000</v>
       </c>
       <c r="C92" s="11" t="str">
@@ -4226,7 +4223,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
-      <c r="B93" s="30">
+      <c r="B93">
         <v>1010</v>
       </c>
       <c r="C93" s="11" t="s">
@@ -4235,7 +4232,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
-      <c r="B94" s="30">
+      <c r="B94">
         <v>1020</v>
       </c>
       <c r="C94" t="s">
@@ -4244,7 +4241,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
-      <c r="B95" s="30">
+      <c r="B95">
         <v>1030</v>
       </c>
       <c r="C95" t="s">
@@ -4253,7 +4250,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="26"/>
-      <c r="B96" s="30">
+      <c r="B96">
         <v>1040</v>
       </c>
       <c r="C96" t="s">
@@ -4262,7 +4259,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="26"/>
-      <c r="B97" s="30">
+      <c r="B97">
         <v>1050</v>
       </c>
       <c r="C97" t="s">
@@ -4271,7 +4268,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="26"/>
-      <c r="B98" s="30">
+      <c r="B98">
         <v>1060</v>
       </c>
       <c r="C98" t="s">
@@ -4280,7 +4277,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="26"/>
-      <c r="B99" s="30">
+      <c r="B99">
         <v>1070</v>
       </c>
       <c r="C99" t="s">
@@ -4289,7 +4286,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
-      <c r="B100" s="30">
+      <c r="B100">
         <v>1080</v>
       </c>
       <c r="C100" t="s">
@@ -4298,7 +4295,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="26"/>
-      <c r="B101" s="30">
+      <c r="B101">
         <v>1090</v>
       </c>
       <c r="C101" t="s">
@@ -4307,7 +4304,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="26"/>
-      <c r="B102" s="30">
+      <c r="B102">
         <v>1100</v>
       </c>
       <c r="C102" t="s">
@@ -4316,7 +4313,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="26"/>
-      <c r="B103" s="30">
+      <c r="B103">
         <v>1110</v>
       </c>
       <c r="C103" t="s">
@@ -4325,7 +4322,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="26"/>
-      <c r="B104" s="30">
+      <c r="B104">
         <v>1120</v>
       </c>
       <c r="C104" t="s">
@@ -4334,7 +4331,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="26"/>
-      <c r="B105" s="30">
+      <c r="B105">
         <v>1130</v>
       </c>
       <c r="C105" t="s">
@@ -4343,7 +4340,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="26"/>
-      <c r="B106" s="30">
+      <c r="B106">
         <v>1140</v>
       </c>
       <c r="C106" t="s">
@@ -4352,7 +4349,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="26"/>
-      <c r="B107" s="30">
+      <c r="B107">
         <v>1150</v>
       </c>
       <c r="C107" s="11" t="s">
@@ -4363,7 +4360,7 @@
       <c r="A108" s="28" t="s">
         <v>678</v>
       </c>
-      <c r="B108" s="30">
+      <c r="B108">
         <v>1160</v>
       </c>
       <c r="C108" s="11" t="str">
@@ -4373,7 +4370,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="26"/>
-      <c r="B109" s="30">
+      <c r="B109">
         <v>1170</v>
       </c>
       <c r="C109" s="11" t="str">
@@ -4383,7 +4380,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="26"/>
-      <c r="B110" s="30">
+      <c r="B110">
         <v>1180</v>
       </c>
       <c r="C110" s="28" t="str">
@@ -4400,7 +4397,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="26"/>
-      <c r="B111" s="30">
+      <c r="B111">
         <v>1190</v>
       </c>
       <c r="C111" t="s">
@@ -4409,7 +4406,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="26"/>
-      <c r="B112" s="30">
+      <c r="B112">
         <v>1200</v>
       </c>
       <c r="C112" s="28" t="str">
@@ -4426,7 +4423,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="26"/>
-      <c r="B113" s="30">
+      <c r="B113">
         <v>1210</v>
       </c>
       <c r="C113" t="s">
@@ -4435,7 +4432,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="26"/>
-      <c r="B114" s="30">
+      <c r="B114">
         <v>1220</v>
       </c>
       <c r="C114" s="11" t="s">
@@ -4446,7 +4443,7 @@
       <c r="A115" s="28" t="s">
         <v>681</v>
       </c>
-      <c r="B115" s="30">
+      <c r="B115">
         <v>1230</v>
       </c>
       <c r="C115" s="11" t="str">
@@ -4456,7 +4453,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="26"/>
-      <c r="B116" s="30">
+      <c r="B116">
         <v>1240</v>
       </c>
       <c r="C116" s="11" t="str">
@@ -4466,7 +4463,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="26"/>
-      <c r="B117" s="30">
+      <c r="B117">
         <v>1250</v>
       </c>
       <c r="C117" s="11" t="s">
@@ -4475,7 +4472,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="26"/>
-      <c r="B118" s="30">
+      <c r="B118">
         <v>1260</v>
       </c>
       <c r="C118" s="11" t="s">
@@ -4484,7 +4481,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="26"/>
-      <c r="B119" s="30">
+      <c r="B119">
         <v>1270</v>
       </c>
       <c r="C119" s="11" t="s">
@@ -4493,7 +4490,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="26"/>
-      <c r="B120" s="30">
+      <c r="B120">
         <v>1280</v>
       </c>
       <c r="C120" s="11" t="s">
@@ -4502,7 +4499,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="26"/>
-      <c r="B121" s="30">
+      <c r="B121">
         <v>1290</v>
       </c>
       <c r="C121" s="11" t="s">
@@ -4511,7 +4508,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="26"/>
-      <c r="B122" s="30">
+      <c r="B122">
         <v>1300</v>
       </c>
       <c r="C122" s="11" t="s">
@@ -4520,7 +4517,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="26"/>
-      <c r="B123" s="30">
+      <c r="B123">
         <v>1310</v>
       </c>
       <c r="C123" s="11" t="s">
@@ -4529,7 +4526,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="26"/>
-      <c r="B124" s="30">
+      <c r="B124">
         <v>1320</v>
       </c>
       <c r="C124" s="11" t="s">
@@ -4540,7 +4537,7 @@
       <c r="A125" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="B125" s="30">
+      <c r="B125">
         <v>1330</v>
       </c>
       <c r="C125" s="11" t="str">
@@ -4550,7 +4547,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="26"/>
-      <c r="B126" s="30">
+      <c r="B126">
         <v>1340</v>
       </c>
       <c r="C126" s="11" t="str">
@@ -4563,7 +4560,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="26"/>
-      <c r="B127" s="30">
+      <c r="B127">
         <v>1350</v>
       </c>
       <c r="C127" s="28" t="str">
@@ -4584,7 +4581,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="26"/>
-      <c r="B128" s="30">
+      <c r="B128">
         <v>1360</v>
       </c>
       <c r="C128" s="11" t="s">
@@ -4593,7 +4590,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="26"/>
-      <c r="B129" s="30">
+      <c r="B129">
         <v>1370</v>
       </c>
       <c r="C129" s="11" t="s">
@@ -4602,7 +4599,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="26"/>
-      <c r="B130" s="30">
+      <c r="B130">
         <v>1380</v>
       </c>
       <c r="C130" t="s">
@@ -4611,7 +4608,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="26"/>
-      <c r="B131" s="30">
+      <c r="B131">
         <v>1390</v>
       </c>
       <c r="C131" t="s">
@@ -4620,7 +4617,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="26"/>
-      <c r="B132" s="30">
+      <c r="B132">
         <v>1400</v>
       </c>
       <c r="C132" t="s">
@@ -4629,7 +4626,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="26"/>
-      <c r="B133" s="30">
+      <c r="B133">
         <v>1410</v>
       </c>
       <c r="C133" s="28" t="str">
@@ -4646,7 +4643,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="26"/>
-      <c r="B134" s="30">
+      <c r="B134">
         <v>1420</v>
       </c>
       <c r="C134" s="28" t="str">
@@ -4663,7 +4660,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="26"/>
-      <c r="B135" s="30">
+      <c r="B135">
         <v>1430</v>
       </c>
       <c r="C135" t="s">
@@ -4672,7 +4669,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="26"/>
-      <c r="B136" s="30">
+      <c r="B136">
         <v>1440</v>
       </c>
       <c r="C136" t="s">
@@ -4681,7 +4678,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="26"/>
-      <c r="B137" s="30">
+      <c r="B137">
         <v>1450</v>
       </c>
       <c r="C137" t="str">
@@ -4695,7 +4692,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="26"/>
-      <c r="B138" s="30">
+      <c r="B138">
         <v>1460</v>
       </c>
       <c r="C138" t="s">
@@ -4704,7 +4701,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="26"/>
-      <c r="B139" s="30">
+      <c r="B139">
         <v>1470</v>
       </c>
       <c r="C139" s="28" t="str">
@@ -4721,7 +4718,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="26"/>
-      <c r="B140" s="30">
+      <c r="B140">
         <v>1480</v>
       </c>
       <c r="C140" s="28" t="str">
@@ -4738,7 +4735,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="26"/>
-      <c r="B141" s="30">
+      <c r="B141">
         <v>1490</v>
       </c>
       <c r="C141" s="28" t="str">
@@ -4755,7 +4752,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="26"/>
-      <c r="B142" s="30">
+      <c r="B142">
         <v>1500</v>
       </c>
       <c r="C142" s="28" t="str">
@@ -4772,7 +4769,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="26"/>
-      <c r="B143" s="30">
+      <c r="B143">
         <v>1510</v>
       </c>
       <c r="C143" t="s">
@@ -4781,7 +4778,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="26"/>
-      <c r="B144" s="30">
+      <c r="B144">
         <v>1520</v>
       </c>
       <c r="C144" s="28" t="str">
@@ -4798,7 +4795,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="26"/>
-      <c r="B145" s="30">
+      <c r="B145">
         <v>1530</v>
       </c>
       <c r="C145" s="28" t="str">
@@ -4815,7 +4812,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="26"/>
-      <c r="B146" s="30">
+      <c r="B146">
         <v>1540</v>
       </c>
       <c r="C146" t="s">
@@ -4824,7 +4821,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="26"/>
-      <c r="B147" s="30">
+      <c r="B147">
         <v>1550</v>
       </c>
       <c r="C147" t="s">
@@ -4833,7 +4830,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="26"/>
-      <c r="B148" s="30">
+      <c r="B148">
         <v>1560</v>
       </c>
       <c r="C148" t="s">
@@ -4842,7 +4839,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="26"/>
-      <c r="B149" s="30">
+      <c r="B149">
         <v>1570</v>
       </c>
       <c r="C149" t="s">
@@ -4851,7 +4848,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="26"/>
-      <c r="B150" s="30">
+      <c r="B150">
         <v>1580</v>
       </c>
       <c r="C150" t="s">
@@ -4860,7 +4857,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="26"/>
-      <c r="B151" s="30">
+      <c r="B151">
         <v>1590</v>
       </c>
       <c r="C151" s="28" t="str">
@@ -4881,7 +4878,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="26"/>
-      <c r="B152" s="30">
+      <c r="B152">
         <v>1600</v>
       </c>
       <c r="C152" s="28" t="str">
@@ -4902,7 +4899,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="26"/>
-      <c r="B153" s="30">
+      <c r="B153">
         <v>1610</v>
       </c>
       <c r="C153" s="28" t="str">
@@ -4923,7 +4920,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="26"/>
-      <c r="B154" s="30">
+      <c r="B154">
         <v>1620</v>
       </c>
       <c r="C154" s="28" t="str">
@@ -4944,7 +4941,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="26"/>
-      <c r="B155" s="30">
+      <c r="B155">
         <v>1630</v>
       </c>
       <c r="C155" s="28" t="str">
@@ -4965,7 +4962,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="26"/>
-      <c r="B156" s="30">
+      <c r="B156">
         <v>1640</v>
       </c>
       <c r="C156" s="28" t="str">
@@ -4986,7 +4983,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="26"/>
-      <c r="B157" s="30">
+      <c r="B157">
         <v>1650</v>
       </c>
       <c r="C157" s="28" t="str">
@@ -5007,7 +5004,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="26"/>
-      <c r="B158" s="30">
+      <c r="B158">
         <v>1660</v>
       </c>
       <c r="C158" s="28" t="str">
@@ -5028,7 +5025,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="26"/>
-      <c r="B159" s="30">
+      <c r="B159">
         <v>1670</v>
       </c>
       <c r="C159" s="28" t="str">
@@ -5049,7 +5046,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="26"/>
-      <c r="B160" s="30">
+      <c r="B160">
         <v>1680</v>
       </c>
       <c r="C160" s="28" t="str">
@@ -5070,7 +5067,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="26"/>
-      <c r="B161" s="30">
+      <c r="B161">
         <v>1690</v>
       </c>
       <c r="C161" s="28" t="str">
@@ -5091,7 +5088,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="26"/>
-      <c r="B162" s="30">
+      <c r="B162">
         <v>1700</v>
       </c>
       <c r="C162" s="28" t="str">
@@ -5112,7 +5109,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="26"/>
-      <c r="B163" s="30">
+      <c r="B163">
         <v>1710</v>
       </c>
       <c r="C163" s="28" t="str">
@@ -5136,7 +5133,7 @@
         <f>_xlfn.CONCAT(A125,".SUBEND")</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
-      <c r="B164" s="30">
+      <c r="B164">
         <v>1720</v>
       </c>
       <c r="C164" s="11" t="s">
@@ -5147,7 +5144,7 @@
       <c r="A165" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="B165" s="30">
+      <c r="B165">
         <v>1730</v>
       </c>
       <c r="C165" s="11" t="str">
@@ -5157,7 +5154,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="26"/>
-      <c r="B166" s="30">
+      <c r="B166">
         <v>1740</v>
       </c>
       <c r="C166" s="11" t="str">
@@ -5170,7 +5167,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="26"/>
-      <c r="B167" s="30">
+      <c r="B167">
         <v>1750</v>
       </c>
       <c r="C167" t="s">
@@ -5179,7 +5176,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="26"/>
-      <c r="B168" s="30">
+      <c r="B168">
         <v>1760</v>
       </c>
       <c r="C168" t="s">
@@ -5188,7 +5185,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="26"/>
-      <c r="B169" s="30">
+      <c r="B169">
         <v>1770</v>
       </c>
       <c r="C169" s="11" t="s">
@@ -5199,7 +5196,7 @@
       <c r="A170" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="B170" s="30">
+      <c r="B170">
         <v>1780</v>
       </c>
       <c r="C170" s="11" t="str">
@@ -5209,7 +5206,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="26"/>
-      <c r="B171" s="30">
+      <c r="B171">
         <v>1790</v>
       </c>
       <c r="C171" s="11" t="str">
@@ -5222,7 +5219,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="26"/>
-      <c r="B172" s="30">
+      <c r="B172">
         <v>1800</v>
       </c>
       <c r="C172" t="s">
@@ -5231,7 +5228,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="26"/>
-      <c r="B173" s="30">
+      <c r="B173">
         <v>1810</v>
       </c>
       <c r="C173" s="11" t="s">
@@ -5242,7 +5239,7 @@
       <c r="A174" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="B174" s="30">
+      <c r="B174">
         <v>1820</v>
       </c>
       <c r="C174" s="11" t="str">
@@ -5252,7 +5249,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="26"/>
-      <c r="B175" s="30">
+      <c r="B175">
         <v>1830</v>
       </c>
       <c r="C175" s="11" t="str">
@@ -5265,7 +5262,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="26"/>
-      <c r="B176" s="30">
+      <c r="B176">
         <v>1840</v>
       </c>
       <c r="C176" t="s">
@@ -5274,7 +5271,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="26"/>
-      <c r="B177" s="30">
+      <c r="B177">
         <v>1850</v>
       </c>
       <c r="C177" t="s">
@@ -5283,7 +5280,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="26"/>
-      <c r="B178" s="30">
+      <c r="B178">
         <v>1860</v>
       </c>
       <c r="C178" t="s">
@@ -5292,7 +5289,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="26"/>
-      <c r="B179" s="30">
+      <c r="B179">
         <v>1870</v>
       </c>
       <c r="C179" t="s">
@@ -5301,7 +5298,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="26"/>
-      <c r="B180" s="30">
+      <c r="B180">
         <v>1880</v>
       </c>
       <c r="C180" s="11" t="s">
@@ -5312,7 +5309,7 @@
       <c r="A181" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="B181" s="30">
+      <c r="B181">
         <v>1890</v>
       </c>
       <c r="C181" s="11" t="str">
@@ -5322,7 +5319,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="26"/>
-      <c r="B182" s="30">
+      <c r="B182">
         <v>1900</v>
       </c>
       <c r="C182" s="11" t="str">
@@ -5335,7 +5332,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="26"/>
-      <c r="B183" s="30">
+      <c r="B183">
         <v>1910</v>
       </c>
       <c r="C183" s="28" t="str">
@@ -5352,7 +5349,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="26"/>
-      <c r="B184" s="30">
+      <c r="B184">
         <v>1920</v>
       </c>
       <c r="C184" t="s">
@@ -5361,7 +5358,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="26"/>
-      <c r="B185" s="30">
+      <c r="B185">
         <v>1930</v>
       </c>
       <c r="C185" s="11" t="s">
@@ -5372,7 +5369,7 @@
       <c r="A186" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="B186" s="30">
+      <c r="B186">
         <v>1940</v>
       </c>
       <c r="C186" s="11" t="str">
@@ -5382,7 +5379,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="26"/>
-      <c r="B187" s="30">
+      <c r="B187">
         <v>1950</v>
       </c>
       <c r="C187" s="11" t="str">
@@ -5395,7 +5392,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="26"/>
-      <c r="B188" s="30">
+      <c r="B188">
         <v>1960</v>
       </c>
       <c r="C188" t="s">
@@ -5404,7 +5401,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="26"/>
-      <c r="B189" s="30">
+      <c r="B189">
         <v>1970</v>
       </c>
       <c r="C189" t="s">
@@ -5413,7 +5410,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="26"/>
-      <c r="B190" s="30">
+      <c r="B190">
         <v>1980</v>
       </c>
       <c r="C190" s="11" t="s">
@@ -5424,7 +5421,7 @@
       <c r="A191" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="B191" s="30">
+      <c r="B191">
         <v>1990</v>
       </c>
       <c r="C191" s="11" t="str">
@@ -5434,7 +5431,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="26"/>
-      <c r="B192" s="30">
+      <c r="B192">
         <v>2000</v>
       </c>
       <c r="C192" s="11" t="str">
@@ -5447,7 +5444,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="26"/>
-      <c r="B193" s="30">
+      <c r="B193">
         <v>2010</v>
       </c>
       <c r="C193" s="28" t="str">
@@ -5464,7 +5461,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="26"/>
-      <c r="B194" s="30">
+      <c r="B194">
         <v>2020</v>
       </c>
       <c r="C194" t="s">
@@ -5473,7 +5470,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="26"/>
-      <c r="B195" s="30">
+      <c r="B195">
         <v>2030</v>
       </c>
       <c r="C195" s="11" t="s">
@@ -5484,7 +5481,7 @@
       <c r="A196" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="B196" s="30">
+      <c r="B196">
         <v>2040</v>
       </c>
       <c r="C196" s="11" t="str">
@@ -5494,7 +5491,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="26"/>
-      <c r="B197" s="30">
+      <c r="B197">
         <v>2050</v>
       </c>
       <c r="C197" s="11" t="str">
@@ -5507,7 +5504,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="26"/>
-      <c r="B198" s="30">
+      <c r="B198">
         <v>2060</v>
       </c>
       <c r="C198" t="s">
@@ -5516,7 +5513,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="26"/>
-      <c r="B199" s="30">
+      <c r="B199">
         <v>2070</v>
       </c>
       <c r="C199" t="s">
@@ -5525,7 +5522,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="26"/>
-      <c r="B200" s="30">
+      <c r="B200">
         <v>2080</v>
       </c>
       <c r="C200" t="s">
@@ -5534,7 +5531,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="26"/>
-      <c r="B201" s="30">
+      <c r="B201">
         <v>2090</v>
       </c>
       <c r="C201" t="s">
@@ -5543,7 +5540,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="26"/>
-      <c r="B202" s="30">
+      <c r="B202">
         <v>2100</v>
       </c>
       <c r="C202" t="s">
@@ -5552,7 +5549,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="26"/>
-      <c r="B203" s="30">
+      <c r="B203">
         <v>2110</v>
       </c>
       <c r="C203" t="s">
@@ -5561,7 +5558,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="26"/>
-      <c r="B204" s="30">
+      <c r="B204">
         <v>2120</v>
       </c>
       <c r="C204" t="s">
@@ -5570,7 +5567,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="26"/>
-      <c r="B205" s="30">
+      <c r="B205">
         <v>2130</v>
       </c>
       <c r="C205" t="s">
@@ -5579,7 +5576,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="26"/>
-      <c r="B206" s="30">
+      <c r="B206">
         <v>2140</v>
       </c>
       <c r="C206" s="11" t="s">
@@ -5590,7 +5587,7 @@
       <c r="A207" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="B207" s="30">
+      <c r="B207">
         <v>2150</v>
       </c>
       <c r="C207" s="11" t="str">
@@ -5600,7 +5597,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="26"/>
-      <c r="B208" s="30">
+      <c r="B208">
         <v>2160</v>
       </c>
       <c r="C208" s="11" t="str">
@@ -5613,7 +5610,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="26"/>
-      <c r="B209" s="30">
+      <c r="B209">
         <v>2170</v>
       </c>
       <c r="C209" t="s">
@@ -5622,7 +5619,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="26"/>
-      <c r="B210" s="30">
+      <c r="B210">
         <v>2180</v>
       </c>
       <c r="C210" t="s">
@@ -5631,7 +5628,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="26"/>
-      <c r="B211" s="30">
+      <c r="B211">
         <v>2190</v>
       </c>
       <c r="C211" t="s">
@@ -5640,7 +5637,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="26"/>
-      <c r="B212" s="30">
+      <c r="B212">
         <v>2200</v>
       </c>
       <c r="C212" t="s">
@@ -5649,7 +5646,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="26"/>
-      <c r="B213" s="30">
+      <c r="B213">
         <v>2210</v>
       </c>
       <c r="C213" t="s">
@@ -5658,7 +5655,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="26"/>
-      <c r="B214" s="30">
+      <c r="B214">
         <v>2220</v>
       </c>
       <c r="C214" s="11" t="s">
@@ -5669,7 +5666,7 @@
       <c r="A215" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="B215" s="30">
+      <c r="B215">
         <v>2230</v>
       </c>
       <c r="C215" s="11" t="str">
@@ -5679,7 +5676,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="26"/>
-      <c r="B216" s="30">
+      <c r="B216">
         <v>2240</v>
       </c>
       <c r="C216" s="11" t="str">
@@ -5692,7 +5689,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="26"/>
-      <c r="B217" s="30">
+      <c r="B217">
         <v>2250</v>
       </c>
       <c r="C217" t="s">
@@ -5701,7 +5698,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="26"/>
-      <c r="B218" s="30">
+      <c r="B218">
         <v>2260</v>
       </c>
       <c r="C218" t="s">
@@ -5710,7 +5707,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="26"/>
-      <c r="B219" s="30">
+      <c r="B219">
         <v>2270</v>
       </c>
       <c r="C219" s="11" t="s">
@@ -5721,7 +5718,7 @@
       <c r="A220" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="B220" s="30">
+      <c r="B220">
         <v>2280</v>
       </c>
       <c r="C220" s="11" t="str">
@@ -5731,7 +5728,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="26"/>
-      <c r="B221" s="30">
+      <c r="B221">
         <v>2290</v>
       </c>
       <c r="C221" s="11" t="str">
@@ -5744,7 +5741,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="26"/>
-      <c r="B222" s="30">
+      <c r="B222">
         <v>2300</v>
       </c>
       <c r="C222" t="s">
@@ -5753,7 +5750,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="26"/>
-      <c r="B223" s="30">
+      <c r="B223">
         <v>2310</v>
       </c>
       <c r="C223" t="s">
@@ -5762,7 +5759,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="26"/>
-      <c r="B224" s="30">
+      <c r="B224">
         <v>2320</v>
       </c>
       <c r="C224" t="s">
@@ -5771,7 +5768,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="26"/>
-      <c r="B225" s="30">
+      <c r="B225">
         <v>2330</v>
       </c>
       <c r="C225" s="11" t="s">
@@ -5782,7 +5779,7 @@
       <c r="A226" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="B226" s="30">
+      <c r="B226">
         <v>2340</v>
       </c>
       <c r="C226" s="11" t="str">
@@ -5792,7 +5789,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="26"/>
-      <c r="B227" s="30">
+      <c r="B227">
         <v>2350</v>
       </c>
       <c r="C227" s="11" t="str">
@@ -5805,7 +5802,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="26"/>
-      <c r="B228" s="30">
+      <c r="B228">
         <v>2360</v>
       </c>
       <c r="C228" t="s">
@@ -5814,7 +5811,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="26"/>
-      <c r="B229" s="30">
+      <c r="B229">
         <v>2370</v>
       </c>
       <c r="C229" t="s">
@@ -5823,7 +5820,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="26"/>
-      <c r="B230" s="30">
+      <c r="B230">
         <v>2380</v>
       </c>
       <c r="C230" t="s">
@@ -5832,7 +5829,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="26"/>
-      <c r="B231" s="30">
+      <c r="B231">
         <v>2390</v>
       </c>
       <c r="C231" t="s">
@@ -5841,7 +5838,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="26"/>
-      <c r="B232" s="30">
+      <c r="B232">
         <v>2400</v>
       </c>
       <c r="C232" s="11" t="s">
@@ -5852,7 +5849,7 @@
       <c r="A233" s="28" t="s">
         <v>588</v>
       </c>
-      <c r="B233" s="30">
+      <c r="B233">
         <v>2410</v>
       </c>
       <c r="C233" s="11" t="str">
@@ -5862,7 +5859,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="26"/>
-      <c r="B234" s="30">
+      <c r="B234">
         <v>2420</v>
       </c>
       <c r="C234" s="11" t="str">
@@ -5875,7 +5872,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="26"/>
-      <c r="B235" s="30">
+      <c r="B235">
         <v>2430</v>
       </c>
       <c r="C235" t="s">
@@ -5884,7 +5881,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="26"/>
-      <c r="B236" s="30">
+      <c r="B236">
         <v>2440</v>
       </c>
       <c r="C236" t="s">
@@ -5893,7 +5890,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="26"/>
-      <c r="B237" s="30">
+      <c r="B237">
         <v>2450</v>
       </c>
       <c r="C237" t="s">
@@ -5902,7 +5899,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="26"/>
-      <c r="B238" s="30">
+      <c r="B238">
         <v>2460</v>
       </c>
       <c r="C238" t="s">
@@ -5911,7 +5908,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="26"/>
-      <c r="B239" s="30">
+      <c r="B239">
         <v>2470</v>
       </c>
       <c r="C239" s="11" t="s">
@@ -5922,7 +5919,7 @@
       <c r="A240" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="B240" s="30">
+      <c r="B240">
         <v>2480</v>
       </c>
       <c r="C240" s="11" t="str">
@@ -5932,7 +5929,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="26"/>
-      <c r="B241" s="30">
+      <c r="B241">
         <v>2490</v>
       </c>
       <c r="C241" s="11" t="str">
@@ -5945,7 +5942,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="26"/>
-      <c r="B242" s="30">
+      <c r="B242">
         <v>2500</v>
       </c>
       <c r="C242" t="s">
@@ -5954,7 +5951,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="26"/>
-      <c r="B243" s="30">
+      <c r="B243">
         <v>2510</v>
       </c>
       <c r="C243" s="11" t="s">
@@ -5962,10 +5959,10 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="26" t="s">
+      <c r="A244" s="28" t="s">
         <v>695</v>
       </c>
-      <c r="B244" s="30">
+      <c r="B244">
         <v>2520</v>
       </c>
       <c r="C244" s="11" t="str">
@@ -5975,7 +5972,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="26"/>
-      <c r="B245" s="30">
+      <c r="B245">
         <v>2530</v>
       </c>
       <c r="C245" s="11" t="str">
@@ -5985,7 +5982,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="26"/>
-      <c r="B246" s="30">
+      <c r="B246">
         <v>2540</v>
       </c>
       <c r="C246" s="11" t="s">
@@ -5994,7 +5991,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="26"/>
-      <c r="B247" s="30">
+      <c r="B247">
         <v>2550</v>
       </c>
       <c r="C247" t="s">
@@ -6003,7 +6000,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="26"/>
-      <c r="B248" s="30">
+      <c r="B248">
         <v>2560</v>
       </c>
       <c r="C248" t="s">
@@ -6012,7 +6009,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="26"/>
-      <c r="B249" s="30">
+      <c r="B249">
         <v>2570</v>
       </c>
       <c r="C249" s="28" t="str">
@@ -6029,7 +6026,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="26"/>
-      <c r="B250" s="30">
+      <c r="B250">
         <v>2580</v>
       </c>
       <c r="C250" s="28" t="str">
@@ -6046,7 +6043,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="26"/>
-      <c r="B251" s="30">
+      <c r="B251">
         <v>2590</v>
       </c>
       <c r="C251" t="s">
@@ -6055,7 +6052,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="26"/>
-      <c r="B252" s="30">
+      <c r="B252">
         <v>2600</v>
       </c>
       <c r="C252" s="28" t="str">
@@ -6072,7 +6069,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="26"/>
-      <c r="B253" s="30">
+      <c r="B253">
         <v>2610</v>
       </c>
       <c r="C253" s="28" t="str">
@@ -6089,7 +6086,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="26"/>
-      <c r="B254" s="30">
+      <c r="B254">
         <v>2620</v>
       </c>
       <c r="C254" t="s">
@@ -6098,7 +6095,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="26"/>
-      <c r="B255" s="30">
+      <c r="B255">
         <v>2630</v>
       </c>
       <c r="C255" s="28" t="str">
@@ -6115,7 +6112,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="26"/>
-      <c r="B256" s="30">
+      <c r="B256">
         <v>2640</v>
       </c>
       <c r="C256" t="s">
@@ -6124,7 +6121,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="26"/>
-      <c r="B257" s="30">
+      <c r="B257">
         <v>2650</v>
       </c>
       <c r="C257" s="28" t="str">
@@ -6141,7 +6138,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="26"/>
-      <c r="B258" s="30">
+      <c r="B258">
         <v>2660</v>
       </c>
       <c r="C258" t="s">
@@ -6150,7 +6147,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="26"/>
-      <c r="B259" s="30">
+      <c r="B259">
         <v>2670</v>
       </c>
       <c r="C259" t="s">
@@ -6159,7 +6156,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="26"/>
-      <c r="B260" s="30">
+      <c r="B260">
         <v>2680</v>
       </c>
       <c r="C260" t="s">
@@ -6168,7 +6165,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="26"/>
-      <c r="B261" s="30">
+      <c r="B261">
         <v>2690</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -6176,20 +6173,19 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="29" t="s">
+      <c r="B262">
+        <v>2700</v>
+      </c>
+      <c r="C262" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A263,"***")</f>
+        <v>REM LABEL ***ASKANOTHER***</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="29" t="s">
         <v>862</v>
       </c>
-      <c r="B262" s="30">
-        <v>2700</v>
-      </c>
-      <c r="C262" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A262,"***")</f>
-        <v>REM LABEL ***ASKANOTHER***</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="26"/>
-      <c r="B263" s="30">
+      <c r="B263">
         <v>2710</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -6198,21 +6194,21 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="26"/>
-      <c r="B264" s="30">
+      <c r="B264">
         <v>2720</v>
       </c>
       <c r="C264" t="str">
         <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D264,A:A,0),0)," :: REM GOTO ",D264,"")</f>
-        <v>IF A$="" THEN 2700 :: REM GOTO ASKANOTHER</v>
+        <v>IF A$="" THEN 2710 :: REM GOTO ASKANOTHER</v>
       </c>
       <c r="D264" s="29" t="str">
-        <f>A262</f>
+        <f>A263</f>
         <v>ASKANOTHER</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="26"/>
-      <c r="B265" s="30">
+      <c r="B265">
         <v>2730</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -6221,21 +6217,21 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="26"/>
-      <c r="B266" s="30">
+      <c r="B266">
         <v>2740</v>
       </c>
       <c r="C266" s="1" t="str">
         <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D266,A:A,0),0)," :: REM GOTO ",D266,"")</f>
-        <v>IF A$="N" THEN 2810 :: REM GOTO REVEAL</v>
+        <v>IF A$="N" THEN 2820 :: REM GOTO REVEAL</v>
       </c>
       <c r="D266" s="29" t="str">
-        <f>A273</f>
+        <f>A274</f>
         <v>REVEAL</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="26"/>
-      <c r="B267" s="30">
+      <c r="B267">
         <v>2750</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -6244,7 +6240,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="26"/>
-      <c r="B268" s="30">
+      <c r="B268">
         <v>2760</v>
       </c>
       <c r="C268" s="28" t="str">
@@ -6261,7 +6257,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="26"/>
-      <c r="B269" s="30">
+      <c r="B269">
         <v>2770</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -6270,7 +6266,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="26"/>
-      <c r="B270" s="30">
+      <c r="B270">
         <v>2780</v>
       </c>
       <c r="C270" t="s">
@@ -6279,21 +6275,21 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="26"/>
-      <c r="B271" s="30">
+      <c r="B271">
         <v>2790</v>
       </c>
       <c r="C271" s="1" t="str">
         <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D271,A:A,0),0)," :: REM GOTO ",D271,"")</f>
-        <v>IF BUSTED=1 THEN 2810 :: REM GOTO REVEAL</v>
+        <v>IF BUSTED=1 THEN 2820 :: REM GOTO REVEAL</v>
       </c>
       <c r="D271" s="29" t="str">
-        <f>A273</f>
+        <f>A274</f>
         <v>REVEAL</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="26"/>
-      <c r="B272" s="30">
+      <c r="B272">
         <v>2800</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -6301,20 +6297,19 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="27" t="s">
+      <c r="B273">
+        <v>2810</v>
+      </c>
+      <c r="C273" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A274,"***")</f>
+        <v>REM LABEL ***REVEAL***</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="B273" s="30">
-        <v>2810</v>
-      </c>
-      <c r="C273" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A273,"***")</f>
-        <v>REM LABEL ***REVEAL***</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="26"/>
-      <c r="B274" s="30">
+      <c r="B274">
         <v>2820</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -6323,7 +6318,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="26"/>
-      <c r="B275" s="30">
+      <c r="B275">
         <v>2830</v>
       </c>
       <c r="C275" s="28" t="str">
@@ -6340,21 +6335,21 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="26"/>
-      <c r="B276" s="30">
+      <c r="B276">
         <v>2840</v>
       </c>
       <c r="C276" s="1" t="str">
         <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D276,A:A,0),0)," :: REM GOTO ",D276,"")</f>
-        <v>IF BUSTED=1 THEN 2980 :: REM GOTO GAMEOVER</v>
+        <v>IF BUSTED=1 THEN 2990 :: REM GOTO GAMEOVER</v>
       </c>
       <c r="D276" s="29" t="str">
-        <f>A290</f>
+        <f>A291</f>
         <v>GAMEOVER</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
-      <c r="B277" s="30">
+      <c r="B277">
         <v>2850</v>
       </c>
       <c r="C277" t="s">
@@ -6363,7 +6358,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
-      <c r="B278" s="30">
+      <c r="B278">
         <v>2860</v>
       </c>
       <c r="C278" t="s">
@@ -6372,7 +6367,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
-      <c r="B279" s="30">
+      <c r="B279">
         <v>2870</v>
       </c>
       <c r="C279" t="s">
@@ -6381,7 +6376,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
-      <c r="B280" s="30">
+      <c r="B280">
         <v>2880</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -6390,7 +6385,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
-      <c r="B281" s="30">
+      <c r="B281">
         <v>2890</v>
       </c>
       <c r="C281" s="28" t="str">
@@ -6407,21 +6402,21 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
-      <c r="B282" s="30">
+      <c r="B282">
         <v>2900</v>
       </c>
       <c r="C282" t="str">
         <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D282,A:A,0),0)," :: REM GOTO ",D282,"")</f>
-        <v>IF SCORE&gt;=17 THEN 2960 :: REM GOTO TALLY</v>
+        <v>IF SCORE&gt;=17 THEN 2970 :: REM GOTO TALLY</v>
       </c>
       <c r="D282" s="29" t="str">
-        <f>A288</f>
+        <f>A289</f>
         <v>TALLY</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
-      <c r="B283" s="30">
+      <c r="B283">
         <v>2910</v>
       </c>
       <c r="C283" s="28" t="str">
@@ -6438,7 +6433,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
-      <c r="B284" s="30">
+      <c r="B284">
         <v>2920</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -6447,7 +6442,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
-      <c r="B285" s="30">
+      <c r="B285">
         <v>2930</v>
       </c>
       <c r="C285" t="s">
@@ -6456,21 +6451,21 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
-      <c r="B286" s="30">
+      <c r="B286">
         <v>2940</v>
       </c>
       <c r="C286" s="1" t="str">
         <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D286,A:A,0),0)," :: REM GOTO ",D286,"")</f>
-        <v>IF BUSTED=1 THEN 2980 :: REM GOTO GAMEOVER</v>
+        <v>IF BUSTED=1 THEN 2990 :: REM GOTO GAMEOVER</v>
       </c>
       <c r="D286" s="29" t="str">
-        <f>A290</f>
+        <f>A291</f>
         <v>GAMEOVER</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
-      <c r="B287" s="30">
+      <c r="B287">
         <v>2950</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -6478,20 +6473,19 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="27" t="s">
+      <c r="B288">
+        <v>2960</v>
+      </c>
+      <c r="C288" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A289,"***")</f>
+        <v>REM LABEL ***TALLY***</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="27" t="s">
         <v>719</v>
       </c>
-      <c r="B288" s="30">
-        <v>2960</v>
-      </c>
-      <c r="C288" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A288,"***")</f>
-        <v>REM LABEL ***TALLY***</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="26"/>
-      <c r="B289" s="30">
+      <c r="B289">
         <v>2970</v>
       </c>
       <c r="C289" s="28" t="str">
@@ -6507,20 +6501,19 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="27" t="s">
+      <c r="B290">
+        <v>2980</v>
+      </c>
+      <c r="C290" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A291,"***")</f>
+        <v>REM LABEL ***GAMEOVER***</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="27" t="s">
         <v>717</v>
       </c>
-      <c r="B290" s="30">
-        <v>2980</v>
-      </c>
-      <c r="C290" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A290,"***")</f>
-        <v>REM LABEL ***GAMEOVER***</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="26"/>
-      <c r="B291" s="30">
+      <c r="B291">
         <v>2990</v>
       </c>
       <c r="C291" t="s">
@@ -6531,7 +6524,7 @@
       <c r="A292" s="28" t="s">
         <v>693</v>
       </c>
-      <c r="B292" s="30">
+      <c r="B292">
         <v>3000</v>
       </c>
       <c r="C292" s="11" t="str">
@@ -6541,7 +6534,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="26"/>
-      <c r="B293" s="30">
+      <c r="B293">
         <v>3010</v>
       </c>
       <c r="C293" s="11" t="str">
@@ -6554,7 +6547,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="26"/>
-      <c r="B294" s="30">
+      <c r="B294">
         <v>3020</v>
       </c>
       <c r="C294" t="s">
@@ -6563,7 +6556,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="26"/>
-      <c r="B295" s="30">
+      <c r="B295">
         <v>3030</v>
       </c>
       <c r="C295" t="s">
@@ -6572,7 +6565,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="26"/>
-      <c r="B296" s="30">
+      <c r="B296">
         <v>3040</v>
       </c>
       <c r="C296" t="s">
@@ -6581,7 +6574,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="26"/>
-      <c r="B297" s="30">
+      <c r="B297">
         <v>3050</v>
       </c>
       <c r="C297" t="s">
@@ -6590,7 +6583,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="26"/>
-      <c r="B298" s="30">
+      <c r="B298">
         <v>3060</v>
       </c>
       <c r="C298" t="s">
@@ -6601,7 +6594,7 @@
       <c r="A299" s="28" t="s">
         <v>780</v>
       </c>
-      <c r="B299" s="30">
+      <c r="B299">
         <v>3070</v>
       </c>
       <c r="C299" s="11" t="str">
@@ -6611,7 +6604,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="26"/>
-      <c r="B300" s="30">
+      <c r="B300">
         <v>3080</v>
       </c>
       <c r="C300" s="11" t="str">
@@ -6624,7 +6617,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="26"/>
-      <c r="B301" s="30">
+      <c r="B301">
         <v>3090</v>
       </c>
       <c r="C301" t="s">
@@ -6633,7 +6626,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="26"/>
-      <c r="B302" s="30">
+      <c r="B302">
         <v>3100</v>
       </c>
       <c r="C302" t="s">
@@ -6642,7 +6635,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="26"/>
-      <c r="B303" s="30">
+      <c r="B303">
         <v>3110</v>
       </c>
       <c r="C303" t="s">
@@ -6650,20 +6643,19 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="29" t="s">
+      <c r="B304">
+        <v>3120</v>
+      </c>
+      <c r="C304" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A305,"***")</f>
+        <v>REM LABEL ***DRAWLOOP***</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="29" t="s">
         <v>760</v>
       </c>
-      <c r="B304" s="30">
-        <v>3120</v>
-      </c>
-      <c r="C304" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A304,"***")</f>
-        <v>REM LABEL ***DRAWLOOP***</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="26"/>
-      <c r="B305" s="30">
+      <c r="B305">
         <v>3130</v>
       </c>
       <c r="C305" t="s">
@@ -6672,7 +6664,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="26"/>
-      <c r="B306" s="30">
+      <c r="B306">
         <v>3140</v>
       </c>
       <c r="C306" t="s">
@@ -6681,7 +6673,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="26"/>
-      <c r="B307" s="30">
+      <c r="B307">
         <v>3150</v>
       </c>
       <c r="C307" t="s">
@@ -6690,7 +6682,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="26"/>
-      <c r="B308" s="30">
+      <c r="B308">
         <v>3160</v>
       </c>
       <c r="C308" t="s">
@@ -6699,7 +6691,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="26"/>
-      <c r="B309" s="30">
+      <c r="B309">
         <v>3170</v>
       </c>
       <c r="C309" t="s">
@@ -6708,7 +6700,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="26"/>
-      <c r="B310" s="30">
+      <c r="B310">
         <v>3180</v>
       </c>
       <c r="C310" s="28" t="str">
@@ -6725,21 +6717,21 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="26"/>
-      <c r="B311" s="30">
+      <c r="B311">
         <v>3190</v>
       </c>
       <c r="C311" t="str">
         <f>_xlfn.CONCAT("IF DUP=1 THEN ",INDEX(B:B,MATCH(D311,A:A,0),0)," :: REM GOTO ",D311,"")</f>
-        <v>IF DUP=1 THEN 3120 :: REM GOTO DRAWLOOP</v>
+        <v>IF DUP=1 THEN 3130 :: REM GOTO DRAWLOOP</v>
       </c>
       <c r="D311" s="29" t="str">
-        <f>A304</f>
+        <f>A305</f>
         <v>DRAWLOOP</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="26"/>
-      <c r="B312" s="30">
+      <c r="B312">
         <v>3200</v>
       </c>
       <c r="C312" t="s">
@@ -6748,7 +6740,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="26"/>
-      <c r="B313" s="30">
+      <c r="B313">
         <v>3210</v>
       </c>
       <c r="C313" t="s">
@@ -6757,7 +6749,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="26"/>
-      <c r="B314" s="30">
+      <c r="B314">
         <v>3220</v>
       </c>
       <c r="C314" t="s">
@@ -6766,7 +6758,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="26"/>
-      <c r="B315" s="30">
+      <c r="B315">
         <v>3230</v>
       </c>
       <c r="C315" t="s">
@@ -6775,7 +6767,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="26"/>
-      <c r="B316" s="30">
+      <c r="B316">
         <v>3240</v>
       </c>
       <c r="C316" t="s">
@@ -6784,7 +6776,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="26"/>
-      <c r="B317" s="30">
+      <c r="B317">
         <v>3250</v>
       </c>
       <c r="C317" t="s">
@@ -6793,7 +6785,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="26"/>
-      <c r="B318" s="30">
+      <c r="B318">
         <v>3260</v>
       </c>
       <c r="C318" t="s">
@@ -6802,7 +6794,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="26"/>
-      <c r="B319" s="30">
+      <c r="B319">
         <v>3270</v>
       </c>
       <c r="C319" t="s">
@@ -6811,7 +6803,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="26"/>
-      <c r="B320" s="30">
+      <c r="B320">
         <v>3280</v>
       </c>
       <c r="C320" t="s">
@@ -6820,7 +6812,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="26"/>
-      <c r="B321" s="30">
+      <c r="B321">
         <v>3290</v>
       </c>
       <c r="C321" t="s">
@@ -6829,7 +6821,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="26"/>
-      <c r="B322" s="30">
+      <c r="B322">
         <v>3300</v>
       </c>
       <c r="C322" t="s">
@@ -6838,7 +6830,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="26"/>
-      <c r="B323" s="30">
+      <c r="B323">
         <v>3310</v>
       </c>
       <c r="C323" s="11" t="s">
@@ -6849,7 +6841,7 @@
       <c r="A324" s="28" t="s">
         <v>756</v>
       </c>
-      <c r="B324" s="30">
+      <c r="B324">
         <v>3320</v>
       </c>
       <c r="C324" s="11" t="str">
@@ -6859,7 +6851,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="26"/>
-      <c r="B325" s="30">
+      <c r="B325">
         <v>3330</v>
       </c>
       <c r="C325" s="11" t="str">
@@ -6872,7 +6864,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="26"/>
-      <c r="B326" s="30">
+      <c r="B326">
         <v>3340</v>
       </c>
       <c r="C326" s="11" t="s">
@@ -6881,7 +6873,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="26"/>
-      <c r="B327" s="30">
+      <c r="B327">
         <v>3350</v>
       </c>
       <c r="C327" s="11" t="s">
@@ -6890,7 +6882,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="26"/>
-      <c r="B328" s="30">
+      <c r="B328">
         <v>3360</v>
       </c>
       <c r="C328" s="11" t="str">
@@ -6904,7 +6896,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="26"/>
-      <c r="B329" s="30">
+      <c r="B329">
         <v>3370</v>
       </c>
       <c r="C329" s="11" t="s">
@@ -6916,7 +6908,7 @@
         <f>_xlfn.CONCAT(A324,".SUBEND")</f>
         <v>CHECKDUP.SUBEND</v>
       </c>
-      <c r="B330" s="30">
+      <c r="B330">
         <v>3380</v>
       </c>
       <c r="C330" s="11" t="s">
@@ -6927,7 +6919,7 @@
       <c r="A331" s="28" t="s">
         <v>694</v>
       </c>
-      <c r="B331" s="30">
+      <c r="B331">
         <v>3390</v>
       </c>
       <c r="C331" s="11" t="str">
@@ -6937,7 +6929,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="26"/>
-      <c r="B332" s="30">
+      <c r="B332">
         <v>3400</v>
       </c>
       <c r="C332" s="11" t="str">
@@ -6950,7 +6942,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="26"/>
-      <c r="B333" s="30">
+      <c r="B333">
         <v>3410</v>
       </c>
       <c r="C333" s="11" t="s">
@@ -6959,7 +6951,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="26"/>
-      <c r="B334" s="30">
+      <c r="B334">
         <v>3420</v>
       </c>
       <c r="C334" s="11" t="s">
@@ -6968,7 +6960,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="26"/>
-      <c r="B335" s="30">
+      <c r="B335">
         <v>3430</v>
       </c>
       <c r="C335" s="11" t="s">
@@ -6977,7 +6969,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="26"/>
-      <c r="B336" s="30">
+      <c r="B336">
         <v>3440</v>
       </c>
       <c r="C336" s="11" t="s">
@@ -6986,7 +6978,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="26"/>
-      <c r="B337" s="30">
+      <c r="B337">
         <v>3450</v>
       </c>
       <c r="C337" s="11" t="s">
@@ -6995,7 +6987,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="26"/>
-      <c r="B338" s="30">
+      <c r="B338">
         <v>3460</v>
       </c>
       <c r="C338" s="28" t="str">
@@ -7012,7 +7004,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="26"/>
-      <c r="B339" s="30">
+      <c r="B339">
         <v>3470</v>
       </c>
       <c r="C339" s="11" t="s">
@@ -7023,7 +7015,7 @@
       <c r="A340" s="28" t="s">
         <v>703</v>
       </c>
-      <c r="B340" s="30">
+      <c r="B340">
         <v>3480</v>
       </c>
       <c r="C340" s="11" t="str">
@@ -7033,7 +7025,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="26"/>
-      <c r="B341" s="30">
+      <c r="B341">
         <v>3490</v>
       </c>
       <c r="C341" s="11" t="str">
@@ -7046,7 +7038,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="26"/>
-      <c r="B342" s="30">
+      <c r="B342">
         <v>3500</v>
       </c>
       <c r="C342" t="s">
@@ -7055,7 +7047,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="26"/>
-      <c r="B343" s="30">
+      <c r="B343">
         <v>3510</v>
       </c>
       <c r="C343" t="str">
@@ -7069,7 +7061,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="26"/>
-      <c r="B344" s="30">
+      <c r="B344">
         <v>3520</v>
       </c>
       <c r="C344" t="s">
@@ -7078,7 +7070,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="26"/>
-      <c r="B345" s="30">
+      <c r="B345">
         <v>3530</v>
       </c>
       <c r="C345" t="str">
@@ -7092,7 +7084,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="26"/>
-      <c r="B346" s="30">
+      <c r="B346">
         <v>3540</v>
       </c>
       <c r="C346" s="11" t="s">
@@ -7104,7 +7096,7 @@
         <f>_xlfn.CONCAT(A340,".SUBEND")</f>
         <v>CALCSCORE.SUBEND</v>
       </c>
-      <c r="B347" s="30">
+      <c r="B347">
         <v>3550</v>
       </c>
       <c r="C347" s="11" t="s">
@@ -7115,7 +7107,7 @@
       <c r="A348" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="B348" s="30">
+      <c r="B348">
         <v>3560</v>
       </c>
       <c r="C348" s="11" t="str">
@@ -7125,7 +7117,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="26"/>
-      <c r="B349" s="30">
+      <c r="B349">
         <v>3570</v>
       </c>
       <c r="C349" s="11" t="str">
@@ -7138,7 +7130,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="26"/>
-      <c r="B350" s="30">
+      <c r="B350">
         <v>3580</v>
       </c>
       <c r="C350" t="s">
@@ -7147,7 +7139,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="26"/>
-      <c r="B351" s="30">
+      <c r="B351">
         <v>3590</v>
       </c>
       <c r="C351" t="str">
@@ -7164,7 +7156,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="26"/>
-      <c r="B352" s="30">
+      <c r="B352">
         <v>3600</v>
       </c>
       <c r="C352" t="s">
@@ -7173,7 +7165,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="26"/>
-      <c r="B353" s="30">
+      <c r="B353">
         <v>3610</v>
       </c>
       <c r="C353" t="s">
@@ -7182,7 +7174,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="26"/>
-      <c r="B354" s="30">
+      <c r="B354">
         <v>3620</v>
       </c>
       <c r="C354" t="str">
@@ -7199,7 +7191,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="26"/>
-      <c r="B355" s="30">
+      <c r="B355">
         <v>3630</v>
       </c>
       <c r="C355" t="s">
@@ -7208,7 +7200,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="26"/>
-      <c r="B356" s="30">
+      <c r="B356">
         <v>3640</v>
       </c>
       <c r="C356" t="s">
@@ -7217,7 +7209,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="26"/>
-      <c r="B357" s="30">
+      <c r="B357">
         <v>3650</v>
       </c>
       <c r="C357" t="s">
@@ -7226,7 +7218,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="26"/>
-      <c r="B358" s="30">
+      <c r="B358">
         <v>3660</v>
       </c>
       <c r="C358" t="s">
@@ -7235,7 +7227,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="26"/>
-      <c r="B359" s="30">
+      <c r="B359">
         <v>3670</v>
       </c>
       <c r="C359" t="s">
@@ -7246,7 +7238,7 @@
       <c r="A360" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="B360" s="30">
+      <c r="B360">
         <v>3680</v>
       </c>
       <c r="C360" s="11" t="str">
@@ -7256,7 +7248,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="26"/>
-      <c r="B361" s="30">
+      <c r="B361">
         <v>3690</v>
       </c>
       <c r="C361" s="11" t="str">
@@ -7266,7 +7258,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="26"/>
-      <c r="B362" s="30">
+      <c r="B362">
         <v>3700</v>
       </c>
       <c r="C362" t="s">
@@ -7275,7 +7267,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="26"/>
-      <c r="B363" s="30">
+      <c r="B363">
         <v>3710</v>
       </c>
       <c r="C363" t="s">
@@ -7284,7 +7276,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="26"/>
-      <c r="B364" s="30">
+      <c r="B364">
         <v>3720</v>
       </c>
       <c r="C364" s="11" t="s">
@@ -7293,7 +7285,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="26"/>
-      <c r="B365" s="30">
+      <c r="B365">
         <v>3730</v>
       </c>
       <c r="C365" t="s">
@@ -7304,7 +7296,7 @@
       <c r="A366" s="28" t="s">
         <v>809</v>
       </c>
-      <c r="B366" s="30">
+      <c r="B366">
         <v>3740</v>
       </c>
       <c r="C366" t="str">
@@ -7313,7 +7305,7 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B367" s="30">
+      <c r="B367">
         <v>3750</v>
       </c>
       <c r="C367" t="str">
@@ -7325,7 +7317,7 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B368" s="30">
+      <c r="B368">
         <v>3760</v>
       </c>
       <c r="C368" s="11" t="s">
@@ -7333,7 +7325,7 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B369" s="30">
+      <c r="B369">
         <v>3770</v>
       </c>
       <c r="C369" s="11" t="s">
@@ -7344,7 +7336,7 @@
       <c r="A370" s="28" t="s">
         <v>808</v>
       </c>
-      <c r="B370" s="30">
+      <c r="B370">
         <v>3780</v>
       </c>
       <c r="C370" t="str">
@@ -7353,7 +7345,7 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B371" s="30">
+      <c r="B371">
         <v>3790</v>
       </c>
       <c r="C371" t="str">
@@ -7365,7 +7357,7 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B372" s="30">
+      <c r="B372">
         <v>3800</v>
       </c>
       <c r="C372" s="11" t="s">
@@ -7373,7 +7365,7 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B373" s="30">
+      <c r="B373">
         <v>3810</v>
       </c>
       <c r="C373" s="11" t="s">
@@ -7384,7 +7376,7 @@
       <c r="A374" s="28" t="s">
         <v>807</v>
       </c>
-      <c r="B374" s="30">
+      <c r="B374">
         <v>3820</v>
       </c>
       <c r="C374" t="str">
@@ -7393,7 +7385,7 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B375" s="30">
+      <c r="B375">
         <v>3830</v>
       </c>
       <c r="C375" t="str">
@@ -7405,7 +7397,7 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B376" s="30">
+      <c r="B376">
         <v>3840</v>
       </c>
       <c r="C376" s="11" t="s">
@@ -7413,7 +7405,7 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B377" s="30">
+      <c r="B377">
         <v>3850</v>
       </c>
       <c r="C377" s="11" t="s">
@@ -7424,7 +7416,7 @@
       <c r="A378" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="B378" s="30">
+      <c r="B378">
         <v>3860</v>
       </c>
       <c r="C378" t="str">
@@ -7433,7 +7425,7 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B379" s="30">
+      <c r="B379">
         <v>3870</v>
       </c>
       <c r="C379" t="str">
@@ -7445,7 +7437,7 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B380" s="30">
+      <c r="B380">
         <v>3880</v>
       </c>
       <c r="C380" s="11" t="s">
@@ -7453,7 +7445,7 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B381" s="30">
+      <c r="B381">
         <v>3890</v>
       </c>
       <c r="C381" s="11" t="s">
@@ -7464,7 +7456,7 @@
       <c r="A382" s="28" t="s">
         <v>805</v>
       </c>
-      <c r="B382" s="30">
+      <c r="B382">
         <v>3900</v>
       </c>
       <c r="C382" t="str">
@@ -7473,7 +7465,7 @@
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B383" s="30">
+      <c r="B383">
         <v>3910</v>
       </c>
       <c r="C383" t="str">
@@ -7485,7 +7477,7 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B384" s="30">
+      <c r="B384">
         <v>3920</v>
       </c>
       <c r="C384" s="11" t="s">
@@ -7493,7 +7485,7 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B385" s="30">
+      <c r="B385">
         <v>3930</v>
       </c>
       <c r="C385" s="11" t="s">
@@ -7504,7 +7496,7 @@
       <c r="A386" s="28" t="s">
         <v>804</v>
       </c>
-      <c r="B386" s="30">
+      <c r="B386">
         <v>3940</v>
       </c>
       <c r="C386" t="str">
@@ -7513,7 +7505,7 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B387" s="30">
+      <c r="B387">
         <v>3950</v>
       </c>
       <c r="C387" t="str">
@@ -7525,7 +7517,7 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B388" s="30">
+      <c r="B388">
         <v>3960</v>
       </c>
       <c r="C388" s="11" t="s">
@@ -7533,7 +7525,7 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B389" s="30">
+      <c r="B389">
         <v>3970</v>
       </c>
       <c r="C389" s="11" t="s">
@@ -7544,7 +7536,7 @@
       <c r="A390" s="28" t="s">
         <v>801</v>
       </c>
-      <c r="B390" s="30">
+      <c r="B390">
         <v>3980</v>
       </c>
       <c r="C390" t="str">
@@ -7553,7 +7545,7 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B391" s="30">
+      <c r="B391">
         <v>3990</v>
       </c>
       <c r="C391" t="str">
@@ -7565,7 +7557,7 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B392" s="30">
+      <c r="B392">
         <v>4000</v>
       </c>
       <c r="C392" s="11" t="s">
@@ -7573,7 +7565,7 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B393" s="30">
+      <c r="B393">
         <v>4010</v>
       </c>
       <c r="C393" s="11" t="s">
@@ -7584,7 +7576,7 @@
       <c r="A394" s="28" t="s">
         <v>802</v>
       </c>
-      <c r="B394" s="30">
+      <c r="B394">
         <v>4020</v>
       </c>
       <c r="C394" t="str">
@@ -7593,7 +7585,7 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B395" s="30">
+      <c r="B395">
         <v>4030</v>
       </c>
       <c r="C395" t="str">
@@ -7605,7 +7597,7 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B396" s="30">
+      <c r="B396">
         <v>4040</v>
       </c>
       <c r="C396" s="11" t="s">
@@ -7613,7 +7605,7 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B397" s="30">
+      <c r="B397">
         <v>4050</v>
       </c>
       <c r="C397" s="11" t="s">
@@ -7624,7 +7616,7 @@
       <c r="A398" s="28" t="s">
         <v>803</v>
       </c>
-      <c r="B398" s="30">
+      <c r="B398">
         <v>4060</v>
       </c>
       <c r="C398" t="str">
@@ -7633,7 +7625,7 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B399" s="30">
+      <c r="B399">
         <v>4070</v>
       </c>
       <c r="C399" t="str">
@@ -7645,7 +7637,7 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B400" s="30">
+      <c r="B400">
         <v>4080</v>
       </c>
       <c r="C400" s="11" t="s">
@@ -7653,7 +7645,7 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B401" s="30">
+      <c r="B401">
         <v>4090</v>
       </c>
       <c r="C401" s="11" t="s">
@@ -7664,7 +7656,7 @@
       <c r="A402" s="28" t="s">
         <v>811</v>
       </c>
-      <c r="B402" s="30">
+      <c r="B402">
         <v>4100</v>
       </c>
       <c r="C402" t="str">
@@ -7673,7 +7665,7 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B403" s="30">
+      <c r="B403">
         <v>4110</v>
       </c>
       <c r="C403" t="str">
@@ -7685,7 +7677,7 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B404" s="30">
+      <c r="B404">
         <v>4120</v>
       </c>
       <c r="C404" s="11" t="s">
@@ -7693,7 +7685,7 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B405" s="30">
+      <c r="B405">
         <v>4130</v>
       </c>
       <c r="C405" s="11" t="s">

--- a/blackjack.xlsx
+++ b/blackjack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2119038A-1E5B-D044-91FE-1447A055BB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E03B6E8-F84E-204A-B997-6AB82457451B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="33000" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="872">
   <si>
     <t>1</t>
   </si>
@@ -2155,9 +2155,6 @@
     <t>TERMINATE</t>
   </si>
   <si>
-    <t xml:space="preserve">FOR I=1 TO 1000 :: NEXT I </t>
-  </si>
-  <si>
     <t>REVEAL</t>
   </si>
   <si>
@@ -2377,9 +2374,6 @@
     <t>IF BUSTED=1 THEN DISPLAY AT (12,3) BEEP: "DEALER BUSTED. YOU WIN."</t>
   </si>
   <si>
-    <t>FOR I=1 TO 5 :: CALL CLEAR :: DISPLAY AT (12,7) BEEP: "GAME TERMINATED" :: FOR J=1 TO 100 :: NEXT J :: NEXT I</t>
-  </si>
-  <si>
     <t>DISPLAY AT(12,6): "SHUFFLING THE DECK"</t>
   </si>
   <si>
@@ -2663,6 +2657,15 @@
   </si>
   <si>
     <t>REM ::</t>
+  </si>
+  <si>
+    <t>FOR I=1 TO 5 :: CALL SOUND(1000,110,30) :: CALL SOUND(1,110,30) :: NEXT I</t>
+  </si>
+  <si>
+    <t>FOR I=1 TO 5 :: CALL CLEAR :: DISPLAY AT (12,7) BEEP: "GAME TERMINATED" :: CALL SOUND(100,110,30) :: CALL SOUND(1,110,30) :: NEXT I</t>
+  </si>
+  <si>
+    <t>FOR I=1 TO 5 :: CALL SOUND(500,110,30) :: CALL SOUND(1,110,30) :: NEXT I</t>
   </si>
 </sst>
 </file>
@@ -3228,15 +3231,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:F405"/>
+  <dimension ref="A1:F406"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C364" sqref="C364"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106" customWidth="1"/>
     <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3251,7 +3256,7 @@
         <v>500</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3259,7 +3264,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3267,7 +3272,7 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3275,7 +3280,7 @@
         <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3283,7 +3288,7 @@
         <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3291,7 +3296,7 @@
         <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3299,7 +3304,7 @@
         <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3307,7 +3312,7 @@
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3315,7 +3320,7 @@
         <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3323,7 +3328,7 @@
         <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3331,7 +3336,7 @@
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3339,7 +3344,7 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3366,7 +3371,7 @@
         <v>CALL SETCHARS</v>
       </c>
       <c r="D14" s="28" t="str">
-        <f>A63</f>
+        <f>A64</f>
         <v>SETCHARS</v>
       </c>
     </row>
@@ -3380,7 +3385,7 @@
         <v>CALL SETCOLORSCHEME</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f>A115</f>
+        <f>A116</f>
         <v>SETCOLORSCHEME</v>
       </c>
     </row>
@@ -3395,7 +3400,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B17">
         <v>250</v>
@@ -3405,7 +3410,7 @@
         <v>CALL PLAY</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f>A244</f>
+        <f>A245</f>
         <v>PLAY</v>
       </c>
     </row>
@@ -3421,13 +3426,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B19">
         <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3463,7 +3468,7 @@
         <v>IF A$="N" THEN CALL TERMINATE</v>
       </c>
       <c r="D22" s="28" t="str">
-        <f>A360</f>
+        <f>A361</f>
         <v>TERMINATE</v>
       </c>
     </row>
@@ -3528,7 +3533,7 @@
         <v>360</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3546,7 +3551,7 @@
         <v>380</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>455</v>
+        <v>869</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3555,7 +3560,7 @@
         <v>390</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>740</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3564,7 +3569,7 @@
         <v>400</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3573,7 +3578,7 @@
         <v>410</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3582,7 +3587,7 @@
         <v>420</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3591,7 +3596,7 @@
         <v>430</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3600,7 +3605,7 @@
         <v>440</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3609,7 +3614,7 @@
         <v>450</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3618,7 +3623,7 @@
         <v>460</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3627,7 +3632,7 @@
         <v>470</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3636,7 +3641,7 @@
         <v>480</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3645,7 +3650,7 @@
         <v>490</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3654,7 +3659,7 @@
         <v>500</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3663,7 +3668,7 @@
         <v>510</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3672,7 +3677,7 @@
         <v>520</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3681,7 +3686,7 @@
         <v>530</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3690,7 +3695,7 @@
         <v>540</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3699,7 +3704,7 @@
         <v>550</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>7</v>
+        <v>720</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3708,7 +3713,7 @@
         <v>560</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>722</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3717,7 +3722,7 @@
         <v>570</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,7 +3731,7 @@
         <v>580</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3735,7 +3740,7 @@
         <v>590</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3744,7 +3749,7 @@
         <v>600</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3753,7 +3758,7 @@
         <v>610</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3762,7 +3767,7 @@
         <v>620</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3771,7 +3776,7 @@
         <v>630</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3780,7 +3785,7 @@
         <v>640</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3789,7 +3794,7 @@
         <v>650</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3798,7 +3803,7 @@
         <v>660</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3807,7 +3812,7 @@
         <v>670</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3816,7 +3821,7 @@
         <v>680</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3825,7 +3830,7 @@
         <v>690</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3834,29 +3839,28 @@
         <v>700</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>783</v>
+        <v>720</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>662</v>
-      </c>
+      <c r="A63" s="26"/>
       <c r="B63">
         <v>710</v>
       </c>
-      <c r="C63" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A63,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARS***</v>
+      <c r="C63" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="26"/>
+      <c r="A64" s="28" t="s">
+        <v>662</v>
+      </c>
       <c r="B64">
         <v>720</v>
       </c>
       <c r="C64" s="11" t="str">
-        <f>IF(ISBLANK(E64),_xlfn.CONCAT("SUB ",A63),_xlfn.CONCAT("SUB ",A63,"(",E64,")"))</f>
-        <v>SUB SETCHARS</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A64,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARS***</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3864,13 +3868,9 @@
       <c r="B65">
         <v>730</v>
       </c>
-      <c r="C65" s="28" t="str">
-        <f>IF(ISBLANK(E65),_xlfn.CONCAT("CALL ",D65),_xlfn.CONCAT("CALL ",D65,"(",E65,")"))</f>
-        <v>CALL SETCHARSRED</v>
-      </c>
-      <c r="D65" s="28" t="str">
-        <f>A71</f>
-        <v>SETCHARSRED</v>
+      <c r="C65" s="11" t="str">
+        <f>IF(ISBLANK(E65),_xlfn.CONCAT("SUB ",A64),_xlfn.CONCAT("SUB ",A64,"(",E65,")"))</f>
+        <v>SUB SETCHARS</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3880,11 +3880,11 @@
       </c>
       <c r="C66" s="28" t="str">
         <f>IF(ISBLANK(E66),_xlfn.CONCAT("CALL ",D66),_xlfn.CONCAT("CALL ",D66,"(",E66,")"))</f>
-        <v>CALL SETCHARSBLACK</v>
+        <v>CALL SETCHARSRED</v>
       </c>
       <c r="D66" s="28" t="str">
-        <f>A82</f>
-        <v>SETCHARSBLACK</v>
+        <f>A72</f>
+        <v>SETCHARSRED</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3894,11 +3894,11 @@
       </c>
       <c r="C67" s="28" t="str">
         <f>IF(ISBLANK(E67),_xlfn.CONCAT("CALL ",D67),_xlfn.CONCAT("CALL ",D67,"(",E67,")"))</f>
-        <v>CALL SETCHARSEDGES</v>
+        <v>CALL SETCHARSBLACK</v>
       </c>
       <c r="D67" s="28" t="str">
-        <f>A108</f>
-        <v>SETCHARSEDGES</v>
+        <f>A83</f>
+        <v>SETCHARSBLACK</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3908,14 +3908,11 @@
       </c>
       <c r="C68" s="28" t="str">
         <f>IF(ISBLANK(E68),_xlfn.CONCAT("CALL ",D68),_xlfn.CONCAT("CALL ",D68,"(",E68,")"))</f>
-        <v>CALL GETCARDFRONT(CARDFRONT)</v>
+        <v>CALL SETCHARSEDGES</v>
       </c>
       <c r="D68" s="28" t="str">
-        <f>A402</f>
-        <v>GETCARDFRONT</v>
-      </c>
-      <c r="E68" t="s">
-        <v>830</v>
+        <f>A109</f>
+        <v>SETCHARSEDGES</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3923,8 +3920,16 @@
       <c r="B69">
         <v>770</v>
       </c>
-      <c r="C69" t="s">
-        <v>831</v>
+      <c r="C69" s="28" t="str">
+        <f>IF(ISBLANK(E69),_xlfn.CONCAT("CALL ",D69),_xlfn.CONCAT("CALL ",D69,"(",E69,")"))</f>
+        <v>CALL GETCARDFRONT(CARDFRONT)</v>
+      </c>
+      <c r="D69" s="28" t="str">
+        <f>A403</f>
+        <v>GETCARDFRONT</v>
+      </c>
+      <c r="E69" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3932,47 +3937,39 @@
       <c r="B70">
         <v>780</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>783</v>
+      <c r="C70" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>853</v>
-      </c>
+      <c r="A71" s="26"/>
       <c r="B71">
         <v>790</v>
       </c>
-      <c r="C71" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A71,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSRED***</v>
+      <c r="C71" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
+      <c r="A72" s="28" t="s">
+        <v>851</v>
+      </c>
       <c r="B72">
         <v>800</v>
       </c>
       <c r="C72" s="11" t="str">
-        <f>IF(ISBLANK(E72),_xlfn.CONCAT("SUB ",A71),_xlfn.CONCAT("SUB ",A71,"(",E72,")"))</f>
-        <v>SUB SETCHARSRED</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A72,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSRED***</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="26"/>
+      <c r="A73" s="28"/>
       <c r="B73">
         <v>810</v>
       </c>
-      <c r="C73" s="28" t="str">
-        <f>IF(ISBLANK(E73),_xlfn.CONCAT("CALL ",D73),_xlfn.CONCAT("CALL ",D73,"(",E73,")"))</f>
-        <v>CALL GETHEART(HEART)</v>
-      </c>
-      <c r="D73" s="28" t="str">
-        <f>A366</f>
-        <v>GETHEART</v>
-      </c>
-      <c r="E73" t="s">
-        <v>812</v>
+      <c r="C73" s="11" t="str">
+        <f>IF(ISBLANK(E73),_xlfn.CONCAT("SUB ",A72),_xlfn.CONCAT("SUB ",A72,"(",E73,")"))</f>
+        <v>SUB SETCHARSRED</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3980,8 +3977,16 @@
       <c r="B74">
         <v>820</v>
       </c>
-      <c r="C74" t="s">
-        <v>813</v>
+      <c r="C74" s="28" t="str">
+        <f>IF(ISBLANK(E74),_xlfn.CONCAT("CALL ",D74),_xlfn.CONCAT("CALL ",D74,"(",E74,")"))</f>
+        <v>CALL GETHEART(HEART)</v>
+      </c>
+      <c r="D74" s="28" t="str">
+        <f>A367</f>
+        <v>GETHEART</v>
+      </c>
+      <c r="E74" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3989,16 +3994,8 @@
       <c r="B75">
         <v>830</v>
       </c>
-      <c r="C75" s="28" t="str">
-        <f>IF(ISBLANK(E75),_xlfn.CONCAT("CALL ",D75),_xlfn.CONCAT("CALL ",D75,"(",E75,")"))</f>
-        <v>CALL GETDIAMOND(DIAMOND)</v>
-      </c>
-      <c r="D75" s="28" t="str">
-        <f>A370</f>
-        <v>GETDIAMOND</v>
-      </c>
-      <c r="E75" t="s">
-        <v>814</v>
+      <c r="C75" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4006,8 +4003,16 @@
       <c r="B76">
         <v>840</v>
       </c>
-      <c r="C76" t="s">
-        <v>815</v>
+      <c r="C76" s="28" t="str">
+        <f>IF(ISBLANK(E76),_xlfn.CONCAT("CALL ",D76),_xlfn.CONCAT("CALL ",D76,"(",E76,")"))</f>
+        <v>CALL GETDIAMOND(DIAMOND)</v>
+      </c>
+      <c r="D76" s="28" t="str">
+        <f>A371</f>
+        <v>GETDIAMOND</v>
+      </c>
+      <c r="E76" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -4015,16 +4020,8 @@
       <c r="B77">
         <v>850</v>
       </c>
-      <c r="C77" s="28" t="str">
-        <f>IF(ISBLANK(E77),_xlfn.CONCAT("CALL ",D77),_xlfn.CONCAT("CALL ",D77,"(",E77,")"))</f>
-        <v>CALL GETREDVALS(REDVALS)</v>
-      </c>
-      <c r="D77" s="28" t="str">
-        <f>A374</f>
-        <v>GETREDVALS</v>
-      </c>
-      <c r="E77" t="s">
-        <v>816</v>
+      <c r="C77" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4034,14 +4031,14 @@
       </c>
       <c r="C78" s="28" t="str">
         <f>IF(ISBLANK(E78),_xlfn.CONCAT("CALL ",D78),_xlfn.CONCAT("CALL ",D78,"(",E78,")"))</f>
-        <v>CALL SETCHARSVALS((REDVALS))</v>
+        <v>CALL GETREDVALS(REDVALS)</v>
       </c>
       <c r="D78" s="28" t="str">
-        <f>A91</f>
-        <v>SETCHARSVALS</v>
+        <f>A375</f>
+        <v>GETREDVALS</v>
       </c>
       <c r="E78" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4051,14 +4048,14 @@
       </c>
       <c r="C79" s="28" t="str">
         <f>IF(ISBLANK(E79),_xlfn.CONCAT("CALL ",D79),_xlfn.CONCAT("CALL ",D79,"(",E79,")"))</f>
-        <v>CALL GETCARDBACK(CARDBACK)</v>
+        <v>CALL SETCHARSVALS((REDVALS))</v>
       </c>
       <c r="D79" s="28" t="str">
-        <f>A378</f>
-        <v>GETCARDBACK</v>
+        <f>A92</f>
+        <v>SETCHARSVALS</v>
       </c>
       <c r="E79" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -4066,8 +4063,16 @@
       <c r="B80">
         <v>880</v>
       </c>
-      <c r="C80" t="s">
-        <v>820</v>
+      <c r="C80" s="28" t="str">
+        <f>IF(ISBLANK(E80),_xlfn.CONCAT("CALL ",D80),_xlfn.CONCAT("CALL ",D80,"(",E80,")"))</f>
+        <v>CALL GETCARDBACK(CARDBACK)</v>
+      </c>
+      <c r="D80" s="28" t="str">
+        <f>A379</f>
+        <v>GETCARDBACK</v>
+      </c>
+      <c r="E80" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4075,47 +4080,39 @@
       <c r="B81">
         <v>890</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>783</v>
+      <c r="C81" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="28" t="s">
-        <v>854</v>
-      </c>
+      <c r="A82" s="26"/>
       <c r="B82">
         <v>900</v>
       </c>
-      <c r="C82" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A82,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSBLACK***</v>
+      <c r="C82" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="28"/>
+      <c r="A83" s="28" t="s">
+        <v>852</v>
+      </c>
       <c r="B83">
         <v>910</v>
       </c>
       <c r="C83" s="11" t="str">
-        <f>IF(ISBLANK(E83),_xlfn.CONCAT("SUB ",A82),_xlfn.CONCAT("SUB ",A82,"(",E83,")"))</f>
-        <v>SUB SETCHARSBLACK</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A83,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSBLACK***</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="26"/>
+      <c r="A84" s="28"/>
       <c r="B84">
         <v>920</v>
       </c>
-      <c r="C84" s="28" t="str">
-        <f>IF(ISBLANK(E84),_xlfn.CONCAT("CALL ",D84),_xlfn.CONCAT("CALL ",D84,"(",E84,")"))</f>
-        <v>CALL GETSPADE(SPADE)</v>
-      </c>
-      <c r="D84" s="28" t="str">
-        <f>A382</f>
-        <v>GETSPADE</v>
-      </c>
-      <c r="E84" t="s">
-        <v>821</v>
+      <c r="C84" s="11" t="str">
+        <f>IF(ISBLANK(E84),_xlfn.CONCAT("SUB ",A83),_xlfn.CONCAT("SUB ",A83,"(",E84,")"))</f>
+        <v>SUB SETCHARSBLACK</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4123,8 +4120,16 @@
       <c r="B85">
         <v>930</v>
       </c>
-      <c r="C85" t="s">
-        <v>822</v>
+      <c r="C85" s="28" t="str">
+        <f>IF(ISBLANK(E85),_xlfn.CONCAT("CALL ",D85),_xlfn.CONCAT("CALL ",D85,"(",E85,")"))</f>
+        <v>CALL GETSPADE(SPADE)</v>
+      </c>
+      <c r="D85" s="28" t="str">
+        <f>A383</f>
+        <v>GETSPADE</v>
+      </c>
+      <c r="E85" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4132,16 +4137,8 @@
       <c r="B86">
         <v>940</v>
       </c>
-      <c r="C86" s="28" t="str">
-        <f>IF(ISBLANK(E86),_xlfn.CONCAT("CALL ",D86),_xlfn.CONCAT("CALL ",D86,"(",E86,")"))</f>
-        <v>CALL GETCLUB(CLUB)</v>
-      </c>
-      <c r="D86" s="28" t="str">
-        <f>A386</f>
-        <v>GETCLUB</v>
-      </c>
-      <c r="E86" t="s">
-        <v>823</v>
+      <c r="C86" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4149,8 +4146,16 @@
       <c r="B87">
         <v>950</v>
       </c>
-      <c r="C87" t="s">
-        <v>855</v>
+      <c r="C87" s="28" t="str">
+        <f>IF(ISBLANK(E87),_xlfn.CONCAT("CALL ",D87),_xlfn.CONCAT("CALL ",D87,"(",E87,")"))</f>
+        <v>CALL GETCLUB(CLUB)</v>
+      </c>
+      <c r="D87" s="28" t="str">
+        <f>A387</f>
+        <v>GETCLUB</v>
+      </c>
+      <c r="E87" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4158,16 +4163,8 @@
       <c r="B88">
         <v>960</v>
       </c>
-      <c r="C88" s="28" t="str">
-        <f>IF(ISBLANK(E88),_xlfn.CONCAT("CALL ",D88),_xlfn.CONCAT("CALL ",D88,"(",E88,")"))</f>
-        <v>CALL GETBLACKVALS(BLACKVALS)</v>
-      </c>
-      <c r="D88" s="28" t="str">
-        <f>A390</f>
-        <v>GETBLACKVALS</v>
-      </c>
-      <c r="E88" t="s">
-        <v>824</v>
+      <c r="C88" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4177,14 +4174,14 @@
       </c>
       <c r="C89" s="28" t="str">
         <f>IF(ISBLANK(E89),_xlfn.CONCAT("CALL ",D89),_xlfn.CONCAT("CALL ",D89,"(",E89,")"))</f>
-        <v>CALL SETCHARSVALS((BLACKVALS))</v>
+        <v>CALL GETBLACKVALS(BLACKVALS)</v>
       </c>
       <c r="D89" s="28" t="str">
-        <f>A91</f>
-        <v>SETCHARSVALS</v>
+        <f>A391</f>
+        <v>GETBLACKVALS</v>
       </c>
       <c r="E89" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -4192,33 +4189,37 @@
       <c r="B90">
         <v>980</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>783</v>
+      <c r="C90" s="28" t="str">
+        <f>IF(ISBLANK(E90),_xlfn.CONCAT("CALL ",D90),_xlfn.CONCAT("CALL ",D90,"(",E90,")"))</f>
+        <v>CALL SETCHARSVALS((BLACKVALS))</v>
+      </c>
+      <c r="D90" s="28" t="str">
+        <f>A92</f>
+        <v>SETCHARSVALS</v>
+      </c>
+      <c r="E90" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="28" t="s">
-        <v>664</v>
-      </c>
+      <c r="A91" s="26"/>
       <c r="B91">
         <v>990</v>
       </c>
-      <c r="C91" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A91,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSVALS***</v>
+      <c r="C91" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="26"/>
+      <c r="A92" s="28" t="s">
+        <v>664</v>
+      </c>
       <c r="B92">
         <v>1000</v>
       </c>
       <c r="C92" s="11" t="str">
-        <f>IF(ISBLANK(E92),_xlfn.CONCAT("SUB ",A91),_xlfn.CONCAT("SUB ",A91,"(",E92,")"))</f>
-        <v>SUB SETCHARSVALS(OFFSET)</v>
-      </c>
-      <c r="E92" t="s">
-        <v>817</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A92,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSVALS***</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4226,8 +4227,12 @@
       <c r="B93">
         <v>1010</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>663</v>
+      <c r="C93" s="11" t="str">
+        <f>IF(ISBLANK(E93),_xlfn.CONCAT("SUB ",A92),_xlfn.CONCAT("SUB ",A92,"(",E93,")"))</f>
+        <v>SUB SETCHARSVALS(OFFSET)</v>
+      </c>
+      <c r="E93" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4235,8 +4240,8 @@
       <c r="B94">
         <v>1020</v>
       </c>
-      <c r="C94" t="s">
-        <v>665</v>
+      <c r="C94" s="11" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4245,7 +4250,7 @@
         <v>1030</v>
       </c>
       <c r="C95" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4254,7 +4259,7 @@
         <v>1040</v>
       </c>
       <c r="C96" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4263,7 +4268,7 @@
         <v>1050</v>
       </c>
       <c r="C97" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4272,7 +4277,7 @@
         <v>1060</v>
       </c>
       <c r="C98" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4281,7 +4286,7 @@
         <v>1070</v>
       </c>
       <c r="C99" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4290,7 +4295,7 @@
         <v>1080</v>
       </c>
       <c r="C100" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4299,7 +4304,7 @@
         <v>1090</v>
       </c>
       <c r="C101" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4308,7 +4313,7 @@
         <v>1100</v>
       </c>
       <c r="C102" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4317,7 +4322,7 @@
         <v>1110</v>
       </c>
       <c r="C103" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4326,7 +4331,7 @@
         <v>1120</v>
       </c>
       <c r="C104" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -4335,7 +4340,7 @@
         <v>1130</v>
       </c>
       <c r="C105" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4344,7 +4349,7 @@
         <v>1140</v>
       </c>
       <c r="C106" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4352,30 +4357,29 @@
       <c r="B107">
         <v>1150</v>
       </c>
-      <c r="C107" s="11" t="s">
-        <v>783</v>
+      <c r="C107" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="28" t="s">
-        <v>678</v>
-      </c>
+      <c r="A108" s="26"/>
       <c r="B108">
         <v>1160</v>
       </c>
-      <c r="C108" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A108,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSEDGES***</v>
+      <c r="C108" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="26"/>
+      <c r="A109" s="28" t="s">
+        <v>678</v>
+      </c>
       <c r="B109">
         <v>1170</v>
       </c>
       <c r="C109" s="11" t="str">
-        <f>IF(ISBLANK(E109),_xlfn.CONCAT("SUB ",A108),_xlfn.CONCAT("SUB ",A108,"(",E109,")"))</f>
-        <v>SUB SETCHARSEDGES</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A109,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSEDGES***</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4383,16 +4387,9 @@
       <c r="B110">
         <v>1180</v>
       </c>
-      <c r="C110" s="28" t="str">
-        <f>IF(ISBLANK(E110),_xlfn.CONCAT("CALL ",D110),_xlfn.CONCAT("CALL ",D110,"(",E110,")"))</f>
-        <v>CALL GETCARDEDGE(CARDEDGE)</v>
-      </c>
-      <c r="D110" s="28" t="str">
-        <f>A394</f>
-        <v>GETCARDEDGE</v>
-      </c>
-      <c r="E110" t="s">
-        <v>826</v>
+      <c r="C110" s="11" t="str">
+        <f>IF(ISBLANK(E110),_xlfn.CONCAT("SUB ",A109),_xlfn.CONCAT("SUB ",A109,"(",E110,")"))</f>
+        <v>SUB SETCHARSEDGES</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4400,8 +4397,16 @@
       <c r="B111">
         <v>1190</v>
       </c>
-      <c r="C111" t="s">
-        <v>827</v>
+      <c r="C111" s="28" t="str">
+        <f>IF(ISBLANK(E111),_xlfn.CONCAT("CALL ",D111),_xlfn.CONCAT("CALL ",D111,"(",E111,")"))</f>
+        <v>CALL GETCARDEDGE(CARDEDGE)</v>
+      </c>
+      <c r="D111" s="28" t="str">
+        <f>A395</f>
+        <v>GETCARDEDGE</v>
+      </c>
+      <c r="E111" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4409,16 +4414,8 @@
       <c r="B112">
         <v>1200</v>
       </c>
-      <c r="C112" s="28" t="str">
-        <f>IF(ISBLANK(E112),_xlfn.CONCAT("CALL ",D112),_xlfn.CONCAT("CALL ",D112,"(",E112,")"))</f>
-        <v>CALL GETCARDTOP(CARDTOP)</v>
-      </c>
-      <c r="D112" s="28" t="str">
-        <f>A398</f>
-        <v>GETCARDTOP</v>
-      </c>
-      <c r="E112" t="s">
-        <v>828</v>
+      <c r="C112" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4426,8 +4423,16 @@
       <c r="B113">
         <v>1210</v>
       </c>
-      <c r="C113" t="s">
-        <v>829</v>
+      <c r="C113" s="28" t="str">
+        <f>IF(ISBLANK(E113),_xlfn.CONCAT("CALL ",D113),_xlfn.CONCAT("CALL ",D113,"(",E113,")"))</f>
+        <v>CALL GETCARDTOP(CARDTOP)</v>
+      </c>
+      <c r="D113" s="28" t="str">
+        <f>A399</f>
+        <v>GETCARDTOP</v>
+      </c>
+      <c r="E113" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -4435,30 +4440,29 @@
       <c r="B114">
         <v>1220</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>783</v>
+      <c r="C114" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="28" t="s">
-        <v>681</v>
-      </c>
+      <c r="A115" s="26"/>
       <c r="B115">
         <v>1230</v>
       </c>
-      <c r="C115" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A115,"***")</f>
-        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
+      <c r="C115" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="26"/>
+      <c r="A116" s="28" t="s">
+        <v>681</v>
+      </c>
       <c r="B116">
         <v>1240</v>
       </c>
       <c r="C116" s="11" t="str">
-        <f>IF(ISBLANK(E116),_xlfn.CONCAT("SUB ",A115),_xlfn.CONCAT("SUB ",A115,"(",E116,")"))</f>
-        <v>SUB SETCOLORSCHEME</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A116,"***")</f>
+        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -4466,8 +4470,9 @@
       <c r="B117">
         <v>1250</v>
       </c>
-      <c r="C117" s="11" t="s">
-        <v>832</v>
+      <c r="C117" s="11" t="str">
+        <f>IF(ISBLANK(E117),_xlfn.CONCAT("SUB ",A116),_xlfn.CONCAT("SUB ",A116,"(",E117,")"))</f>
+        <v>SUB SETCOLORSCHEME</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -4476,7 +4481,7 @@
         <v>1260</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -4485,7 +4490,7 @@
         <v>1270</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -4494,7 +4499,7 @@
         <v>1280</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -4503,7 +4508,7 @@
         <v>1290</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,7 +4517,7 @@
         <v>1300</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -4521,7 +4526,7 @@
         <v>1310</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>682</v>
+        <v>831</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4530,32 +4535,28 @@
         <v>1320</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>783</v>
+        <v>682</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="28" t="s">
-        <v>577</v>
-      </c>
+      <c r="A125" s="26"/>
       <c r="B125">
         <v>1330</v>
       </c>
-      <c r="C125" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A125,"***")</f>
-        <v>REM SUBROUTINE ***RENDERCARD***</v>
+      <c r="C125" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="26"/>
+      <c r="A126" s="28" t="s">
+        <v>577</v>
+      </c>
       <c r="B126">
         <v>1340</v>
       </c>
       <c r="C126" s="11" t="str">
-        <f>IF(ISBLANK(E126),_xlfn.CONCAT("SUB ",A125),_xlfn.CONCAT("SUB ",A125,"(",E126,")"))</f>
-        <v>SUB RENDERCARD(PLAYER,CARD,FACEDOWN,HANDS(,,))</v>
-      </c>
-      <c r="E126" t="s">
-        <v>841</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A126,"***")</f>
+        <v>REM SUBROUTINE ***RENDERCARD***</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4563,20 +4564,12 @@
       <c r="B127">
         <v>1350</v>
       </c>
-      <c r="C127" s="28" t="str">
-        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN CALL ",D127,"(",F127,") ELSE CALL ",E127,"(",F127,")")</f>
-        <v>IF FACEDOWN=1 THEN CALL GETCARDBACK(FILL) ELSE CALL GETCARDFRONT(FILL)</v>
-      </c>
-      <c r="D127" s="28" t="str">
-        <f>A378</f>
-        <v>GETCARDBACK</v>
-      </c>
-      <c r="E127" s="28" t="str">
-        <f>A402</f>
-        <v>GETCARDFRONT</v>
-      </c>
-      <c r="F127" s="11" t="s">
-        <v>838</v>
+      <c r="C127" s="11" t="str">
+        <f>IF(ISBLANK(E127),_xlfn.CONCAT("SUB ",A126),_xlfn.CONCAT("SUB ",A126,"(",E127,")"))</f>
+        <v>SUB RENDERCARD(PLAYER,CARD,FACEDOWN,HANDS(,,))</v>
+      </c>
+      <c r="E127" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -4584,8 +4577,20 @@
       <c r="B128">
         <v>1360</v>
       </c>
-      <c r="C128" s="11" t="s">
-        <v>685</v>
+      <c r="C128" s="28" t="str">
+        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN CALL ",D128,"(",F128,") ELSE CALL ",E128,"(",F128,")")</f>
+        <v>IF FACEDOWN=1 THEN CALL GETCARDBACK(FILL) ELSE CALL GETCARDFRONT(FILL)</v>
+      </c>
+      <c r="D128" s="28" t="str">
+        <f>A379</f>
+        <v>GETCARDBACK</v>
+      </c>
+      <c r="E128" s="28" t="str">
+        <f>A403</f>
+        <v>GETCARDFRONT</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4594,7 +4599,7 @@
         <v>1370</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -4602,8 +4607,8 @@
       <c r="B130">
         <v>1380</v>
       </c>
-      <c r="C130" t="s">
-        <v>130</v>
+      <c r="C130" s="11" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4612,7 +4617,7 @@
         <v>1390</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4621,7 +4626,7 @@
         <v>1400</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4629,16 +4634,8 @@
       <c r="B133">
         <v>1410</v>
       </c>
-      <c r="C133" s="28" t="str">
-        <f>IF(ISBLANK(E133),_xlfn.CONCAT("CALL ",D133),_xlfn.CONCAT("CALL ",D133,"(",E133,")"))</f>
-        <v>CALL GETCARDTOP(CARDTOP)</v>
-      </c>
-      <c r="D133" s="28" t="str">
-        <f>A398</f>
-        <v>GETCARDTOP</v>
-      </c>
-      <c r="E133" t="s">
-        <v>828</v>
+      <c r="C133" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4648,11 +4645,11 @@
       </c>
       <c r="C134" s="28" t="str">
         <f>IF(ISBLANK(E134),_xlfn.CONCAT("CALL ",D134),_xlfn.CONCAT("CALL ",D134,"(",E134,")"))</f>
-        <v>CALL GETCARDEDGE(CARDEDGE)</v>
+        <v>CALL GETCARDTOP(CARDTOP)</v>
       </c>
       <c r="D134" s="28" t="str">
-        <f>A394</f>
-        <v>GETCARDEDGE</v>
+        <f>A399</f>
+        <v>GETCARDTOP</v>
       </c>
       <c r="E134" t="s">
         <v>826</v>
@@ -4663,8 +4660,16 @@
       <c r="B135">
         <v>1430</v>
       </c>
-      <c r="C135" t="s">
-        <v>683</v>
+      <c r="C135" s="28" t="str">
+        <f>IF(ISBLANK(E135),_xlfn.CONCAT("CALL ",D135),_xlfn.CONCAT("CALL ",D135,"(",E135,")"))</f>
+        <v>CALL GETCARDEDGE(CARDEDGE)</v>
+      </c>
+      <c r="D135" s="28" t="str">
+        <f>A395</f>
+        <v>GETCARDEDGE</v>
+      </c>
+      <c r="E135" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -4673,7 +4678,7 @@
         <v>1440</v>
       </c>
       <c r="C136" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -4681,13 +4686,8 @@
       <c r="B137">
         <v>1450</v>
       </c>
-      <c r="C137" t="str">
-        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN ",INDEX(B:B,MATCH(D137,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF FACEDOWN=1 THEN 1720 :: REM SUBEND</v>
-      </c>
-      <c r="D137" s="29" t="str">
-        <f>A164</f>
-        <v>RENDERCARD.SUBEND</v>
+      <c r="C137" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4695,8 +4695,13 @@
       <c r="B138">
         <v>1460</v>
       </c>
-      <c r="C138" t="s">
-        <v>688</v>
+      <c r="C138" t="str">
+        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN ",INDEX(B:B,MATCH(D138,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF FACEDOWN=1 THEN 1730 :: REM SUBEND</v>
+      </c>
+      <c r="D138" s="29" t="str">
+        <f>A165</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -4704,16 +4709,8 @@
       <c r="B139">
         <v>1470</v>
       </c>
-      <c r="C139" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=1 THEN CALL ",D139,"(",E139,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=1 THEN CALL GETHEART(SUIT)</v>
-      </c>
-      <c r="D139" s="28" t="str">
-        <f>A366</f>
-        <v>GETHEART</v>
-      </c>
-      <c r="E139" t="s">
-        <v>839</v>
+      <c r="C139" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4722,15 +4719,15 @@
         <v>1480</v>
       </c>
       <c r="C140" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=2 THEN CALL ",D140,"(",E140,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=2 THEN CALL GETDIAMOND(SUIT)</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=1 THEN CALL ",D140,"(",E140,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=1 THEN CALL GETHEART(SUIT)</v>
       </c>
       <c r="D140" s="28" t="str">
-        <f>A370</f>
-        <v>GETDIAMOND</v>
+        <f>A367</f>
+        <v>GETHEART</v>
       </c>
       <c r="E140" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4739,15 +4736,15 @@
         <v>1490</v>
       </c>
       <c r="C141" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=3 THEN CALL ",D141,"(",E141,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=3 THEN CALL GETSPADE(SUIT)</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=2 THEN CALL ",D141,"(",E141,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=2 THEN CALL GETDIAMOND(SUIT)</v>
       </c>
       <c r="D141" s="28" t="str">
-        <f>A382</f>
-        <v>GETSPADE</v>
+        <f>A371</f>
+        <v>GETDIAMOND</v>
       </c>
       <c r="E141" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4756,15 +4753,15 @@
         <v>1500</v>
       </c>
       <c r="C142" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=4 THEN CALL ",D142,"(",E142,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=4 THEN CALL GETCLUB(SUIT)</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=3 THEN CALL ",D142,"(",E142,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=3 THEN CALL GETSPADE(SUIT)</v>
       </c>
       <c r="D142" s="28" t="str">
-        <f>A386</f>
-        <v>GETCLUB</v>
+        <f>A383</f>
+        <v>GETSPADE</v>
       </c>
       <c r="E142" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -4772,8 +4769,16 @@
       <c r="B143">
         <v>1510</v>
       </c>
-      <c r="C143" t="s">
-        <v>687</v>
+      <c r="C143" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=4 THEN CALL ",D143,"(",E143,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=4 THEN CALL GETCLUB(SUIT)</v>
+      </c>
+      <c r="D143" s="28" t="str">
+        <f>A387</f>
+        <v>GETCLUB</v>
+      </c>
+      <c r="E143" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -4781,16 +4786,8 @@
       <c r="B144">
         <v>1520</v>
       </c>
-      <c r="C144" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL ",D144,"(",E144,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL GETREDVALS(CARDCHAR)</v>
-      </c>
-      <c r="D144" s="28" t="str">
-        <f>A374</f>
-        <v>GETREDVALS</v>
-      </c>
-      <c r="E144" t="s">
-        <v>840</v>
+      <c r="C144" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4799,15 +4796,15 @@
         <v>1530</v>
       </c>
       <c r="C145" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL ",D145,"(",E145,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL GETBLACKVALS(CARDCHAR)</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL ",D145,"(",E145,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL GETREDVALS(CARDCHAR)</v>
       </c>
       <c r="D145" s="28" t="str">
-        <f>A390</f>
-        <v>GETBLACKVALS</v>
+        <f>A375</f>
+        <v>GETREDVALS</v>
       </c>
       <c r="E145" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -4815,8 +4812,16 @@
       <c r="B146">
         <v>1540</v>
       </c>
-      <c r="C146" t="s">
-        <v>705</v>
+      <c r="C146" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL ",D146,"(",E146,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL GETBLACKVALS(CARDCHAR)</v>
+      </c>
+      <c r="D146" s="28" t="str">
+        <f>A391</f>
+        <v>GETBLACKVALS</v>
+      </c>
+      <c r="E146" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -4825,7 +4830,7 @@
         <v>1550</v>
       </c>
       <c r="C147" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4834,7 +4839,7 @@
         <v>1560</v>
       </c>
       <c r="C148" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4843,7 +4848,7 @@
         <v>1570</v>
       </c>
       <c r="C149" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4852,7 +4857,7 @@
         <v>1580</v>
       </c>
       <c r="C150" t="s">
-        <v>752</v>
+        <v>691</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4860,20 +4865,8 @@
       <c r="B151">
         <v>1590</v>
       </c>
-      <c r="C151" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=2 THEN CALL ",D151,"(",E151,") :: GOTO ",INDEX(B:B,MATCH(F151,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=2 THEN CALL RENDER2(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
-      </c>
-      <c r="D151" s="28" t="str">
-        <f>A165</f>
-        <v>RENDER2</v>
-      </c>
-      <c r="E151" t="s">
-        <v>790</v>
-      </c>
-      <c r="F151" t="str">
-        <f>A164</f>
-        <v>RENDERCARD.SUBEND</v>
+      <c r="C151" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -4882,18 +4875,18 @@
         <v>1600</v>
       </c>
       <c r="C152" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=3 THEN CALL ",D152,"(",E152,") :: GOTO ",INDEX(B:B,MATCH(F152,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=3 THEN CALL RENDER3(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=2 THEN CALL ",D152,"(",E152,") :: GOTO ",INDEX(B:B,MATCH(F152,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=2 THEN CALL RENDER2(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D152" s="28" t="str">
-        <f>A170</f>
-        <v>RENDER3</v>
+        <f>A166</f>
+        <v>RENDER2</v>
       </c>
       <c r="E152" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F152" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -4903,18 +4896,18 @@
         <v>1610</v>
       </c>
       <c r="C153" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=4 THEN CALL ",D153,"(",E153,") :: GOTO ",INDEX(B:B,MATCH(F153,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=4 THEN CALL RENDER4(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=3 THEN CALL ",D153,"(",E153,") :: GOTO ",INDEX(B:B,MATCH(F153,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=3 THEN CALL RENDER3(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D153" s="28" t="str">
-        <f>A174</f>
-        <v>RENDER4</v>
+        <f>A171</f>
+        <v>RENDER3</v>
       </c>
       <c r="E153" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F153" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -4924,18 +4917,18 @@
         <v>1620</v>
       </c>
       <c r="C154" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=5 THEN CALL ",D154,"(",E154,") :: GOTO ",INDEX(B:B,MATCH(F154,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=5 THEN CALL RENDER5(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=4 THEN CALL ",D154,"(",E154,") :: GOTO ",INDEX(B:B,MATCH(F154,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=4 THEN CALL RENDER4(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D154" s="28" t="str">
-        <f>A181</f>
-        <v>RENDER5</v>
+        <f>A175</f>
+        <v>RENDER4</v>
       </c>
       <c r="E154" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F154" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -4945,18 +4938,18 @@
         <v>1630</v>
       </c>
       <c r="C155" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=6 THEN CALL ",D155,"(",E155,") :: GOTO ",INDEX(B:B,MATCH(F155,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=6 THEN CALL RENDER6(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=5 THEN CALL ",D155,"(",E155,") :: GOTO ",INDEX(B:B,MATCH(F155,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=5 THEN CALL RENDER5(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D155" s="28" t="str">
-        <f>A186</f>
-        <v>RENDER6</v>
+        <f>A182</f>
+        <v>RENDER5</v>
       </c>
       <c r="E155" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F155" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -4966,18 +4959,18 @@
         <v>1640</v>
       </c>
       <c r="C156" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=7 THEN CALL ",D156,"(",E156,") :: GOTO ",INDEX(B:B,MATCH(F156,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=7 THEN CALL RENDER7(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=6 THEN CALL ",D156,"(",E156,") :: GOTO ",INDEX(B:B,MATCH(F156,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=6 THEN CALL RENDER6(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D156" s="28" t="str">
-        <f>A191</f>
-        <v>RENDER7</v>
+        <f>A187</f>
+        <v>RENDER6</v>
       </c>
       <c r="E156" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F156" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -4987,18 +4980,18 @@
         <v>1650</v>
       </c>
       <c r="C157" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=8 THEN CALL ",D157,"(",E157,") :: GOTO ",INDEX(B:B,MATCH(F157,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=8 THEN CALL RENDER8(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=7 THEN CALL ",D157,"(",E157,") :: GOTO ",INDEX(B:B,MATCH(F157,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=7 THEN CALL RENDER7(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D157" s="28" t="str">
-        <f>A196</f>
-        <v>RENDER8</v>
+        <f>A192</f>
+        <v>RENDER7</v>
       </c>
       <c r="E157" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F157" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5008,18 +5001,18 @@
         <v>1660</v>
       </c>
       <c r="C158" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=9 THEN CALL ",D158,"(",E158,") :: GOTO ",INDEX(B:B,MATCH(F158,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=9 THEN CALL RENDER9(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=8 THEN CALL ",D158,"(",E158,") :: GOTO ",INDEX(B:B,MATCH(F158,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=8 THEN CALL RENDER8(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D158" s="28" t="str">
-        <f>A207</f>
-        <v>RENDER9</v>
+        <f>A197</f>
+        <v>RENDER8</v>
       </c>
       <c r="E158" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F158" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5029,18 +5022,18 @@
         <v>1670</v>
       </c>
       <c r="C159" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=10 THEN CALL ",D159,"(",E159,") :: GOTO ",INDEX(B:B,MATCH(F159,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=10 THEN CALL RENDER10(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=9 THEN CALL ",D159,"(",E159,") :: GOTO ",INDEX(B:B,MATCH(F159,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=9 THEN CALL RENDER9(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D159" s="28" t="str">
-        <f>A215</f>
-        <v>RENDER10</v>
+        <f>A208</f>
+        <v>RENDER9</v>
       </c>
       <c r="E159" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F159" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5050,18 +5043,18 @@
         <v>1680</v>
       </c>
       <c r="C160" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=11 THEN CALL ",D160,"(",E160,") :: GOTO ",INDEX(B:B,MATCH(F160,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=11 THEN CALL RENDERJACK(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=10 THEN CALL ",D160,"(",E160,") :: GOTO ",INDEX(B:B,MATCH(F160,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=10 THEN CALL RENDER10(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D160" s="28" t="str">
-        <f>A220</f>
-        <v>RENDERJACK</v>
+        <f>A216</f>
+        <v>RENDER10</v>
       </c>
       <c r="E160" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F160" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5071,18 +5064,18 @@
         <v>1690</v>
       </c>
       <c r="C161" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=12 THEN CALL ",D161,"(",E161,") :: GOTO ",INDEX(B:B,MATCH(F161,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=12 THEN CALL RENDERQUEEN(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=11 THEN CALL ",D161,"(",E161,") :: GOTO ",INDEX(B:B,MATCH(F161,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=11 THEN CALL RENDERJACK(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D161" s="28" t="str">
-        <f>A226</f>
-        <v>RENDERQUEEN</v>
+        <f>A221</f>
+        <v>RENDERJACK</v>
       </c>
       <c r="E161" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F161" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5092,18 +5085,18 @@
         <v>1700</v>
       </c>
       <c r="C162" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=13 THEN CALL ",D162,"(",E162,") :: GOTO ",INDEX(B:B,MATCH(F162,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=13 THEN CALL RENDERKING(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=12 THEN CALL ",D162,"(",E162,") :: GOTO ",INDEX(B:B,MATCH(F162,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=12 THEN CALL RENDERQUEEN(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D162" s="28" t="str">
-        <f>A233</f>
-        <v>RENDERKING</v>
+        <f>A227</f>
+        <v>RENDERQUEEN</v>
       </c>
       <c r="E162" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F162" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5113,56 +5106,64 @@
         <v>1710</v>
       </c>
       <c r="C163" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=14 THEN CALL ",D163,"(",E163,") :: GOTO ",INDEX(B:B,MATCH(F163,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=14 THEN CALL RENDERACE(ROW,COL,SUIT) :: GOTO 1720 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=13 THEN CALL ",D163,"(",E163,") :: GOTO ",INDEX(B:B,MATCH(F163,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=13 THEN CALL RENDERKING(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
       </c>
       <c r="D163" s="28" t="str">
-        <f>A240</f>
-        <v>RENDERACE</v>
+        <f>A234</f>
+        <v>RENDERKING</v>
       </c>
       <c r="E163" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F163" t="str">
-        <f>A164</f>
+        <f>A165</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="29" t="str">
-        <f>_xlfn.CONCAT(A125,".SUBEND")</f>
-        <v>RENDERCARD.SUBEND</v>
-      </c>
+      <c r="A164" s="26"/>
       <c r="B164">
         <v>1720</v>
       </c>
-      <c r="C164" s="11" t="s">
-        <v>783</v>
+      <c r="C164" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=14 THEN CALL ",D164,"(",E164,") :: GOTO ",INDEX(B:B,MATCH(F164,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=14 THEN CALL RENDERACE(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
+      </c>
+      <c r="D164" s="28" t="str">
+        <f>A241</f>
+        <v>RENDERACE</v>
+      </c>
+      <c r="E164" t="s">
+        <v>788</v>
+      </c>
+      <c r="F164" t="str">
+        <f>A165</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="28" t="s">
-        <v>689</v>
+      <c r="A165" s="29" t="str">
+        <f>_xlfn.CONCAT(A126,".SUBEND")</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
       <c r="B165">
         <v>1730</v>
       </c>
-      <c r="C165" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A165,"***")</f>
-        <v>REM SUBROUTINE ***RENDER2***</v>
+      <c r="C165" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="26"/>
+      <c r="A166" s="28" t="s">
+        <v>689</v>
+      </c>
       <c r="B166">
         <v>1740</v>
       </c>
       <c r="C166" s="11" t="str">
-        <f>IF(ISBLANK(E166),_xlfn.CONCAT("SUB ",A165),_xlfn.CONCAT("SUB ",A165,"(",E166,")"))</f>
-        <v>SUB RENDER2(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E166" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A166,"***")</f>
+        <v>REM SUBROUTINE ***RENDER2***</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -5170,8 +5171,12 @@
       <c r="B167">
         <v>1750</v>
       </c>
-      <c r="C167" t="s">
-        <v>163</v>
+      <c r="C167" s="11" t="str">
+        <f>IF(ISBLANK(E167),_xlfn.CONCAT("SUB ",A166),_xlfn.CONCAT("SUB ",A166,"(",E167,")"))</f>
+        <v>SUB RENDER2(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E167" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5180,7 +5185,7 @@
         <v>1760</v>
       </c>
       <c r="C168" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5188,33 +5193,29 @@
       <c r="B169">
         <v>1770</v>
       </c>
-      <c r="C169" s="11" t="s">
-        <v>783</v>
+      <c r="C169" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="28" t="s">
-        <v>578</v>
-      </c>
+      <c r="A170" s="26"/>
       <c r="B170">
         <v>1780</v>
       </c>
-      <c r="C170" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A170,"***")</f>
-        <v>REM SUBROUTINE ***RENDER3***</v>
+      <c r="C170" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="26"/>
+      <c r="A171" s="28" t="s">
+        <v>578</v>
+      </c>
       <c r="B171">
         <v>1790</v>
       </c>
       <c r="C171" s="11" t="str">
-        <f>IF(ISBLANK(E171),_xlfn.CONCAT("SUB ",A170),_xlfn.CONCAT("SUB ",A170,"(",E171,")"))</f>
-        <v>SUB RENDER3(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E171" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A171,"***")</f>
+        <v>REM SUBROUTINE ***RENDER3***</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -5222,8 +5223,12 @@
       <c r="B172">
         <v>1800</v>
       </c>
-      <c r="C172" t="s">
-        <v>173</v>
+      <c r="C172" s="11" t="str">
+        <f>IF(ISBLANK(E172),_xlfn.CONCAT("SUB ",A171),_xlfn.CONCAT("SUB ",A171,"(",E172,")"))</f>
+        <v>SUB RENDER3(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E172" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -5231,33 +5236,29 @@
       <c r="B173">
         <v>1810</v>
       </c>
-      <c r="C173" s="11" t="s">
-        <v>783</v>
+      <c r="C173" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="28" t="s">
-        <v>579</v>
-      </c>
+      <c r="A174" s="26"/>
       <c r="B174">
         <v>1820</v>
       </c>
-      <c r="C174" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A174,"***")</f>
-        <v>REM SUBROUTINE ***RENDER4***</v>
+      <c r="C174" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="26"/>
+      <c r="A175" s="28" t="s">
+        <v>579</v>
+      </c>
       <c r="B175">
         <v>1830</v>
       </c>
       <c r="C175" s="11" t="str">
-        <f>IF(ISBLANK(E175),_xlfn.CONCAT("SUB ",A174),_xlfn.CONCAT("SUB ",A174,"(",E175,")"))</f>
-        <v>SUB RENDER4(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E175" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A175,"***")</f>
+        <v>REM SUBROUTINE ***RENDER4***</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -5265,8 +5266,12 @@
       <c r="B176">
         <v>1840</v>
       </c>
-      <c r="C176" t="s">
-        <v>180</v>
+      <c r="C176" s="11" t="str">
+        <f>IF(ISBLANK(E176),_xlfn.CONCAT("SUB ",A175),_xlfn.CONCAT("SUB ",A175,"(",E176,")"))</f>
+        <v>SUB RENDER4(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E176" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -5275,7 +5280,7 @@
         <v>1850</v>
       </c>
       <c r="C177" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -5284,7 +5289,7 @@
         <v>1860</v>
       </c>
       <c r="C178" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -5293,7 +5298,7 @@
         <v>1870</v>
       </c>
       <c r="C179" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -5301,33 +5306,29 @@
       <c r="B180">
         <v>1880</v>
       </c>
-      <c r="C180" s="11" t="s">
-        <v>783</v>
+      <c r="C180" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="28" t="s">
-        <v>580</v>
-      </c>
+      <c r="A181" s="26"/>
       <c r="B181">
         <v>1890</v>
       </c>
-      <c r="C181" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A181,"***")</f>
-        <v>REM SUBROUTINE ***RENDER5***</v>
+      <c r="C181" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="26"/>
+      <c r="A182" s="28" t="s">
+        <v>580</v>
+      </c>
       <c r="B182">
         <v>1900</v>
       </c>
       <c r="C182" s="11" t="str">
-        <f>IF(ISBLANK(E182),_xlfn.CONCAT("SUB ",A181),_xlfn.CONCAT("SUB ",A181,"(",E182,")"))</f>
-        <v>SUB RENDER5(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E182" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A182,"***")</f>
+        <v>REM SUBROUTINE ***RENDER5***</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -5335,16 +5336,12 @@
       <c r="B183">
         <v>1910</v>
       </c>
-      <c r="C183" s="28" t="str">
-        <f>IF(ISBLANK(E183),_xlfn.CONCAT("CALL ",D183),_xlfn.CONCAT("CALL ",D183,"(",E183,")"))</f>
-        <v>CALL RENDER4((ROW),(COL),(SUIT))</v>
-      </c>
-      <c r="D183" s="28" t="str">
-        <f>A174</f>
-        <v>RENDER4</v>
+      <c r="C183" s="11" t="str">
+        <f>IF(ISBLANK(E183),_xlfn.CONCAT("SUB ",A182),_xlfn.CONCAT("SUB ",A182,"(",E183,")"))</f>
+        <v>SUB RENDER5(ROW,COL,SUIT)</v>
       </c>
       <c r="E183" t="s">
-        <v>845</v>
+        <v>788</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -5352,8 +5349,16 @@
       <c r="B184">
         <v>1920</v>
       </c>
-      <c r="C184" t="s">
-        <v>192</v>
+      <c r="C184" s="28" t="str">
+        <f>IF(ISBLANK(E184),_xlfn.CONCAT("CALL ",D184),_xlfn.CONCAT("CALL ",D184,"(",E184,")"))</f>
+        <v>CALL RENDER4((ROW),(COL),(SUIT))</v>
+      </c>
+      <c r="D184" s="28" t="str">
+        <f>A175</f>
+        <v>RENDER4</v>
+      </c>
+      <c r="E184" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -5361,33 +5366,29 @@
       <c r="B185">
         <v>1930</v>
       </c>
-      <c r="C185" s="11" t="s">
-        <v>783</v>
+      <c r="C185" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="28" t="s">
-        <v>581</v>
-      </c>
+      <c r="A186" s="26"/>
       <c r="B186">
         <v>1940</v>
       </c>
-      <c r="C186" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A186,"***")</f>
-        <v>REM SUBROUTINE ***RENDER6***</v>
+      <c r="C186" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="26"/>
+      <c r="A187" s="28" t="s">
+        <v>581</v>
+      </c>
       <c r="B187">
         <v>1950</v>
       </c>
       <c r="C187" s="11" t="str">
-        <f>IF(ISBLANK(E187),_xlfn.CONCAT("SUB ",A186),_xlfn.CONCAT("SUB ",A186,"(",E187,")"))</f>
-        <v>SUB RENDER6(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E187" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A187,"***")</f>
+        <v>REM SUBROUTINE ***RENDER6***</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -5395,8 +5396,12 @@
       <c r="B188">
         <v>1960</v>
       </c>
-      <c r="C188" t="s">
-        <v>199</v>
+      <c r="C188" s="11" t="str">
+        <f>IF(ISBLANK(E188),_xlfn.CONCAT("SUB ",A187),_xlfn.CONCAT("SUB ",A187,"(",E188,")"))</f>
+        <v>SUB RENDER6(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E188" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -5405,7 +5410,7 @@
         <v>1970</v>
       </c>
       <c r="C189" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -5413,33 +5418,29 @@
       <c r="B190">
         <v>1980</v>
       </c>
-      <c r="C190" s="11" t="s">
-        <v>783</v>
+      <c r="C190" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="28" t="s">
-        <v>582</v>
-      </c>
+      <c r="A191" s="26"/>
       <c r="B191">
         <v>1990</v>
       </c>
-      <c r="C191" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A191,"***")</f>
-        <v>REM SUBROUTINE ***RENDER7***</v>
+      <c r="C191" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="26"/>
+      <c r="A192" s="28" t="s">
+        <v>582</v>
+      </c>
       <c r="B192">
         <v>2000</v>
       </c>
       <c r="C192" s="11" t="str">
-        <f>IF(ISBLANK(E192),_xlfn.CONCAT("SUB ",A191),_xlfn.CONCAT("SUB ",A191,"(",E192,")"))</f>
-        <v>SUB RENDER7(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E192" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A192,"***")</f>
+        <v>REM SUBROUTINE ***RENDER7***</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -5447,16 +5448,12 @@
       <c r="B193">
         <v>2010</v>
       </c>
-      <c r="C193" s="28" t="str">
-        <f>IF(ISBLANK(E193),_xlfn.CONCAT("CALL ",D193),_xlfn.CONCAT("CALL ",D193,"(",E193,")"))</f>
-        <v>CALL RENDER6((ROW),(COL),(SUIT))</v>
-      </c>
-      <c r="D193" s="28" t="str">
-        <f>A186</f>
-        <v>RENDER6</v>
+      <c r="C193" s="11" t="str">
+        <f>IF(ISBLANK(E193),_xlfn.CONCAT("SUB ",A192),_xlfn.CONCAT("SUB ",A192,"(",E193,")"))</f>
+        <v>SUB RENDER7(ROW,COL,SUIT)</v>
       </c>
       <c r="E193" t="s">
-        <v>845</v>
+        <v>788</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -5464,8 +5461,16 @@
       <c r="B194">
         <v>2020</v>
       </c>
-      <c r="C194" t="s">
-        <v>207</v>
+      <c r="C194" s="28" t="str">
+        <f>IF(ISBLANK(E194),_xlfn.CONCAT("CALL ",D194),_xlfn.CONCAT("CALL ",D194,"(",E194,")"))</f>
+        <v>CALL RENDER6((ROW),(COL),(SUIT))</v>
+      </c>
+      <c r="D194" s="28" t="str">
+        <f>A187</f>
+        <v>RENDER6</v>
+      </c>
+      <c r="E194" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -5473,33 +5478,29 @@
       <c r="B195">
         <v>2030</v>
       </c>
-      <c r="C195" s="11" t="s">
-        <v>783</v>
+      <c r="C195" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="28" t="s">
-        <v>583</v>
-      </c>
+      <c r="A196" s="26"/>
       <c r="B196">
         <v>2040</v>
       </c>
-      <c r="C196" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A196,"***")</f>
-        <v>REM SUBROUTINE ***RENDER8***</v>
+      <c r="C196" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="26"/>
+      <c r="A197" s="28" t="s">
+        <v>583</v>
+      </c>
       <c r="B197">
         <v>2050</v>
       </c>
       <c r="C197" s="11" t="str">
-        <f>IF(ISBLANK(E197),_xlfn.CONCAT("SUB ",A196),_xlfn.CONCAT("SUB ",A196,"(",E197,")"))</f>
-        <v>SUB RENDER8(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E197" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A197,"***")</f>
+        <v>REM SUBROUTINE ***RENDER8***</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -5507,8 +5508,12 @@
       <c r="B198">
         <v>2060</v>
       </c>
-      <c r="C198" t="s">
-        <v>214</v>
+      <c r="C198" s="11" t="str">
+        <f>IF(ISBLANK(E198),_xlfn.CONCAT("SUB ",A197),_xlfn.CONCAT("SUB ",A197,"(",E198,")"))</f>
+        <v>SUB RENDER8(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E198" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -5517,7 +5522,7 @@
         <v>2070</v>
       </c>
       <c r="C199" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -5526,7 +5531,7 @@
         <v>2080</v>
       </c>
       <c r="C200" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -5535,7 +5540,7 @@
         <v>2090</v>
       </c>
       <c r="C201" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -5544,7 +5549,7 @@
         <v>2100</v>
       </c>
       <c r="C202" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -5553,7 +5558,7 @@
         <v>2110</v>
       </c>
       <c r="C203" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -5562,7 +5567,7 @@
         <v>2120</v>
       </c>
       <c r="C204" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -5571,7 +5576,7 @@
         <v>2130</v>
       </c>
       <c r="C205" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -5579,33 +5584,29 @@
       <c r="B206">
         <v>2140</v>
       </c>
-      <c r="C206" s="11" t="s">
-        <v>783</v>
+      <c r="C206" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="28" t="s">
-        <v>584</v>
-      </c>
+      <c r="A207" s="26"/>
       <c r="B207">
         <v>2150</v>
       </c>
-      <c r="C207" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A207,"***")</f>
-        <v>REM SUBROUTINE ***RENDER9***</v>
+      <c r="C207" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="26"/>
+      <c r="A208" s="28" t="s">
+        <v>584</v>
+      </c>
       <c r="B208">
         <v>2160</v>
       </c>
       <c r="C208" s="11" t="str">
-        <f>IF(ISBLANK(E208),_xlfn.CONCAT("SUB ",A207),_xlfn.CONCAT("SUB ",A207,"(",E208,")"))</f>
-        <v>SUB RENDER9(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E208" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A208,"***")</f>
+        <v>REM SUBROUTINE ***RENDER9***</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -5613,8 +5614,12 @@
       <c r="B209">
         <v>2170</v>
       </c>
-      <c r="C209" t="s">
-        <v>233</v>
+      <c r="C209" s="11" t="str">
+        <f>IF(ISBLANK(E209),_xlfn.CONCAT("SUB ",A208),_xlfn.CONCAT("SUB ",A208,"(",E209,")"))</f>
+        <v>SUB RENDER9(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E209" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -5623,7 +5628,7 @@
         <v>2180</v>
       </c>
       <c r="C210" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -5632,7 +5637,7 @@
         <v>2190</v>
       </c>
       <c r="C211" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -5641,7 +5646,7 @@
         <v>2200</v>
       </c>
       <c r="C212" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -5650,7 +5655,7 @@
         <v>2210</v>
       </c>
       <c r="C213" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -5658,33 +5663,29 @@
       <c r="B214">
         <v>2220</v>
       </c>
-      <c r="C214" s="11" t="s">
-        <v>783</v>
+      <c r="C214" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="28" t="s">
-        <v>585</v>
-      </c>
+      <c r="A215" s="26"/>
       <c r="B215">
         <v>2230</v>
       </c>
-      <c r="C215" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A215,"***")</f>
-        <v>REM SUBROUTINE ***RENDER10***</v>
+      <c r="C215" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="26"/>
+      <c r="A216" s="28" t="s">
+        <v>585</v>
+      </c>
       <c r="B216">
         <v>2240</v>
       </c>
       <c r="C216" s="11" t="str">
-        <f>IF(ISBLANK(E216),_xlfn.CONCAT("SUB ",A215),_xlfn.CONCAT("SUB ",A215,"(",E216,")"))</f>
-        <v>SUB RENDER10(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E216" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A216,"***")</f>
+        <v>REM SUBROUTINE ***RENDER10***</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -5692,8 +5693,12 @@
       <c r="B217">
         <v>2250</v>
       </c>
-      <c r="C217" t="s">
-        <v>247</v>
+      <c r="C217" s="11" t="str">
+        <f>IF(ISBLANK(E217),_xlfn.CONCAT("SUB ",A216),_xlfn.CONCAT("SUB ",A216,"(",E217,")"))</f>
+        <v>SUB RENDER10(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E217" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -5702,7 +5707,7 @@
         <v>2260</v>
       </c>
       <c r="C218" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -5710,33 +5715,29 @@
       <c r="B219">
         <v>2270</v>
       </c>
-      <c r="C219" s="11" t="s">
-        <v>783</v>
+      <c r="C219" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="28" t="s">
-        <v>586</v>
-      </c>
+      <c r="A220" s="26"/>
       <c r="B220">
         <v>2280</v>
       </c>
-      <c r="C220" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A220,"***")</f>
-        <v>REM SUBROUTINE ***RENDERJACK***</v>
+      <c r="C220" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="26"/>
+      <c r="A221" s="28" t="s">
+        <v>586</v>
+      </c>
       <c r="B221">
         <v>2290</v>
       </c>
       <c r="C221" s="11" t="str">
-        <f>IF(ISBLANK(E221),_xlfn.CONCAT("SUB ",A220),_xlfn.CONCAT("SUB ",A220,"(",E221,")"))</f>
-        <v>SUB RENDERJACK(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E221" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A221,"***")</f>
+        <v>REM SUBROUTINE ***RENDERJACK***</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -5744,8 +5745,12 @@
       <c r="B222">
         <v>2300</v>
       </c>
-      <c r="C222" t="s">
-        <v>249</v>
+      <c r="C222" s="11" t="str">
+        <f>IF(ISBLANK(E222),_xlfn.CONCAT("SUB ",A221),_xlfn.CONCAT("SUB ",A221,"(",E222,")"))</f>
+        <v>SUB RENDERJACK(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E222" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -5754,7 +5759,7 @@
         <v>2310</v>
       </c>
       <c r="C223" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -5763,7 +5768,7 @@
         <v>2320</v>
       </c>
       <c r="C224" t="s">
-        <v>182</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -5771,33 +5776,29 @@
       <c r="B225">
         <v>2330</v>
       </c>
-      <c r="C225" s="11" t="s">
-        <v>783</v>
+      <c r="C225" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="28" t="s">
-        <v>587</v>
-      </c>
+      <c r="A226" s="26"/>
       <c r="B226">
         <v>2340</v>
       </c>
-      <c r="C226" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A226,"***")</f>
-        <v>REM SUBROUTINE ***RENDERQUEEN***</v>
+      <c r="C226" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="26"/>
+      <c r="A227" s="28" t="s">
+        <v>587</v>
+      </c>
       <c r="B227">
         <v>2350</v>
       </c>
       <c r="C227" s="11" t="str">
-        <f>IF(ISBLANK(E227),_xlfn.CONCAT("SUB ",A226),_xlfn.CONCAT("SUB ",A226,"(",E227,")"))</f>
-        <v>SUB RENDERQUEEN(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E227" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A227,"***")</f>
+        <v>REM SUBROUTINE ***RENDERQUEEN***</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -5805,8 +5806,12 @@
       <c r="B228">
         <v>2360</v>
       </c>
-      <c r="C228" t="s">
-        <v>247</v>
+      <c r="C228" s="11" t="str">
+        <f>IF(ISBLANK(E228),_xlfn.CONCAT("SUB ",A227),_xlfn.CONCAT("SUB ",A227,"(",E228,")"))</f>
+        <v>SUB RENDERQUEEN(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E228" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -5815,7 +5820,7 @@
         <v>2370</v>
       </c>
       <c r="C229" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -5824,7 +5829,7 @@
         <v>2380</v>
       </c>
       <c r="C230" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -5833,7 +5838,7 @@
         <v>2390</v>
       </c>
       <c r="C231" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -5841,33 +5846,29 @@
       <c r="B232">
         <v>2400</v>
       </c>
-      <c r="C232" s="11" t="s">
-        <v>783</v>
+      <c r="C232" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="28" t="s">
-        <v>588</v>
-      </c>
+      <c r="A233" s="26"/>
       <c r="B233">
         <v>2410</v>
       </c>
-      <c r="C233" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A233,"***")</f>
-        <v>REM SUBROUTINE ***RENDERKING***</v>
+      <c r="C233" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="26"/>
+      <c r="A234" s="28" t="s">
+        <v>588</v>
+      </c>
       <c r="B234">
         <v>2420</v>
       </c>
       <c r="C234" s="11" t="str">
-        <f>IF(ISBLANK(E234),_xlfn.CONCAT("SUB ",A233),_xlfn.CONCAT("SUB ",A233,"(",E234,")"))</f>
-        <v>SUB RENDERKING(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E234" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A234,"***")</f>
+        <v>REM SUBROUTINE ***RENDERKING***</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -5875,8 +5876,12 @@
       <c r="B235">
         <v>2430</v>
       </c>
-      <c r="C235" t="s">
-        <v>247</v>
+      <c r="C235" s="11" t="str">
+        <f>IF(ISBLANK(E235),_xlfn.CONCAT("SUB ",A234),_xlfn.CONCAT("SUB ",A234,"(",E235,")"))</f>
+        <v>SUB RENDERKING(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E235" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -5885,7 +5890,7 @@
         <v>2440</v>
       </c>
       <c r="C236" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -5894,7 +5899,7 @@
         <v>2450</v>
       </c>
       <c r="C237" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -5903,7 +5908,7 @@
         <v>2460</v>
       </c>
       <c r="C238" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -5911,33 +5916,29 @@
       <c r="B239">
         <v>2470</v>
       </c>
-      <c r="C239" s="11" t="s">
-        <v>783</v>
+      <c r="C239" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="28" t="s">
-        <v>589</v>
-      </c>
+      <c r="A240" s="26"/>
       <c r="B240">
         <v>2480</v>
       </c>
-      <c r="C240" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A240,"***")</f>
-        <v>REM SUBROUTINE ***RENDERACE***</v>
+      <c r="C240" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="26"/>
+      <c r="A241" s="28" t="s">
+        <v>589</v>
+      </c>
       <c r="B241">
         <v>2490</v>
       </c>
       <c r="C241" s="11" t="str">
-        <f>IF(ISBLANK(E241),_xlfn.CONCAT("SUB ",A240),_xlfn.CONCAT("SUB ",A240,"(",E241,")"))</f>
-        <v>SUB RENDERACE(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E241" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A241,"***")</f>
+        <v>REM SUBROUTINE ***RENDERACE***</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -5945,8 +5946,12 @@
       <c r="B242">
         <v>2500</v>
       </c>
-      <c r="C242" t="s">
-        <v>192</v>
+      <c r="C242" s="11" t="str">
+        <f>IF(ISBLANK(E242),_xlfn.CONCAT("SUB ",A241),_xlfn.CONCAT("SUB ",A241,"(",E242,")"))</f>
+        <v>SUB RENDERACE(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E242" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -5954,30 +5959,29 @@
       <c r="B243">
         <v>2510</v>
       </c>
-      <c r="C243" s="11" t="s">
-        <v>783</v>
+      <c r="C243" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="28" t="s">
-        <v>695</v>
-      </c>
+      <c r="A244" s="26"/>
       <c r="B244">
         <v>2520</v>
       </c>
-      <c r="C244" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A244,"***")</f>
-        <v>REM SUBROUTINE ***PLAY***</v>
+      <c r="C244" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="26"/>
+      <c r="A245" s="28" t="s">
+        <v>695</v>
+      </c>
       <c r="B245">
         <v>2530</v>
       </c>
       <c r="C245" s="11" t="str">
-        <f>IF(ISBLANK(E245),_xlfn.CONCAT("SUB ",A244),_xlfn.CONCAT("SUB ",A244,"(",E245,")"))</f>
-        <v>SUB PLAY</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A245,"***")</f>
+        <v>REM SUBROUTINE ***PLAY***</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -5985,8 +5989,9 @@
       <c r="B246">
         <v>2540</v>
       </c>
-      <c r="C246" s="11" t="s">
-        <v>709</v>
+      <c r="C246" s="11" t="str">
+        <f>IF(ISBLANK(E246),_xlfn.CONCAT("SUB ",A245),_xlfn.CONCAT("SUB ",A245,"(",E246,")"))</f>
+        <v>SUB PLAY</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -5994,8 +5999,8 @@
       <c r="B247">
         <v>2550</v>
       </c>
-      <c r="C247" t="s">
-        <v>707</v>
+      <c r="C247" s="11" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -6004,7 +6009,7 @@
         <v>2560</v>
       </c>
       <c r="C248" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -6012,16 +6017,8 @@
       <c r="B249">
         <v>2570</v>
       </c>
-      <c r="C249" s="28" t="str">
-        <f>IF(ISBLANK(E249),_xlfn.CONCAT("CALL ",D249),_xlfn.CONCAT("CALL ",D249,"(",E249,")"))</f>
-        <v>CALL CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
-      </c>
-      <c r="D249" s="28" t="str">
-        <f>A292</f>
-        <v>CLEARTABLE</v>
-      </c>
-      <c r="E249" t="s">
-        <v>850</v>
+      <c r="C249" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -6031,11 +6028,11 @@
       </c>
       <c r="C250" s="28" t="str">
         <f>IF(ISBLANK(E250),_xlfn.CONCAT("CALL ",D250),_xlfn.CONCAT("CALL ",D250,"(",E250,")"))</f>
-        <v>CALL SHUFFLE(HANDS(,,))</v>
+        <v>CALL CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
       </c>
       <c r="D250" s="28" t="str">
-        <f>A299</f>
-        <v>SHUFFLE</v>
+        <f>A293</f>
+        <v>CLEARTABLE</v>
       </c>
       <c r="E250" t="s">
         <v>848</v>
@@ -6046,8 +6043,16 @@
       <c r="B251">
         <v>2590</v>
       </c>
-      <c r="C251" t="s">
-        <v>696</v>
+      <c r="C251" s="28" t="str">
+        <f>IF(ISBLANK(E251),_xlfn.CONCAT("CALL ",D251),_xlfn.CONCAT("CALL ",D251,"(",E251,")"))</f>
+        <v>CALL SHUFFLE(HANDS(,,))</v>
+      </c>
+      <c r="D251" s="28" t="str">
+        <f>A300</f>
+        <v>SHUFFLE</v>
+      </c>
+      <c r="E251" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -6055,16 +6060,8 @@
       <c r="B252">
         <v>2600</v>
       </c>
-      <c r="C252" s="28" t="str">
-        <f>IF(ISBLANK(E252),_xlfn.CONCAT("CALL ",D252),_xlfn.CONCAT("CALL ",D252,"(",E252,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D252" s="28" t="str">
-        <f>A331</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E252" t="s">
-        <v>849</v>
+      <c r="C252" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -6077,11 +6074,11 @@
         <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
       </c>
       <c r="D253" s="28" t="str">
-        <f>A331</f>
+        <f>A332</f>
         <v>DEAL</v>
       </c>
       <c r="E253" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -6089,8 +6086,16 @@
       <c r="B254">
         <v>2620</v>
       </c>
-      <c r="C254" t="s">
-        <v>697</v>
+      <c r="C254" s="28" t="str">
+        <f>IF(ISBLANK(E254),_xlfn.CONCAT("CALL ",D254),_xlfn.CONCAT("CALL ",D254,"(",E254,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D254" s="28" t="str">
+        <f>A332</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E254" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -6098,16 +6103,8 @@
       <c r="B255">
         <v>2630</v>
       </c>
-      <c r="C255" s="28" t="str">
-        <f>IF(ISBLANK(E255),_xlfn.CONCAT("CALL ",D255),_xlfn.CONCAT("CALL ",D255,"(",E255,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D255" s="28" t="str">
-        <f>A331</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E255" t="s">
-        <v>849</v>
+      <c r="C255" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -6115,8 +6112,16 @@
       <c r="B256">
         <v>2640</v>
       </c>
-      <c r="C256" t="s">
-        <v>698</v>
+      <c r="C256" s="28" t="str">
+        <f>IF(ISBLANK(E256),_xlfn.CONCAT("CALL ",D256),_xlfn.CONCAT("CALL ",D256,"(",E256,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D256" s="28" t="str">
+        <f>A332</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E256" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -6124,16 +6129,8 @@
       <c r="B257">
         <v>2650</v>
       </c>
-      <c r="C257" s="28" t="str">
-        <f>IF(ISBLANK(E257),_xlfn.CONCAT("CALL ",D257),_xlfn.CONCAT("CALL ",D257,"(",E257,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D257" s="28" t="str">
-        <f>A331</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E257" t="s">
-        <v>849</v>
+      <c r="C257" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -6141,8 +6138,16 @@
       <c r="B258">
         <v>2660</v>
       </c>
-      <c r="C258" t="s">
-        <v>750</v>
+      <c r="C258" s="28" t="str">
+        <f>IF(ISBLANK(E258),_xlfn.CONCAT("CALL ",D258),_xlfn.CONCAT("CALL ",D258,"(",E258,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D258" s="28" t="str">
+        <f>A332</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E258" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -6151,7 +6156,7 @@
         <v>2670</v>
       </c>
       <c r="C259" t="s">
-        <v>704</v>
+        <v>749</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -6160,7 +6165,7 @@
         <v>2680</v>
       </c>
       <c r="C260" t="s">
-        <v>754</v>
+        <v>703</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -6168,42 +6173,37 @@
       <c r="B261">
         <v>2690</v>
       </c>
-      <c r="C261" s="1" t="s">
-        <v>771</v>
+      <c r="C261" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="26"/>
       <c r="B262">
         <v>2700</v>
       </c>
-      <c r="C262" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A263,"***")</f>
-        <v>REM LABEL ***ASKANOTHER***</v>
+      <c r="C262" s="1" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="29" t="s">
-        <v>862</v>
-      </c>
       <c r="B263">
         <v>2710</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>334</v>
+      <c r="C263" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A264,"***")</f>
+        <v>REM LABEL ***ASKANOTHER***</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="26"/>
+      <c r="A264" s="29" t="s">
+        <v>860</v>
+      </c>
       <c r="B264">
         <v>2720</v>
       </c>
-      <c r="C264" t="str">
-        <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D264,A:A,0),0)," :: REM GOTO ",D264,"")</f>
-        <v>IF A$="" THEN 2710 :: REM GOTO ASKANOTHER</v>
-      </c>
-      <c r="D264" s="29" t="str">
-        <f>A263</f>
-        <v>ASKANOTHER</v>
+      <c r="C264" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -6211,8 +6211,13 @@
       <c r="B265">
         <v>2730</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>772</v>
+      <c r="C265" t="str">
+        <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D265,A:A,0),0)," :: REM GOTO ",D265,"")</f>
+        <v>IF A$="" THEN 2720 :: REM GOTO ASKANOTHER</v>
+      </c>
+      <c r="D265" s="29" t="str">
+        <f>A264</f>
+        <v>ASKANOTHER</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -6220,13 +6225,8 @@
       <c r="B266">
         <v>2740</v>
       </c>
-      <c r="C266" s="1" t="str">
-        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D266,A:A,0),0)," :: REM GOTO ",D266,"")</f>
-        <v>IF A$="N" THEN 2820 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D266" s="29" t="str">
-        <f>A274</f>
-        <v>REVEAL</v>
+      <c r="C266" s="1" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -6234,8 +6234,13 @@
       <c r="B267">
         <v>2750</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>696</v>
+      <c r="C267" s="1" t="str">
+        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D267,A:A,0),0)," :: REM GOTO ",D267,"")</f>
+        <v>IF A$="N" THEN 2830 :: REM GOTO REVEAL</v>
+      </c>
+      <c r="D267" s="29" t="str">
+        <f>A275</f>
+        <v>REVEAL</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -6243,16 +6248,8 @@
       <c r="B268">
         <v>2760</v>
       </c>
-      <c r="C268" s="28" t="str">
-        <f>IF(ISBLANK(E268),_xlfn.CONCAT("CALL ",D268),_xlfn.CONCAT("CALL ",D268,"(",E268,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D268" s="28" t="str">
-        <f>A331</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E268" t="s">
-        <v>849</v>
+      <c r="C268" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -6260,8 +6257,16 @@
       <c r="B269">
         <v>2770</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>856</v>
+      <c r="C269" s="28" t="str">
+        <f>IF(ISBLANK(E269),_xlfn.CONCAT("CALL ",D269),_xlfn.CONCAT("CALL ",D269,"(",E269,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D269" s="28" t="str">
+        <f>A332</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E269" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -6269,8 +6274,8 @@
       <c r="B270">
         <v>2780</v>
       </c>
-      <c r="C270" t="s">
-        <v>773</v>
+      <c r="C270" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -6278,13 +6283,8 @@
       <c r="B271">
         <v>2790</v>
       </c>
-      <c r="C271" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D271,A:A,0),0)," :: REM GOTO ",D271,"")</f>
-        <v>IF BUSTED=1 THEN 2820 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D271" s="29" t="str">
-        <f>A274</f>
-        <v>REVEAL</v>
+      <c r="C271" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -6292,45 +6292,42 @@
       <c r="B272">
         <v>2800</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>755</v>
+      <c r="C272" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D272,A:A,0),0)," :: REM GOTO ",D272,"")</f>
+        <v>IF BUSTED=1 THEN 2830 :: REM GOTO REVEAL</v>
+      </c>
+      <c r="D272" s="29" t="str">
+        <f>A275</f>
+        <v>REVEAL</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="26"/>
       <c r="B273">
         <v>2810</v>
       </c>
-      <c r="C273" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A274,"***")</f>
-        <v>REM LABEL ***REVEAL***</v>
+      <c r="C273" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="27" t="s">
-        <v>702</v>
-      </c>
       <c r="B274">
         <v>2820</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>716</v>
+      <c r="C274" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A275,"***")</f>
+        <v>REM LABEL ***REVEAL***</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="26"/>
+      <c r="A275" s="27" t="s">
+        <v>701</v>
+      </c>
       <c r="B275">
         <v>2830</v>
       </c>
-      <c r="C275" s="28" t="str">
-        <f>IF(ISBLANK(E275),_xlfn.CONCAT("CALL ",D275),_xlfn.CONCAT("CALL ",D275,"(",E275,")"))</f>
-        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D275" s="28" t="str">
-        <f>A125</f>
-        <v>RENDERCARD</v>
-      </c>
-      <c r="E275" t="s">
-        <v>846</v>
+      <c r="C275" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -6338,22 +6335,30 @@
       <c r="B276">
         <v>2840</v>
       </c>
-      <c r="C276" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D276,A:A,0),0)," :: REM GOTO ",D276,"")</f>
-        <v>IF BUSTED=1 THEN 2990 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D276" s="29" t="str">
-        <f>A291</f>
-        <v>GAMEOVER</v>
+      <c r="C276" s="28" t="str">
+        <f>IF(ISBLANK(E276),_xlfn.CONCAT("CALL ",D276),_xlfn.CONCAT("CALL ",D276,"(",E276,")"))</f>
+        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D276" s="28" t="str">
+        <f>A126</f>
+        <v>RENDERCARD</v>
+      </c>
+      <c r="E276" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="27"/>
+      <c r="A277" s="26"/>
       <c r="B277">
         <v>2850</v>
       </c>
-      <c r="C277" t="s">
-        <v>751</v>
+      <c r="C277" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D277,A:A,0),0)," :: REM GOTO ",D277,"")</f>
+        <v>IF BUSTED=1 THEN 3000 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D277" s="29" t="str">
+        <f>A292</f>
+        <v>GAMEOVER</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -6362,7 +6367,7 @@
         <v>2860</v>
       </c>
       <c r="C278" t="s">
-        <v>704</v>
+        <v>750</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -6371,7 +6376,7 @@
         <v>2870</v>
       </c>
       <c r="C279" t="s">
-        <v>754</v>
+        <v>703</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -6379,8 +6384,8 @@
       <c r="B280">
         <v>2880</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>697</v>
+      <c r="C280" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -6388,16 +6393,8 @@
       <c r="B281">
         <v>2890</v>
       </c>
-      <c r="C281" s="28" t="str">
-        <f>IF(ISBLANK(E281),_xlfn.CONCAT("CALL ",D281),_xlfn.CONCAT("CALL ",D281,"(",E281,")"))</f>
-        <v>CALL CALCSCORE(SCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="D281" s="28" t="str">
-        <f>A340</f>
-        <v>CALCSCORE</v>
-      </c>
-      <c r="E281" t="s">
-        <v>857</v>
+      <c r="C281" s="1" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -6405,13 +6402,16 @@
       <c r="B282">
         <v>2900</v>
       </c>
-      <c r="C282" t="str">
-        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D282,A:A,0),0)," :: REM GOTO ",D282,"")</f>
-        <v>IF SCORE&gt;=17 THEN 2970 :: REM GOTO TALLY</v>
-      </c>
-      <c r="D282" s="29" t="str">
-        <f>A289</f>
-        <v>TALLY</v>
+      <c r="C282" s="28" t="str">
+        <f>IF(ISBLANK(E282),_xlfn.CONCAT("CALL ",D282),_xlfn.CONCAT("CALL ",D282,"(",E282,")"))</f>
+        <v>CALL CALCSCORE(SCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D282" s="28" t="str">
+        <f>A341</f>
+        <v>CALCSCORE</v>
+      </c>
+      <c r="E282" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -6419,16 +6419,13 @@
       <c r="B283">
         <v>2910</v>
       </c>
-      <c r="C283" s="28" t="str">
-        <f>IF(ISBLANK(E283),_xlfn.CONCAT("CALL ",D283),_xlfn.CONCAT("CALL ",D283,"(",E283,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D283" s="28" t="str">
-        <f>A331</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E283" t="s">
-        <v>849</v>
+      <c r="C283" t="str">
+        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D283,A:A,0),0)," :: REM GOTO ",D283,"")</f>
+        <v>IF SCORE&gt;=17 THEN 2980 :: REM GOTO TALLY</v>
+      </c>
+      <c r="D283" s="29" t="str">
+        <f>A290</f>
+        <v>TALLY</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -6436,8 +6433,16 @@
       <c r="B284">
         <v>2920</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>856</v>
+      <c r="C284" s="28" t="str">
+        <f>IF(ISBLANK(E284),_xlfn.CONCAT("CALL ",D284),_xlfn.CONCAT("CALL ",D284,"(",E284,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D284" s="28" t="str">
+        <f>A332</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E284" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -6445,8 +6450,8 @@
       <c r="B285">
         <v>2930</v>
       </c>
-      <c r="C285" t="s">
-        <v>774</v>
+      <c r="C285" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -6454,13 +6459,8 @@
       <c r="B286">
         <v>2940</v>
       </c>
-      <c r="C286" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D286,A:A,0),0)," :: REM GOTO ",D286,"")</f>
-        <v>IF BUSTED=1 THEN 2990 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D286" s="29" t="str">
-        <f>A291</f>
-        <v>GAMEOVER</v>
+      <c r="C286" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -6468,81 +6468,82 @@
       <c r="B287">
         <v>2950</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>755</v>
+      <c r="C287" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D287,A:A,0),0)," :: REM GOTO ",D287,"")</f>
+        <v>IF BUSTED=1 THEN 3000 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D287" s="29" t="str">
+        <f>A292</f>
+        <v>GAMEOVER</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="27"/>
       <c r="B288">
         <v>2960</v>
       </c>
-      <c r="C288" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A289,"***")</f>
-        <v>REM LABEL ***TALLY***</v>
+      <c r="C288" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="27" t="s">
-        <v>719</v>
-      </c>
       <c r="B289">
         <v>2970</v>
       </c>
-      <c r="C289" s="28" t="str">
-        <f>IF(ISBLANK(E289),_xlfn.CONCAT("CALL ",D289),_xlfn.CONCAT("CALL ",D289,"(",E289,")"))</f>
-        <v>CALL WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="D289" s="28" t="str">
-        <f>A348</f>
-        <v>WHOWON</v>
-      </c>
-      <c r="E289" t="s">
-        <v>789</v>
+      <c r="C289" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A290,"***")</f>
+        <v>REM LABEL ***TALLY***</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="27" t="s">
+        <v>718</v>
+      </c>
       <c r="B290">
         <v>2980</v>
       </c>
-      <c r="C290" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A291,"***")</f>
-        <v>REM LABEL ***GAMEOVER***</v>
+      <c r="C290" s="28" t="str">
+        <f>IF(ISBLANK(E290),_xlfn.CONCAT("CALL ",D290),_xlfn.CONCAT("CALL ",D290,"(",E290,")"))</f>
+        <v>CALL WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D290" s="28" t="str">
+        <f>A349</f>
+        <v>WHOWON</v>
+      </c>
+      <c r="E290" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="27" t="s">
-        <v>717</v>
-      </c>
       <c r="B291">
         <v>2990</v>
       </c>
-      <c r="C291" t="s">
-        <v>783</v>
+      <c r="C291" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A292,"***")</f>
+        <v>REM LABEL ***GAMEOVER***</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="28" t="s">
-        <v>693</v>
+      <c r="A292" s="27" t="s">
+        <v>716</v>
       </c>
       <c r="B292">
         <v>3000</v>
       </c>
-      <c r="C292" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A292,"***")</f>
-        <v>REM SUBROUTINE ***CLEARTABLE***</v>
+      <c r="C292" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="26"/>
+      <c r="A293" s="28" t="s">
+        <v>693</v>
+      </c>
       <c r="B293">
         <v>3010</v>
       </c>
       <c r="C293" s="11" t="str">
-        <f>IF(ISBLANK(E293),_xlfn.CONCAT("SUB ",A292),_xlfn.CONCAT("SUB ",A292,"(",E293,")"))</f>
-        <v>SUB CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
-      </c>
-      <c r="E293" t="s">
-        <v>850</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A293,"***")</f>
+        <v>REM SUBROUTINE ***CLEARTABLE***</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -6550,8 +6551,12 @@
       <c r="B294">
         <v>3020</v>
       </c>
-      <c r="C294" t="s">
-        <v>7</v>
+      <c r="C294" s="11" t="str">
+        <f>IF(ISBLANK(E294),_xlfn.CONCAT("SUB ",A293),_xlfn.CONCAT("SUB ",A293,"(",E294,")"))</f>
+        <v>SUB CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
+      </c>
+      <c r="E294" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -6560,7 +6565,7 @@
         <v>3030</v>
       </c>
       <c r="C295" t="s">
-        <v>782</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -6569,7 +6574,7 @@
         <v>3040</v>
       </c>
       <c r="C296" t="s">
-        <v>852</v>
+        <v>780</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -6578,7 +6583,7 @@
         <v>3050</v>
       </c>
       <c r="C297" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -6587,32 +6592,28 @@
         <v>3060</v>
       </c>
       <c r="C298" t="s">
-        <v>783</v>
+        <v>849</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="28" t="s">
-        <v>780</v>
-      </c>
+      <c r="A299" s="26"/>
       <c r="B299">
         <v>3070</v>
       </c>
-      <c r="C299" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A299,"***")</f>
-        <v>REM SUBROUTINE ***SHUFFLE***</v>
+      <c r="C299" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="26"/>
+      <c r="A300" s="28" t="s">
+        <v>778</v>
+      </c>
       <c r="B300">
         <v>3080</v>
       </c>
       <c r="C300" s="11" t="str">
-        <f>IF(ISBLANK(E300),_xlfn.CONCAT("SUB ",A299),_xlfn.CONCAT("SUB ",A299,"(",E300,")"))</f>
-        <v>SUB SHUFFLE(HANDS(,,))</v>
-      </c>
-      <c r="E300" t="s">
-        <v>848</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A300,"***")</f>
+        <v>REM SUBROUTINE ***SHUFFLE***</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -6620,8 +6621,12 @@
       <c r="B301">
         <v>3090</v>
       </c>
-      <c r="C301" t="s">
-        <v>96</v>
+      <c r="C301" s="11" t="str">
+        <f>IF(ISBLANK(E301),_xlfn.CONCAT("SUB ",A300),_xlfn.CONCAT("SUB ",A300,"(",E301,")"))</f>
+        <v>SUB SHUFFLE(HANDS(,,))</v>
+      </c>
+      <c r="E301" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -6630,7 +6635,7 @@
         <v>3100</v>
       </c>
       <c r="C302" t="s">
-        <v>844</v>
+        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -6639,36 +6644,36 @@
         <v>3110</v>
       </c>
       <c r="C303" t="s">
-        <v>759</v>
+        <v>842</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="26"/>
       <c r="B304">
         <v>3120</v>
       </c>
-      <c r="C304" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A305,"***")</f>
-        <v>REM LABEL ***DRAWLOOP***</v>
+      <c r="C304" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="29" t="s">
-        <v>760</v>
-      </c>
       <c r="B305">
         <v>3130</v>
       </c>
-      <c r="C305" t="s">
-        <v>776</v>
+      <c r="C305" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A306,"***")</f>
+        <v>REM LABEL ***DRAWLOOP***</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="26"/>
+      <c r="A306" s="29" t="s">
+        <v>759</v>
+      </c>
       <c r="B306">
         <v>3140</v>
       </c>
       <c r="C306" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -6677,7 +6682,7 @@
         <v>3150</v>
       </c>
       <c r="C307" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -6686,7 +6691,7 @@
         <v>3160</v>
       </c>
       <c r="C308" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -6695,7 +6700,7 @@
         <v>3170</v>
       </c>
       <c r="C309" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -6703,16 +6708,8 @@
       <c r="B310">
         <v>3180</v>
       </c>
-      <c r="C310" s="28" t="str">
-        <f>IF(ISBLANK(E310),_xlfn.CONCAT("CALL ",D310),_xlfn.CONCAT("CALL ",D310,"(",E310,")"))</f>
-        <v>CALL CHECKDUP(DUP,(X),DECK())</v>
-      </c>
-      <c r="D310" s="28" t="str">
-        <f>A324</f>
-        <v>CHECKDUP</v>
-      </c>
-      <c r="E310" t="s">
-        <v>843</v>
+      <c r="C310" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -6720,13 +6717,16 @@
       <c r="B311">
         <v>3190</v>
       </c>
-      <c r="C311" t="str">
-        <f>_xlfn.CONCAT("IF DUP=1 THEN ",INDEX(B:B,MATCH(D311,A:A,0),0)," :: REM GOTO ",D311,"")</f>
-        <v>IF DUP=1 THEN 3130 :: REM GOTO DRAWLOOP</v>
-      </c>
-      <c r="D311" s="29" t="str">
-        <f>A305</f>
-        <v>DRAWLOOP</v>
+      <c r="C311" s="28" t="str">
+        <f>IF(ISBLANK(E311),_xlfn.CONCAT("CALL ",D311),_xlfn.CONCAT("CALL ",D311,"(",E311,")"))</f>
+        <v>CALL CHECKDUP(DUP,(X),DECK())</v>
+      </c>
+      <c r="D311" s="28" t="str">
+        <f>A325</f>
+        <v>CHECKDUP</v>
+      </c>
+      <c r="E311" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -6734,8 +6734,13 @@
       <c r="B312">
         <v>3200</v>
       </c>
-      <c r="C312" t="s">
-        <v>765</v>
+      <c r="C312" t="str">
+        <f>_xlfn.CONCAT("IF DUP=1 THEN ",INDEX(B:B,MATCH(D312,A:A,0),0)," :: REM GOTO ",D312,"")</f>
+        <v>IF DUP=1 THEN 3140 :: REM GOTO DRAWLOOP</v>
+      </c>
+      <c r="D312" s="29" t="str">
+        <f>A306</f>
+        <v>DRAWLOOP</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -6744,7 +6749,7 @@
         <v>3210</v>
       </c>
       <c r="C313" t="s">
-        <v>699</v>
+        <v>764</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -6753,7 +6758,7 @@
         <v>3220</v>
       </c>
       <c r="C314" t="s">
-        <v>761</v>
+        <v>699</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -6762,7 +6767,7 @@
         <v>3230</v>
       </c>
       <c r="C315" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -6771,7 +6776,7 @@
         <v>3240</v>
       </c>
       <c r="C316" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -6780,7 +6785,7 @@
         <v>3250</v>
       </c>
       <c r="C317" t="s">
-        <v>699</v>
+        <v>766</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -6789,7 +6794,7 @@
         <v>3260</v>
       </c>
       <c r="C318" t="s">
-        <v>761</v>
+        <v>699</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -6798,7 +6803,7 @@
         <v>3270</v>
       </c>
       <c r="C319" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -6807,7 +6812,7 @@
         <v>3280</v>
       </c>
       <c r="C320" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -6816,7 +6821,7 @@
         <v>3290</v>
       </c>
       <c r="C321" t="s">
-        <v>699</v>
+        <v>768</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -6825,7 +6830,7 @@
         <v>3300</v>
       </c>
       <c r="C322" t="s">
-        <v>777</v>
+        <v>699</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -6833,33 +6838,29 @@
       <c r="B323">
         <v>3310</v>
       </c>
-      <c r="C323" s="11" t="s">
-        <v>783</v>
+      <c r="C323" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="28" t="s">
-        <v>756</v>
-      </c>
+      <c r="A324" s="26"/>
       <c r="B324">
         <v>3320</v>
       </c>
-      <c r="C324" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A324,"***")</f>
-        <v>REM SUBROUTINE ***CHECKDUP***</v>
+      <c r="C324" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="26"/>
+      <c r="A325" s="28" t="s">
+        <v>755</v>
+      </c>
       <c r="B325">
         <v>3330</v>
       </c>
       <c r="C325" s="11" t="str">
-        <f>IF(ISBLANK(E325),_xlfn.CONCAT("SUB ",A324),_xlfn.CONCAT("SUB ",A324,"(",E325,")"))</f>
-        <v>SUB CHECKDUP(DUP,X,DECK())</v>
-      </c>
-      <c r="E325" t="s">
-        <v>842</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A325,"***")</f>
+        <v>REM SUBROUTINE ***CHECKDUP***</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -6867,8 +6868,12 @@
       <c r="B326">
         <v>3340</v>
       </c>
-      <c r="C326" s="11" t="s">
-        <v>757</v>
+      <c r="C326" s="11" t="str">
+        <f>IF(ISBLANK(E326),_xlfn.CONCAT("SUB ",A325),_xlfn.CONCAT("SUB ",A325,"(",E326,")"))</f>
+        <v>SUB CHECKDUP(DUP,X,DECK())</v>
+      </c>
+      <c r="E326" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -6877,7 +6882,7 @@
         <v>3350</v>
       </c>
       <c r="C327" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -6885,13 +6890,8 @@
       <c r="B328">
         <v>3360</v>
       </c>
-      <c r="C328" s="11" t="str">
-        <f>_xlfn.CONCAT("IF DECK(I)=X THEN DUP=1 :: GOTO ",INDEX(B:B,MATCH(D328,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF DECK(I)=X THEN DUP=1 :: GOTO 3380 :: REM SUBEND</v>
-      </c>
-      <c r="D328" s="29" t="str">
-        <f>A330</f>
-        <v>CHECKDUP.SUBEND</v>
+      <c r="C328" s="11" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -6899,45 +6899,46 @@
       <c r="B329">
         <v>3370</v>
       </c>
-      <c r="C329" s="11" t="s">
-        <v>57</v>
+      <c r="C329" s="11" t="str">
+        <f>_xlfn.CONCAT("IF DECK(I)=X THEN DUP=1 :: GOTO ",INDEX(B:B,MATCH(D329,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF DECK(I)=X THEN DUP=1 :: GOTO 3390 :: REM SUBEND</v>
+      </c>
+      <c r="D329" s="29" t="str">
+        <f>A331</f>
+        <v>CHECKDUP.SUBEND</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="29" t="str">
-        <f>_xlfn.CONCAT(A324,".SUBEND")</f>
-        <v>CHECKDUP.SUBEND</v>
-      </c>
+      <c r="A330" s="26"/>
       <c r="B330">
         <v>3380</v>
       </c>
       <c r="C330" s="11" t="s">
-        <v>783</v>
+        <v>57</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="28" t="s">
-        <v>694</v>
+      <c r="A331" s="29" t="str">
+        <f>_xlfn.CONCAT(A325,".SUBEND")</f>
+        <v>CHECKDUP.SUBEND</v>
       </c>
       <c r="B331">
         <v>3390</v>
       </c>
-      <c r="C331" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A331,"***")</f>
-        <v>REM SUBROUTINE ***DEAL***</v>
+      <c r="C331" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="26"/>
+      <c r="A332" s="28" t="s">
+        <v>694</v>
+      </c>
       <c r="B332">
         <v>3400</v>
       </c>
       <c r="C332" s="11" t="str">
-        <f>IF(ISBLANK(E332),_xlfn.CONCAT("SUB ",A331),_xlfn.CONCAT("SUB ",A331,"(",E332,")"))</f>
-        <v>SUB DEAL(CARDS(),SUMS(),PLAYER,FACEDOWN,HANDS(,,))</v>
-      </c>
-      <c r="E332" t="s">
-        <v>847</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A332,"***")</f>
+        <v>REM SUBROUTINE ***DEAL***</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -6945,8 +6946,12 @@
       <c r="B333">
         <v>3410</v>
       </c>
-      <c r="C333" s="11" t="s">
-        <v>710</v>
+      <c r="C333" s="11" t="str">
+        <f>IF(ISBLANK(E333),_xlfn.CONCAT("SUB ",A332),_xlfn.CONCAT("SUB ",A332,"(",E333,")"))</f>
+        <v>SUB DEAL(CARDS(),SUMS(),PLAYER,FACEDOWN,HANDS(,,))</v>
+      </c>
+      <c r="E333" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -6955,7 +6960,7 @@
         <v>3420</v>
       </c>
       <c r="C334" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -6964,7 +6969,7 @@
         <v>3430</v>
       </c>
       <c r="C335" s="11" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -6973,7 +6978,7 @@
         <v>3440</v>
       </c>
       <c r="C336" s="11" t="s">
-        <v>753</v>
+        <v>705</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -6982,7 +6987,7 @@
         <v>3450</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>712</v>
+        <v>752</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -6990,16 +6995,8 @@
       <c r="B338">
         <v>3460</v>
       </c>
-      <c r="C338" s="28" t="str">
-        <f>IF(ISBLANK(E338),_xlfn.CONCAT("CALL ",D338),_xlfn.CONCAT("CALL ",D338,"(",E338,")"))</f>
-        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D338" s="28" t="str">
-        <f>A125</f>
-        <v>RENDERCARD</v>
-      </c>
-      <c r="E338" t="s">
-        <v>846</v>
+      <c r="C338" s="11" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -7007,33 +7004,37 @@
       <c r="B339">
         <v>3470</v>
       </c>
-      <c r="C339" s="11" t="s">
-        <v>783</v>
+      <c r="C339" s="28" t="str">
+        <f>IF(ISBLANK(E339),_xlfn.CONCAT("CALL ",D339),_xlfn.CONCAT("CALL ",D339,"(",E339,")"))</f>
+        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D339" s="28" t="str">
+        <f>A126</f>
+        <v>RENDERCARD</v>
+      </c>
+      <c r="E339" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="28" t="s">
-        <v>703</v>
-      </c>
+      <c r="A340" s="26"/>
       <c r="B340">
         <v>3480</v>
       </c>
-      <c r="C340" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A340,"***")</f>
-        <v>REM SUBROUTINE ***CALCSCORE***</v>
+      <c r="C340" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="26"/>
+      <c r="A341" s="28" t="s">
+        <v>702</v>
+      </c>
       <c r="B341">
         <v>3490</v>
       </c>
       <c r="C341" s="11" t="str">
-        <f>IF(ISBLANK(E341),_xlfn.CONCAT("SUB ",A340),_xlfn.CONCAT("SUB ",A340,"(",E341,")"))</f>
-        <v>SUB CALCSCORE(SCORE,PLAYER,SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="E341" t="s">
-        <v>858</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A341,"***")</f>
+        <v>REM SUBROUTINE ***CALCSCORE***</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -7041,8 +7042,12 @@
       <c r="B342">
         <v>3500</v>
       </c>
-      <c r="C342" t="s">
-        <v>713</v>
+      <c r="C342" s="11" t="str">
+        <f>IF(ISBLANK(E342),_xlfn.CONCAT("SUB ",A341),_xlfn.CONCAT("SUB ",A341,"(",E342,")"))</f>
+        <v>SUB CALCSCORE(SCORE,PLAYER,SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="E342" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -7050,13 +7055,8 @@
       <c r="B343">
         <v>3510</v>
       </c>
-      <c r="C343" t="str">
-        <f>_xlfn.CONCAT("IF SCORE+10&gt;21 THEN ",INDEX(B:B,MATCH(D343,A:A,0),0)," :: REM GOTO ",D343,"")</f>
-        <v>IF SCORE+10&gt;21 THEN 3550 :: REM GOTO CALCSCORE.SUBEND</v>
-      </c>
-      <c r="D343" s="29" t="str">
-        <f>A347</f>
-        <v>CALCSCORE.SUBEND</v>
+      <c r="C343" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -7064,8 +7064,13 @@
       <c r="B344">
         <v>3520</v>
       </c>
-      <c r="C344" t="s">
-        <v>714</v>
+      <c r="C344" t="str">
+        <f>_xlfn.CONCAT("IF SCORE+10&gt;21 THEN ",INDEX(B:B,MATCH(D344,A:A,0),0)," :: REM GOTO ",D344,"")</f>
+        <v>IF SCORE+10&gt;21 THEN 3560 :: REM GOTO CALCSCORE.SUBEND</v>
+      </c>
+      <c r="D344" s="29" t="str">
+        <f>A348</f>
+        <v>CALCSCORE.SUBEND</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -7073,13 +7078,8 @@
       <c r="B345">
         <v>3530</v>
       </c>
-      <c r="C345" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO ",INDEX(B:B,MATCH(D345,A:A,0),0)," :: REM GOTO ",D345,"")</f>
-        <v>IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO 3550 :: REM GOTO CALCSCORE.SUBEND</v>
-      </c>
-      <c r="D345" s="29" t="str">
-        <f>A347</f>
-        <v>CALCSCORE.SUBEND</v>
+      <c r="C345" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -7087,45 +7087,46 @@
       <c r="B346">
         <v>3540</v>
       </c>
-      <c r="C346" s="11" t="s">
-        <v>57</v>
+      <c r="C346" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO ",INDEX(B:B,MATCH(D346,A:A,0),0)," :: REM GOTO ",D346,"")</f>
+        <v>IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO 3560 :: REM GOTO CALCSCORE.SUBEND</v>
+      </c>
+      <c r="D346" s="29" t="str">
+        <f>A348</f>
+        <v>CALCSCORE.SUBEND</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="29" t="str">
-        <f>_xlfn.CONCAT(A340,".SUBEND")</f>
-        <v>CALCSCORE.SUBEND</v>
-      </c>
+      <c r="A347" s="26"/>
       <c r="B347">
         <v>3550</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>783</v>
+        <v>57</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="28" t="s">
-        <v>614</v>
+      <c r="A348" s="29" t="str">
+        <f>_xlfn.CONCAT(A341,".SUBEND")</f>
+        <v>CALCSCORE.SUBEND</v>
       </c>
       <c r="B348">
         <v>3560</v>
       </c>
-      <c r="C348" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A348,"***")</f>
-        <v>REM SUBROUTINE ***WHOWON***</v>
+      <c r="C348" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="26"/>
+      <c r="A349" s="28" t="s">
+        <v>614</v>
+      </c>
       <c r="B349">
         <v>3570</v>
       </c>
       <c r="C349" s="11" t="str">
-        <f>IF(ISBLANK(E349),_xlfn.CONCAT("SUB ",A348),_xlfn.CONCAT("SUB ",A348,"(",E349,")"))</f>
-        <v>SUB WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="E349" t="s">
-        <v>789</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A349,"***")</f>
+        <v>REM SUBROUTINE ***WHOWON***</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -7133,8 +7134,12 @@
       <c r="B350">
         <v>3580</v>
       </c>
-      <c r="C350" t="s">
-        <v>784</v>
+      <c r="C350" s="11" t="str">
+        <f>IF(ISBLANK(E350),_xlfn.CONCAT("SUB ",A349),_xlfn.CONCAT("SUB ",A349,"(",E350,")"))</f>
+        <v>SUB WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="E350" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -7142,16 +7147,8 @@
       <c r="B351">
         <v>3590</v>
       </c>
-      <c r="C351" t="str">
-        <f>IF(ISBLANK(E351),_xlfn.CONCAT("CALL ",D351),_xlfn.CONCAT("CALL ",D351,"(",E351,")"))</f>
-        <v>CALL CALCSCORE(PSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="D351" s="28" t="str">
-        <f>A340</f>
-        <v>CALCSCORE</v>
-      </c>
-      <c r="E351" t="s">
-        <v>859</v>
+      <c r="C351" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -7159,8 +7156,16 @@
       <c r="B352">
         <v>3600</v>
       </c>
-      <c r="C352" t="s">
-        <v>778</v>
+      <c r="C352" t="str">
+        <f>IF(ISBLANK(E352),_xlfn.CONCAT("CALL ",D352),_xlfn.CONCAT("CALL ",D352,"(",E352,")"))</f>
+        <v>CALL CALCSCORE(PSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D352" s="28" t="str">
+        <f>A341</f>
+        <v>CALCSCORE</v>
+      </c>
+      <c r="E352" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -7169,7 +7174,7 @@
         <v>3610</v>
       </c>
       <c r="C353" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -7177,16 +7182,8 @@
       <c r="B354">
         <v>3620</v>
       </c>
-      <c r="C354" t="str">
-        <f>IF(ISBLANK(E354),_xlfn.CONCAT("CALL ",D354),_xlfn.CONCAT("CALL ",D354,"(",E354,")"))</f>
-        <v>CALL CALCSCORE(DSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="D354" s="28" t="str">
-        <f>A340</f>
-        <v>CALCSCORE</v>
-      </c>
-      <c r="E354" t="s">
-        <v>860</v>
+      <c r="C354" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -7194,8 +7191,16 @@
       <c r="B355">
         <v>3630</v>
       </c>
-      <c r="C355" t="s">
-        <v>779</v>
+      <c r="C355" t="str">
+        <f>IF(ISBLANK(E355),_xlfn.CONCAT("CALL ",D355),_xlfn.CONCAT("CALL ",D355,"(",E355,")"))</f>
+        <v>CALL CALCSCORE(DSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D355" s="28" t="str">
+        <f>A341</f>
+        <v>CALCSCORE</v>
+      </c>
+      <c r="E355" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -7204,7 +7209,7 @@
         <v>3640</v>
       </c>
       <c r="C356" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -7213,7 +7218,7 @@
         <v>3650</v>
       </c>
       <c r="C357" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -7222,7 +7227,7 @@
         <v>3660</v>
       </c>
       <c r="C358" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -7231,29 +7236,28 @@
         <v>3670</v>
       </c>
       <c r="C359" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="28" t="s">
-        <v>700</v>
-      </c>
+      <c r="A360" s="26"/>
       <c r="B360">
         <v>3680</v>
       </c>
-      <c r="C360" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A360,"***")</f>
-        <v>REM SUBROUTINE ***TERMINATE***</v>
+      <c r="C360" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="26"/>
+      <c r="A361" s="28" t="s">
+        <v>700</v>
+      </c>
       <c r="B361">
         <v>3690</v>
       </c>
       <c r="C361" s="11" t="str">
-        <f>IF(ISBLANK(E361),_xlfn.CONCAT("SUB ",A360),_xlfn.CONCAT("SUB ",A360,"(",E361,")"))</f>
-        <v>SUB TERMINATE</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A361,"***")</f>
+        <v>REM SUBROUTINE ***TERMINATE***</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -7261,8 +7265,9 @@
       <c r="B362">
         <v>3700</v>
       </c>
-      <c r="C362" t="s">
-        <v>775</v>
+      <c r="C362" s="11" t="str">
+        <f>IF(ISBLANK(E362),_xlfn.CONCAT("SUB ",A361),_xlfn.CONCAT("SUB ",A361,"(",E362,")"))</f>
+        <v>SUB TERMINATE</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -7271,7 +7276,7 @@
         <v>3710</v>
       </c>
       <c r="C363" t="s">
-        <v>701</v>
+        <v>870</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -7279,8 +7284,8 @@
       <c r="B364">
         <v>3720</v>
       </c>
-      <c r="C364" s="11" t="s">
-        <v>679</v>
+      <c r="C364" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -7288,40 +7293,41 @@
       <c r="B365">
         <v>3730</v>
       </c>
-      <c r="C365" t="s">
-        <v>783</v>
+      <c r="C365" s="11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="28" t="s">
-        <v>809</v>
-      </c>
+      <c r="A366" s="26"/>
       <c r="B366">
         <v>3740</v>
       </c>
-      <c r="C366" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A366,"***")</f>
-        <v>REM SUBROUTINE ***GETHEART***</v>
+      <c r="C366" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" s="28" t="s">
+        <v>807</v>
+      </c>
       <c r="B367">
         <v>3750</v>
       </c>
       <c r="C367" t="str">
-        <f>IF(ISBLANK(E367),_xlfn.CONCAT("SUB ",A366),_xlfn.CONCAT("SUB ",A366,"(",E367,")"))</f>
-        <v>SUB GETHEART(CHARVAL)</v>
-      </c>
-      <c r="E367" t="s">
-        <v>792</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A367,"***")</f>
+        <v>REM SUBROUTINE ***GETHEART***</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B368">
         <v>3760</v>
       </c>
-      <c r="C368" s="11" t="s">
-        <v>791</v>
+      <c r="C368" t="str">
+        <f>IF(ISBLANK(E368),_xlfn.CONCAT("SUB ",A367),_xlfn.CONCAT("SUB ",A367,"(",E368,")"))</f>
+        <v>SUB GETHEART(CHARVAL)</v>
+      </c>
+      <c r="E368" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -7329,39 +7335,39 @@
         <v>3770</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="28" t="s">
-        <v>808</v>
-      </c>
       <c r="B370">
         <v>3780</v>
       </c>
-      <c r="C370" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A370,"***")</f>
-        <v>REM SUBROUTINE ***GETDIAMOND***</v>
+      <c r="C370" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" s="28" t="s">
+        <v>806</v>
+      </c>
       <c r="B371">
         <v>3790</v>
       </c>
       <c r="C371" t="str">
-        <f>IF(ISBLANK(E371),_xlfn.CONCAT("SUB ",A370),_xlfn.CONCAT("SUB ",A370,"(",E371,")"))</f>
-        <v>SUB GETDIAMOND(CHARVAL)</v>
-      </c>
-      <c r="E371" t="s">
-        <v>792</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A371,"***")</f>
+        <v>REM SUBROUTINE ***GETDIAMOND***</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B372">
         <v>3800</v>
       </c>
-      <c r="C372" s="11" t="s">
-        <v>793</v>
+      <c r="C372" t="str">
+        <f>IF(ISBLANK(E372),_xlfn.CONCAT("SUB ",A371),_xlfn.CONCAT("SUB ",A371,"(",E372,")"))</f>
+        <v>SUB GETDIAMOND(CHARVAL)</v>
+      </c>
+      <c r="E372" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -7369,39 +7375,39 @@
         <v>3810</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="28" t="s">
-        <v>807</v>
-      </c>
       <c r="B374">
         <v>3820</v>
       </c>
-      <c r="C374" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A374,"***")</f>
-        <v>REM SUBROUTINE ***GETREDVALS***</v>
+      <c r="C374" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A375" s="28" t="s">
+        <v>805</v>
+      </c>
       <c r="B375">
         <v>3830</v>
       </c>
       <c r="C375" t="str">
-        <f>IF(ISBLANK(E375),_xlfn.CONCAT("SUB ",A374),_xlfn.CONCAT("SUB ",A374,"(",E375,")"))</f>
-        <v>SUB GETREDVALS(CHARVAL)</v>
-      </c>
-      <c r="E375" t="s">
-        <v>792</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A375,"***")</f>
+        <v>REM SUBROUTINE ***GETREDVALS***</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B376">
         <v>3840</v>
       </c>
-      <c r="C376" s="11" t="s">
-        <v>794</v>
+      <c r="C376" t="str">
+        <f>IF(ISBLANK(E376),_xlfn.CONCAT("SUB ",A375),_xlfn.CONCAT("SUB ",A375,"(",E376,")"))</f>
+        <v>SUB GETREDVALS(CHARVAL)</v>
+      </c>
+      <c r="E376" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
@@ -7409,39 +7415,39 @@
         <v>3850</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="28" t="s">
-        <v>806</v>
-      </c>
       <c r="B378">
         <v>3860</v>
       </c>
-      <c r="C378" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A378,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDBACK***</v>
+      <c r="C378" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A379" s="28" t="s">
+        <v>804</v>
+      </c>
       <c r="B379">
         <v>3870</v>
       </c>
       <c r="C379" t="str">
-        <f>IF(ISBLANK(E379),_xlfn.CONCAT("SUB ",A378),_xlfn.CONCAT("SUB ",A378,"(",E379,")"))</f>
-        <v>SUB GETCARDBACK(CHARVAL)</v>
-      </c>
-      <c r="E379" t="s">
-        <v>792</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A379,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDBACK***</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B380">
         <v>3880</v>
       </c>
-      <c r="C380" s="11" t="s">
-        <v>796</v>
+      <c r="C380" t="str">
+        <f>IF(ISBLANK(E380),_xlfn.CONCAT("SUB ",A379),_xlfn.CONCAT("SUB ",A379,"(",E380,")"))</f>
+        <v>SUB GETCARDBACK(CHARVAL)</v>
+      </c>
+      <c r="E380" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
@@ -7449,39 +7455,39 @@
         <v>3890</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="28" t="s">
-        <v>805</v>
-      </c>
       <c r="B382">
         <v>3900</v>
       </c>
-      <c r="C382" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A382,"***")</f>
-        <v>REM SUBROUTINE ***GETSPADE***</v>
+      <c r="C382" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A383" s="28" t="s">
+        <v>803</v>
+      </c>
       <c r="B383">
         <v>3910</v>
       </c>
       <c r="C383" t="str">
-        <f>IF(ISBLANK(E383),_xlfn.CONCAT("SUB ",A382),_xlfn.CONCAT("SUB ",A382,"(",E383,")"))</f>
-        <v>SUB GETSPADE(CHARVAL)</v>
-      </c>
-      <c r="E383" t="s">
-        <v>792</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A383,"***")</f>
+        <v>REM SUBROUTINE ***GETSPADE***</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B384">
         <v>3920</v>
       </c>
-      <c r="C384" s="11" t="s">
-        <v>795</v>
+      <c r="C384" t="str">
+        <f>IF(ISBLANK(E384),_xlfn.CONCAT("SUB ",A383),_xlfn.CONCAT("SUB ",A383,"(",E384,")"))</f>
+        <v>SUB GETSPADE(CHARVAL)</v>
+      </c>
+      <c r="E384" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -7489,39 +7495,39 @@
         <v>3930</v>
       </c>
       <c r="C385" s="11" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A386" s="28" t="s">
-        <v>804</v>
-      </c>
       <c r="B386">
         <v>3940</v>
       </c>
-      <c r="C386" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A386,"***")</f>
-        <v>REM SUBROUTINE ***GETCLUB***</v>
+      <c r="C386" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A387" s="28" t="s">
+        <v>802</v>
+      </c>
       <c r="B387">
         <v>3950</v>
       </c>
       <c r="C387" t="str">
-        <f>IF(ISBLANK(E387),_xlfn.CONCAT("SUB ",A386),_xlfn.CONCAT("SUB ",A386,"(",E387,")"))</f>
-        <v>SUB GETCLUB(CHARVAL)</v>
-      </c>
-      <c r="E387" t="s">
-        <v>792</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A387,"***")</f>
+        <v>REM SUBROUTINE ***GETCLUB***</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B388">
         <v>3960</v>
       </c>
-      <c r="C388" s="11" t="s">
-        <v>797</v>
+      <c r="C388" t="str">
+        <f>IF(ISBLANK(E388),_xlfn.CONCAT("SUB ",A387),_xlfn.CONCAT("SUB ",A387,"(",E388,")"))</f>
+        <v>SUB GETCLUB(CHARVAL)</v>
+      </c>
+      <c r="E388" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -7529,39 +7535,39 @@
         <v>3970</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="28" t="s">
-        <v>801</v>
-      </c>
       <c r="B390">
         <v>3980</v>
       </c>
-      <c r="C390" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A390,"***")</f>
-        <v>REM SUBROUTINE ***GETBLACKVALS***</v>
+      <c r="C390" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A391" s="28" t="s">
+        <v>799</v>
+      </c>
       <c r="B391">
         <v>3990</v>
       </c>
       <c r="C391" t="str">
-        <f>IF(ISBLANK(E391),_xlfn.CONCAT("SUB ",A390),_xlfn.CONCAT("SUB ",A390,"(",E391,")"))</f>
-        <v>SUB GETBLACKVALS(CHARVAL)</v>
-      </c>
-      <c r="E391" t="s">
-        <v>792</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A391,"***")</f>
+        <v>REM SUBROUTINE ***GETBLACKVALS***</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B392">
         <v>4000</v>
       </c>
-      <c r="C392" s="11" t="s">
-        <v>798</v>
+      <c r="C392" t="str">
+        <f>IF(ISBLANK(E392),_xlfn.CONCAT("SUB ",A391),_xlfn.CONCAT("SUB ",A391,"(",E392,")"))</f>
+        <v>SUB GETBLACKVALS(CHARVAL)</v>
+      </c>
+      <c r="E392" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -7569,39 +7575,39 @@
         <v>4010</v>
       </c>
       <c r="C393" s="11" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A394" s="28" t="s">
-        <v>802</v>
-      </c>
       <c r="B394">
         <v>4020</v>
       </c>
-      <c r="C394" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A394,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDEDGE***</v>
+      <c r="C394" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A395" s="28" t="s">
+        <v>800</v>
+      </c>
       <c r="B395">
         <v>4030</v>
       </c>
       <c r="C395" t="str">
-        <f>IF(ISBLANK(E395),_xlfn.CONCAT("SUB ",A394),_xlfn.CONCAT("SUB ",A394,"(",E395,")"))</f>
-        <v>SUB GETCARDEDGE(CHARVAL)</v>
-      </c>
-      <c r="E395" t="s">
-        <v>792</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A395,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDEDGE***</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B396">
         <v>4040</v>
       </c>
-      <c r="C396" s="11" t="s">
-        <v>799</v>
+      <c r="C396" t="str">
+        <f>IF(ISBLANK(E396),_xlfn.CONCAT("SUB ",A395),_xlfn.CONCAT("SUB ",A395,"(",E396,")"))</f>
+        <v>SUB GETCARDEDGE(CHARVAL)</v>
+      </c>
+      <c r="E396" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -7609,39 +7615,39 @@
         <v>4050</v>
       </c>
       <c r="C397" s="11" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398" s="28" t="s">
-        <v>803</v>
-      </c>
       <c r="B398">
         <v>4060</v>
       </c>
-      <c r="C398" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A398,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDTOP***</v>
+      <c r="C398" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A399" s="28" t="s">
+        <v>801</v>
+      </c>
       <c r="B399">
         <v>4070</v>
       </c>
       <c r="C399" t="str">
-        <f>IF(ISBLANK(E399),_xlfn.CONCAT("SUB ",A398),_xlfn.CONCAT("SUB ",A398,"(",E399,")"))</f>
-        <v>SUB GETCARDTOP(CHARVAL)</v>
-      </c>
-      <c r="E399" t="s">
-        <v>792</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A399,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDTOP***</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B400">
         <v>4080</v>
       </c>
-      <c r="C400" s="11" t="s">
-        <v>800</v>
+      <c r="C400" t="str">
+        <f>IF(ISBLANK(E400),_xlfn.CONCAT("SUB ",A399),_xlfn.CONCAT("SUB ",A399,"(",E400,")"))</f>
+        <v>SUB GETCARDTOP(CHARVAL)</v>
+      </c>
+      <c r="E400" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
@@ -7649,39 +7655,39 @@
         <v>4090</v>
       </c>
       <c r="C401" s="11" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" s="28" t="s">
-        <v>811</v>
-      </c>
       <c r="B402">
         <v>4100</v>
       </c>
-      <c r="C402" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A402,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDFRONT***</v>
+      <c r="C402" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A403" s="28" t="s">
+        <v>809</v>
+      </c>
       <c r="B403">
         <v>4110</v>
       </c>
       <c r="C403" t="str">
-        <f>IF(ISBLANK(E403),_xlfn.CONCAT("SUB ",A402),_xlfn.CONCAT("SUB ",A402,"(",E403,")"))</f>
-        <v>SUB GETCARDFRONT(CHARVAL)</v>
-      </c>
-      <c r="E403" t="s">
-        <v>792</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A403,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDFRONT***</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B404">
         <v>4120</v>
       </c>
-      <c r="C404" s="11" t="s">
-        <v>810</v>
+      <c r="C404" t="str">
+        <f>IF(ISBLANK(E404),_xlfn.CONCAT("SUB ",A403),_xlfn.CONCAT("SUB ",A403,"(",E404,")"))</f>
+        <v>SUB GETCARDFRONT(CHARVAL)</v>
+      </c>
+      <c r="E404" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -7689,7 +7695,15 @@
         <v>4130</v>
       </c>
       <c r="C405" s="11" t="s">
-        <v>783</v>
+        <v>808</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B406">
+        <v>4140</v>
+      </c>
+      <c r="C406" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -7753,7 +7767,7 @@
         <v>551</v>
       </c>
       <c r="G2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">

--- a/blackjack.xlsx
+++ b/blackjack.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E03B6E8-F84E-204A-B997-6AB82457451B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666E929F-DA3E-5043-B753-EF68DCCC06D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="33000" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="876">
   <si>
     <t>1</t>
   </si>
@@ -2362,12 +2362,6 @@
     <t>DISPLAY AT (22,2) BEEP: "DO YOU WISH TO PLAY AGAIN?"</t>
   </si>
   <si>
-    <t>DISPLAY AT (22,2): "DO YOU WANT ANOTHER CARD?"</t>
-  </si>
-  <si>
-    <t>DISPLAY AT (22,2): "                         " :: DISPLAY AT (23,14): " "</t>
-  </si>
-  <si>
     <t>IF BUSTED=1 THEN DISPLAY AT (12,4) BEEP: "YOU BUSTED. YOU LOSE."</t>
   </si>
   <si>
@@ -2666,6 +2660,24 @@
   </si>
   <si>
     <t>FOR I=1 TO 5 :: CALL SOUND(500,110,30) :: CALL SOUND(1,110,30) :: NEXT I</t>
+  </si>
+  <si>
+    <t>CALL HCHAR(23,16,30)</t>
+  </si>
+  <si>
+    <t>CALL HCHAR (22,4,32,25) :: CALL HCHAR (23,16,32)</t>
+  </si>
+  <si>
+    <t>DISPLAY AT (22,2) BEEP: "DO YOU WANT ANOTHER CARD?"</t>
+  </si>
+  <si>
+    <t>A$=""</t>
+  </si>
+  <si>
+    <t>CALL KEY(0,K,S)</t>
+  </si>
+  <si>
+    <t>IF K=78 THEN CALL HCHAR (23,16,78) :: A$="N" ELSE IF K=89 THEN CALL HCHAR (23,16,89) :: A$="Y"</t>
   </si>
 </sst>
 </file>
@@ -3231,11 +3243,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:F406"/>
+  <dimension ref="A1:F419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C364" sqref="C364"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3264,7 +3274,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3272,7 +3282,7 @@
         <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3280,7 +3290,7 @@
         <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3288,7 +3298,7 @@
         <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3296,7 +3306,7 @@
         <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3304,7 +3314,7 @@
         <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3312,7 +3322,7 @@
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3320,7 +3330,7 @@
         <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3328,7 +3338,7 @@
         <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3336,7 +3346,7 @@
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3344,7 +3354,7 @@
         <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3357,7 +3367,7 @@
         <v>CALL INTRO</v>
       </c>
       <c r="D13" s="28" t="str">
-        <f>A25</f>
+        <f>A32</f>
         <v>INTRO</v>
       </c>
     </row>
@@ -3371,7 +3381,7 @@
         <v>CALL SETCHARS</v>
       </c>
       <c r="D14" s="28" t="str">
-        <f>A64</f>
+        <f>A71</f>
         <v>SETCHARS</v>
       </c>
     </row>
@@ -3385,7 +3395,7 @@
         <v>CALL SETCOLORSCHEME</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f>A116</f>
+        <f>A123</f>
         <v>SETCOLORSCHEME</v>
       </c>
     </row>
@@ -3410,7 +3420,7 @@
         <v>CALL PLAY</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f>A245</f>
+        <f>A252</f>
         <v>PLAY</v>
       </c>
     </row>
@@ -3418,72 +3428,60 @@
       <c r="B18">
         <v>260</v>
       </c>
-      <c r="C18" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A19,"***")</f>
-        <v>REM LABEL ***ASKAGAIN***</v>
+      <c r="C18" t="s">
+        <v>769</v>
       </c>
       <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>859</v>
-      </c>
       <c r="B19">
         <v>270</v>
       </c>
       <c r="C19" t="s">
-        <v>769</v>
+        <v>873</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
       <c r="B20">
         <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>432</v>
+        <v>870</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
       <c r="B21">
         <v>290</v>
       </c>
       <c r="C21" t="str">
-        <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D21,A:A,0),0)," :: REM GOTO ",D21,"")</f>
-        <v>IF A$="" THEN 270 :: REM GOTO ASKAGAIN</v>
-      </c>
-      <c r="D21" s="29" t="str">
-        <f>A19</f>
-        <v>ASKAGAIN</v>
+        <f>_xlfn.CONCAT("REM LABEL ***",A22,"***")</f>
+        <v>REM LABEL ***ASKAGAIN***</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
+      <c r="A22" s="29" t="s">
+        <v>857</v>
+      </c>
       <c r="B22">
         <v>300</v>
       </c>
-      <c r="C22" s="28" t="str">
-        <f>_xlfn.CONCAT("IF A$=""N"" THEN CALL ",D22)</f>
-        <v>IF A$="N" THEN CALL TERMINATE</v>
-      </c>
-      <c r="D22" s="28" t="str">
-        <f>A361</f>
-        <v>TERMINATE</v>
-      </c>
+      <c r="C22" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23">
         <v>310</v>
       </c>
-      <c r="C23" t="str">
-        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D23,A:A,0),0)," :: REM GOTO ",D23,"")</f>
-        <v>GOTO 250 :: REM GOTO GAMELOOP</v>
+      <c r="C23" s="1" t="str">
+        <f>_xlfn.CONCAT("IF S=0  THEN ",INDEX(B:B,MATCH(D23,A:A,0),0)," :: REM GOTO ",D23,"")</f>
+        <v>IF S=0  THEN 300 :: REM GOTO ASKAGAIN</v>
       </c>
       <c r="D23" s="29" t="str">
-        <f>A17</f>
-        <v>GAMELOOP</v>
+        <f>A22</f>
+        <v>ASKAGAIN</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3491,31 +3489,37 @@
       <c r="B24">
         <v>320</v>
       </c>
-      <c r="C24" t="s">
-        <v>679</v>
-      </c>
-      <c r="D24" s="29"/>
+      <c r="C24" s="1" t="str">
+        <f>_xlfn.CONCAT("IF K&lt;&gt;78 AND K&lt;&gt;89 AND K&lt;&gt;13 THEN ",INDEX(B:B,MATCH(D24,A:A,0),0)," :: REM GOTO ",D24,"")</f>
+        <v>IF K&lt;&gt;78 AND K&lt;&gt;89 AND K&lt;&gt;13 THEN 300 :: REM GOTO ASKAGAIN</v>
+      </c>
+      <c r="D24" s="29" t="str">
+        <f>A22</f>
+        <v>ASKAGAIN</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
-        <v>501</v>
-      </c>
+      <c r="A25" s="26"/>
       <c r="B25">
         <v>330</v>
       </c>
-      <c r="C25" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A25,"***")</f>
-        <v>REM SUBROUTINE ***INTRO***</v>
-      </c>
+      <c r="C25" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26">
         <v>340</v>
       </c>
-      <c r="C26" s="11" t="str">
-        <f>IF(ISBLANK(E26),_xlfn.CONCAT("SUB ",A25),_xlfn.CONCAT("SUB ",A25,"(",E26,")"))</f>
-        <v>SUB INTRO</v>
+      <c r="C26" s="1" t="str">
+        <f>_xlfn.CONCAT("IF K&lt;&gt;13 THEN ",INDEX(B:B,MATCH(D26,A:A,0),0)," :: REM GOTO ",D26,"")</f>
+        <v>IF K&lt;&gt;13 THEN 300 :: REM GOTO ASKAGAIN</v>
+      </c>
+      <c r="D26" s="29" t="str">
+        <f>A22</f>
+        <v>ASKAGAIN</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3523,8 +3527,13 @@
       <c r="B27">
         <v>350</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>7</v>
+      <c r="C27" s="1" t="str">
+        <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D27,A:A,0),0)," :: REM GOTO ",D27,"")</f>
+        <v>IF A$="" THEN 300 :: REM GOTO ASKAGAIN</v>
+      </c>
+      <c r="D27" s="29" t="str">
+        <f>A22</f>
+        <v>ASKAGAIN</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3532,17 +3541,23 @@
       <c r="B28">
         <v>360</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>779</v>
-      </c>
+      <c r="C28" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29">
         <v>370</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>453</v>
+      <c r="C29" s="1" t="str">
+        <f>_xlfn.CONCAT("IF A$=""N"" THEN CALL ",D29)</f>
+        <v>IF A$="N" THEN CALL TERMINATE</v>
+      </c>
+      <c r="D29" s="28" t="str">
+        <f>A374</f>
+        <v>TERMINATE</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3550,8 +3565,13 @@
       <c r="B30">
         <v>380</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>869</v>
+      <c r="C30" t="str">
+        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D30,A:A,0),0)," :: REM GOTO ",D30,"")</f>
+        <v>GOTO 250 :: REM GOTO GAMELOOP</v>
+      </c>
+      <c r="D30" s="29" t="str">
+        <f>A17</f>
+        <v>GAMELOOP</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3559,17 +3579,21 @@
       <c r="B31">
         <v>390</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="C31" t="s">
+        <v>679</v>
+      </c>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
+      <c r="A32" s="28" t="s">
+        <v>501</v>
+      </c>
       <c r="B32">
         <v>400</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>739</v>
+      <c r="C32" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A32,"***")</f>
+        <v>REM SUBROUTINE ***INTRO***</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3577,8 +3601,9 @@
       <c r="B33">
         <v>410</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>724</v>
+      <c r="C33" s="11" t="str">
+        <f>IF(ISBLANK(E33),_xlfn.CONCAT("SUB ",A32),_xlfn.CONCAT("SUB ",A32,"(",E33,")"))</f>
+        <v>SUB INTRO</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3587,7 +3612,7 @@
         <v>420</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>725</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3596,7 +3621,7 @@
         <v>430</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>738</v>
+        <v>777</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3605,7 +3630,7 @@
         <v>440</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>731</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3614,7 +3639,7 @@
         <v>450</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>732</v>
+        <v>867</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3623,7 +3648,7 @@
         <v>460</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>733</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3632,7 +3657,7 @@
         <v>470</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3641,7 +3666,7 @@
         <v>480</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3650,7 +3675,7 @@
         <v>490</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3659,7 +3684,7 @@
         <v>500</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3668,7 +3693,7 @@
         <v>510</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3677,7 +3702,7 @@
         <v>520</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3686,7 +3711,7 @@
         <v>530</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3695,7 +3720,7 @@
         <v>540</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,7 +3729,7 @@
         <v>550</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3713,7 +3738,7 @@
         <v>560</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>7</v>
+        <v>736</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3722,7 +3747,7 @@
         <v>570</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3731,7 +3756,7 @@
         <v>580</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3740,7 +3765,7 @@
         <v>590</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3749,7 +3774,7 @@
         <v>600</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3758,7 +3783,7 @@
         <v>610</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3767,7 +3792,7 @@
         <v>620</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3776,7 +3801,7 @@
         <v>630</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>743</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3785,7 +3810,7 @@
         <v>640</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3794,7 +3819,7 @@
         <v>650</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3803,7 +3828,7 @@
         <v>660</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3812,7 +3837,7 @@
         <v>670</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3821,7 +3846,7 @@
         <v>680</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3830,7 +3855,7 @@
         <v>690</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3839,7 +3864,7 @@
         <v>700</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>720</v>
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3848,19 +3873,16 @@
         <v>710</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>781</v>
+        <v>744</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>662</v>
-      </c>
+      <c r="A64" s="26"/>
       <c r="B64">
         <v>720</v>
       </c>
-      <c r="C64" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A64,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARS***</v>
+      <c r="C64" s="11" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3868,9 +3890,8 @@
       <c r="B65">
         <v>730</v>
       </c>
-      <c r="C65" s="11" t="str">
-        <f>IF(ISBLANK(E65),_xlfn.CONCAT("SUB ",A64),_xlfn.CONCAT("SUB ",A64,"(",E65,")"))</f>
-        <v>SUB SETCHARS</v>
+      <c r="C65" s="11" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3878,13 +3899,8 @@
       <c r="B66">
         <v>740</v>
       </c>
-      <c r="C66" s="28" t="str">
-        <f>IF(ISBLANK(E66),_xlfn.CONCAT("CALL ",D66),_xlfn.CONCAT("CALL ",D66,"(",E66,")"))</f>
-        <v>CALL SETCHARSRED</v>
-      </c>
-      <c r="D66" s="28" t="str">
-        <f>A72</f>
-        <v>SETCHARSRED</v>
+      <c r="C66" s="11" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3892,13 +3908,8 @@
       <c r="B67">
         <v>750</v>
       </c>
-      <c r="C67" s="28" t="str">
-        <f>IF(ISBLANK(E67),_xlfn.CONCAT("CALL ",D67),_xlfn.CONCAT("CALL ",D67,"(",E67,")"))</f>
-        <v>CALL SETCHARSBLACK</v>
-      </c>
-      <c r="D67" s="28" t="str">
-        <f>A83</f>
-        <v>SETCHARSBLACK</v>
+      <c r="C67" s="11" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3906,13 +3917,8 @@
       <c r="B68">
         <v>760</v>
       </c>
-      <c r="C68" s="28" t="str">
-        <f>IF(ISBLANK(E68),_xlfn.CONCAT("CALL ",D68),_xlfn.CONCAT("CALL ",D68,"(",E68,")"))</f>
-        <v>CALL SETCHARSEDGES</v>
-      </c>
-      <c r="D68" s="28" t="str">
-        <f>A109</f>
-        <v>SETCHARSEDGES</v>
+      <c r="C68" s="11" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3920,16 +3926,8 @@
       <c r="B69">
         <v>770</v>
       </c>
-      <c r="C69" s="28" t="str">
-        <f>IF(ISBLANK(E69),_xlfn.CONCAT("CALL ",D69),_xlfn.CONCAT("CALL ",D69,"(",E69,")"))</f>
-        <v>CALL GETCARDFRONT(CARDFRONT)</v>
-      </c>
-      <c r="D69" s="28" t="str">
-        <f>A403</f>
-        <v>GETCARDFRONT</v>
-      </c>
-      <c r="E69" t="s">
-        <v>828</v>
+      <c r="C69" s="11" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3937,39 +3935,44 @@
       <c r="B70">
         <v>780</v>
       </c>
-      <c r="C70" t="s">
-        <v>829</v>
+      <c r="C70" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
+      <c r="A71" s="28" t="s">
+        <v>662</v>
+      </c>
       <c r="B71">
         <v>790</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>781</v>
+      <c r="C71" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A71,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARS***</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
-        <v>851</v>
-      </c>
+      <c r="A72" s="26"/>
       <c r="B72">
         <v>800</v>
       </c>
       <c r="C72" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A72,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSRED***</v>
+        <f>IF(ISBLANK(E72),_xlfn.CONCAT("SUB ",A71),_xlfn.CONCAT("SUB ",A71,"(",E72,")"))</f>
+        <v>SUB SETCHARS</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="28"/>
+      <c r="A73" s="26"/>
       <c r="B73">
         <v>810</v>
       </c>
-      <c r="C73" s="11" t="str">
-        <f>IF(ISBLANK(E73),_xlfn.CONCAT("SUB ",A72),_xlfn.CONCAT("SUB ",A72,"(",E73,")"))</f>
-        <v>SUB SETCHARSRED</v>
+      <c r="C73" s="28" t="str">
+        <f>IF(ISBLANK(E73),_xlfn.CONCAT("CALL ",D73),_xlfn.CONCAT("CALL ",D73,"(",E73,")"))</f>
+        <v>CALL SETCHARSRED</v>
+      </c>
+      <c r="D73" s="28" t="str">
+        <f>A79</f>
+        <v>SETCHARSRED</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3979,14 +3982,11 @@
       </c>
       <c r="C74" s="28" t="str">
         <f>IF(ISBLANK(E74),_xlfn.CONCAT("CALL ",D74),_xlfn.CONCAT("CALL ",D74,"(",E74,")"))</f>
-        <v>CALL GETHEART(HEART)</v>
+        <v>CALL SETCHARSBLACK</v>
       </c>
       <c r="D74" s="28" t="str">
-        <f>A367</f>
-        <v>GETHEART</v>
-      </c>
-      <c r="E74" t="s">
-        <v>810</v>
+        <f>A90</f>
+        <v>SETCHARSBLACK</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3994,8 +3994,13 @@
       <c r="B75">
         <v>830</v>
       </c>
-      <c r="C75" t="s">
-        <v>811</v>
+      <c r="C75" s="28" t="str">
+        <f>IF(ISBLANK(E75),_xlfn.CONCAT("CALL ",D75),_xlfn.CONCAT("CALL ",D75,"(",E75,")"))</f>
+        <v>CALL SETCHARSEDGES</v>
+      </c>
+      <c r="D75" s="28" t="str">
+        <f>A116</f>
+        <v>SETCHARSEDGES</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4005,14 +4010,14 @@
       </c>
       <c r="C76" s="28" t="str">
         <f>IF(ISBLANK(E76),_xlfn.CONCAT("CALL ",D76),_xlfn.CONCAT("CALL ",D76,"(",E76,")"))</f>
-        <v>CALL GETDIAMOND(DIAMOND)</v>
+        <v>CALL GETCARDFRONT(CARDFRONT)</v>
       </c>
       <c r="D76" s="28" t="str">
-        <f>A371</f>
-        <v>GETDIAMOND</v>
+        <f>A416</f>
+        <v>GETCARDFRONT</v>
       </c>
       <c r="E76" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -4021,7 +4026,7 @@
         <v>850</v>
       </c>
       <c r="C77" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4029,50 +4034,30 @@
       <c r="B78">
         <v>860</v>
       </c>
-      <c r="C78" s="28" t="str">
-        <f>IF(ISBLANK(E78),_xlfn.CONCAT("CALL ",D78),_xlfn.CONCAT("CALL ",D78,"(",E78,")"))</f>
-        <v>CALL GETREDVALS(REDVALS)</v>
-      </c>
-      <c r="D78" s="28" t="str">
-        <f>A375</f>
-        <v>GETREDVALS</v>
-      </c>
-      <c r="E78" t="s">
-        <v>814</v>
+      <c r="C78" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
+      <c r="A79" s="28" t="s">
+        <v>849</v>
+      </c>
       <c r="B79">
         <v>870</v>
       </c>
-      <c r="C79" s="28" t="str">
-        <f>IF(ISBLANK(E79),_xlfn.CONCAT("CALL ",D79),_xlfn.CONCAT("CALL ",D79,"(",E79,")"))</f>
-        <v>CALL SETCHARSVALS((REDVALS))</v>
-      </c>
-      <c r="D79" s="28" t="str">
-        <f>A92</f>
-        <v>SETCHARSVALS</v>
-      </c>
-      <c r="E79" t="s">
-        <v>816</v>
+      <c r="C79" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A79,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSRED***</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
+      <c r="A80" s="28"/>
       <c r="B80">
         <v>880</v>
       </c>
-      <c r="C80" s="28" t="str">
-        <f>IF(ISBLANK(E80),_xlfn.CONCAT("CALL ",D80),_xlfn.CONCAT("CALL ",D80,"(",E80,")"))</f>
-        <v>CALL GETCARDBACK(CARDBACK)</v>
-      </c>
-      <c r="D80" s="28" t="str">
-        <f>A379</f>
-        <v>GETCARDBACK</v>
-      </c>
-      <c r="E80" t="s">
-        <v>817</v>
+      <c r="C80" s="11" t="str">
+        <f>IF(ISBLANK(E80),_xlfn.CONCAT("SUB ",A79),_xlfn.CONCAT("SUB ",A79,"(",E80,")"))</f>
+        <v>SUB SETCHARSRED</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4080,8 +4065,16 @@
       <c r="B81">
         <v>890</v>
       </c>
-      <c r="C81" t="s">
-        <v>818</v>
+      <c r="C81" s="28" t="str">
+        <f>IF(ISBLANK(E81),_xlfn.CONCAT("CALL ",D81),_xlfn.CONCAT("CALL ",D81,"(",E81,")"))</f>
+        <v>CALL GETHEART(HEART)</v>
+      </c>
+      <c r="D81" s="28" t="str">
+        <f>A380</f>
+        <v>GETHEART</v>
+      </c>
+      <c r="E81" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -4089,30 +4082,34 @@
       <c r="B82">
         <v>900</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>781</v>
+      <c r="C82" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="28" t="s">
-        <v>852</v>
-      </c>
+      <c r="A83" s="26"/>
       <c r="B83">
         <v>910</v>
       </c>
-      <c r="C83" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A83,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSBLACK***</v>
+      <c r="C83" s="28" t="str">
+        <f>IF(ISBLANK(E83),_xlfn.CONCAT("CALL ",D83),_xlfn.CONCAT("CALL ",D83,"(",E83,")"))</f>
+        <v>CALL GETDIAMOND(DIAMOND)</v>
+      </c>
+      <c r="D83" s="28" t="str">
+        <f>A384</f>
+        <v>GETDIAMOND</v>
+      </c>
+      <c r="E83" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
+      <c r="A84" s="26"/>
       <c r="B84">
         <v>920</v>
       </c>
-      <c r="C84" s="11" t="str">
-        <f>IF(ISBLANK(E84),_xlfn.CONCAT("SUB ",A83),_xlfn.CONCAT("SUB ",A83,"(",E84,")"))</f>
-        <v>SUB SETCHARSBLACK</v>
+      <c r="C84" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4122,14 +4119,14 @@
       </c>
       <c r="C85" s="28" t="str">
         <f>IF(ISBLANK(E85),_xlfn.CONCAT("CALL ",D85),_xlfn.CONCAT("CALL ",D85,"(",E85,")"))</f>
-        <v>CALL GETSPADE(SPADE)</v>
+        <v>CALL GETREDVALS(REDVALS)</v>
       </c>
       <c r="D85" s="28" t="str">
-        <f>A383</f>
-        <v>GETSPADE</v>
+        <f>A388</f>
+        <v>GETREDVALS</v>
       </c>
       <c r="E85" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4137,8 +4134,16 @@
       <c r="B86">
         <v>940</v>
       </c>
-      <c r="C86" t="s">
-        <v>820</v>
+      <c r="C86" s="28" t="str">
+        <f>IF(ISBLANK(E86),_xlfn.CONCAT("CALL ",D86),_xlfn.CONCAT("CALL ",D86,"(",E86,")"))</f>
+        <v>CALL SETCHARSVALS((REDVALS))</v>
+      </c>
+      <c r="D86" s="28" t="str">
+        <f>A99</f>
+        <v>SETCHARSVALS</v>
+      </c>
+      <c r="E86" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4148,14 +4153,14 @@
       </c>
       <c r="C87" s="28" t="str">
         <f>IF(ISBLANK(E87),_xlfn.CONCAT("CALL ",D87),_xlfn.CONCAT("CALL ",D87,"(",E87,")"))</f>
-        <v>CALL GETCLUB(CLUB)</v>
+        <v>CALL GETCARDBACK(CARDBACK)</v>
       </c>
       <c r="D87" s="28" t="str">
-        <f>A387</f>
-        <v>GETCLUB</v>
+        <f>A392</f>
+        <v>GETCARDBACK</v>
       </c>
       <c r="E87" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4164,7 +4169,7 @@
         <v>960</v>
       </c>
       <c r="C88" t="s">
-        <v>853</v>
+        <v>816</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -4172,54 +4177,47 @@
       <c r="B89">
         <v>970</v>
       </c>
-      <c r="C89" s="28" t="str">
-        <f>IF(ISBLANK(E89),_xlfn.CONCAT("CALL ",D89),_xlfn.CONCAT("CALL ",D89,"(",E89,")"))</f>
-        <v>CALL GETBLACKVALS(BLACKVALS)</v>
-      </c>
-      <c r="D89" s="28" t="str">
-        <f>A391</f>
-        <v>GETBLACKVALS</v>
-      </c>
-      <c r="E89" t="s">
-        <v>822</v>
+      <c r="C89" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="26"/>
+      <c r="A90" s="28" t="s">
+        <v>850</v>
+      </c>
       <c r="B90">
         <v>980</v>
       </c>
-      <c r="C90" s="28" t="str">
-        <f>IF(ISBLANK(E90),_xlfn.CONCAT("CALL ",D90),_xlfn.CONCAT("CALL ",D90,"(",E90,")"))</f>
-        <v>CALL SETCHARSVALS((BLACKVALS))</v>
-      </c>
-      <c r="D90" s="28" t="str">
-        <f>A92</f>
-        <v>SETCHARSVALS</v>
-      </c>
-      <c r="E90" t="s">
-        <v>823</v>
+      <c r="C90" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A90,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSBLACK***</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="26"/>
+      <c r="A91" s="28"/>
       <c r="B91">
         <v>990</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>781</v>
+      <c r="C91" s="11" t="str">
+        <f>IF(ISBLANK(E91),_xlfn.CONCAT("SUB ",A90),_xlfn.CONCAT("SUB ",A90,"(",E91,")"))</f>
+        <v>SUB SETCHARSBLACK</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="28" t="s">
-        <v>664</v>
-      </c>
+      <c r="A92" s="26"/>
       <c r="B92">
         <v>1000</v>
       </c>
-      <c r="C92" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A92,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSVALS***</v>
+      <c r="C92" s="28" t="str">
+        <f>IF(ISBLANK(E92),_xlfn.CONCAT("CALL ",D92),_xlfn.CONCAT("CALL ",D92,"(",E92,")"))</f>
+        <v>CALL GETSPADE(SPADE)</v>
+      </c>
+      <c r="D92" s="28" t="str">
+        <f>A396</f>
+        <v>GETSPADE</v>
+      </c>
+      <c r="E92" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4227,12 +4225,8 @@
       <c r="B93">
         <v>1010</v>
       </c>
-      <c r="C93" s="11" t="str">
-        <f>IF(ISBLANK(E93),_xlfn.CONCAT("SUB ",A92),_xlfn.CONCAT("SUB ",A92,"(",E93,")"))</f>
-        <v>SUB SETCHARSVALS(OFFSET)</v>
-      </c>
-      <c r="E93" t="s">
-        <v>815</v>
+      <c r="C93" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4240,8 +4234,16 @@
       <c r="B94">
         <v>1020</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>663</v>
+      <c r="C94" s="28" t="str">
+        <f>IF(ISBLANK(E94),_xlfn.CONCAT("CALL ",D94),_xlfn.CONCAT("CALL ",D94,"(",E94,")"))</f>
+        <v>CALL GETCLUB(CLUB)</v>
+      </c>
+      <c r="D94" s="28" t="str">
+        <f>A400</f>
+        <v>GETCLUB</v>
+      </c>
+      <c r="E94" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4250,7 +4252,7 @@
         <v>1030</v>
       </c>
       <c r="C95" t="s">
-        <v>665</v>
+        <v>851</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4258,8 +4260,16 @@
       <c r="B96">
         <v>1040</v>
       </c>
-      <c r="C96" t="s">
-        <v>666</v>
+      <c r="C96" s="28" t="str">
+        <f>IF(ISBLANK(E96),_xlfn.CONCAT("CALL ",D96),_xlfn.CONCAT("CALL ",D96,"(",E96,")"))</f>
+        <v>CALL GETBLACKVALS(BLACKVALS)</v>
+      </c>
+      <c r="D96" s="28" t="str">
+        <f>A404</f>
+        <v>GETBLACKVALS</v>
+      </c>
+      <c r="E96" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4267,8 +4277,16 @@
       <c r="B97">
         <v>1050</v>
       </c>
-      <c r="C97" t="s">
-        <v>667</v>
+      <c r="C97" s="28" t="str">
+        <f>IF(ISBLANK(E97),_xlfn.CONCAT("CALL ",D97),_xlfn.CONCAT("CALL ",D97,"(",E97,")"))</f>
+        <v>CALL SETCHARSVALS((BLACKVALS))</v>
+      </c>
+      <c r="D97" s="28" t="str">
+        <f>A99</f>
+        <v>SETCHARSVALS</v>
+      </c>
+      <c r="E97" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4276,17 +4294,20 @@
       <c r="B98">
         <v>1060</v>
       </c>
-      <c r="C98" t="s">
-        <v>668</v>
+      <c r="C98" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
+      <c r="A99" s="28" t="s">
+        <v>664</v>
+      </c>
       <c r="B99">
         <v>1070</v>
       </c>
-      <c r="C99" t="s">
-        <v>669</v>
+      <c r="C99" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A99,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSVALS***</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4294,8 +4315,12 @@
       <c r="B100">
         <v>1080</v>
       </c>
-      <c r="C100" t="s">
-        <v>670</v>
+      <c r="C100" s="11" t="str">
+        <f>IF(ISBLANK(E100),_xlfn.CONCAT("SUB ",A99),_xlfn.CONCAT("SUB ",A99,"(",E100,")"))</f>
+        <v>SUB SETCHARSVALS(OFFSET)</v>
+      </c>
+      <c r="E100" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4303,8 +4328,8 @@
       <c r="B101">
         <v>1090</v>
       </c>
-      <c r="C101" t="s">
-        <v>671</v>
+      <c r="C101" s="11" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4313,7 +4338,7 @@
         <v>1100</v>
       </c>
       <c r="C102" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4322,7 +4347,7 @@
         <v>1110</v>
       </c>
       <c r="C103" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4331,7 +4356,7 @@
         <v>1120</v>
       </c>
       <c r="C104" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -4340,7 +4365,7 @@
         <v>1130</v>
       </c>
       <c r="C105" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4349,7 +4374,7 @@
         <v>1140</v>
       </c>
       <c r="C106" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4358,7 +4383,7 @@
         <v>1150</v>
       </c>
       <c r="C107" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4366,20 +4391,17 @@
       <c r="B108">
         <v>1160</v>
       </c>
-      <c r="C108" s="11" t="s">
-        <v>781</v>
+      <c r="C108" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="28" t="s">
-        <v>678</v>
-      </c>
+      <c r="A109" s="26"/>
       <c r="B109">
         <v>1170</v>
       </c>
-      <c r="C109" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A109,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSEDGES***</v>
+      <c r="C109" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4387,9 +4409,8 @@
       <c r="B110">
         <v>1180</v>
       </c>
-      <c r="C110" s="11" t="str">
-        <f>IF(ISBLANK(E110),_xlfn.CONCAT("SUB ",A109),_xlfn.CONCAT("SUB ",A109,"(",E110,")"))</f>
-        <v>SUB SETCHARSEDGES</v>
+      <c r="C110" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4397,16 +4418,8 @@
       <c r="B111">
         <v>1190</v>
       </c>
-      <c r="C111" s="28" t="str">
-        <f>IF(ISBLANK(E111),_xlfn.CONCAT("CALL ",D111),_xlfn.CONCAT("CALL ",D111,"(",E111,")"))</f>
-        <v>CALL GETCARDEDGE(CARDEDGE)</v>
-      </c>
-      <c r="D111" s="28" t="str">
-        <f>A395</f>
-        <v>GETCARDEDGE</v>
-      </c>
-      <c r="E111" t="s">
-        <v>824</v>
+      <c r="C111" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4415,379 +4428,354 @@
         <v>1200</v>
       </c>
       <c r="C112" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="26"/>
       <c r="B113">
         <v>1210</v>
       </c>
-      <c r="C113" s="28" t="str">
-        <f>IF(ISBLANK(E113),_xlfn.CONCAT("CALL ",D113),_xlfn.CONCAT("CALL ",D113,"(",E113,")"))</f>
-        <v>CALL GETCARDTOP(CARDTOP)</v>
-      </c>
-      <c r="D113" s="28" t="str">
-        <f>A399</f>
-        <v>GETCARDTOP</v>
-      </c>
-      <c r="E113" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="26"/>
       <c r="B114">
         <v>1220</v>
       </c>
       <c r="C114" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="26"/>
       <c r="B115">
         <v>1230</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="28" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B116">
         <v>1240</v>
       </c>
       <c r="C116" s="11" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A116,"***")</f>
-        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>REM SUBROUTINE ***SETCHARSEDGES***</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="26"/>
       <c r="B117">
         <v>1250</v>
       </c>
       <c r="C117" s="11" t="str">
         <f>IF(ISBLANK(E117),_xlfn.CONCAT("SUB ",A116),_xlfn.CONCAT("SUB ",A116,"(",E117,")"))</f>
-        <v>SUB SETCOLORSCHEME</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>SUB SETCHARSEDGES</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="26"/>
       <c r="B118">
         <v>1260</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C118" s="28" t="str">
+        <f>IF(ISBLANK(E118),_xlfn.CONCAT("CALL ",D118),_xlfn.CONCAT("CALL ",D118,"(",E118,")"))</f>
+        <v>CALL GETCARDEDGE(CARDEDGE)</v>
+      </c>
+      <c r="D118" s="28" t="str">
+        <f>A408</f>
+        <v>GETCARDEDGE</v>
+      </c>
+      <c r="E118" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="26"/>
       <c r="B119">
         <v>1270</v>
       </c>
-      <c r="C119" s="11" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="26"/>
       <c r="B120">
         <v>1280</v>
       </c>
-      <c r="C120" s="11" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C120" s="28" t="str">
+        <f>IF(ISBLANK(E120),_xlfn.CONCAT("CALL ",D120),_xlfn.CONCAT("CALL ",D120,"(",E120,")"))</f>
+        <v>CALL GETCARDTOP(CARDTOP)</v>
+      </c>
+      <c r="D120" s="28" t="str">
+        <f>A412</f>
+        <v>GETCARDTOP</v>
+      </c>
+      <c r="E120" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="26"/>
       <c r="B121">
         <v>1290</v>
       </c>
-      <c r="C121" s="11" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="26"/>
       <c r="B122">
         <v>1300</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="26"/>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="28" t="s">
+        <v>681</v>
+      </c>
       <c r="B123">
         <v>1310</v>
       </c>
-      <c r="C123" s="11" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C123" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A123,"***")</f>
+        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="26"/>
       <c r="B124">
         <v>1320</v>
       </c>
-      <c r="C124" s="11" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C124" s="11" t="str">
+        <f>IF(ISBLANK(E124),_xlfn.CONCAT("SUB ",A123),_xlfn.CONCAT("SUB ",A123,"(",E124,")"))</f>
+        <v>SUB SETCOLORSCHEME</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="26"/>
       <c r="B125">
         <v>1330</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="28" t="s">
-        <v>577</v>
-      </c>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="26"/>
       <c r="B126">
         <v>1340</v>
       </c>
-      <c r="C126" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A126,"***")</f>
-        <v>REM SUBROUTINE ***RENDERCARD***</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C126" s="11" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="26"/>
       <c r="B127">
         <v>1350</v>
       </c>
-      <c r="C127" s="11" t="str">
-        <f>IF(ISBLANK(E127),_xlfn.CONCAT("SUB ",A126),_xlfn.CONCAT("SUB ",A126,"(",E127,")"))</f>
-        <v>SUB RENDERCARD(PLAYER,CARD,FACEDOWN,HANDS(,,))</v>
-      </c>
-      <c r="E127" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C127" s="11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="26"/>
       <c r="B128">
         <v>1360</v>
       </c>
-      <c r="C128" s="28" t="str">
-        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN CALL ",D128,"(",F128,") ELSE CALL ",E128,"(",F128,")")</f>
-        <v>IF FACEDOWN=1 THEN CALL GETCARDBACK(FILL) ELSE CALL GETCARDFRONT(FILL)</v>
-      </c>
-      <c r="D128" s="28" t="str">
-        <f>A379</f>
-        <v>GETCARDBACK</v>
-      </c>
-      <c r="E128" s="28" t="str">
-        <f>A403</f>
-        <v>GETCARDFRONT</v>
-      </c>
-      <c r="F128" s="11" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C128" s="11" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="26"/>
       <c r="B129">
         <v>1370</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="26"/>
       <c r="B130">
         <v>1380</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="26"/>
       <c r="B131">
         <v>1390</v>
       </c>
-      <c r="C131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C131" s="11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="26"/>
       <c r="B132">
         <v>1400</v>
       </c>
-      <c r="C132" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="26"/>
+      <c r="C132" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="28" t="s">
+        <v>577</v>
+      </c>
       <c r="B133">
         <v>1410</v>
       </c>
-      <c r="C133" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C133" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A133,"***")</f>
+        <v>REM SUBROUTINE ***RENDERCARD***</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="26"/>
       <c r="B134">
         <v>1420</v>
       </c>
-      <c r="C134" s="28" t="str">
-        <f>IF(ISBLANK(E134),_xlfn.CONCAT("CALL ",D134),_xlfn.CONCAT("CALL ",D134,"(",E134,")"))</f>
-        <v>CALL GETCARDTOP(CARDTOP)</v>
-      </c>
-      <c r="D134" s="28" t="str">
-        <f>A399</f>
-        <v>GETCARDTOP</v>
+      <c r="C134" s="11" t="str">
+        <f>IF(ISBLANK(E134),_xlfn.CONCAT("SUB ",A133),_xlfn.CONCAT("SUB ",A133,"(",E134,")"))</f>
+        <v>SUB RENDERCARD(PLAYER,CARD,FACEDOWN,HANDS(,,))</v>
       </c>
       <c r="E134" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="26"/>
       <c r="B135">
         <v>1430</v>
       </c>
       <c r="C135" s="28" t="str">
-        <f>IF(ISBLANK(E135),_xlfn.CONCAT("CALL ",D135),_xlfn.CONCAT("CALL ",D135,"(",E135,")"))</f>
-        <v>CALL GETCARDEDGE(CARDEDGE)</v>
+        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN CALL ",D135,"(",F135,") ELSE CALL ",E135,"(",F135,")")</f>
+        <v>IF FACEDOWN=1 THEN CALL GETCARDBACK(FILL) ELSE CALL GETCARDFRONT(FILL)</v>
       </c>
       <c r="D135" s="28" t="str">
-        <f>A395</f>
-        <v>GETCARDEDGE</v>
-      </c>
-      <c r="E135" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <f>A392</f>
+        <v>GETCARDBACK</v>
+      </c>
+      <c r="E135" s="28" t="str">
+        <f>A416</f>
+        <v>GETCARDFRONT</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="26"/>
       <c r="B136">
         <v>1440</v>
       </c>
-      <c r="C136" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C136" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="26"/>
       <c r="B137">
         <v>1450</v>
       </c>
-      <c r="C137" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C137" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="26"/>
       <c r="B138">
         <v>1460</v>
       </c>
-      <c r="C138" t="str">
-        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN ",INDEX(B:B,MATCH(D138,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF FACEDOWN=1 THEN 1730 :: REM SUBEND</v>
-      </c>
-      <c r="D138" s="29" t="str">
-        <f>A165</f>
-        <v>RENDERCARD.SUBEND</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="26"/>
       <c r="B139">
         <v>1470</v>
       </c>
       <c r="C139" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="26"/>
       <c r="B140">
         <v>1480</v>
       </c>
-      <c r="C140" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=1 THEN CALL ",D140,"(",E140,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=1 THEN CALL GETHEART(SUIT)</v>
-      </c>
-      <c r="D140" s="28" t="str">
-        <f>A367</f>
-        <v>GETHEART</v>
-      </c>
-      <c r="E140" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="26"/>
       <c r="B141">
         <v>1490</v>
       </c>
       <c r="C141" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=2 THEN CALL ",D141,"(",E141,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=2 THEN CALL GETDIAMOND(SUIT)</v>
+        <f>IF(ISBLANK(E141),_xlfn.CONCAT("CALL ",D141),_xlfn.CONCAT("CALL ",D141,"(",E141,")"))</f>
+        <v>CALL GETCARDTOP(CARDTOP)</v>
       </c>
       <c r="D141" s="28" t="str">
-        <f>A371</f>
-        <v>GETDIAMOND</v>
+        <f>A412</f>
+        <v>GETCARDTOP</v>
       </c>
       <c r="E141" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="26"/>
       <c r="B142">
         <v>1500</v>
       </c>
       <c r="C142" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=3 THEN CALL ",D142,"(",E142,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=3 THEN CALL GETSPADE(SUIT)</v>
+        <f>IF(ISBLANK(E142),_xlfn.CONCAT("CALL ",D142),_xlfn.CONCAT("CALL ",D142,"(",E142,")"))</f>
+        <v>CALL GETCARDEDGE(CARDEDGE)</v>
       </c>
       <c r="D142" s="28" t="str">
-        <f>A383</f>
-        <v>GETSPADE</v>
+        <f>A408</f>
+        <v>GETCARDEDGE</v>
       </c>
       <c r="E142" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="26"/>
       <c r="B143">
         <v>1510</v>
       </c>
-      <c r="C143" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=4 THEN CALL ",D143,"(",E143,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=4 THEN CALL GETCLUB(SUIT)</v>
-      </c>
-      <c r="D143" s="28" t="str">
-        <f>A387</f>
-        <v>GETCLUB</v>
-      </c>
-      <c r="E143" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="26"/>
       <c r="B144">
         <v>1520</v>
       </c>
       <c r="C144" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4795,16 +4783,13 @@
       <c r="B145">
         <v>1530</v>
       </c>
-      <c r="C145" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL ",D145,"(",E145,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL GETREDVALS(CARDCHAR)</v>
-      </c>
-      <c r="D145" s="28" t="str">
-        <f>A375</f>
-        <v>GETREDVALS</v>
-      </c>
-      <c r="E145" t="s">
-        <v>838</v>
+      <c r="C145" t="str">
+        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN ",INDEX(B:B,MATCH(D145,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF FACEDOWN=1 THEN 1800 :: REM SUBEND</v>
+      </c>
+      <c r="D145" s="29" t="str">
+        <f>A172</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -4812,16 +4797,8 @@
       <c r="B146">
         <v>1540</v>
       </c>
-      <c r="C146" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL ",D146,"(",E146,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL GETBLACKVALS(CARDCHAR)</v>
-      </c>
-      <c r="D146" s="28" t="str">
-        <f>A391</f>
-        <v>GETBLACKVALS</v>
-      </c>
-      <c r="E146" t="s">
-        <v>838</v>
+      <c r="C146" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -4829,8 +4806,16 @@
       <c r="B147">
         <v>1550</v>
       </c>
-      <c r="C147" t="s">
-        <v>704</v>
+      <c r="C147" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=1 THEN CALL ",D147,"(",E147,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=1 THEN CALL GETHEART(SUIT)</v>
+      </c>
+      <c r="D147" s="28" t="str">
+        <f>A380</f>
+        <v>GETHEART</v>
+      </c>
+      <c r="E147" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -4838,8 +4823,16 @@
       <c r="B148">
         <v>1560</v>
       </c>
-      <c r="C148" t="s">
-        <v>692</v>
+      <c r="C148" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=2 THEN CALL ",D148,"(",E148,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=2 THEN CALL GETDIAMOND(SUIT)</v>
+      </c>
+      <c r="D148" s="28" t="str">
+        <f>A384</f>
+        <v>GETDIAMOND</v>
+      </c>
+      <c r="E148" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -4847,8 +4840,16 @@
       <c r="B149">
         <v>1570</v>
       </c>
-      <c r="C149" t="s">
-        <v>690</v>
+      <c r="C149" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=3 THEN CALL ",D149,"(",E149,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=3 THEN CALL GETSPADE(SUIT)</v>
+      </c>
+      <c r="D149" s="28" t="str">
+        <f>A396</f>
+        <v>GETSPADE</v>
+      </c>
+      <c r="E149" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4856,8 +4857,16 @@
       <c r="B150">
         <v>1580</v>
       </c>
-      <c r="C150" t="s">
-        <v>691</v>
+      <c r="C150" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=4 THEN CALL ",D150,"(",E150,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=4 THEN CALL GETCLUB(SUIT)</v>
+      </c>
+      <c r="D150" s="28" t="str">
+        <f>A400</f>
+        <v>GETCLUB</v>
+      </c>
+      <c r="E150" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4866,7 +4875,7 @@
         <v>1590</v>
       </c>
       <c r="C151" t="s">
-        <v>751</v>
+        <v>687</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -4875,19 +4884,15 @@
         <v>1600</v>
       </c>
       <c r="C152" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=2 THEN CALL ",D152,"(",E152,") :: GOTO ",INDEX(B:B,MATCH(F152,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=2 THEN CALL RENDER2(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL ",D152,"(",E152,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL GETREDVALS(CARDCHAR)</v>
       </c>
       <c r="D152" s="28" t="str">
-        <f>A166</f>
-        <v>RENDER2</v>
+        <f>A388</f>
+        <v>GETREDVALS</v>
       </c>
       <c r="E152" t="s">
-        <v>788</v>
-      </c>
-      <c r="F152" t="str">
-        <f>A165</f>
-        <v>RENDERCARD.SUBEND</v>
+        <v>836</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -4896,19 +4901,15 @@
         <v>1610</v>
       </c>
       <c r="C153" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=3 THEN CALL ",D153,"(",E153,") :: GOTO ",INDEX(B:B,MATCH(F153,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=3 THEN CALL RENDER3(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL ",D153,"(",E153,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL GETBLACKVALS(CARDCHAR)</v>
       </c>
       <c r="D153" s="28" t="str">
-        <f>A171</f>
-        <v>RENDER3</v>
+        <f>A404</f>
+        <v>GETBLACKVALS</v>
       </c>
       <c r="E153" t="s">
-        <v>788</v>
-      </c>
-      <c r="F153" t="str">
-        <f>A165</f>
-        <v>RENDERCARD.SUBEND</v>
+        <v>836</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4916,20 +4917,8 @@
       <c r="B154">
         <v>1620</v>
       </c>
-      <c r="C154" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=4 THEN CALL ",D154,"(",E154,") :: GOTO ",INDEX(B:B,MATCH(F154,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=4 THEN CALL RENDER4(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
-      </c>
-      <c r="D154" s="28" t="str">
-        <f>A175</f>
-        <v>RENDER4</v>
-      </c>
-      <c r="E154" t="s">
-        <v>788</v>
-      </c>
-      <c r="F154" t="str">
-        <f>A165</f>
-        <v>RENDERCARD.SUBEND</v>
+      <c r="C154" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4937,20 +4926,8 @@
       <c r="B155">
         <v>1630</v>
       </c>
-      <c r="C155" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=5 THEN CALL ",D155,"(",E155,") :: GOTO ",INDEX(B:B,MATCH(F155,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=5 THEN CALL RENDER5(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
-      </c>
-      <c r="D155" s="28" t="str">
-        <f>A182</f>
-        <v>RENDER5</v>
-      </c>
-      <c r="E155" t="s">
-        <v>788</v>
-      </c>
-      <c r="F155" t="str">
-        <f>A165</f>
-        <v>RENDERCARD.SUBEND</v>
+      <c r="C155" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4958,20 +4935,8 @@
       <c r="B156">
         <v>1640</v>
       </c>
-      <c r="C156" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=6 THEN CALL ",D156,"(",E156,") :: GOTO ",INDEX(B:B,MATCH(F156,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=6 THEN CALL RENDER6(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
-      </c>
-      <c r="D156" s="28" t="str">
-        <f>A187</f>
-        <v>RENDER6</v>
-      </c>
-      <c r="E156" t="s">
-        <v>788</v>
-      </c>
-      <c r="F156" t="str">
-        <f>A165</f>
-        <v>RENDERCARD.SUBEND</v>
+      <c r="C156" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4979,20 +4944,8 @@
       <c r="B157">
         <v>1650</v>
       </c>
-      <c r="C157" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=7 THEN CALL ",D157,"(",E157,") :: GOTO ",INDEX(B:B,MATCH(F157,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=7 THEN CALL RENDER7(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
-      </c>
-      <c r="D157" s="28" t="str">
-        <f>A192</f>
-        <v>RENDER7</v>
-      </c>
-      <c r="E157" t="s">
-        <v>788</v>
-      </c>
-      <c r="F157" t="str">
-        <f>A165</f>
-        <v>RENDERCARD.SUBEND</v>
+      <c r="C157" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -5000,20 +4953,8 @@
       <c r="B158">
         <v>1660</v>
       </c>
-      <c r="C158" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=8 THEN CALL ",D158,"(",E158,") :: GOTO ",INDEX(B:B,MATCH(F158,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=8 THEN CALL RENDER8(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
-      </c>
-      <c r="D158" s="28" t="str">
-        <f>A197</f>
-        <v>RENDER8</v>
-      </c>
-      <c r="E158" t="s">
-        <v>788</v>
-      </c>
-      <c r="F158" t="str">
-        <f>A165</f>
-        <v>RENDERCARD.SUBEND</v>
+      <c r="C158" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -5022,18 +4963,18 @@
         <v>1670</v>
       </c>
       <c r="C159" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=9 THEN CALL ",D159,"(",E159,") :: GOTO ",INDEX(B:B,MATCH(F159,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=9 THEN CALL RENDER9(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=2 THEN CALL ",D159,"(",E159,") :: GOTO ",INDEX(B:B,MATCH(F159,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=2 THEN CALL RENDER2(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
       </c>
       <c r="D159" s="28" t="str">
-        <f>A208</f>
-        <v>RENDER9</v>
+        <f>A173</f>
+        <v>RENDER2</v>
       </c>
       <c r="E159" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F159" t="str">
-        <f>A165</f>
+        <f>A172</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5043,18 +4984,18 @@
         <v>1680</v>
       </c>
       <c r="C160" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=10 THEN CALL ",D160,"(",E160,") :: GOTO ",INDEX(B:B,MATCH(F160,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=10 THEN CALL RENDER10(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=3 THEN CALL ",D160,"(",E160,") :: GOTO ",INDEX(B:B,MATCH(F160,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=3 THEN CALL RENDER3(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
       </c>
       <c r="D160" s="28" t="str">
-        <f>A216</f>
-        <v>RENDER10</v>
+        <f>A178</f>
+        <v>RENDER3</v>
       </c>
       <c r="E160" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F160" t="str">
-        <f>A165</f>
+        <f>A172</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5064,18 +5005,18 @@
         <v>1690</v>
       </c>
       <c r="C161" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=11 THEN CALL ",D161,"(",E161,") :: GOTO ",INDEX(B:B,MATCH(F161,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=11 THEN CALL RENDERJACK(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=4 THEN CALL ",D161,"(",E161,") :: GOTO ",INDEX(B:B,MATCH(F161,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=4 THEN CALL RENDER4(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
       </c>
       <c r="D161" s="28" t="str">
-        <f>A221</f>
-        <v>RENDERJACK</v>
+        <f>A182</f>
+        <v>RENDER4</v>
       </c>
       <c r="E161" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F161" t="str">
-        <f>A165</f>
+        <f>A172</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5085,18 +5026,18 @@
         <v>1700</v>
       </c>
       <c r="C162" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=12 THEN CALL ",D162,"(",E162,") :: GOTO ",INDEX(B:B,MATCH(F162,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=12 THEN CALL RENDERQUEEN(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=5 THEN CALL ",D162,"(",E162,") :: GOTO ",INDEX(B:B,MATCH(F162,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=5 THEN CALL RENDER5(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
       </c>
       <c r="D162" s="28" t="str">
-        <f>A227</f>
-        <v>RENDERQUEEN</v>
+        <f>A189</f>
+        <v>RENDER5</v>
       </c>
       <c r="E162" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F162" t="str">
-        <f>A165</f>
+        <f>A172</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5106,18 +5047,18 @@
         <v>1710</v>
       </c>
       <c r="C163" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=13 THEN CALL ",D163,"(",E163,") :: GOTO ",INDEX(B:B,MATCH(F163,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=13 THEN CALL RENDERKING(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=6 THEN CALL ",D163,"(",E163,") :: GOTO ",INDEX(B:B,MATCH(F163,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=6 THEN CALL RENDER6(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
       </c>
       <c r="D163" s="28" t="str">
-        <f>A234</f>
-        <v>RENDERKING</v>
+        <f>A194</f>
+        <v>RENDER6</v>
       </c>
       <c r="E163" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F163" t="str">
-        <f>A165</f>
+        <f>A172</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5127,43 +5068,61 @@
         <v>1720</v>
       </c>
       <c r="C164" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=14 THEN CALL ",D164,"(",E164,") :: GOTO ",INDEX(B:B,MATCH(F164,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=14 THEN CALL RENDERACE(ROW,COL,SUIT) :: GOTO 1730 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=7 THEN CALL ",D164,"(",E164,") :: GOTO ",INDEX(B:B,MATCH(F164,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=7 THEN CALL RENDER7(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
       </c>
       <c r="D164" s="28" t="str">
-        <f>A241</f>
-        <v>RENDERACE</v>
+        <f>A199</f>
+        <v>RENDER7</v>
       </c>
       <c r="E164" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F164" t="str">
-        <f>A165</f>
+        <f>A172</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="29" t="str">
-        <f>_xlfn.CONCAT(A126,".SUBEND")</f>
-        <v>RENDERCARD.SUBEND</v>
-      </c>
+      <c r="A165" s="26"/>
       <c r="B165">
         <v>1730</v>
       </c>
-      <c r="C165" s="11" t="s">
-        <v>781</v>
+      <c r="C165" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=8 THEN CALL ",D165,"(",E165,") :: GOTO ",INDEX(B:B,MATCH(F165,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=8 THEN CALL RENDER8(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+      </c>
+      <c r="D165" s="28" t="str">
+        <f>A204</f>
+        <v>RENDER8</v>
+      </c>
+      <c r="E165" t="s">
+        <v>786</v>
+      </c>
+      <c r="F165" t="str">
+        <f>A172</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="28" t="s">
-        <v>689</v>
-      </c>
+      <c r="A166" s="26"/>
       <c r="B166">
         <v>1740</v>
       </c>
-      <c r="C166" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A166,"***")</f>
-        <v>REM SUBROUTINE ***RENDER2***</v>
+      <c r="C166" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=9 THEN CALL ",D166,"(",E166,") :: GOTO ",INDEX(B:B,MATCH(F166,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=9 THEN CALL RENDER9(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+      </c>
+      <c r="D166" s="28" t="str">
+        <f>A215</f>
+        <v>RENDER9</v>
+      </c>
+      <c r="E166" t="s">
+        <v>786</v>
+      </c>
+      <c r="F166" t="str">
+        <f>A172</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -5171,12 +5130,20 @@
       <c r="B167">
         <v>1750</v>
       </c>
-      <c r="C167" s="11" t="str">
-        <f>IF(ISBLANK(E167),_xlfn.CONCAT("SUB ",A166),_xlfn.CONCAT("SUB ",A166,"(",E167,")"))</f>
-        <v>SUB RENDER2(ROW,COL,SUIT)</v>
+      <c r="C167" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=10 THEN CALL ",D167,"(",E167,") :: GOTO ",INDEX(B:B,MATCH(F167,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=10 THEN CALL RENDER10(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+      </c>
+      <c r="D167" s="28" t="str">
+        <f>A223</f>
+        <v>RENDER10</v>
       </c>
       <c r="E167" t="s">
-        <v>788</v>
+        <v>786</v>
+      </c>
+      <c r="F167" t="str">
+        <f>A172</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5184,8 +5151,20 @@
       <c r="B168">
         <v>1760</v>
       </c>
-      <c r="C168" t="s">
-        <v>163</v>
+      <c r="C168" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=11 THEN CALL ",D168,"(",E168,") :: GOTO ",INDEX(B:B,MATCH(F168,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=11 THEN CALL RENDERJACK(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+      </c>
+      <c r="D168" s="28" t="str">
+        <f>A228</f>
+        <v>RENDERJACK</v>
+      </c>
+      <c r="E168" t="s">
+        <v>786</v>
+      </c>
+      <c r="F168" t="str">
+        <f>A172</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -5193,8 +5172,20 @@
       <c r="B169">
         <v>1770</v>
       </c>
-      <c r="C169" t="s">
-        <v>165</v>
+      <c r="C169" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=12 THEN CALL ",D169,"(",E169,") :: GOTO ",INDEX(B:B,MATCH(F169,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=12 THEN CALL RENDERQUEEN(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+      </c>
+      <c r="D169" s="28" t="str">
+        <f>A234</f>
+        <v>RENDERQUEEN</v>
+      </c>
+      <c r="E169" t="s">
+        <v>786</v>
+      </c>
+      <c r="F169" t="str">
+        <f>A172</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -5202,42 +5193,65 @@
       <c r="B170">
         <v>1780</v>
       </c>
-      <c r="C170" s="11" t="s">
-        <v>781</v>
+      <c r="C170" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=13 THEN CALL ",D170,"(",E170,") :: GOTO ",INDEX(B:B,MATCH(F170,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=13 THEN CALL RENDERKING(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+      </c>
+      <c r="D170" s="28" t="str">
+        <f>A241</f>
+        <v>RENDERKING</v>
+      </c>
+      <c r="E170" t="s">
+        <v>786</v>
+      </c>
+      <c r="F170" t="str">
+        <f>A172</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="28" t="s">
-        <v>578</v>
-      </c>
+      <c r="A171" s="26"/>
       <c r="B171">
         <v>1790</v>
       </c>
-      <c r="C171" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A171,"***")</f>
-        <v>REM SUBROUTINE ***RENDER3***</v>
+      <c r="C171" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=14 THEN CALL ",D171,"(",E171,") :: GOTO ",INDEX(B:B,MATCH(F171,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=14 THEN CALL RENDERACE(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+      </c>
+      <c r="D171" s="28" t="str">
+        <f>A248</f>
+        <v>RENDERACE</v>
+      </c>
+      <c r="E171" t="s">
+        <v>786</v>
+      </c>
+      <c r="F171" t="str">
+        <f>A172</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="26"/>
+      <c r="A172" s="29" t="str">
+        <f>_xlfn.CONCAT(A133,".SUBEND")</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
       <c r="B172">
         <v>1800</v>
       </c>
-      <c r="C172" s="11" t="str">
-        <f>IF(ISBLANK(E172),_xlfn.CONCAT("SUB ",A171),_xlfn.CONCAT("SUB ",A171,"(",E172,")"))</f>
-        <v>SUB RENDER3(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E172" t="s">
-        <v>788</v>
+      <c r="C172" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="26"/>
+      <c r="A173" s="28" t="s">
+        <v>689</v>
+      </c>
       <c r="B173">
         <v>1810</v>
       </c>
-      <c r="C173" t="s">
-        <v>173</v>
+      <c r="C173" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A173,"***")</f>
+        <v>REM SUBROUTINE ***RENDER2***</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -5245,20 +5259,21 @@
       <c r="B174">
         <v>1820</v>
       </c>
-      <c r="C174" s="11" t="s">
-        <v>781</v>
+      <c r="C174" s="11" t="str">
+        <f>IF(ISBLANK(E174),_xlfn.CONCAT("SUB ",A173),_xlfn.CONCAT("SUB ",A173,"(",E174,")"))</f>
+        <v>SUB RENDER2(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E174" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="28" t="s">
-        <v>579</v>
-      </c>
+      <c r="A175" s="26"/>
       <c r="B175">
         <v>1830</v>
       </c>
-      <c r="C175" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A175,"***")</f>
-        <v>REM SUBROUTINE ***RENDER4***</v>
+      <c r="C175" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -5266,12 +5281,8 @@
       <c r="B176">
         <v>1840</v>
       </c>
-      <c r="C176" s="11" t="str">
-        <f>IF(ISBLANK(E176),_xlfn.CONCAT("SUB ",A175),_xlfn.CONCAT("SUB ",A175,"(",E176,")"))</f>
-        <v>SUB RENDER4(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E176" t="s">
-        <v>788</v>
+      <c r="C176" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -5279,17 +5290,20 @@
       <c r="B177">
         <v>1850</v>
       </c>
-      <c r="C177" t="s">
-        <v>180</v>
+      <c r="C177" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="26"/>
+      <c r="A178" s="28" t="s">
+        <v>578</v>
+      </c>
       <c r="B178">
         <v>1860</v>
       </c>
-      <c r="C178" t="s">
-        <v>182</v>
+      <c r="C178" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A178,"***")</f>
+        <v>REM SUBROUTINE ***RENDER3***</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -5297,8 +5311,12 @@
       <c r="B179">
         <v>1870</v>
       </c>
-      <c r="C179" t="s">
-        <v>184</v>
+      <c r="C179" s="11" t="str">
+        <f>IF(ISBLANK(E179),_xlfn.CONCAT("SUB ",A178),_xlfn.CONCAT("SUB ",A178,"(",E179,")"))</f>
+        <v>SUB RENDER3(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E179" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -5307,7 +5325,7 @@
         <v>1880</v>
       </c>
       <c r="C180" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -5316,19 +5334,19 @@
         <v>1890</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B182">
         <v>1900</v>
       </c>
       <c r="C182" s="11" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A182,"***")</f>
-        <v>REM SUBROUTINE ***RENDER5***</v>
+        <v>REM SUBROUTINE ***RENDER4***</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -5338,10 +5356,10 @@
       </c>
       <c r="C183" s="11" t="str">
         <f>IF(ISBLANK(E183),_xlfn.CONCAT("SUB ",A182),_xlfn.CONCAT("SUB ",A182,"(",E183,")"))</f>
-        <v>SUB RENDER5(ROW,COL,SUIT)</v>
+        <v>SUB RENDER4(ROW,COL,SUIT)</v>
       </c>
       <c r="E183" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -5349,16 +5367,8 @@
       <c r="B184">
         <v>1920</v>
       </c>
-      <c r="C184" s="28" t="str">
-        <f>IF(ISBLANK(E184),_xlfn.CONCAT("CALL ",D184),_xlfn.CONCAT("CALL ",D184,"(",E184,")"))</f>
-        <v>CALL RENDER4((ROW),(COL),(SUIT))</v>
-      </c>
-      <c r="D184" s="28" t="str">
-        <f>A175</f>
-        <v>RENDER4</v>
-      </c>
-      <c r="E184" t="s">
-        <v>843</v>
+      <c r="C184" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -5367,7 +5377,7 @@
         <v>1930</v>
       </c>
       <c r="C185" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -5375,20 +5385,17 @@
       <c r="B186">
         <v>1940</v>
       </c>
-      <c r="C186" s="11" t="s">
-        <v>781</v>
+      <c r="C186" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="28" t="s">
-        <v>581</v>
-      </c>
+      <c r="A187" s="26"/>
       <c r="B187">
         <v>1950</v>
       </c>
-      <c r="C187" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A187,"***")</f>
-        <v>REM SUBROUTINE ***RENDER6***</v>
+      <c r="C187" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -5396,21 +5403,20 @@
       <c r="B188">
         <v>1960</v>
       </c>
-      <c r="C188" s="11" t="str">
-        <f>IF(ISBLANK(E188),_xlfn.CONCAT("SUB ",A187),_xlfn.CONCAT("SUB ",A187,"(",E188,")"))</f>
-        <v>SUB RENDER6(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E188" t="s">
-        <v>788</v>
+      <c r="C188" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="26"/>
+      <c r="A189" s="28" t="s">
+        <v>580</v>
+      </c>
       <c r="B189">
         <v>1970</v>
       </c>
-      <c r="C189" t="s">
-        <v>199</v>
+      <c r="C189" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A189,"***")</f>
+        <v>REM SUBROUTINE ***RENDER5***</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -5418,8 +5424,12 @@
       <c r="B190">
         <v>1980</v>
       </c>
-      <c r="C190" t="s">
-        <v>201</v>
+      <c r="C190" s="11" t="str">
+        <f>IF(ISBLANK(E190),_xlfn.CONCAT("SUB ",A189),_xlfn.CONCAT("SUB ",A189,"(",E190,")"))</f>
+        <v>SUB RENDER5(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E190" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -5427,20 +5437,25 @@
       <c r="B191">
         <v>1990</v>
       </c>
-      <c r="C191" s="11" t="s">
-        <v>781</v>
+      <c r="C191" s="28" t="str">
+        <f>IF(ISBLANK(E191),_xlfn.CONCAT("CALL ",D191),_xlfn.CONCAT("CALL ",D191,"(",E191,")"))</f>
+        <v>CALL RENDER4((ROW),(COL),(SUIT))</v>
+      </c>
+      <c r="D191" s="28" t="str">
+        <f>A182</f>
+        <v>RENDER4</v>
+      </c>
+      <c r="E191" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="28" t="s">
-        <v>582</v>
-      </c>
+      <c r="A192" s="26"/>
       <c r="B192">
         <v>2000</v>
       </c>
-      <c r="C192" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A192,"***")</f>
-        <v>REM SUBROUTINE ***RENDER7***</v>
+      <c r="C192" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -5448,29 +5463,20 @@
       <c r="B193">
         <v>2010</v>
       </c>
-      <c r="C193" s="11" t="str">
-        <f>IF(ISBLANK(E193),_xlfn.CONCAT("SUB ",A192),_xlfn.CONCAT("SUB ",A192,"(",E193,")"))</f>
-        <v>SUB RENDER7(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E193" t="s">
-        <v>788</v>
+      <c r="C193" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="26"/>
+      <c r="A194" s="28" t="s">
+        <v>581</v>
+      </c>
       <c r="B194">
         <v>2020</v>
       </c>
-      <c r="C194" s="28" t="str">
-        <f>IF(ISBLANK(E194),_xlfn.CONCAT("CALL ",D194),_xlfn.CONCAT("CALL ",D194,"(",E194,")"))</f>
-        <v>CALL RENDER6((ROW),(COL),(SUIT))</v>
-      </c>
-      <c r="D194" s="28" t="str">
-        <f>A187</f>
-        <v>RENDER6</v>
-      </c>
-      <c r="E194" t="s">
-        <v>843</v>
+      <c r="C194" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A194,"***")</f>
+        <v>REM SUBROUTINE ***RENDER6***</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -5478,8 +5484,12 @@
       <c r="B195">
         <v>2030</v>
       </c>
-      <c r="C195" t="s">
-        <v>207</v>
+      <c r="C195" s="11" t="str">
+        <f>IF(ISBLANK(E195),_xlfn.CONCAT("SUB ",A194),_xlfn.CONCAT("SUB ",A194,"(",E195,")"))</f>
+        <v>SUB RENDER6(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E195" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -5487,20 +5497,17 @@
       <c r="B196">
         <v>2040</v>
       </c>
-      <c r="C196" s="11" t="s">
-        <v>781</v>
+      <c r="C196" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="28" t="s">
-        <v>583</v>
-      </c>
+      <c r="A197" s="26"/>
       <c r="B197">
         <v>2050</v>
       </c>
-      <c r="C197" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A197,"***")</f>
-        <v>REM SUBROUTINE ***RENDER8***</v>
+      <c r="C197" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -5508,21 +5515,20 @@
       <c r="B198">
         <v>2060</v>
       </c>
-      <c r="C198" s="11" t="str">
-        <f>IF(ISBLANK(E198),_xlfn.CONCAT("SUB ",A197),_xlfn.CONCAT("SUB ",A197,"(",E198,")"))</f>
-        <v>SUB RENDER8(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E198" t="s">
-        <v>788</v>
+      <c r="C198" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="26"/>
+      <c r="A199" s="28" t="s">
+        <v>582</v>
+      </c>
       <c r="B199">
         <v>2070</v>
       </c>
-      <c r="C199" t="s">
-        <v>214</v>
+      <c r="C199" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A199,"***")</f>
+        <v>REM SUBROUTINE ***RENDER7***</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -5530,8 +5536,12 @@
       <c r="B200">
         <v>2080</v>
       </c>
-      <c r="C200" t="s">
-        <v>216</v>
+      <c r="C200" s="11" t="str">
+        <f>IF(ISBLANK(E200),_xlfn.CONCAT("SUB ",A199),_xlfn.CONCAT("SUB ",A199,"(",E200,")"))</f>
+        <v>SUB RENDER7(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E200" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -5539,8 +5549,16 @@
       <c r="B201">
         <v>2090</v>
       </c>
-      <c r="C201" t="s">
-        <v>163</v>
+      <c r="C201" s="28" t="str">
+        <f>IF(ISBLANK(E201),_xlfn.CONCAT("CALL ",D201),_xlfn.CONCAT("CALL ",D201,"(",E201,")"))</f>
+        <v>CALL RENDER6((ROW),(COL),(SUIT))</v>
+      </c>
+      <c r="D201" s="28" t="str">
+        <f>A194</f>
+        <v>RENDER6</v>
+      </c>
+      <c r="E201" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -5549,7 +5567,7 @@
         <v>2100</v>
       </c>
       <c r="C202" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -5557,17 +5575,20 @@
       <c r="B203">
         <v>2110</v>
       </c>
-      <c r="C203" t="s">
-        <v>221</v>
+      <c r="C203" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="26"/>
+      <c r="A204" s="28" t="s">
+        <v>583</v>
+      </c>
       <c r="B204">
         <v>2120</v>
       </c>
-      <c r="C204" t="s">
-        <v>165</v>
+      <c r="C204" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A204,"***")</f>
+        <v>REM SUBROUTINE ***RENDER8***</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -5575,8 +5596,12 @@
       <c r="B205">
         <v>2130</v>
       </c>
-      <c r="C205" t="s">
-        <v>224</v>
+      <c r="C205" s="11" t="str">
+        <f>IF(ISBLANK(E205),_xlfn.CONCAT("SUB ",A204),_xlfn.CONCAT("SUB ",A204,"(",E205,")"))</f>
+        <v>SUB RENDER8(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E205" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -5585,7 +5610,7 @@
         <v>2140</v>
       </c>
       <c r="C206" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -5593,20 +5618,17 @@
       <c r="B207">
         <v>2150</v>
       </c>
-      <c r="C207" s="11" t="s">
-        <v>781</v>
+      <c r="C207" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="28" t="s">
-        <v>584</v>
-      </c>
+      <c r="A208" s="26"/>
       <c r="B208">
         <v>2160</v>
       </c>
-      <c r="C208" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A208,"***")</f>
-        <v>REM SUBROUTINE ***RENDER9***</v>
+      <c r="C208" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -5614,12 +5636,8 @@
       <c r="B209">
         <v>2170</v>
       </c>
-      <c r="C209" s="11" t="str">
-        <f>IF(ISBLANK(E209),_xlfn.CONCAT("SUB ",A208),_xlfn.CONCAT("SUB ",A208,"(",E209,")"))</f>
-        <v>SUB RENDER9(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E209" t="s">
-        <v>788</v>
+      <c r="C209" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -5628,7 +5646,7 @@
         <v>2180</v>
       </c>
       <c r="C210" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -5637,7 +5655,7 @@
         <v>2190</v>
       </c>
       <c r="C211" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -5646,7 +5664,7 @@
         <v>2200</v>
       </c>
       <c r="C212" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -5655,7 +5673,7 @@
         <v>2210</v>
       </c>
       <c r="C213" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -5663,29 +5681,33 @@
       <c r="B214">
         <v>2220</v>
       </c>
-      <c r="C214" t="s">
-        <v>192</v>
+      <c r="C214" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="26"/>
+      <c r="A215" s="28" t="s">
+        <v>584</v>
+      </c>
       <c r="B215">
         <v>2230</v>
       </c>
-      <c r="C215" s="11" t="s">
-        <v>781</v>
+      <c r="C215" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A215,"***")</f>
+        <v>REM SUBROUTINE ***RENDER9***</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="28" t="s">
-        <v>585</v>
-      </c>
+      <c r="A216" s="26"/>
       <c r="B216">
         <v>2240</v>
       </c>
       <c r="C216" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A216,"***")</f>
-        <v>REM SUBROUTINE ***RENDER10***</v>
+        <f>IF(ISBLANK(E216),_xlfn.CONCAT("SUB ",A215),_xlfn.CONCAT("SUB ",A215,"(",E216,")"))</f>
+        <v>SUB RENDER9(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E216" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -5693,12 +5715,8 @@
       <c r="B217">
         <v>2250</v>
       </c>
-      <c r="C217" s="11" t="str">
-        <f>IF(ISBLANK(E217),_xlfn.CONCAT("SUB ",A216),_xlfn.CONCAT("SUB ",A216,"(",E217,")"))</f>
-        <v>SUB RENDER10(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E217" t="s">
-        <v>788</v>
+      <c r="C217" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -5707,7 +5725,7 @@
         <v>2260</v>
       </c>
       <c r="C218" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -5716,7 +5734,7 @@
         <v>2270</v>
       </c>
       <c r="C219" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -5724,20 +5742,17 @@
       <c r="B220">
         <v>2280</v>
       </c>
-      <c r="C220" s="11" t="s">
-        <v>781</v>
+      <c r="C220" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="28" t="s">
-        <v>586</v>
-      </c>
+      <c r="A221" s="26"/>
       <c r="B221">
         <v>2290</v>
       </c>
-      <c r="C221" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A221,"***")</f>
-        <v>REM SUBROUTINE ***RENDERJACK***</v>
+      <c r="C221" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -5745,21 +5760,20 @@
       <c r="B222">
         <v>2300</v>
       </c>
-      <c r="C222" s="11" t="str">
-        <f>IF(ISBLANK(E222),_xlfn.CONCAT("SUB ",A221),_xlfn.CONCAT("SUB ",A221,"(",E222,")"))</f>
-        <v>SUB RENDERJACK(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E222" t="s">
-        <v>788</v>
+      <c r="C222" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="26"/>
+      <c r="A223" s="28" t="s">
+        <v>585</v>
+      </c>
       <c r="B223">
         <v>2310</v>
       </c>
-      <c r="C223" t="s">
-        <v>249</v>
+      <c r="C223" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A223,"***")</f>
+        <v>REM SUBROUTINE ***RENDER10***</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -5767,8 +5781,12 @@
       <c r="B224">
         <v>2320</v>
       </c>
-      <c r="C224" t="s">
-        <v>257</v>
+      <c r="C224" s="11" t="str">
+        <f>IF(ISBLANK(E224),_xlfn.CONCAT("SUB ",A223),_xlfn.CONCAT("SUB ",A223,"(",E224,")"))</f>
+        <v>SUB RENDER10(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E224" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -5777,7 +5795,7 @@
         <v>2330</v>
       </c>
       <c r="C225" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -5785,33 +5803,29 @@
       <c r="B226">
         <v>2340</v>
       </c>
-      <c r="C226" s="11" t="s">
-        <v>781</v>
+      <c r="C226" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="28" t="s">
-        <v>587</v>
-      </c>
+      <c r="A227" s="26"/>
       <c r="B227">
         <v>2350</v>
       </c>
-      <c r="C227" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A227,"***")</f>
-        <v>REM SUBROUTINE ***RENDERQUEEN***</v>
+      <c r="C227" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="26"/>
+      <c r="A228" s="28" t="s">
+        <v>586</v>
+      </c>
       <c r="B228">
         <v>2360</v>
       </c>
       <c r="C228" s="11" t="str">
-        <f>IF(ISBLANK(E228),_xlfn.CONCAT("SUB ",A227),_xlfn.CONCAT("SUB ",A227,"(",E228,")"))</f>
-        <v>SUB RENDERQUEEN(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E228" t="s">
-        <v>788</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A228,"***")</f>
+        <v>REM SUBROUTINE ***RENDERJACK***</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -5819,8 +5833,12 @@
       <c r="B229">
         <v>2370</v>
       </c>
-      <c r="C229" t="s">
-        <v>247</v>
+      <c r="C229" s="11" t="str">
+        <f>IF(ISBLANK(E229),_xlfn.CONCAT("SUB ",A228),_xlfn.CONCAT("SUB ",A228,"(",E229,")"))</f>
+        <v>SUB RENDERJACK(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E229" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -5838,7 +5856,7 @@
         <v>2390</v>
       </c>
       <c r="C231" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -5847,7 +5865,7 @@
         <v>2400</v>
       </c>
       <c r="C232" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -5856,19 +5874,19 @@
         <v>2410</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B234">
         <v>2420</v>
       </c>
       <c r="C234" s="11" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A234,"***")</f>
-        <v>REM SUBROUTINE ***RENDERKING***</v>
+        <v>REM SUBROUTINE ***RENDERQUEEN***</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -5878,10 +5896,10 @@
       </c>
       <c r="C235" s="11" t="str">
         <f>IF(ISBLANK(E235),_xlfn.CONCAT("SUB ",A234),_xlfn.CONCAT("SUB ",A234,"(",E235,")"))</f>
-        <v>SUB RENDERKING(ROW,COL,SUIT)</v>
+        <v>SUB RENDERQUEEN(ROW,COL,SUIT)</v>
       </c>
       <c r="E235" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -5899,7 +5917,7 @@
         <v>2450</v>
       </c>
       <c r="C237" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -5908,7 +5926,7 @@
         <v>2460</v>
       </c>
       <c r="C238" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -5917,7 +5935,7 @@
         <v>2470</v>
       </c>
       <c r="C239" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -5926,19 +5944,19 @@
         <v>2480</v>
       </c>
       <c r="C240" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="28" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B241">
         <v>2490</v>
       </c>
       <c r="C241" s="11" t="str">
         <f>_xlfn.CONCAT("REM SUBROUTINE ***",A241,"***")</f>
-        <v>REM SUBROUTINE ***RENDERACE***</v>
+        <v>REM SUBROUTINE ***RENDERKING***</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -5948,10 +5966,10 @@
       </c>
       <c r="C242" s="11" t="str">
         <f>IF(ISBLANK(E242),_xlfn.CONCAT("SUB ",A241),_xlfn.CONCAT("SUB ",A241,"(",E242,")"))</f>
-        <v>SUB RENDERACE(ROW,COL,SUIT)</v>
+        <v>SUB RENDERKING(ROW,COL,SUIT)</v>
       </c>
       <c r="E242" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -5960,7 +5978,7 @@
         <v>2510</v>
       </c>
       <c r="C243" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -5968,20 +5986,17 @@
       <c r="B244">
         <v>2520</v>
       </c>
-      <c r="C244" s="11" t="s">
-        <v>781</v>
+      <c r="C244" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="28" t="s">
-        <v>695</v>
-      </c>
+      <c r="A245" s="26"/>
       <c r="B245">
         <v>2530</v>
       </c>
-      <c r="C245" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A245,"***")</f>
-        <v>REM SUBROUTINE ***PLAY***</v>
+      <c r="C245" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -5989,9 +6004,8 @@
       <c r="B246">
         <v>2540</v>
       </c>
-      <c r="C246" s="11" t="str">
-        <f>IF(ISBLANK(E246),_xlfn.CONCAT("SUB ",A245),_xlfn.CONCAT("SUB ",A245,"(",E246,")"))</f>
-        <v>SUB PLAY</v>
+      <c r="C246" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -6000,16 +6014,19 @@
         <v>2550</v>
       </c>
       <c r="C247" s="11" t="s">
-        <v>708</v>
+        <v>779</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="26"/>
+      <c r="A248" s="28" t="s">
+        <v>589</v>
+      </c>
       <c r="B248">
         <v>2560</v>
       </c>
-      <c r="C248" t="s">
-        <v>706</v>
+      <c r="C248" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A248,"***")</f>
+        <v>REM SUBROUTINE ***RENDERACE***</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -6017,8 +6034,12 @@
       <c r="B249">
         <v>2570</v>
       </c>
-      <c r="C249" t="s">
-        <v>707</v>
+      <c r="C249" s="11" t="str">
+        <f>IF(ISBLANK(E249),_xlfn.CONCAT("SUB ",A248),_xlfn.CONCAT("SUB ",A248,"(",E249,")"))</f>
+        <v>SUB RENDERACE(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E249" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -6026,16 +6047,8 @@
       <c r="B250">
         <v>2580</v>
       </c>
-      <c r="C250" s="28" t="str">
-        <f>IF(ISBLANK(E250),_xlfn.CONCAT("CALL ",D250),_xlfn.CONCAT("CALL ",D250,"(",E250,")"))</f>
-        <v>CALL CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
-      </c>
-      <c r="D250" s="28" t="str">
-        <f>A293</f>
-        <v>CLEARTABLE</v>
-      </c>
-      <c r="E250" t="s">
-        <v>848</v>
+      <c r="C250" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -6043,25 +6056,20 @@
       <c r="B251">
         <v>2590</v>
       </c>
-      <c r="C251" s="28" t="str">
-        <f>IF(ISBLANK(E251),_xlfn.CONCAT("CALL ",D251),_xlfn.CONCAT("CALL ",D251,"(",E251,")"))</f>
-        <v>CALL SHUFFLE(HANDS(,,))</v>
-      </c>
-      <c r="D251" s="28" t="str">
-        <f>A300</f>
-        <v>SHUFFLE</v>
-      </c>
-      <c r="E251" t="s">
-        <v>846</v>
+      <c r="C251" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="26"/>
+      <c r="A252" s="28" t="s">
+        <v>695</v>
+      </c>
       <c r="B252">
         <v>2600</v>
       </c>
-      <c r="C252" t="s">
-        <v>696</v>
+      <c r="C252" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A252,"***")</f>
+        <v>REM SUBROUTINE ***PLAY***</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -6069,16 +6077,9 @@
       <c r="B253">
         <v>2610</v>
       </c>
-      <c r="C253" s="28" t="str">
-        <f>IF(ISBLANK(E253),_xlfn.CONCAT("CALL ",D253),_xlfn.CONCAT("CALL ",D253,"(",E253,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D253" s="28" t="str">
-        <f>A332</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E253" t="s">
-        <v>847</v>
+      <c r="C253" s="11" t="str">
+        <f>IF(ISBLANK(E253),_xlfn.CONCAT("SUB ",A252),_xlfn.CONCAT("SUB ",A252,"(",E253,")"))</f>
+        <v>SUB PLAY</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -6086,16 +6087,8 @@
       <c r="B254">
         <v>2620</v>
       </c>
-      <c r="C254" s="28" t="str">
-        <f>IF(ISBLANK(E254),_xlfn.CONCAT("CALL ",D254),_xlfn.CONCAT("CALL ",D254,"(",E254,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D254" s="28" t="str">
-        <f>A332</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E254" t="s">
-        <v>847</v>
+      <c r="C254" s="11" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -6104,7 +6097,7 @@
         <v>2630</v>
       </c>
       <c r="C255" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -6112,16 +6105,8 @@
       <c r="B256">
         <v>2640</v>
       </c>
-      <c r="C256" s="28" t="str">
-        <f>IF(ISBLANK(E256),_xlfn.CONCAT("CALL ",D256),_xlfn.CONCAT("CALL ",D256,"(",E256,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D256" s="28" t="str">
-        <f>A332</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E256" t="s">
-        <v>847</v>
+      <c r="C256" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -6129,8 +6114,16 @@
       <c r="B257">
         <v>2650</v>
       </c>
-      <c r="C257" t="s">
-        <v>698</v>
+      <c r="C257" s="28" t="str">
+        <f>IF(ISBLANK(E257),_xlfn.CONCAT("CALL ",D257),_xlfn.CONCAT("CALL ",D257,"(",E257,")"))</f>
+        <v>CALL CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
+      </c>
+      <c r="D257" s="28" t="str">
+        <f>A306</f>
+        <v>CLEARTABLE</v>
+      </c>
+      <c r="E257" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -6140,14 +6133,14 @@
       </c>
       <c r="C258" s="28" t="str">
         <f>IF(ISBLANK(E258),_xlfn.CONCAT("CALL ",D258),_xlfn.CONCAT("CALL ",D258,"(",E258,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+        <v>CALL SHUFFLE(HANDS(,,))</v>
       </c>
       <c r="D258" s="28" t="str">
-        <f>A332</f>
-        <v>DEAL</v>
+        <f>A313</f>
+        <v>SHUFFLE</v>
       </c>
       <c r="E258" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -6156,7 +6149,7 @@
         <v>2670</v>
       </c>
       <c r="C259" t="s">
-        <v>749</v>
+        <v>696</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -6164,8 +6157,16 @@
       <c r="B260">
         <v>2680</v>
       </c>
-      <c r="C260" t="s">
-        <v>703</v>
+      <c r="C260" s="28" t="str">
+        <f>IF(ISBLANK(E260),_xlfn.CONCAT("CALL ",D260),_xlfn.CONCAT("CALL ",D260,"(",E260,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D260" s="28" t="str">
+        <f>A345</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E260" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -6173,8 +6174,16 @@
       <c r="B261">
         <v>2690</v>
       </c>
-      <c r="C261" t="s">
-        <v>753</v>
+      <c r="C261" s="28" t="str">
+        <f>IF(ISBLANK(E261),_xlfn.CONCAT("CALL ",D261),_xlfn.CONCAT("CALL ",D261,"(",E261,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D261" s="28" t="str">
+        <f>A345</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E261" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -6182,28 +6191,34 @@
       <c r="B262">
         <v>2700</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>770</v>
+      <c r="C262" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="26"/>
       <c r="B263">
         <v>2710</v>
       </c>
-      <c r="C263" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A264,"***")</f>
-        <v>REM LABEL ***ASKANOTHER***</v>
+      <c r="C263" s="28" t="str">
+        <f>IF(ISBLANK(E263),_xlfn.CONCAT("CALL ",D263),_xlfn.CONCAT("CALL ",D263,"(",E263,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D263" s="28" t="str">
+        <f>A345</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E263" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="29" t="s">
-        <v>860</v>
-      </c>
+      <c r="A264" s="26"/>
       <c r="B264">
         <v>2720</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>334</v>
+      <c r="C264" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -6211,13 +6226,16 @@
       <c r="B265">
         <v>2730</v>
       </c>
-      <c r="C265" t="str">
-        <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D265,A:A,0),0)," :: REM GOTO ",D265,"")</f>
-        <v>IF A$="" THEN 2720 :: REM GOTO ASKANOTHER</v>
-      </c>
-      <c r="D265" s="29" t="str">
-        <f>A264</f>
-        <v>ASKANOTHER</v>
+      <c r="C265" s="28" t="str">
+        <f>IF(ISBLANK(E265),_xlfn.CONCAT("CALL ",D265),_xlfn.CONCAT("CALL ",D265,"(",E265,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D265" s="28" t="str">
+        <f>A345</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E265" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -6225,8 +6243,8 @@
       <c r="B266">
         <v>2740</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>771</v>
+      <c r="C266" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -6234,13 +6252,8 @@
       <c r="B267">
         <v>2750</v>
       </c>
-      <c r="C267" s="1" t="str">
-        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D267,A:A,0),0)," :: REM GOTO ",D267,"")</f>
-        <v>IF A$="N" THEN 2830 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D267" s="29" t="str">
-        <f>A275</f>
-        <v>REVEAL</v>
+      <c r="C267" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -6248,8 +6261,8 @@
       <c r="B268">
         <v>2760</v>
       </c>
-      <c r="C268" s="1" t="s">
-        <v>696</v>
+      <c r="C268" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -6257,77 +6270,73 @@
       <c r="B269">
         <v>2770</v>
       </c>
-      <c r="C269" s="28" t="str">
-        <f>IF(ISBLANK(E269),_xlfn.CONCAT("CALL ",D269),_xlfn.CONCAT("CALL ",D269,"(",E269,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D269" s="28" t="str">
-        <f>A332</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E269" t="s">
-        <v>847</v>
+      <c r="C269" s="1" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="26"/>
       <c r="B270">
         <v>2780</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>854</v>
+      <c r="C270" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="26"/>
       <c r="B271">
         <v>2790</v>
       </c>
       <c r="C271" t="s">
-        <v>772</v>
+        <v>870</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="26"/>
       <c r="B272">
         <v>2800</v>
       </c>
-      <c r="C272" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D272,A:A,0),0)," :: REM GOTO ",D272,"")</f>
-        <v>IF BUSTED=1 THEN 2830 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D272" s="29" t="str">
-        <f>A275</f>
-        <v>REVEAL</v>
+      <c r="C272" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A273,"***")</f>
+        <v>REM LABEL ***ASKANOTHER***</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="26"/>
+      <c r="A273" s="29" t="s">
+        <v>858</v>
+      </c>
       <c r="B273">
         <v>2810</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>754</v>
-      </c>
+        <v>874</v>
+      </c>
+      <c r="D273" s="29"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="26"/>
       <c r="B274">
         <v>2820</v>
       </c>
-      <c r="C274" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A275,"***")</f>
-        <v>REM LABEL ***REVEAL***</v>
+      <c r="C274" s="1" t="str">
+        <f>_xlfn.CONCAT("IF S=0  THEN ",INDEX(B:B,MATCH(D274,A:A,0),0)," :: REM GOTO ",D274,"")</f>
+        <v>IF S=0  THEN 2810 :: REM GOTO ASKANOTHER</v>
+      </c>
+      <c r="D274" s="29" t="str">
+        <f>A273</f>
+        <v>ASKANOTHER</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="27" t="s">
-        <v>701</v>
-      </c>
+      <c r="A275" s="26"/>
       <c r="B275">
         <v>2830</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>715</v>
+      <c r="C275" s="1" t="str">
+        <f>_xlfn.CONCAT("IF K&lt;&gt;78 AND K&lt;&gt;89 AND K&lt;&gt;13 THEN ",INDEX(B:B,MATCH(D275,A:A,0),0)," :: REM GOTO ",D275,"")</f>
+        <v>IF K&lt;&gt;78 AND K&lt;&gt;89 AND K&lt;&gt;13 THEN 2810 :: REM GOTO ASKANOTHER</v>
+      </c>
+      <c r="D275" s="29" t="str">
+        <f>A273</f>
+        <v>ASKANOTHER</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -6335,17 +6344,10 @@
       <c r="B276">
         <v>2840</v>
       </c>
-      <c r="C276" s="28" t="str">
-        <f>IF(ISBLANK(E276),_xlfn.CONCAT("CALL ",D276),_xlfn.CONCAT("CALL ",D276,"(",E276,")"))</f>
-        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D276" s="28" t="str">
-        <f>A126</f>
-        <v>RENDERCARD</v>
-      </c>
-      <c r="E276" t="s">
-        <v>844</v>
-      </c>
+      <c r="C276" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D276" s="29"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="26"/>
@@ -6353,327 +6355,352 @@
         <v>2850</v>
       </c>
       <c r="C277" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D277,A:A,0),0)," :: REM GOTO ",D277,"")</f>
-        <v>IF BUSTED=1 THEN 3000 :: REM GOTO GAMEOVER</v>
+        <f>_xlfn.CONCAT("IF K&lt;&gt;13 THEN ",INDEX(B:B,MATCH(D277,A:A,0),0)," :: REM GOTO ",D277,"")</f>
+        <v>IF K&lt;&gt;13 THEN 2810 :: REM GOTO ASKANOTHER</v>
       </c>
       <c r="D277" s="29" t="str">
-        <f>A292</f>
-        <v>GAMEOVER</v>
+        <f>A273</f>
+        <v>ASKANOTHER</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="27"/>
+      <c r="A278" s="26"/>
       <c r="B278">
         <v>2860</v>
       </c>
-      <c r="C278" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="27"/>
+      <c r="C278" s="1" t="str">
+        <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D278,A:A,0),0)," :: REM GOTO ",D278,"")</f>
+        <v>IF A$="" THEN 2810 :: REM GOTO ASKANOTHER</v>
+      </c>
+      <c r="D278" s="29" t="str">
+        <f>A273</f>
+        <v>ASKANOTHER</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="26"/>
       <c r="B279">
         <v>2870</v>
       </c>
-      <c r="C279" t="s">
-        <v>703</v>
+      <c r="C279" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="27"/>
+      <c r="A280" s="26"/>
       <c r="B280">
         <v>2880</v>
       </c>
-      <c r="C280" t="s">
-        <v>753</v>
+      <c r="C280" s="1" t="str">
+        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D280,A:A,0),0)," :: REM GOTO ",D280,"")</f>
+        <v>IF A$="N" THEN 2960 :: REM GOTO REVEAL</v>
+      </c>
+      <c r="D280" s="29" t="str">
+        <f>A288</f>
+        <v>REVEAL</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="27"/>
+      <c r="A281" s="26"/>
       <c r="B281">
         <v>2890</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="27"/>
+      <c r="A282" s="26"/>
       <c r="B282">
         <v>2900</v>
       </c>
       <c r="C282" s="28" t="str">
         <f>IF(ISBLANK(E282),_xlfn.CONCAT("CALL ",D282),_xlfn.CONCAT("CALL ",D282,"(",E282,")"))</f>
-        <v>CALL CALCSCORE(SCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
       </c>
       <c r="D282" s="28" t="str">
-        <f>A341</f>
-        <v>CALCSCORE</v>
+        <f>A345</f>
+        <v>DEAL</v>
       </c>
       <c r="E282" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="27"/>
+      <c r="A283" s="26"/>
       <c r="B283">
         <v>2910</v>
       </c>
-      <c r="C283" t="str">
-        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D283,A:A,0),0)," :: REM GOTO ",D283,"")</f>
-        <v>IF SCORE&gt;=17 THEN 2980 :: REM GOTO TALLY</v>
-      </c>
-      <c r="D283" s="29" t="str">
-        <f>A290</f>
-        <v>TALLY</v>
+      <c r="C283" s="1" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="27"/>
+      <c r="A284" s="26"/>
       <c r="B284">
         <v>2920</v>
       </c>
-      <c r="C284" s="28" t="str">
-        <f>IF(ISBLANK(E284),_xlfn.CONCAT("CALL ",D284),_xlfn.CONCAT("CALL ",D284,"(",E284,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D284" s="28" t="str">
-        <f>A332</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E284" t="s">
-        <v>847</v>
+      <c r="C284" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="27"/>
+      <c r="A285" s="26"/>
       <c r="B285">
         <v>2930</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>854</v>
+      <c r="C285" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D285,A:A,0),0)," :: REM GOTO ",D285,"")</f>
+        <v>IF BUSTED=1 THEN 2960 :: REM GOTO REVEAL</v>
+      </c>
+      <c r="D285" s="29" t="str">
+        <f>A288</f>
+        <v>REVEAL</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="27"/>
+      <c r="A286" s="26"/>
       <c r="B286">
         <v>2940</v>
       </c>
-      <c r="C286" t="s">
-        <v>773</v>
+      <c r="C286" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="27"/>
       <c r="B287">
         <v>2950</v>
       </c>
-      <c r="C287" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D287,A:A,0),0)," :: REM GOTO ",D287,"")</f>
-        <v>IF BUSTED=1 THEN 3000 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D287" s="29" t="str">
-        <f>A292</f>
-        <v>GAMEOVER</v>
+      <c r="C287" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A288,"***")</f>
+        <v>REM LABEL ***REVEAL***</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="27"/>
+      <c r="A288" s="27" t="s">
+        <v>701</v>
+      </c>
       <c r="B288">
         <v>2960</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>754</v>
+        <v>715</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="26"/>
       <c r="B289">
         <v>2970</v>
       </c>
-      <c r="C289" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A290,"***")</f>
-        <v>REM LABEL ***TALLY***</v>
+      <c r="C289" s="28" t="str">
+        <f>IF(ISBLANK(E289),_xlfn.CONCAT("CALL ",D289),_xlfn.CONCAT("CALL ",D289,"(",E289,")"))</f>
+        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D289" s="28" t="str">
+        <f>A133</f>
+        <v>RENDERCARD</v>
+      </c>
+      <c r="E289" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="27" t="s">
-        <v>718</v>
-      </c>
+      <c r="A290" s="26"/>
       <c r="B290">
         <v>2980</v>
       </c>
-      <c r="C290" s="28" t="str">
-        <f>IF(ISBLANK(E290),_xlfn.CONCAT("CALL ",D290),_xlfn.CONCAT("CALL ",D290,"(",E290,")"))</f>
-        <v>CALL WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="D290" s="28" t="str">
-        <f>A349</f>
-        <v>WHOWON</v>
-      </c>
-      <c r="E290" t="s">
-        <v>787</v>
+      <c r="C290" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D290,A:A,0),0)," :: REM GOTO ",D290,"")</f>
+        <v>IF BUSTED=1 THEN 3130 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D290" s="29" t="str">
+        <f>A305</f>
+        <v>GAMEOVER</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="27"/>
       <c r="B291">
         <v>2990</v>
       </c>
-      <c r="C291" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A292,"***")</f>
-        <v>REM LABEL ***GAMEOVER***</v>
+      <c r="C291" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="27" t="s">
-        <v>716</v>
-      </c>
+      <c r="A292" s="27"/>
       <c r="B292">
         <v>3000</v>
       </c>
       <c r="C292" t="s">
-        <v>781</v>
+        <v>703</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="28" t="s">
-        <v>693</v>
-      </c>
+      <c r="A293" s="27"/>
       <c r="B293">
         <v>3010</v>
       </c>
-      <c r="C293" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A293,"***")</f>
-        <v>REM SUBROUTINE ***CLEARTABLE***</v>
+      <c r="C293" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="26"/>
+      <c r="A294" s="27"/>
       <c r="B294">
         <v>3020</v>
       </c>
-      <c r="C294" s="11" t="str">
-        <f>IF(ISBLANK(E294),_xlfn.CONCAT("SUB ",A293),_xlfn.CONCAT("SUB ",A293,"(",E294,")"))</f>
-        <v>SUB CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
-      </c>
-      <c r="E294" t="s">
-        <v>848</v>
+      <c r="C294" s="1" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="26"/>
+      <c r="A295" s="27"/>
       <c r="B295">
         <v>3030</v>
       </c>
-      <c r="C295" t="s">
-        <v>7</v>
+      <c r="C295" s="28" t="str">
+        <f>IF(ISBLANK(E295),_xlfn.CONCAT("CALL ",D295),_xlfn.CONCAT("CALL ",D295,"(",E295,")"))</f>
+        <v>CALL CALCSCORE(SCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D295" s="28" t="str">
+        <f>A354</f>
+        <v>CALCSCORE</v>
+      </c>
+      <c r="E295" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="26"/>
+      <c r="A296" s="27"/>
       <c r="B296">
         <v>3040</v>
       </c>
-      <c r="C296" t="s">
-        <v>780</v>
+      <c r="C296" t="str">
+        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D296,A:A,0),0)," :: REM GOTO ",D296,"")</f>
+        <v>IF SCORE&gt;=17 THEN 3110 :: REM GOTO TALLY</v>
+      </c>
+      <c r="D296" s="29" t="str">
+        <f>A303</f>
+        <v>TALLY</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="26"/>
+      <c r="A297" s="27"/>
       <c r="B297">
         <v>3050</v>
       </c>
-      <c r="C297" t="s">
-        <v>850</v>
+      <c r="C297" s="28" t="str">
+        <f>IF(ISBLANK(E297),_xlfn.CONCAT("CALL ",D297),_xlfn.CONCAT("CALL ",D297,"(",E297,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D297" s="28" t="str">
+        <f>A345</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E297" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="26"/>
+      <c r="A298" s="27"/>
       <c r="B298">
         <v>3060</v>
       </c>
-      <c r="C298" t="s">
-        <v>849</v>
+      <c r="C298" s="1" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="26"/>
+      <c r="A299" s="27"/>
       <c r="B299">
         <v>3070</v>
       </c>
       <c r="C299" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="28" t="s">
-        <v>778</v>
-      </c>
+      <c r="A300" s="27"/>
       <c r="B300">
         <v>3080</v>
       </c>
-      <c r="C300" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A300,"***")</f>
-        <v>REM SUBROUTINE ***SHUFFLE***</v>
+      <c r="C300" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D300,A:A,0),0)," :: REM GOTO ",D300,"")</f>
+        <v>IF BUSTED=1 THEN 3130 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D300" s="29" t="str">
+        <f>A305</f>
+        <v>GAMEOVER</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="26"/>
+      <c r="A301" s="27"/>
       <c r="B301">
         <v>3090</v>
       </c>
-      <c r="C301" s="11" t="str">
-        <f>IF(ISBLANK(E301),_xlfn.CONCAT("SUB ",A300),_xlfn.CONCAT("SUB ",A300,"(",E301,")"))</f>
-        <v>SUB SHUFFLE(HANDS(,,))</v>
-      </c>
-      <c r="E301" t="s">
-        <v>846</v>
+      <c r="C301" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="26"/>
       <c r="B302">
         <v>3100</v>
       </c>
-      <c r="C302" t="s">
-        <v>96</v>
+      <c r="C302" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A303,"***")</f>
+        <v>REM LABEL ***TALLY***</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="26"/>
+      <c r="A303" s="27" t="s">
+        <v>718</v>
+      </c>
       <c r="B303">
         <v>3110</v>
       </c>
-      <c r="C303" t="s">
-        <v>842</v>
+      <c r="C303" s="28" t="str">
+        <f>IF(ISBLANK(E303),_xlfn.CONCAT("CALL ",D303),_xlfn.CONCAT("CALL ",D303,"(",E303,")"))</f>
+        <v>CALL WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D303" s="28" t="str">
+        <f>A362</f>
+        <v>WHOWON</v>
+      </c>
+      <c r="E303" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="26"/>
       <c r="B304">
         <v>3120</v>
       </c>
-      <c r="C304" t="s">
-        <v>758</v>
+      <c r="C304" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A305,"***")</f>
+        <v>REM LABEL ***GAMEOVER***</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="27" t="s">
+        <v>716</v>
+      </c>
       <c r="B305">
         <v>3130</v>
       </c>
-      <c r="C305" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A306,"***")</f>
-        <v>REM LABEL ***DRAWLOOP***</v>
+      <c r="C305" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="29" t="s">
-        <v>759</v>
+      <c r="A306" s="28" t="s">
+        <v>693</v>
       </c>
       <c r="B306">
         <v>3140</v>
       </c>
-      <c r="C306" t="s">
-        <v>774</v>
+      <c r="C306" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A306,"***")</f>
+        <v>REM SUBROUTINE ***CLEARTABLE***</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -6681,8 +6708,12 @@
       <c r="B307">
         <v>3150</v>
       </c>
-      <c r="C307" t="s">
-        <v>761</v>
+      <c r="C307" s="11" t="str">
+        <f>IF(ISBLANK(E307),_xlfn.CONCAT("SUB ",A306),_xlfn.CONCAT("SUB ",A306,"(",E307,")"))</f>
+        <v>SUB CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
+      </c>
+      <c r="E307" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -6691,7 +6722,7 @@
         <v>3160</v>
       </c>
       <c r="C308" t="s">
-        <v>762</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -6700,7 +6731,7 @@
         <v>3170</v>
       </c>
       <c r="C309" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -6709,7 +6740,7 @@
         <v>3180</v>
       </c>
       <c r="C310" t="s">
-        <v>756</v>
+        <v>848</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -6717,16 +6748,8 @@
       <c r="B311">
         <v>3190</v>
       </c>
-      <c r="C311" s="28" t="str">
-        <f>IF(ISBLANK(E311),_xlfn.CONCAT("CALL ",D311),_xlfn.CONCAT("CALL ",D311,"(",E311,")"))</f>
-        <v>CALL CHECKDUP(DUP,(X),DECK())</v>
-      </c>
-      <c r="D311" s="28" t="str">
-        <f>A325</f>
-        <v>CHECKDUP</v>
-      </c>
-      <c r="E311" t="s">
-        <v>841</v>
+      <c r="C311" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -6734,22 +6757,20 @@
       <c r="B312">
         <v>3200</v>
       </c>
-      <c r="C312" t="str">
-        <f>_xlfn.CONCAT("IF DUP=1 THEN ",INDEX(B:B,MATCH(D312,A:A,0),0)," :: REM GOTO ",D312,"")</f>
-        <v>IF DUP=1 THEN 3140 :: REM GOTO DRAWLOOP</v>
-      </c>
-      <c r="D312" s="29" t="str">
-        <f>A306</f>
-        <v>DRAWLOOP</v>
+      <c r="C312" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="26"/>
+      <c r="A313" s="28" t="s">
+        <v>776</v>
+      </c>
       <c r="B313">
         <v>3210</v>
       </c>
-      <c r="C313" t="s">
-        <v>764</v>
+      <c r="C313" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A313,"***")</f>
+        <v>REM SUBROUTINE ***SHUFFLE***</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -6757,8 +6778,12 @@
       <c r="B314">
         <v>3220</v>
       </c>
-      <c r="C314" t="s">
-        <v>699</v>
+      <c r="C314" s="11" t="str">
+        <f>IF(ISBLANK(E314),_xlfn.CONCAT("SUB ",A313),_xlfn.CONCAT("SUB ",A313,"(",E314,")"))</f>
+        <v>SUB SHUFFLE(HANDS(,,))</v>
+      </c>
+      <c r="E314" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -6767,7 +6792,7 @@
         <v>3230</v>
       </c>
       <c r="C315" t="s">
-        <v>760</v>
+        <v>96</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -6776,7 +6801,7 @@
         <v>3240</v>
       </c>
       <c r="C316" t="s">
-        <v>765</v>
+        <v>840</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -6785,25 +6810,27 @@
         <v>3250</v>
       </c>
       <c r="C317" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="26"/>
       <c r="B318">
         <v>3260</v>
       </c>
-      <c r="C318" t="s">
-        <v>699</v>
+      <c r="C318" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A319,"***")</f>
+        <v>REM LABEL ***DRAWLOOP***</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="26"/>
+      <c r="A319" s="29" t="s">
+        <v>759</v>
+      </c>
       <c r="B319">
         <v>3270</v>
       </c>
       <c r="C319" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -6812,7 +6839,7 @@
         <v>3280</v>
       </c>
       <c r="C320" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -6821,7 +6848,7 @@
         <v>3290</v>
       </c>
       <c r="C321" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -6830,7 +6857,7 @@
         <v>3300</v>
       </c>
       <c r="C322" t="s">
-        <v>699</v>
+        <v>763</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -6839,7 +6866,7 @@
         <v>3310</v>
       </c>
       <c r="C323" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -6847,20 +6874,30 @@
       <c r="B324">
         <v>3320</v>
       </c>
-      <c r="C324" s="11" t="s">
-        <v>781</v>
+      <c r="C324" s="28" t="str">
+        <f>IF(ISBLANK(E324),_xlfn.CONCAT("CALL ",D324),_xlfn.CONCAT("CALL ",D324,"(",E324,")"))</f>
+        <v>CALL CHECKDUP(DUP,(X),DECK())</v>
+      </c>
+      <c r="D324" s="28" t="str">
+        <f>A338</f>
+        <v>CHECKDUP</v>
+      </c>
+      <c r="E324" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="28" t="s">
-        <v>755</v>
-      </c>
+      <c r="A325" s="26"/>
       <c r="B325">
         <v>3330</v>
       </c>
-      <c r="C325" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A325,"***")</f>
-        <v>REM SUBROUTINE ***CHECKDUP***</v>
+      <c r="C325" t="str">
+        <f>_xlfn.CONCAT("IF DUP=1 THEN ",INDEX(B:B,MATCH(D325,A:A,0),0)," :: REM GOTO ",D325,"")</f>
+        <v>IF DUP=1 THEN 3270 :: REM GOTO DRAWLOOP</v>
+      </c>
+      <c r="D325" s="29" t="str">
+        <f>A319</f>
+        <v>DRAWLOOP</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -6868,12 +6905,8 @@
       <c r="B326">
         <v>3340</v>
       </c>
-      <c r="C326" s="11" t="str">
-        <f>IF(ISBLANK(E326),_xlfn.CONCAT("SUB ",A325),_xlfn.CONCAT("SUB ",A325,"(",E326,")"))</f>
-        <v>SUB CHECKDUP(DUP,X,DECK())</v>
-      </c>
-      <c r="E326" t="s">
-        <v>840</v>
+      <c r="C326" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -6881,8 +6914,8 @@
       <c r="B327">
         <v>3350</v>
       </c>
-      <c r="C327" s="11" t="s">
-        <v>756</v>
+      <c r="C327" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -6890,8 +6923,8 @@
       <c r="B328">
         <v>3360</v>
       </c>
-      <c r="C328" s="11" t="s">
-        <v>757</v>
+      <c r="C328" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -6899,13 +6932,8 @@
       <c r="B329">
         <v>3370</v>
       </c>
-      <c r="C329" s="11" t="str">
-        <f>_xlfn.CONCAT("IF DECK(I)=X THEN DUP=1 :: GOTO ",INDEX(B:B,MATCH(D329,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF DECK(I)=X THEN DUP=1 :: GOTO 3390 :: REM SUBEND</v>
-      </c>
-      <c r="D329" s="29" t="str">
-        <f>A331</f>
-        <v>CHECKDUP.SUBEND</v>
+      <c r="C329" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -6913,32 +6941,26 @@
       <c r="B330">
         <v>3380</v>
       </c>
-      <c r="C330" s="11" t="s">
-        <v>57</v>
+      <c r="C330" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="29" t="str">
-        <f>_xlfn.CONCAT(A325,".SUBEND")</f>
-        <v>CHECKDUP.SUBEND</v>
-      </c>
+      <c r="A331" s="26"/>
       <c r="B331">
         <v>3390</v>
       </c>
-      <c r="C331" s="11" t="s">
-        <v>781</v>
+      <c r="C331" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="28" t="s">
-        <v>694</v>
-      </c>
+      <c r="A332" s="26"/>
       <c r="B332">
         <v>3400</v>
       </c>
-      <c r="C332" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A332,"***")</f>
-        <v>REM SUBROUTINE ***DEAL***</v>
+      <c r="C332" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -6946,12 +6968,8 @@
       <c r="B333">
         <v>3410</v>
       </c>
-      <c r="C333" s="11" t="str">
-        <f>IF(ISBLANK(E333),_xlfn.CONCAT("SUB ",A332),_xlfn.CONCAT("SUB ",A332,"(",E333,")"))</f>
-        <v>SUB DEAL(CARDS(),SUMS(),PLAYER,FACEDOWN,HANDS(,,))</v>
-      </c>
-      <c r="E333" t="s">
-        <v>845</v>
+      <c r="C333" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -6959,8 +6977,8 @@
       <c r="B334">
         <v>3420</v>
       </c>
-      <c r="C334" s="11" t="s">
-        <v>709</v>
+      <c r="C334" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -6968,8 +6986,8 @@
       <c r="B335">
         <v>3430</v>
       </c>
-      <c r="C335" s="11" t="s">
-        <v>710</v>
+      <c r="C335" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -6977,8 +6995,8 @@
       <c r="B336">
         <v>3440</v>
       </c>
-      <c r="C336" s="11" t="s">
-        <v>705</v>
+      <c r="C336" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -6987,16 +7005,19 @@
         <v>3450</v>
       </c>
       <c r="C337" s="11" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="26"/>
+      <c r="A338" s="28" t="s">
+        <v>755</v>
+      </c>
       <c r="B338">
         <v>3460</v>
       </c>
-      <c r="C338" s="11" t="s">
-        <v>711</v>
+      <c r="C338" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A338,"***")</f>
+        <v>REM SUBROUTINE ***CHECKDUP***</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -7004,16 +7025,12 @@
       <c r="B339">
         <v>3470</v>
       </c>
-      <c r="C339" s="28" t="str">
-        <f>IF(ISBLANK(E339),_xlfn.CONCAT("CALL ",D339),_xlfn.CONCAT("CALL ",D339,"(",E339,")"))</f>
-        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D339" s="28" t="str">
-        <f>A126</f>
-        <v>RENDERCARD</v>
+      <c r="C339" s="11" t="str">
+        <f>IF(ISBLANK(E339),_xlfn.CONCAT("SUB ",A338),_xlfn.CONCAT("SUB ",A338,"(",E339,")"))</f>
+        <v>SUB CHECKDUP(DUP,X,DECK())</v>
       </c>
       <c r="E339" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -7022,19 +7039,16 @@
         <v>3480</v>
       </c>
       <c r="C340" s="11" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="28" t="s">
-        <v>702</v>
-      </c>
+      <c r="A341" s="26"/>
       <c r="B341">
         <v>3490</v>
       </c>
-      <c r="C341" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A341,"***")</f>
-        <v>REM SUBROUTINE ***CALCSCORE***</v>
+      <c r="C341" s="11" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -7043,11 +7057,12 @@
         <v>3500</v>
       </c>
       <c r="C342" s="11" t="str">
-        <f>IF(ISBLANK(E342),_xlfn.CONCAT("SUB ",A341),_xlfn.CONCAT("SUB ",A341,"(",E342,")"))</f>
-        <v>SUB CALCSCORE(SCORE,PLAYER,SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="E342" t="s">
-        <v>856</v>
+        <f>_xlfn.CONCAT("IF DECK(I)=X THEN DUP=1 :: GOTO ",INDEX(B:B,MATCH(D342,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF DECK(I)=X THEN DUP=1 :: GOTO 3520 :: REM SUBEND</v>
+      </c>
+      <c r="D342" s="29" t="str">
+        <f>A344</f>
+        <v>CHECKDUP.SUBEND</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -7055,31 +7070,32 @@
       <c r="B343">
         <v>3510</v>
       </c>
-      <c r="C343" t="s">
-        <v>712</v>
+      <c r="C343" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="26"/>
+      <c r="A344" s="29" t="str">
+        <f>_xlfn.CONCAT(A338,".SUBEND")</f>
+        <v>CHECKDUP.SUBEND</v>
+      </c>
       <c r="B344">
         <v>3520</v>
       </c>
-      <c r="C344" t="str">
-        <f>_xlfn.CONCAT("IF SCORE+10&gt;21 THEN ",INDEX(B:B,MATCH(D344,A:A,0),0)," :: REM GOTO ",D344,"")</f>
-        <v>IF SCORE+10&gt;21 THEN 3560 :: REM GOTO CALCSCORE.SUBEND</v>
-      </c>
-      <c r="D344" s="29" t="str">
-        <f>A348</f>
-        <v>CALCSCORE.SUBEND</v>
+      <c r="C344" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="26"/>
+      <c r="A345" s="28" t="s">
+        <v>694</v>
+      </c>
       <c r="B345">
         <v>3530</v>
       </c>
-      <c r="C345" t="s">
-        <v>713</v>
+      <c r="C345" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A345,"***")</f>
+        <v>REM SUBROUTINE ***DEAL***</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -7087,13 +7103,12 @@
       <c r="B346">
         <v>3540</v>
       </c>
-      <c r="C346" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO ",INDEX(B:B,MATCH(D346,A:A,0),0)," :: REM GOTO ",D346,"")</f>
-        <v>IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO 3560 :: REM GOTO CALCSCORE.SUBEND</v>
-      </c>
-      <c r="D346" s="29" t="str">
-        <f>A348</f>
-        <v>CALCSCORE.SUBEND</v>
+      <c r="C346" s="11" t="str">
+        <f>IF(ISBLANK(E346),_xlfn.CONCAT("SUB ",A345),_xlfn.CONCAT("SUB ",A345,"(",E346,")"))</f>
+        <v>SUB DEAL(CARDS(),SUMS(),PLAYER,FACEDOWN,HANDS(,,))</v>
+      </c>
+      <c r="E346" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -7102,31 +7117,25 @@
         <v>3550</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>57</v>
+        <v>709</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="29" t="str">
-        <f>_xlfn.CONCAT(A341,".SUBEND")</f>
-        <v>CALCSCORE.SUBEND</v>
-      </c>
+      <c r="A348" s="26"/>
       <c r="B348">
         <v>3560</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>781</v>
+        <v>710</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="28" t="s">
-        <v>614</v>
-      </c>
+      <c r="A349" s="26"/>
       <c r="B349">
         <v>3570</v>
       </c>
-      <c r="C349" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A349,"***")</f>
-        <v>REM SUBROUTINE ***WHOWON***</v>
+      <c r="C349" s="11" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -7134,12 +7143,8 @@
       <c r="B350">
         <v>3580</v>
       </c>
-      <c r="C350" s="11" t="str">
-        <f>IF(ISBLANK(E350),_xlfn.CONCAT("SUB ",A349),_xlfn.CONCAT("SUB ",A349,"(",E350,")"))</f>
-        <v>SUB WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="E350" t="s">
-        <v>787</v>
+      <c r="C350" s="11" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -7147,8 +7152,8 @@
       <c r="B351">
         <v>3590</v>
       </c>
-      <c r="C351" t="s">
-        <v>782</v>
+      <c r="C351" s="11" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -7156,16 +7161,16 @@
       <c r="B352">
         <v>3600</v>
       </c>
-      <c r="C352" t="str">
+      <c r="C352" s="28" t="str">
         <f>IF(ISBLANK(E352),_xlfn.CONCAT("CALL ",D352),_xlfn.CONCAT("CALL ",D352,"(",E352,")"))</f>
-        <v>CALL CALCSCORE(PSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
       </c>
       <c r="D352" s="28" t="str">
-        <f>A341</f>
-        <v>CALCSCORE</v>
+        <f>A133</f>
+        <v>RENDERCARD</v>
       </c>
       <c r="E352" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -7173,17 +7178,20 @@
       <c r="B353">
         <v>3610</v>
       </c>
-      <c r="C353" t="s">
-        <v>776</v>
+      <c r="C353" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="26"/>
+      <c r="A354" s="28" t="s">
+        <v>702</v>
+      </c>
       <c r="B354">
         <v>3620</v>
       </c>
-      <c r="C354" t="s">
-        <v>783</v>
+      <c r="C354" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A354,"***")</f>
+        <v>REM SUBROUTINE ***CALCSCORE***</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -7191,16 +7199,12 @@
       <c r="B355">
         <v>3630</v>
       </c>
-      <c r="C355" t="str">
-        <f>IF(ISBLANK(E355),_xlfn.CONCAT("CALL ",D355),_xlfn.CONCAT("CALL ",D355,"(",E355,")"))</f>
-        <v>CALL CALCSCORE(DSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="D355" s="28" t="str">
-        <f>A341</f>
-        <v>CALCSCORE</v>
+      <c r="C355" s="11" t="str">
+        <f>IF(ISBLANK(E355),_xlfn.CONCAT("SUB ",A354),_xlfn.CONCAT("SUB ",A354,"(",E355,")"))</f>
+        <v>SUB CALCSCORE(SCORE,PLAYER,SUMS(),CARDS(),HANDS(,,))</v>
       </c>
       <c r="E355" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -7209,7 +7213,7 @@
         <v>3640</v>
       </c>
       <c r="C356" t="s">
-        <v>777</v>
+        <v>712</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -7217,8 +7221,13 @@
       <c r="B357">
         <v>3650</v>
       </c>
-      <c r="C357" t="s">
-        <v>784</v>
+      <c r="C357" t="str">
+        <f>_xlfn.CONCAT("IF SCORE+10&gt;21 THEN ",INDEX(B:B,MATCH(D357,A:A,0),0)," :: REM GOTO ",D357,"")</f>
+        <v>IF SCORE+10&gt;21 THEN 3690 :: REM GOTO CALCSCORE.SUBEND</v>
+      </c>
+      <c r="D357" s="29" t="str">
+        <f>A361</f>
+        <v>CALCSCORE.SUBEND</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -7227,7 +7236,7 @@
         <v>3660</v>
       </c>
       <c r="C358" t="s">
-        <v>785</v>
+        <v>713</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -7235,8 +7244,13 @@
       <c r="B359">
         <v>3670</v>
       </c>
-      <c r="C359" t="s">
-        <v>786</v>
+      <c r="C359" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO ",INDEX(B:B,MATCH(D359,A:A,0),0)," :: REM GOTO ",D359,"")</f>
+        <v>IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO 3690 :: REM GOTO CALCSCORE.SUBEND</v>
+      </c>
+      <c r="D359" s="29" t="str">
+        <f>A361</f>
+        <v>CALCSCORE.SUBEND</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -7244,30 +7258,32 @@
       <c r="B360">
         <v>3680</v>
       </c>
-      <c r="C360" t="s">
-        <v>781</v>
+      <c r="C360" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="28" t="s">
-        <v>700</v>
+      <c r="A361" s="29" t="str">
+        <f>_xlfn.CONCAT(A354,".SUBEND")</f>
+        <v>CALCSCORE.SUBEND</v>
       </c>
       <c r="B361">
         <v>3690</v>
       </c>
-      <c r="C361" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A361,"***")</f>
-        <v>REM SUBROUTINE ***TERMINATE***</v>
+      <c r="C361" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="26"/>
+      <c r="A362" s="28" t="s">
+        <v>614</v>
+      </c>
       <c r="B362">
         <v>3700</v>
       </c>
       <c r="C362" s="11" t="str">
-        <f>IF(ISBLANK(E362),_xlfn.CONCAT("SUB ",A361),_xlfn.CONCAT("SUB ",A361,"(",E362,")"))</f>
-        <v>SUB TERMINATE</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A362,"***")</f>
+        <v>REM SUBROUTINE ***WHOWON***</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -7275,8 +7291,12 @@
       <c r="B363">
         <v>3710</v>
       </c>
-      <c r="C363" t="s">
-        <v>870</v>
+      <c r="C363" s="11" t="str">
+        <f>IF(ISBLANK(E363),_xlfn.CONCAT("SUB ",A362),_xlfn.CONCAT("SUB ",A362,"(",E363,")"))</f>
+        <v>SUB WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="E363" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -7285,7 +7305,7 @@
         <v>3720</v>
       </c>
       <c r="C364" t="s">
-        <v>871</v>
+        <v>780</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -7293,8 +7313,16 @@
       <c r="B365">
         <v>3730</v>
       </c>
-      <c r="C365" s="11" t="s">
-        <v>679</v>
+      <c r="C365" t="str">
+        <f>IF(ISBLANK(E365),_xlfn.CONCAT("CALL ",D365),_xlfn.CONCAT("CALL ",D365,"(",E365,")"))</f>
+        <v>CALL CALCSCORE(PSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D365" s="28" t="str">
+        <f>A354</f>
+        <v>CALCSCORE</v>
+      </c>
+      <c r="E365" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -7303,159 +7331,160 @@
         <v>3740</v>
       </c>
       <c r="C366" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="28" t="s">
-        <v>807</v>
-      </c>
+      <c r="A367" s="26"/>
       <c r="B367">
         <v>3750</v>
       </c>
-      <c r="C367" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A367,"***")</f>
-        <v>REM SUBROUTINE ***GETHEART***</v>
+      <c r="C367" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" s="26"/>
       <c r="B368">
         <v>3760</v>
       </c>
       <c r="C368" t="str">
-        <f>IF(ISBLANK(E368),_xlfn.CONCAT("SUB ",A367),_xlfn.CONCAT("SUB ",A367,"(",E368,")"))</f>
-        <v>SUB GETHEART(CHARVAL)</v>
+        <f>IF(ISBLANK(E368),_xlfn.CONCAT("CALL ",D368),_xlfn.CONCAT("CALL ",D368,"(",E368,")"))</f>
+        <v>CALL CALCSCORE(DSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D368" s="28" t="str">
+        <f>A354</f>
+        <v>CALCSCORE</v>
       </c>
       <c r="E368" t="s">
-        <v>790</v>
+        <v>856</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" s="26"/>
       <c r="B369">
         <v>3770</v>
       </c>
-      <c r="C369" s="11" t="s">
-        <v>789</v>
+      <c r="C369" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" s="26"/>
       <c r="B370">
         <v>3780</v>
       </c>
-      <c r="C370" s="11" t="s">
-        <v>781</v>
+      <c r="C370" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="28" t="s">
-        <v>806</v>
-      </c>
+      <c r="A371" s="26"/>
       <c r="B371">
         <v>3790</v>
       </c>
-      <c r="C371" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A371,"***")</f>
-        <v>REM SUBROUTINE ***GETDIAMOND***</v>
+      <c r="C371" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" s="26"/>
       <c r="B372">
         <v>3800</v>
       </c>
-      <c r="C372" t="str">
-        <f>IF(ISBLANK(E372),_xlfn.CONCAT("SUB ",A371),_xlfn.CONCAT("SUB ",A371,"(",E372,")"))</f>
-        <v>SUB GETDIAMOND(CHARVAL)</v>
-      </c>
-      <c r="E372" t="s">
-        <v>790</v>
+      <c r="C372" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A373" s="26"/>
       <c r="B373">
         <v>3810</v>
       </c>
-      <c r="C373" s="11" t="s">
-        <v>791</v>
+      <c r="C373" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A374" s="28" t="s">
+        <v>700</v>
+      </c>
       <c r="B374">
         <v>3820</v>
       </c>
-      <c r="C374" s="11" t="s">
-        <v>781</v>
+      <c r="C374" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A374,"***")</f>
+        <v>REM SUBROUTINE ***TERMINATE***</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="28" t="s">
-        <v>805</v>
-      </c>
+      <c r="A375" s="26"/>
       <c r="B375">
         <v>3830</v>
       </c>
-      <c r="C375" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A375,"***")</f>
-        <v>REM SUBROUTINE ***GETREDVALS***</v>
+      <c r="C375" s="11" t="str">
+        <f>IF(ISBLANK(E375),_xlfn.CONCAT("SUB ",A374),_xlfn.CONCAT("SUB ",A374,"(",E375,")"))</f>
+        <v>SUB TERMINATE</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A376" s="26"/>
       <c r="B376">
         <v>3840</v>
       </c>
-      <c r="C376" t="str">
-        <f>IF(ISBLANK(E376),_xlfn.CONCAT("SUB ",A375),_xlfn.CONCAT("SUB ",A375,"(",E376,")"))</f>
-        <v>SUB GETREDVALS(CHARVAL)</v>
-      </c>
-      <c r="E376" t="s">
-        <v>790</v>
+      <c r="C376" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A377" s="26"/>
       <c r="B377">
         <v>3850</v>
       </c>
-      <c r="C377" s="11" t="s">
-        <v>792</v>
+      <c r="C377" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A378" s="26"/>
       <c r="B378">
         <v>3860</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>781</v>
+        <v>679</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="28" t="s">
-        <v>804</v>
-      </c>
+      <c r="A379" s="26"/>
       <c r="B379">
         <v>3870</v>
       </c>
-      <c r="C379" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A379,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDBACK***</v>
+      <c r="C379" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A380" s="28" t="s">
+        <v>805</v>
+      </c>
       <c r="B380">
         <v>3880</v>
       </c>
       <c r="C380" t="str">
-        <f>IF(ISBLANK(E380),_xlfn.CONCAT("SUB ",A379),_xlfn.CONCAT("SUB ",A379,"(",E380,")"))</f>
-        <v>SUB GETCARDBACK(CHARVAL)</v>
-      </c>
-      <c r="E380" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A380,"***")</f>
+        <v>REM SUBROUTINE ***GETHEART***</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B381">
         <v>3890</v>
       </c>
-      <c r="C381" s="11" t="s">
-        <v>794</v>
+      <c r="C381" t="str">
+        <f>IF(ISBLANK(E381),_xlfn.CONCAT("SUB ",A380),_xlfn.CONCAT("SUB ",A380,"(",E381,")"))</f>
+        <v>SUB GETHEART(CHARVAL)</v>
+      </c>
+      <c r="E381" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -7463,39 +7492,39 @@
         <v>3900</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="28" t="s">
-        <v>803</v>
-      </c>
       <c r="B383">
         <v>3910</v>
       </c>
-      <c r="C383" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A383,"***")</f>
-        <v>REM SUBROUTINE ***GETSPADE***</v>
+      <c r="C383" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A384" s="28" t="s">
+        <v>804</v>
+      </c>
       <c r="B384">
         <v>3920</v>
       </c>
       <c r="C384" t="str">
-        <f>IF(ISBLANK(E384),_xlfn.CONCAT("SUB ",A383),_xlfn.CONCAT("SUB ",A383,"(",E384,")"))</f>
-        <v>SUB GETSPADE(CHARVAL)</v>
-      </c>
-      <c r="E384" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A384,"***")</f>
+        <v>REM SUBROUTINE ***GETDIAMOND***</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B385">
         <v>3930</v>
       </c>
-      <c r="C385" s="11" t="s">
-        <v>793</v>
+      <c r="C385" t="str">
+        <f>IF(ISBLANK(E385),_xlfn.CONCAT("SUB ",A384),_xlfn.CONCAT("SUB ",A384,"(",E385,")"))</f>
+        <v>SUB GETDIAMOND(CHARVAL)</v>
+      </c>
+      <c r="E385" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -7503,39 +7532,39 @@
         <v>3940</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387" s="28" t="s">
-        <v>802</v>
-      </c>
       <c r="B387">
         <v>3950</v>
       </c>
-      <c r="C387" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A387,"***")</f>
-        <v>REM SUBROUTINE ***GETCLUB***</v>
+      <c r="C387" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A388" s="28" t="s">
+        <v>803</v>
+      </c>
       <c r="B388">
         <v>3960</v>
       </c>
       <c r="C388" t="str">
-        <f>IF(ISBLANK(E388),_xlfn.CONCAT("SUB ",A387),_xlfn.CONCAT("SUB ",A387,"(",E388,")"))</f>
-        <v>SUB GETCLUB(CHARVAL)</v>
-      </c>
-      <c r="E388" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A388,"***")</f>
+        <v>REM SUBROUTINE ***GETREDVALS***</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B389">
         <v>3970</v>
       </c>
-      <c r="C389" s="11" t="s">
-        <v>795</v>
+      <c r="C389" t="str">
+        <f>IF(ISBLANK(E389),_xlfn.CONCAT("SUB ",A388),_xlfn.CONCAT("SUB ",A388,"(",E389,")"))</f>
+        <v>SUB GETREDVALS(CHARVAL)</v>
+      </c>
+      <c r="E389" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -7543,39 +7572,39 @@
         <v>3980</v>
       </c>
       <c r="C390" s="11" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="28" t="s">
-        <v>799</v>
-      </c>
       <c r="B391">
         <v>3990</v>
       </c>
-      <c r="C391" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A391,"***")</f>
-        <v>REM SUBROUTINE ***GETBLACKVALS***</v>
+      <c r="C391" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A392" s="28" t="s">
+        <v>802</v>
+      </c>
       <c r="B392">
         <v>4000</v>
       </c>
       <c r="C392" t="str">
-        <f>IF(ISBLANK(E392),_xlfn.CONCAT("SUB ",A391),_xlfn.CONCAT("SUB ",A391,"(",E392,")"))</f>
-        <v>SUB GETBLACKVALS(CHARVAL)</v>
-      </c>
-      <c r="E392" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A392,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDBACK***</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B393">
         <v>4010</v>
       </c>
-      <c r="C393" s="11" t="s">
-        <v>796</v>
+      <c r="C393" t="str">
+        <f>IF(ISBLANK(E393),_xlfn.CONCAT("SUB ",A392),_xlfn.CONCAT("SUB ",A392,"(",E393,")"))</f>
+        <v>SUB GETCARDBACK(CHARVAL)</v>
+      </c>
+      <c r="E393" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -7583,39 +7612,39 @@
         <v>4020</v>
       </c>
       <c r="C394" s="11" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="28" t="s">
-        <v>800</v>
-      </c>
       <c r="B395">
         <v>4030</v>
       </c>
-      <c r="C395" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A395,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDEDGE***</v>
+      <c r="C395" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A396" s="28" t="s">
+        <v>801</v>
+      </c>
       <c r="B396">
         <v>4040</v>
       </c>
       <c r="C396" t="str">
-        <f>IF(ISBLANK(E396),_xlfn.CONCAT("SUB ",A395),_xlfn.CONCAT("SUB ",A395,"(",E396,")"))</f>
-        <v>SUB GETCARDEDGE(CHARVAL)</v>
-      </c>
-      <c r="E396" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A396,"***")</f>
+        <v>REM SUBROUTINE ***GETSPADE***</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B397">
         <v>4050</v>
       </c>
-      <c r="C397" s="11" t="s">
-        <v>797</v>
+      <c r="C397" t="str">
+        <f>IF(ISBLANK(E397),_xlfn.CONCAT("SUB ",A396),_xlfn.CONCAT("SUB ",A396,"(",E397,")"))</f>
+        <v>SUB GETSPADE(CHARVAL)</v>
+      </c>
+      <c r="E397" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -7623,39 +7652,39 @@
         <v>4060</v>
       </c>
       <c r="C398" s="11" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" s="28" t="s">
-        <v>801</v>
-      </c>
       <c r="B399">
         <v>4070</v>
       </c>
-      <c r="C399" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A399,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDTOP***</v>
+      <c r="C399" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="28" t="s">
+        <v>800</v>
+      </c>
       <c r="B400">
         <v>4080</v>
       </c>
       <c r="C400" t="str">
-        <f>IF(ISBLANK(E400),_xlfn.CONCAT("SUB ",A399),_xlfn.CONCAT("SUB ",A399,"(",E400,")"))</f>
-        <v>SUB GETCARDTOP(CHARVAL)</v>
-      </c>
-      <c r="E400" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A400,"***")</f>
+        <v>REM SUBROUTINE ***GETCLUB***</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B401">
         <v>4090</v>
       </c>
-      <c r="C401" s="11" t="s">
-        <v>798</v>
+      <c r="C401" t="str">
+        <f>IF(ISBLANK(E401),_xlfn.CONCAT("SUB ",A400),_xlfn.CONCAT("SUB ",A400,"(",E401,")"))</f>
+        <v>SUB GETCLUB(CHARVAL)</v>
+      </c>
+      <c r="E401" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -7663,39 +7692,39 @@
         <v>4100</v>
       </c>
       <c r="C402" s="11" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" s="28" t="s">
-        <v>809</v>
-      </c>
       <c r="B403">
         <v>4110</v>
       </c>
-      <c r="C403" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A403,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDFRONT***</v>
+      <c r="C403" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A404" s="28" t="s">
+        <v>797</v>
+      </c>
       <c r="B404">
         <v>4120</v>
       </c>
       <c r="C404" t="str">
-        <f>IF(ISBLANK(E404),_xlfn.CONCAT("SUB ",A403),_xlfn.CONCAT("SUB ",A403,"(",E404,")"))</f>
-        <v>SUB GETCARDFRONT(CHARVAL)</v>
-      </c>
-      <c r="E404" t="s">
-        <v>790</v>
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A404,"***")</f>
+        <v>REM SUBROUTINE ***GETBLACKVALS***</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B405">
         <v>4130</v>
       </c>
-      <c r="C405" s="11" t="s">
-        <v>808</v>
+      <c r="C405" t="str">
+        <f>IF(ISBLANK(E405),_xlfn.CONCAT("SUB ",A404),_xlfn.CONCAT("SUB ",A404,"(",E405,")"))</f>
+        <v>SUB GETBLACKVALS(CHARVAL)</v>
+      </c>
+      <c r="E405" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -7703,7 +7732,135 @@
         <v>4140</v>
       </c>
       <c r="C406" s="11" t="s">
-        <v>781</v>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B407">
+        <v>4150</v>
+      </c>
+      <c r="C407" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A408" s="28" t="s">
+        <v>798</v>
+      </c>
+      <c r="B408">
+        <v>4160</v>
+      </c>
+      <c r="C408" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A408,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDEDGE***</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B409">
+        <v>4170</v>
+      </c>
+      <c r="C409" t="str">
+        <f>IF(ISBLANK(E409),_xlfn.CONCAT("SUB ",A408),_xlfn.CONCAT("SUB ",A408,"(",E409,")"))</f>
+        <v>SUB GETCARDEDGE(CHARVAL)</v>
+      </c>
+      <c r="E409" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B410">
+        <v>4180</v>
+      </c>
+      <c r="C410" s="11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B411">
+        <v>4190</v>
+      </c>
+      <c r="C411" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A412" s="28" t="s">
+        <v>799</v>
+      </c>
+      <c r="B412">
+        <v>4200</v>
+      </c>
+      <c r="C412" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A412,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDTOP***</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B413">
+        <v>4210</v>
+      </c>
+      <c r="C413" t="str">
+        <f>IF(ISBLANK(E413),_xlfn.CONCAT("SUB ",A412),_xlfn.CONCAT("SUB ",A412,"(",E413,")"))</f>
+        <v>SUB GETCARDTOP(CHARVAL)</v>
+      </c>
+      <c r="E413" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B414">
+        <v>4220</v>
+      </c>
+      <c r="C414" s="11" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B415">
+        <v>4230</v>
+      </c>
+      <c r="C415" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A416" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="B416">
+        <v>4240</v>
+      </c>
+      <c r="C416" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A416,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDFRONT***</v>
+      </c>
+    </row>
+    <row r="417" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B417">
+        <v>4250</v>
+      </c>
+      <c r="C417" t="str">
+        <f>IF(ISBLANK(E417),_xlfn.CONCAT("SUB ",A416),_xlfn.CONCAT("SUB ",A416,"(",E417,")"))</f>
+        <v>SUB GETCARDFRONT(CHARVAL)</v>
+      </c>
+      <c r="E417" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="418" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B418">
+        <v>4260</v>
+      </c>
+      <c r="C418" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="419" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B419">
+        <v>4270</v>
+      </c>
+      <c r="C419" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>

--- a/blackjack.xlsx
+++ b/blackjack.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanwo/projects/ti994a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666E929F-DA3E-5043-B753-EF68DCCC06D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1797D8-8CB4-F24F-B49A-F7C16E7DFCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="500" windowWidth="33000" windowHeight="28300" xr2:uid="{F2DCDACA-2E8A-E041-BEAE-FEED980AFD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="877">
   <si>
     <t>1</t>
   </si>
@@ -2677,7 +2677,10 @@
     <t>CALL KEY(0,K,S)</t>
   </si>
   <si>
-    <t>IF K=78 THEN CALL HCHAR (23,16,78) :: A$="N" ELSE IF K=89 THEN CALL HCHAR (23,16,89) :: A$="Y"</t>
+    <t>CALL HCHAR (23,16,K)</t>
+  </si>
+  <si>
+    <t>A$=CHR$(K)</t>
   </si>
 </sst>
 </file>
@@ -3243,7 +3246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB3D0CF-00CA-1047-A168-192C0697CE9E}">
-  <dimension ref="A1:F419"/>
+  <dimension ref="A1:F417"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3367,7 +3370,7 @@
         <v>CALL INTRO</v>
       </c>
       <c r="D13" s="28" t="str">
-        <f>A32</f>
+        <f>A31</f>
         <v>INTRO</v>
       </c>
     </row>
@@ -3381,7 +3384,7 @@
         <v>CALL SETCHARS</v>
       </c>
       <c r="D14" s="28" t="str">
-        <f>A71</f>
+        <f>A70</f>
         <v>SETCHARS</v>
       </c>
     </row>
@@ -3395,7 +3398,7 @@
         <v>CALL SETCOLORSCHEME</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f>A123</f>
+        <f>A122</f>
         <v>SETCOLORSCHEME</v>
       </c>
     </row>
@@ -3420,7 +3423,7 @@
         <v>CALL PLAY</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f>A252</f>
+        <f>A251</f>
         <v>PLAY</v>
       </c>
     </row>
@@ -3476,8 +3479,8 @@
         <v>310</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>_xlfn.CONCAT("IF S=0  THEN ",INDEX(B:B,MATCH(D23,A:A,0),0)," :: REM GOTO ",D23,"")</f>
-        <v>IF S=0  THEN 300 :: REM GOTO ASKAGAIN</v>
+        <f>_xlfn.CONCAT("IF S=0 OR S=-1 THEN ",INDEX(B:B,MATCH(D23,A:A,0),0)," :: REM GOTO ",D23,"")</f>
+        <v>IF S=0 OR S=-1 THEN 300 :: REM GOTO ASKAGAIN</v>
       </c>
       <c r="D23" s="29" t="str">
         <f>A22</f>
@@ -3490,8 +3493,8 @@
         <v>320</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>_xlfn.CONCAT("IF K&lt;&gt;78 AND K&lt;&gt;89 AND K&lt;&gt;13 THEN ",INDEX(B:B,MATCH(D24,A:A,0),0)," :: REM GOTO ",D24,"")</f>
-        <v>IF K&lt;&gt;78 AND K&lt;&gt;89 AND K&lt;&gt;13 THEN 300 :: REM GOTO ASKAGAIN</v>
+        <f>_xlfn.CONCAT("IF K&lt;&gt;78 AND K&lt;&gt;89 THEN ",INDEX(B:B,MATCH(D24,A:A,0),0)," :: REM GOTO ",D24,"")</f>
+        <v>IF K&lt;&gt;78 AND K&lt;&gt;89 THEN 300 :: REM GOTO ASKAGAIN</v>
       </c>
       <c r="D24" s="29" t="str">
         <f>A22</f>
@@ -3513,51 +3516,47 @@
       <c r="B26">
         <v>340</v>
       </c>
-      <c r="C26" s="1" t="str">
-        <f>_xlfn.CONCAT("IF K&lt;&gt;13 THEN ",INDEX(B:B,MATCH(D26,A:A,0),0)," :: REM GOTO ",D26,"")</f>
-        <v>IF K&lt;&gt;13 THEN 300 :: REM GOTO ASKAGAIN</v>
-      </c>
-      <c r="D26" s="29" t="str">
-        <f>A22</f>
-        <v>ASKAGAIN</v>
-      </c>
+      <c r="C26" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27">
         <v>350</v>
       </c>
-      <c r="C27" s="1" t="str">
-        <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D27,A:A,0),0)," :: REM GOTO ",D27,"")</f>
-        <v>IF A$="" THEN 300 :: REM GOTO ASKAGAIN</v>
-      </c>
-      <c r="D27" s="29" t="str">
-        <f>A22</f>
-        <v>ASKAGAIN</v>
-      </c>
+      <c r="C27" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28">
         <v>360</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D28" s="28"/>
+      <c r="C28" s="1" t="str">
+        <f>_xlfn.CONCAT("IF A$=""N"" THEN CALL ",D28)</f>
+        <v>IF A$="N" THEN CALL TERMINATE</v>
+      </c>
+      <c r="D28" s="28" t="str">
+        <f>A372</f>
+        <v>TERMINATE</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29">
         <v>370</v>
       </c>
-      <c r="C29" s="1" t="str">
-        <f>_xlfn.CONCAT("IF A$=""N"" THEN CALL ",D29)</f>
-        <v>IF A$="N" THEN CALL TERMINATE</v>
-      </c>
-      <c r="D29" s="28" t="str">
-        <f>A374</f>
-        <v>TERMINATE</v>
+      <c r="C29" t="str">
+        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D29,A:A,0),0)," :: REM GOTO ",D29,"")</f>
+        <v>GOTO 250 :: REM GOTO GAMELOOP</v>
+      </c>
+      <c r="D29" s="29" t="str">
+        <f>A17</f>
+        <v>GAMELOOP</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3565,35 +3564,31 @@
       <c r="B30">
         <v>380</v>
       </c>
-      <c r="C30" t="str">
-        <f>_xlfn.CONCAT("GOTO ",INDEX(B:B,MATCH(D30,A:A,0),0)," :: REM GOTO ",D30,"")</f>
-        <v>GOTO 250 :: REM GOTO GAMELOOP</v>
-      </c>
-      <c r="D30" s="29" t="str">
-        <f>A17</f>
-        <v>GAMELOOP</v>
-      </c>
+      <c r="C30" t="s">
+        <v>679</v>
+      </c>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
+      <c r="A31" s="28" t="s">
+        <v>501</v>
+      </c>
       <c r="B31">
         <v>390</v>
       </c>
-      <c r="C31" t="s">
-        <v>679</v>
-      </c>
-      <c r="D31" s="29"/>
+      <c r="C31" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A31,"***")</f>
+        <v>REM SUBROUTINE ***INTRO***</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
-        <v>501</v>
-      </c>
+      <c r="A32" s="26"/>
       <c r="B32">
         <v>400</v>
       </c>
       <c r="C32" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A32,"***")</f>
-        <v>REM SUBROUTINE ***INTRO***</v>
+        <f>IF(ISBLANK(E32),_xlfn.CONCAT("SUB ",A31),_xlfn.CONCAT("SUB ",A31,"(",E32,")"))</f>
+        <v>SUB INTRO</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3601,9 +3596,8 @@
       <c r="B33">
         <v>410</v>
       </c>
-      <c r="C33" s="11" t="str">
-        <f>IF(ISBLANK(E33),_xlfn.CONCAT("SUB ",A32),_xlfn.CONCAT("SUB ",A32,"(",E33,")"))</f>
-        <v>SUB INTRO</v>
+      <c r="C33" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3612,7 +3606,7 @@
         <v>420</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>7</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3621,7 +3615,7 @@
         <v>430</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>777</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3630,7 +3624,7 @@
         <v>440</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>453</v>
+        <v>867</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3639,7 +3633,7 @@
         <v>450</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>867</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3648,7 +3642,7 @@
         <v>460</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>7</v>
+        <v>739</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3657,7 +3651,7 @@
         <v>470</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3666,7 +3660,7 @@
         <v>480</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3675,7 +3669,7 @@
         <v>490</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3684,7 +3678,7 @@
         <v>500</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3693,7 +3687,7 @@
         <v>510</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3702,7 +3696,7 @@
         <v>520</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3711,7 +3705,7 @@
         <v>530</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3720,7 +3714,7 @@
         <v>540</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3729,7 +3723,7 @@
         <v>550</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3738,7 +3732,7 @@
         <v>560</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3747,7 +3741,7 @@
         <v>570</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3756,7 +3750,7 @@
         <v>580</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3765,7 +3759,7 @@
         <v>590</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3774,7 +3768,7 @@
         <v>600</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3783,7 +3777,7 @@
         <v>610</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,7 +3786,7 @@
         <v>620</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>720</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3801,7 +3795,7 @@
         <v>630</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>7</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3810,7 +3804,7 @@
         <v>640</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3819,7 +3813,7 @@
         <v>650</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3828,7 +3822,7 @@
         <v>660</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3837,7 +3831,7 @@
         <v>670</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3846,7 +3840,7 @@
         <v>680</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3855,7 +3849,7 @@
         <v>690</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3864,7 +3858,7 @@
         <v>700</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3873,7 +3867,7 @@
         <v>710</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3882,7 +3876,7 @@
         <v>720</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -3891,7 +3885,7 @@
         <v>730</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -3900,7 +3894,7 @@
         <v>740</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -3909,7 +3903,7 @@
         <v>750</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3918,7 +3912,7 @@
         <v>760</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3927,28 +3921,29 @@
         <v>770</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>720</v>
+        <v>779</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="26"/>
+      <c r="A70" s="28" t="s">
+        <v>662</v>
+      </c>
       <c r="B70">
         <v>780</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>779</v>
+      <c r="C70" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A70,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARS***</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>662</v>
-      </c>
+      <c r="A71" s="26"/>
       <c r="B71">
         <v>790</v>
       </c>
       <c r="C71" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A71,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARS***</v>
+        <f>IF(ISBLANK(E71),_xlfn.CONCAT("SUB ",A70),_xlfn.CONCAT("SUB ",A70,"(",E71,")"))</f>
+        <v>SUB SETCHARS</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3956,9 +3951,13 @@
       <c r="B72">
         <v>800</v>
       </c>
-      <c r="C72" s="11" t="str">
-        <f>IF(ISBLANK(E72),_xlfn.CONCAT("SUB ",A71),_xlfn.CONCAT("SUB ",A71,"(",E72,")"))</f>
-        <v>SUB SETCHARS</v>
+      <c r="C72" s="28" t="str">
+        <f>IF(ISBLANK(E72),_xlfn.CONCAT("CALL ",D72),_xlfn.CONCAT("CALL ",D72,"(",E72,")"))</f>
+        <v>CALL SETCHARSRED</v>
+      </c>
+      <c r="D72" s="28" t="str">
+        <f>A78</f>
+        <v>SETCHARSRED</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3968,11 +3967,11 @@
       </c>
       <c r="C73" s="28" t="str">
         <f>IF(ISBLANK(E73),_xlfn.CONCAT("CALL ",D73),_xlfn.CONCAT("CALL ",D73,"(",E73,")"))</f>
-        <v>CALL SETCHARSRED</v>
+        <v>CALL SETCHARSBLACK</v>
       </c>
       <c r="D73" s="28" t="str">
-        <f>A79</f>
-        <v>SETCHARSRED</v>
+        <f>A89</f>
+        <v>SETCHARSBLACK</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3982,11 +3981,11 @@
       </c>
       <c r="C74" s="28" t="str">
         <f>IF(ISBLANK(E74),_xlfn.CONCAT("CALL ",D74),_xlfn.CONCAT("CALL ",D74,"(",E74,")"))</f>
-        <v>CALL SETCHARSBLACK</v>
+        <v>CALL SETCHARSEDGES</v>
       </c>
       <c r="D74" s="28" t="str">
-        <f>A90</f>
-        <v>SETCHARSBLACK</v>
+        <f>A115</f>
+        <v>SETCHARSEDGES</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3996,11 +3995,14 @@
       </c>
       <c r="C75" s="28" t="str">
         <f>IF(ISBLANK(E75),_xlfn.CONCAT("CALL ",D75),_xlfn.CONCAT("CALL ",D75,"(",E75,")"))</f>
-        <v>CALL SETCHARSEDGES</v>
+        <v>CALL GETCARDFRONT(CARDFRONT)</v>
       </c>
       <c r="D75" s="28" t="str">
-        <f>A116</f>
-        <v>SETCHARSEDGES</v>
+        <f>A414</f>
+        <v>GETCARDFRONT</v>
+      </c>
+      <c r="E75" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4008,16 +4010,8 @@
       <c r="B76">
         <v>840</v>
       </c>
-      <c r="C76" s="28" t="str">
-        <f>IF(ISBLANK(E76),_xlfn.CONCAT("CALL ",D76),_xlfn.CONCAT("CALL ",D76,"(",E76,")"))</f>
-        <v>CALL GETCARDFRONT(CARDFRONT)</v>
-      </c>
-      <c r="D76" s="28" t="str">
-        <f>A416</f>
-        <v>GETCARDFRONT</v>
-      </c>
-      <c r="E76" t="s">
-        <v>826</v>
+      <c r="C76" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -4025,39 +4019,47 @@
       <c r="B77">
         <v>850</v>
       </c>
-      <c r="C77" t="s">
-        <v>827</v>
+      <c r="C77" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
+      <c r="A78" s="28" t="s">
+        <v>849</v>
+      </c>
       <c r="B78">
         <v>860</v>
       </c>
-      <c r="C78" s="11" t="s">
-        <v>779</v>
+      <c r="C78" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A78,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSRED***</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="28" t="s">
-        <v>849</v>
-      </c>
+      <c r="A79" s="28"/>
       <c r="B79">
         <v>870</v>
       </c>
       <c r="C79" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A79,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSRED***</v>
+        <f>IF(ISBLANK(E79),_xlfn.CONCAT("SUB ",A78),_xlfn.CONCAT("SUB ",A78,"(",E79,")"))</f>
+        <v>SUB SETCHARSRED</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
+      <c r="A80" s="26"/>
       <c r="B80">
         <v>880</v>
       </c>
-      <c r="C80" s="11" t="str">
-        <f>IF(ISBLANK(E80),_xlfn.CONCAT("SUB ",A79),_xlfn.CONCAT("SUB ",A79,"(",E80,")"))</f>
-        <v>SUB SETCHARSRED</v>
+      <c r="C80" s="28" t="str">
+        <f>IF(ISBLANK(E80),_xlfn.CONCAT("CALL ",D80),_xlfn.CONCAT("CALL ",D80,"(",E80,")"))</f>
+        <v>CALL GETHEART(HEART)</v>
+      </c>
+      <c r="D80" s="28" t="str">
+        <f>A378</f>
+        <v>GETHEART</v>
+      </c>
+      <c r="E80" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -4065,16 +4067,8 @@
       <c r="B81">
         <v>890</v>
       </c>
-      <c r="C81" s="28" t="str">
-        <f>IF(ISBLANK(E81),_xlfn.CONCAT("CALL ",D81),_xlfn.CONCAT("CALL ",D81,"(",E81,")"))</f>
-        <v>CALL GETHEART(HEART)</v>
-      </c>
-      <c r="D81" s="28" t="str">
-        <f>A380</f>
-        <v>GETHEART</v>
-      </c>
-      <c r="E81" t="s">
-        <v>808</v>
+      <c r="C81" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -4082,8 +4076,16 @@
       <c r="B82">
         <v>900</v>
       </c>
-      <c r="C82" t="s">
-        <v>809</v>
+      <c r="C82" s="28" t="str">
+        <f>IF(ISBLANK(E82),_xlfn.CONCAT("CALL ",D82),_xlfn.CONCAT("CALL ",D82,"(",E82,")"))</f>
+        <v>CALL GETDIAMOND(DIAMOND)</v>
+      </c>
+      <c r="D82" s="28" t="str">
+        <f>A382</f>
+        <v>GETDIAMOND</v>
+      </c>
+      <c r="E82" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -4091,16 +4093,8 @@
       <c r="B83">
         <v>910</v>
       </c>
-      <c r="C83" s="28" t="str">
-        <f>IF(ISBLANK(E83),_xlfn.CONCAT("CALL ",D83),_xlfn.CONCAT("CALL ",D83,"(",E83,")"))</f>
-        <v>CALL GETDIAMOND(DIAMOND)</v>
-      </c>
-      <c r="D83" s="28" t="str">
-        <f>A384</f>
-        <v>GETDIAMOND</v>
-      </c>
-      <c r="E83" t="s">
-        <v>810</v>
+      <c r="C83" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -4108,8 +4102,16 @@
       <c r="B84">
         <v>920</v>
       </c>
-      <c r="C84" t="s">
-        <v>811</v>
+      <c r="C84" s="28" t="str">
+        <f>IF(ISBLANK(E84),_xlfn.CONCAT("CALL ",D84),_xlfn.CONCAT("CALL ",D84,"(",E84,")"))</f>
+        <v>CALL GETREDVALS(REDVALS)</v>
+      </c>
+      <c r="D84" s="28" t="str">
+        <f>A386</f>
+        <v>GETREDVALS</v>
+      </c>
+      <c r="E84" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -4119,14 +4121,14 @@
       </c>
       <c r="C85" s="28" t="str">
         <f>IF(ISBLANK(E85),_xlfn.CONCAT("CALL ",D85),_xlfn.CONCAT("CALL ",D85,"(",E85,")"))</f>
-        <v>CALL GETREDVALS(REDVALS)</v>
+        <v>CALL SETCHARSVALS((REDVALS))</v>
       </c>
       <c r="D85" s="28" t="str">
-        <f>A388</f>
-        <v>GETREDVALS</v>
+        <f>A98</f>
+        <v>SETCHARSVALS</v>
       </c>
       <c r="E85" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -4136,14 +4138,14 @@
       </c>
       <c r="C86" s="28" t="str">
         <f>IF(ISBLANK(E86),_xlfn.CONCAT("CALL ",D86),_xlfn.CONCAT("CALL ",D86,"(",E86,")"))</f>
-        <v>CALL SETCHARSVALS((REDVALS))</v>
+        <v>CALL GETCARDBACK(CARDBACK)</v>
       </c>
       <c r="D86" s="28" t="str">
-        <f>A99</f>
-        <v>SETCHARSVALS</v>
+        <f>A390</f>
+        <v>GETCARDBACK</v>
       </c>
       <c r="E86" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4151,16 +4153,8 @@
       <c r="B87">
         <v>950</v>
       </c>
-      <c r="C87" s="28" t="str">
-        <f>IF(ISBLANK(E87),_xlfn.CONCAT("CALL ",D87),_xlfn.CONCAT("CALL ",D87,"(",E87,")"))</f>
-        <v>CALL GETCARDBACK(CARDBACK)</v>
-      </c>
-      <c r="D87" s="28" t="str">
-        <f>A392</f>
-        <v>GETCARDBACK</v>
-      </c>
-      <c r="E87" t="s">
-        <v>815</v>
+      <c r="C87" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4168,39 +4162,47 @@
       <c r="B88">
         <v>960</v>
       </c>
-      <c r="C88" t="s">
-        <v>816</v>
+      <c r="C88" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="26"/>
+      <c r="A89" s="28" t="s">
+        <v>850</v>
+      </c>
       <c r="B89">
         <v>970</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>779</v>
+      <c r="C89" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A89,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSBLACK***</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="28" t="s">
-        <v>850</v>
-      </c>
+      <c r="A90" s="28"/>
       <c r="B90">
         <v>980</v>
       </c>
       <c r="C90" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A90,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSBLACK***</v>
+        <f>IF(ISBLANK(E90),_xlfn.CONCAT("SUB ",A89),_xlfn.CONCAT("SUB ",A89,"(",E90,")"))</f>
+        <v>SUB SETCHARSBLACK</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="28"/>
+      <c r="A91" s="26"/>
       <c r="B91">
         <v>990</v>
       </c>
-      <c r="C91" s="11" t="str">
-        <f>IF(ISBLANK(E91),_xlfn.CONCAT("SUB ",A90),_xlfn.CONCAT("SUB ",A90,"(",E91,")"))</f>
-        <v>SUB SETCHARSBLACK</v>
+      <c r="C91" s="28" t="str">
+        <f>IF(ISBLANK(E91),_xlfn.CONCAT("CALL ",D91),_xlfn.CONCAT("CALL ",D91,"(",E91,")"))</f>
+        <v>CALL GETSPADE(SPADE)</v>
+      </c>
+      <c r="D91" s="28" t="str">
+        <f>A394</f>
+        <v>GETSPADE</v>
+      </c>
+      <c r="E91" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -4208,16 +4210,8 @@
       <c r="B92">
         <v>1000</v>
       </c>
-      <c r="C92" s="28" t="str">
-        <f>IF(ISBLANK(E92),_xlfn.CONCAT("CALL ",D92),_xlfn.CONCAT("CALL ",D92,"(",E92,")"))</f>
-        <v>CALL GETSPADE(SPADE)</v>
-      </c>
-      <c r="D92" s="28" t="str">
-        <f>A396</f>
-        <v>GETSPADE</v>
-      </c>
-      <c r="E92" t="s">
-        <v>817</v>
+      <c r="C92" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -4225,8 +4219,16 @@
       <c r="B93">
         <v>1010</v>
       </c>
-      <c r="C93" t="s">
-        <v>818</v>
+      <c r="C93" s="28" t="str">
+        <f>IF(ISBLANK(E93),_xlfn.CONCAT("CALL ",D93),_xlfn.CONCAT("CALL ",D93,"(",E93,")"))</f>
+        <v>CALL GETCLUB(CLUB)</v>
+      </c>
+      <c r="D93" s="28" t="str">
+        <f>A398</f>
+        <v>GETCLUB</v>
+      </c>
+      <c r="E93" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -4234,16 +4236,8 @@
       <c r="B94">
         <v>1020</v>
       </c>
-      <c r="C94" s="28" t="str">
-        <f>IF(ISBLANK(E94),_xlfn.CONCAT("CALL ",D94),_xlfn.CONCAT("CALL ",D94,"(",E94,")"))</f>
-        <v>CALL GETCLUB(CLUB)</v>
-      </c>
-      <c r="D94" s="28" t="str">
-        <f>A400</f>
-        <v>GETCLUB</v>
-      </c>
-      <c r="E94" t="s">
-        <v>819</v>
+      <c r="C94" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -4251,8 +4245,16 @@
       <c r="B95">
         <v>1030</v>
       </c>
-      <c r="C95" t="s">
-        <v>851</v>
+      <c r="C95" s="28" t="str">
+        <f>IF(ISBLANK(E95),_xlfn.CONCAT("CALL ",D95),_xlfn.CONCAT("CALL ",D95,"(",E95,")"))</f>
+        <v>CALL GETBLACKVALS(BLACKVALS)</v>
+      </c>
+      <c r="D95" s="28" t="str">
+        <f>A402</f>
+        <v>GETBLACKVALS</v>
+      </c>
+      <c r="E95" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -4262,14 +4264,14 @@
       </c>
       <c r="C96" s="28" t="str">
         <f>IF(ISBLANK(E96),_xlfn.CONCAT("CALL ",D96),_xlfn.CONCAT("CALL ",D96,"(",E96,")"))</f>
-        <v>CALL GETBLACKVALS(BLACKVALS)</v>
+        <v>CALL SETCHARSVALS((BLACKVALS))</v>
       </c>
       <c r="D96" s="28" t="str">
-        <f>A404</f>
-        <v>GETBLACKVALS</v>
+        <f>A98</f>
+        <v>SETCHARSVALS</v>
       </c>
       <c r="E96" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -4277,37 +4279,33 @@
       <c r="B97">
         <v>1050</v>
       </c>
-      <c r="C97" s="28" t="str">
-        <f>IF(ISBLANK(E97),_xlfn.CONCAT("CALL ",D97),_xlfn.CONCAT("CALL ",D97,"(",E97,")"))</f>
-        <v>CALL SETCHARSVALS((BLACKVALS))</v>
-      </c>
-      <c r="D97" s="28" t="str">
-        <f>A99</f>
-        <v>SETCHARSVALS</v>
-      </c>
-      <c r="E97" t="s">
-        <v>821</v>
+      <c r="C97" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
+      <c r="A98" s="28" t="s">
+        <v>664</v>
+      </c>
       <c r="B98">
         <v>1060</v>
       </c>
-      <c r="C98" s="11" t="s">
-        <v>779</v>
+      <c r="C98" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A98,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSVALS***</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="28" t="s">
-        <v>664</v>
-      </c>
+      <c r="A99" s="26"/>
       <c r="B99">
         <v>1070</v>
       </c>
       <c r="C99" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A99,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSVALS***</v>
+        <f>IF(ISBLANK(E99),_xlfn.CONCAT("SUB ",A98),_xlfn.CONCAT("SUB ",A98,"(",E99,")"))</f>
+        <v>SUB SETCHARSVALS(OFFSET)</v>
+      </c>
+      <c r="E99" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4315,12 +4313,8 @@
       <c r="B100">
         <v>1080</v>
       </c>
-      <c r="C100" s="11" t="str">
-        <f>IF(ISBLANK(E100),_xlfn.CONCAT("SUB ",A99),_xlfn.CONCAT("SUB ",A99,"(",E100,")"))</f>
-        <v>SUB SETCHARSVALS(OFFSET)</v>
-      </c>
-      <c r="E100" t="s">
-        <v>813</v>
+      <c r="C100" s="11" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -4328,8 +4322,8 @@
       <c r="B101">
         <v>1090</v>
       </c>
-      <c r="C101" s="11" t="s">
-        <v>663</v>
+      <c r="C101" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -4338,7 +4332,7 @@
         <v>1100</v>
       </c>
       <c r="C102" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -4347,7 +4341,7 @@
         <v>1110</v>
       </c>
       <c r="C103" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -4356,7 +4350,7 @@
         <v>1120</v>
       </c>
       <c r="C104" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -4365,7 +4359,7 @@
         <v>1130</v>
       </c>
       <c r="C105" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -4374,7 +4368,7 @@
         <v>1140</v>
       </c>
       <c r="C106" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4383,7 +4377,7 @@
         <v>1150</v>
       </c>
       <c r="C107" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4392,7 +4386,7 @@
         <v>1160</v>
       </c>
       <c r="C108" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4401,7 +4395,7 @@
         <v>1170</v>
       </c>
       <c r="C109" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4410,7 +4404,7 @@
         <v>1180</v>
       </c>
       <c r="C110" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4419,7 +4413,7 @@
         <v>1190</v>
       </c>
       <c r="C111" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4428,7 +4422,7 @@
         <v>1200</v>
       </c>
       <c r="C112" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4437,7 +4431,7 @@
         <v>1210</v>
       </c>
       <c r="C113" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4445,29 +4439,30 @@
       <c r="B114">
         <v>1220</v>
       </c>
-      <c r="C114" t="s">
-        <v>677</v>
+      <c r="C114" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="26"/>
+      <c r="A115" s="28" t="s">
+        <v>678</v>
+      </c>
       <c r="B115">
         <v>1230</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>779</v>
+      <c r="C115" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A115,"***")</f>
+        <v>REM SUBROUTINE ***SETCHARSEDGES***</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="28" t="s">
-        <v>678</v>
-      </c>
+      <c r="A116" s="26"/>
       <c r="B116">
         <v>1240</v>
       </c>
       <c r="C116" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A116,"***")</f>
-        <v>REM SUBROUTINE ***SETCHARSEDGES***</v>
+        <f>IF(ISBLANK(E116),_xlfn.CONCAT("SUB ",A115),_xlfn.CONCAT("SUB ",A115,"(",E116,")"))</f>
+        <v>SUB SETCHARSEDGES</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4475,9 +4470,16 @@
       <c r="B117">
         <v>1250</v>
       </c>
-      <c r="C117" s="11" t="str">
-        <f>IF(ISBLANK(E117),_xlfn.CONCAT("SUB ",A116),_xlfn.CONCAT("SUB ",A116,"(",E117,")"))</f>
-        <v>SUB SETCHARSEDGES</v>
+      <c r="C117" s="28" t="str">
+        <f>IF(ISBLANK(E117),_xlfn.CONCAT("CALL ",D117),_xlfn.CONCAT("CALL ",D117,"(",E117,")"))</f>
+        <v>CALL GETCARDEDGE(CARDEDGE)</v>
+      </c>
+      <c r="D117" s="28" t="str">
+        <f>A406</f>
+        <v>GETCARDEDGE</v>
+      </c>
+      <c r="E117" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -4485,16 +4487,8 @@
       <c r="B118">
         <v>1260</v>
       </c>
-      <c r="C118" s="28" t="str">
-        <f>IF(ISBLANK(E118),_xlfn.CONCAT("CALL ",D118),_xlfn.CONCAT("CALL ",D118,"(",E118,")"))</f>
-        <v>CALL GETCARDEDGE(CARDEDGE)</v>
-      </c>
-      <c r="D118" s="28" t="str">
-        <f>A408</f>
-        <v>GETCARDEDGE</v>
-      </c>
-      <c r="E118" t="s">
-        <v>822</v>
+      <c r="C118" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4502,8 +4496,16 @@
       <c r="B119">
         <v>1270</v>
       </c>
-      <c r="C119" t="s">
-        <v>823</v>
+      <c r="C119" s="28" t="str">
+        <f>IF(ISBLANK(E119),_xlfn.CONCAT("CALL ",D119),_xlfn.CONCAT("CALL ",D119,"(",E119,")"))</f>
+        <v>CALL GETCARDTOP(CARDTOP)</v>
+      </c>
+      <c r="D119" s="28" t="str">
+        <f>A410</f>
+        <v>GETCARDTOP</v>
+      </c>
+      <c r="E119" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4511,16 +4513,8 @@
       <c r="B120">
         <v>1280</v>
       </c>
-      <c r="C120" s="28" t="str">
-        <f>IF(ISBLANK(E120),_xlfn.CONCAT("CALL ",D120),_xlfn.CONCAT("CALL ",D120,"(",E120,")"))</f>
-        <v>CALL GETCARDTOP(CARDTOP)</v>
-      </c>
-      <c r="D120" s="28" t="str">
-        <f>A412</f>
-        <v>GETCARDTOP</v>
-      </c>
-      <c r="E120" t="s">
-        <v>824</v>
+      <c r="C120" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -4528,29 +4522,30 @@
       <c r="B121">
         <v>1290</v>
       </c>
-      <c r="C121" t="s">
-        <v>825</v>
+      <c r="C121" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="26"/>
+      <c r="A122" s="28" t="s">
+        <v>681</v>
+      </c>
       <c r="B122">
         <v>1300</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>779</v>
+      <c r="C122" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A122,"***")</f>
+        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="28" t="s">
-        <v>681</v>
-      </c>
+      <c r="A123" s="26"/>
       <c r="B123">
         <v>1310</v>
       </c>
       <c r="C123" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A123,"***")</f>
-        <v>REM SUBROUTINE ***SETCOLORSCHEME***</v>
+        <f>IF(ISBLANK(E123),_xlfn.CONCAT("SUB ",A122),_xlfn.CONCAT("SUB ",A122,"(",E123,")"))</f>
+        <v>SUB SETCOLORSCHEME</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4558,9 +4553,8 @@
       <c r="B124">
         <v>1320</v>
       </c>
-      <c r="C124" s="11" t="str">
-        <f>IF(ISBLANK(E124),_xlfn.CONCAT("SUB ",A123),_xlfn.CONCAT("SUB ",A123,"(",E124,")"))</f>
-        <v>SUB SETCOLORSCHEME</v>
+      <c r="C124" s="11" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -4569,7 +4563,7 @@
         <v>1330</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4578,7 +4572,7 @@
         <v>1340</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -4587,7 +4581,7 @@
         <v>1350</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -4596,7 +4590,7 @@
         <v>1360</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -4605,7 +4599,7 @@
         <v>1370</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4614,7 +4608,7 @@
         <v>1380</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>829</v>
+        <v>682</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4623,28 +4617,32 @@
         <v>1390</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>682</v>
+        <v>779</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="26"/>
+      <c r="A132" s="28" t="s">
+        <v>577</v>
+      </c>
       <c r="B132">
         <v>1400</v>
       </c>
-      <c r="C132" s="11" t="s">
-        <v>779</v>
+      <c r="C132" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A132,"***")</f>
+        <v>REM SUBROUTINE ***RENDERCARD***</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="28" t="s">
-        <v>577</v>
-      </c>
+      <c r="A133" s="26"/>
       <c r="B133">
         <v>1410</v>
       </c>
       <c r="C133" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A133,"***")</f>
-        <v>REM SUBROUTINE ***RENDERCARD***</v>
+        <f>IF(ISBLANK(E133),_xlfn.CONCAT("SUB ",A132),_xlfn.CONCAT("SUB ",A132,"(",E133,")"))</f>
+        <v>SUB RENDERCARD(PLAYER,CARD,FACEDOWN,HANDS(,,))</v>
+      </c>
+      <c r="E133" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -4652,12 +4650,20 @@
       <c r="B134">
         <v>1420</v>
       </c>
-      <c r="C134" s="11" t="str">
-        <f>IF(ISBLANK(E134),_xlfn.CONCAT("SUB ",A133),_xlfn.CONCAT("SUB ",A133,"(",E134,")"))</f>
-        <v>SUB RENDERCARD(PLAYER,CARD,FACEDOWN,HANDS(,,))</v>
-      </c>
-      <c r="E134" t="s">
-        <v>837</v>
+      <c r="C134" s="28" t="str">
+        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN CALL ",D134,"(",F134,") ELSE CALL ",E134,"(",F134,")")</f>
+        <v>IF FACEDOWN=1 THEN CALL GETCARDBACK(FILL) ELSE CALL GETCARDFRONT(FILL)</v>
+      </c>
+      <c r="D134" s="28" t="str">
+        <f>A390</f>
+        <v>GETCARDBACK</v>
+      </c>
+      <c r="E134" s="28" t="str">
+        <f>A414</f>
+        <v>GETCARDFRONT</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -4665,20 +4671,8 @@
       <c r="B135">
         <v>1430</v>
       </c>
-      <c r="C135" s="28" t="str">
-        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN CALL ",D135,"(",F135,") ELSE CALL ",E135,"(",F135,")")</f>
-        <v>IF FACEDOWN=1 THEN CALL GETCARDBACK(FILL) ELSE CALL GETCARDFRONT(FILL)</v>
-      </c>
-      <c r="D135" s="28" t="str">
-        <f>A392</f>
-        <v>GETCARDBACK</v>
-      </c>
-      <c r="E135" s="28" t="str">
-        <f>A416</f>
-        <v>GETCARDFRONT</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>834</v>
+      <c r="C135" s="11" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -4687,7 +4681,7 @@
         <v>1440</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -4695,8 +4689,8 @@
       <c r="B137">
         <v>1450</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>686</v>
+      <c r="C137" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -4705,7 +4699,7 @@
         <v>1460</v>
       </c>
       <c r="C138" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -4714,7 +4708,7 @@
         <v>1470</v>
       </c>
       <c r="C139" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -4722,8 +4716,16 @@
       <c r="B140">
         <v>1480</v>
       </c>
-      <c r="C140" t="s">
-        <v>57</v>
+      <c r="C140" s="28" t="str">
+        <f>IF(ISBLANK(E140),_xlfn.CONCAT("CALL ",D140),_xlfn.CONCAT("CALL ",D140,"(",E140,")"))</f>
+        <v>CALL GETCARDTOP(CARDTOP)</v>
+      </c>
+      <c r="D140" s="28" t="str">
+        <f>A410</f>
+        <v>GETCARDTOP</v>
+      </c>
+      <c r="E140" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -4733,14 +4735,14 @@
       </c>
       <c r="C141" s="28" t="str">
         <f>IF(ISBLANK(E141),_xlfn.CONCAT("CALL ",D141),_xlfn.CONCAT("CALL ",D141,"(",E141,")"))</f>
-        <v>CALL GETCARDTOP(CARDTOP)</v>
+        <v>CALL GETCARDEDGE(CARDEDGE)</v>
       </c>
       <c r="D141" s="28" t="str">
-        <f>A412</f>
-        <v>GETCARDTOP</v>
+        <f>A406</f>
+        <v>GETCARDEDGE</v>
       </c>
       <c r="E141" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -4748,16 +4750,8 @@
       <c r="B142">
         <v>1500</v>
       </c>
-      <c r="C142" s="28" t="str">
-        <f>IF(ISBLANK(E142),_xlfn.CONCAT("CALL ",D142),_xlfn.CONCAT("CALL ",D142,"(",E142,")"))</f>
-        <v>CALL GETCARDEDGE(CARDEDGE)</v>
-      </c>
-      <c r="D142" s="28" t="str">
-        <f>A408</f>
-        <v>GETCARDEDGE</v>
-      </c>
-      <c r="E142" t="s">
-        <v>822</v>
+      <c r="C142" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -4766,7 +4760,7 @@
         <v>1510</v>
       </c>
       <c r="C143" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -4774,8 +4768,13 @@
       <c r="B144">
         <v>1520</v>
       </c>
-      <c r="C144" t="s">
-        <v>684</v>
+      <c r="C144" t="str">
+        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN ",INDEX(B:B,MATCH(D144,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF FACEDOWN=1 THEN 1790 :: REM SUBEND</v>
+      </c>
+      <c r="D144" s="29" t="str">
+        <f>A171</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -4783,13 +4782,8 @@
       <c r="B145">
         <v>1530</v>
       </c>
-      <c r="C145" t="str">
-        <f>_xlfn.CONCAT("IF FACEDOWN=1 THEN ",INDEX(B:B,MATCH(D145,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF FACEDOWN=1 THEN 1800 :: REM SUBEND</v>
-      </c>
-      <c r="D145" s="29" t="str">
-        <f>A172</f>
-        <v>RENDERCARD.SUBEND</v>
+      <c r="C145" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -4797,8 +4791,16 @@
       <c r="B146">
         <v>1540</v>
       </c>
-      <c r="C146" t="s">
-        <v>688</v>
+      <c r="C146" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=1 THEN CALL ",D146,"(",E146,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=1 THEN CALL GETHEART(SUIT)</v>
+      </c>
+      <c r="D146" s="28" t="str">
+        <f>A378</f>
+        <v>GETHEART</v>
+      </c>
+      <c r="E146" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -4807,12 +4809,12 @@
         <v>1550</v>
       </c>
       <c r="C147" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=1 THEN CALL ",D147,"(",E147,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=1 THEN CALL GETHEART(SUIT)</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=2 THEN CALL ",D147,"(",E147,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=2 THEN CALL GETDIAMOND(SUIT)</v>
       </c>
       <c r="D147" s="28" t="str">
-        <f>A380</f>
-        <v>GETHEART</v>
+        <f>A382</f>
+        <v>GETDIAMOND</v>
       </c>
       <c r="E147" t="s">
         <v>835</v>
@@ -4824,12 +4826,12 @@
         <v>1560</v>
       </c>
       <c r="C148" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=2 THEN CALL ",D148,"(",E148,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=2 THEN CALL GETDIAMOND(SUIT)</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=3 THEN CALL ",D148,"(",E148,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=3 THEN CALL GETSPADE(SUIT)</v>
       </c>
       <c r="D148" s="28" t="str">
-        <f>A384</f>
-        <v>GETDIAMOND</v>
+        <f>A394</f>
+        <v>GETSPADE</v>
       </c>
       <c r="E148" t="s">
         <v>835</v>
@@ -4841,12 +4843,12 @@
         <v>1570</v>
       </c>
       <c r="C149" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=3 THEN CALL ",D149,"(",E149,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=3 THEN CALL GETSPADE(SUIT)</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=4 THEN CALL ",D149,"(",E149,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)=4 THEN CALL GETCLUB(SUIT)</v>
       </c>
       <c r="D149" s="28" t="str">
-        <f>A396</f>
-        <v>GETSPADE</v>
+        <f>A398</f>
+        <v>GETCLUB</v>
       </c>
       <c r="E149" t="s">
         <v>835</v>
@@ -4857,16 +4859,8 @@
       <c r="B150">
         <v>1580</v>
       </c>
-      <c r="C150" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)=4 THEN CALL ",D150,"(",E150,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)=4 THEN CALL GETCLUB(SUIT)</v>
-      </c>
-      <c r="D150" s="28" t="str">
-        <f>A400</f>
-        <v>GETCLUB</v>
-      </c>
-      <c r="E150" t="s">
-        <v>835</v>
+      <c r="C150" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4874,8 +4868,16 @@
       <c r="B151">
         <v>1590</v>
       </c>
-      <c r="C151" t="s">
-        <v>687</v>
+      <c r="C151" s="28" t="str">
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL ",D151,"(",E151,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL GETREDVALS(CARDCHAR)</v>
+      </c>
+      <c r="D151" s="28" t="str">
+        <f>A386</f>
+        <v>GETREDVALS</v>
+      </c>
+      <c r="E151" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
@@ -4884,12 +4886,12 @@
         <v>1600</v>
       </c>
       <c r="C152" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL ",D152,"(",E152,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)&lt;3 THEN CALL GETREDVALS(CARDCHAR)</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL ",D152,"(",E152,")")</f>
+        <v>IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL GETBLACKVALS(CARDCHAR)</v>
       </c>
       <c r="D152" s="28" t="str">
-        <f>A388</f>
-        <v>GETREDVALS</v>
+        <f>A402</f>
+        <v>GETBLACKVALS</v>
       </c>
       <c r="E152" t="s">
         <v>836</v>
@@ -4900,16 +4902,8 @@
       <c r="B153">
         <v>1610</v>
       </c>
-      <c r="C153" s="28" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL ",D153,"(",E153,")")</f>
-        <v>IF HANDS(PLAYER,CARD,1)&gt;2 THEN CALL GETBLACKVALS(CARDCHAR)</v>
-      </c>
-      <c r="D153" s="28" t="str">
-        <f>A404</f>
-        <v>GETBLACKVALS</v>
-      </c>
-      <c r="E153" t="s">
-        <v>836</v>
+      <c r="C153" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -4918,7 +4912,7 @@
         <v>1620</v>
       </c>
       <c r="C154" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -4927,7 +4921,7 @@
         <v>1630</v>
       </c>
       <c r="C155" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -4936,7 +4930,7 @@
         <v>1640</v>
       </c>
       <c r="C156" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4945,7 +4939,7 @@
         <v>1650</v>
       </c>
       <c r="C157" t="s">
-        <v>691</v>
+        <v>751</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -4953,8 +4947,20 @@
       <c r="B158">
         <v>1660</v>
       </c>
-      <c r="C158" t="s">
-        <v>751</v>
+      <c r="C158" s="28" t="str">
+        <f>_xlfn.CONCAT("IF CARDVAL=2 THEN CALL ",D158,"(",E158,") :: GOTO ",INDEX(B:B,MATCH(F158,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=2 THEN CALL RENDER2(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
+      </c>
+      <c r="D158" s="28" t="str">
+        <f>A172</f>
+        <v>RENDER2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>786</v>
+      </c>
+      <c r="F158" t="str">
+        <f>A171</f>
+        <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -4963,18 +4969,18 @@
         <v>1670</v>
       </c>
       <c r="C159" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=2 THEN CALL ",D159,"(",E159,") :: GOTO ",INDEX(B:B,MATCH(F159,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=2 THEN CALL RENDER2(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=3 THEN CALL ",D159,"(",E159,") :: GOTO ",INDEX(B:B,MATCH(F159,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=3 THEN CALL RENDER3(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D159" s="28" t="str">
-        <f>A173</f>
-        <v>RENDER2</v>
+        <f>A177</f>
+        <v>RENDER3</v>
       </c>
       <c r="E159" t="s">
         <v>786</v>
       </c>
       <c r="F159" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -4984,18 +4990,18 @@
         <v>1680</v>
       </c>
       <c r="C160" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=3 THEN CALL ",D160,"(",E160,") :: GOTO ",INDEX(B:B,MATCH(F160,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=3 THEN CALL RENDER3(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=4 THEN CALL ",D160,"(",E160,") :: GOTO ",INDEX(B:B,MATCH(F160,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=4 THEN CALL RENDER4(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D160" s="28" t="str">
-        <f>A178</f>
-        <v>RENDER3</v>
+        <f>A181</f>
+        <v>RENDER4</v>
       </c>
       <c r="E160" t="s">
         <v>786</v>
       </c>
       <c r="F160" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5005,18 +5011,18 @@
         <v>1690</v>
       </c>
       <c r="C161" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=4 THEN CALL ",D161,"(",E161,") :: GOTO ",INDEX(B:B,MATCH(F161,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=4 THEN CALL RENDER4(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=5 THEN CALL ",D161,"(",E161,") :: GOTO ",INDEX(B:B,MATCH(F161,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=5 THEN CALL RENDER5(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D161" s="28" t="str">
-        <f>A182</f>
-        <v>RENDER4</v>
+        <f>A188</f>
+        <v>RENDER5</v>
       </c>
       <c r="E161" t="s">
         <v>786</v>
       </c>
       <c r="F161" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5026,18 +5032,18 @@
         <v>1700</v>
       </c>
       <c r="C162" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=5 THEN CALL ",D162,"(",E162,") :: GOTO ",INDEX(B:B,MATCH(F162,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=5 THEN CALL RENDER5(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=6 THEN CALL ",D162,"(",E162,") :: GOTO ",INDEX(B:B,MATCH(F162,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=6 THEN CALL RENDER6(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D162" s="28" t="str">
-        <f>A189</f>
-        <v>RENDER5</v>
+        <f>A193</f>
+        <v>RENDER6</v>
       </c>
       <c r="E162" t="s">
         <v>786</v>
       </c>
       <c r="F162" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5047,18 +5053,18 @@
         <v>1710</v>
       </c>
       <c r="C163" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=6 THEN CALL ",D163,"(",E163,") :: GOTO ",INDEX(B:B,MATCH(F163,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=6 THEN CALL RENDER6(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=7 THEN CALL ",D163,"(",E163,") :: GOTO ",INDEX(B:B,MATCH(F163,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=7 THEN CALL RENDER7(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D163" s="28" t="str">
-        <f>A194</f>
-        <v>RENDER6</v>
+        <f>A198</f>
+        <v>RENDER7</v>
       </c>
       <c r="E163" t="s">
         <v>786</v>
       </c>
       <c r="F163" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5068,18 +5074,18 @@
         <v>1720</v>
       </c>
       <c r="C164" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=7 THEN CALL ",D164,"(",E164,") :: GOTO ",INDEX(B:B,MATCH(F164,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=7 THEN CALL RENDER7(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=8 THEN CALL ",D164,"(",E164,") :: GOTO ",INDEX(B:B,MATCH(F164,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=8 THEN CALL RENDER8(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D164" s="28" t="str">
-        <f>A199</f>
-        <v>RENDER7</v>
+        <f>A203</f>
+        <v>RENDER8</v>
       </c>
       <c r="E164" t="s">
         <v>786</v>
       </c>
       <c r="F164" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5089,18 +5095,18 @@
         <v>1730</v>
       </c>
       <c r="C165" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=8 THEN CALL ",D165,"(",E165,") :: GOTO ",INDEX(B:B,MATCH(F165,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=8 THEN CALL RENDER8(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=9 THEN CALL ",D165,"(",E165,") :: GOTO ",INDEX(B:B,MATCH(F165,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=9 THEN CALL RENDER9(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D165" s="28" t="str">
-        <f>A204</f>
-        <v>RENDER8</v>
+        <f>A214</f>
+        <v>RENDER9</v>
       </c>
       <c r="E165" t="s">
         <v>786</v>
       </c>
       <c r="F165" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5110,18 +5116,18 @@
         <v>1740</v>
       </c>
       <c r="C166" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=9 THEN CALL ",D166,"(",E166,") :: GOTO ",INDEX(B:B,MATCH(F166,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=9 THEN CALL RENDER9(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=10 THEN CALL ",D166,"(",E166,") :: GOTO ",INDEX(B:B,MATCH(F166,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=10 THEN CALL RENDER10(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D166" s="28" t="str">
-        <f>A215</f>
-        <v>RENDER9</v>
+        <f>A222</f>
+        <v>RENDER10</v>
       </c>
       <c r="E166" t="s">
         <v>786</v>
       </c>
       <c r="F166" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5131,18 +5137,18 @@
         <v>1750</v>
       </c>
       <c r="C167" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=10 THEN CALL ",D167,"(",E167,") :: GOTO ",INDEX(B:B,MATCH(F167,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=10 THEN CALL RENDER10(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=11 THEN CALL ",D167,"(",E167,") :: GOTO ",INDEX(B:B,MATCH(F167,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=11 THEN CALL RENDERJACK(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D167" s="28" t="str">
-        <f>A223</f>
-        <v>RENDER10</v>
+        <f>A227</f>
+        <v>RENDERJACK</v>
       </c>
       <c r="E167" t="s">
         <v>786</v>
       </c>
       <c r="F167" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5152,18 +5158,18 @@
         <v>1760</v>
       </c>
       <c r="C168" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=11 THEN CALL ",D168,"(",E168,") :: GOTO ",INDEX(B:B,MATCH(F168,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=11 THEN CALL RENDERJACK(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=12 THEN CALL ",D168,"(",E168,") :: GOTO ",INDEX(B:B,MATCH(F168,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=12 THEN CALL RENDERQUEEN(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D168" s="28" t="str">
-        <f>A228</f>
-        <v>RENDERJACK</v>
+        <f>A233</f>
+        <v>RENDERQUEEN</v>
       </c>
       <c r="E168" t="s">
         <v>786</v>
       </c>
       <c r="F168" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5173,18 +5179,18 @@
         <v>1770</v>
       </c>
       <c r="C169" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=12 THEN CALL ",D169,"(",E169,") :: GOTO ",INDEX(B:B,MATCH(F169,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=12 THEN CALL RENDERQUEEN(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=13 THEN CALL ",D169,"(",E169,") :: GOTO ",INDEX(B:B,MATCH(F169,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=13 THEN CALL RENDERKING(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D169" s="28" t="str">
-        <f>A234</f>
-        <v>RENDERQUEEN</v>
+        <f>A240</f>
+        <v>RENDERKING</v>
       </c>
       <c r="E169" t="s">
         <v>786</v>
       </c>
       <c r="F169" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
@@ -5194,64 +5200,56 @@
         <v>1780</v>
       </c>
       <c r="C170" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=13 THEN CALL ",D170,"(",E170,") :: GOTO ",INDEX(B:B,MATCH(F170,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=13 THEN CALL RENDERKING(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
+        <f>_xlfn.CONCAT("IF CARDVAL=14 THEN CALL ",D170,"(",E170,") :: GOTO ",INDEX(B:B,MATCH(F170,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF CARDVAL=14 THEN CALL RENDERACE(ROW,COL,SUIT) :: GOTO 1790 :: REM SUBEND</v>
       </c>
       <c r="D170" s="28" t="str">
-        <f>A241</f>
-        <v>RENDERKING</v>
+        <f>A247</f>
+        <v>RENDERACE</v>
       </c>
       <c r="E170" t="s">
         <v>786</v>
       </c>
       <c r="F170" t="str">
-        <f>A172</f>
+        <f>A171</f>
         <v>RENDERCARD.SUBEND</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="26"/>
+      <c r="A171" s="29" t="str">
+        <f>_xlfn.CONCAT(A132,".SUBEND")</f>
+        <v>RENDERCARD.SUBEND</v>
+      </c>
       <c r="B171">
         <v>1790</v>
       </c>
-      <c r="C171" s="28" t="str">
-        <f>_xlfn.CONCAT("IF CARDVAL=14 THEN CALL ",D171,"(",E171,") :: GOTO ",INDEX(B:B,MATCH(F171,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF CARDVAL=14 THEN CALL RENDERACE(ROW,COL,SUIT) :: GOTO 1800 :: REM SUBEND</v>
-      </c>
-      <c r="D171" s="28" t="str">
-        <f>A248</f>
-        <v>RENDERACE</v>
-      </c>
-      <c r="E171" t="s">
-        <v>786</v>
-      </c>
-      <c r="F171" t="str">
-        <f>A172</f>
-        <v>RENDERCARD.SUBEND</v>
+      <c r="C171" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="29" t="str">
-        <f>_xlfn.CONCAT(A133,".SUBEND")</f>
-        <v>RENDERCARD.SUBEND</v>
+      <c r="A172" s="28" t="s">
+        <v>689</v>
       </c>
       <c r="B172">
         <v>1800</v>
       </c>
-      <c r="C172" s="11" t="s">
-        <v>779</v>
+      <c r="C172" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A172,"***")</f>
+        <v>REM SUBROUTINE ***RENDER2***</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="28" t="s">
-        <v>689</v>
-      </c>
+      <c r="A173" s="26"/>
       <c r="B173">
         <v>1810</v>
       </c>
       <c r="C173" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A173,"***")</f>
-        <v>REM SUBROUTINE ***RENDER2***</v>
+        <f>IF(ISBLANK(E173),_xlfn.CONCAT("SUB ",A172),_xlfn.CONCAT("SUB ",A172,"(",E173,")"))</f>
+        <v>SUB RENDER2(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E173" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -5259,12 +5257,8 @@
       <c r="B174">
         <v>1820</v>
       </c>
-      <c r="C174" s="11" t="str">
-        <f>IF(ISBLANK(E174),_xlfn.CONCAT("SUB ",A173),_xlfn.CONCAT("SUB ",A173,"(",E174,")"))</f>
-        <v>SUB RENDER2(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E174" t="s">
-        <v>786</v>
+      <c r="C174" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -5273,7 +5267,7 @@
         <v>1830</v>
       </c>
       <c r="C175" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -5281,29 +5275,33 @@
       <c r="B176">
         <v>1840</v>
       </c>
-      <c r="C176" t="s">
-        <v>165</v>
+      <c r="C176" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="26"/>
+      <c r="A177" s="28" t="s">
+        <v>578</v>
+      </c>
       <c r="B177">
         <v>1850</v>
       </c>
-      <c r="C177" s="11" t="s">
-        <v>779</v>
+      <c r="C177" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A177,"***")</f>
+        <v>REM SUBROUTINE ***RENDER3***</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="28" t="s">
-        <v>578</v>
-      </c>
+      <c r="A178" s="26"/>
       <c r="B178">
         <v>1860</v>
       </c>
       <c r="C178" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A178,"***")</f>
-        <v>REM SUBROUTINE ***RENDER3***</v>
+        <f>IF(ISBLANK(E178),_xlfn.CONCAT("SUB ",A177),_xlfn.CONCAT("SUB ",A177,"(",E178,")"))</f>
+        <v>SUB RENDER3(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E178" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -5311,12 +5309,8 @@
       <c r="B179">
         <v>1870</v>
       </c>
-      <c r="C179" s="11" t="str">
-        <f>IF(ISBLANK(E179),_xlfn.CONCAT("SUB ",A178),_xlfn.CONCAT("SUB ",A178,"(",E179,")"))</f>
-        <v>SUB RENDER3(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E179" t="s">
-        <v>786</v>
+      <c r="C179" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -5324,29 +5318,33 @@
       <c r="B180">
         <v>1880</v>
       </c>
-      <c r="C180" t="s">
-        <v>173</v>
+      <c r="C180" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="26"/>
+      <c r="A181" s="28" t="s">
+        <v>579</v>
+      </c>
       <c r="B181">
         <v>1890</v>
       </c>
-      <c r="C181" s="11" t="s">
-        <v>779</v>
+      <c r="C181" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A181,"***")</f>
+        <v>REM SUBROUTINE ***RENDER4***</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="28" t="s">
-        <v>579</v>
-      </c>
+      <c r="A182" s="26"/>
       <c r="B182">
         <v>1900</v>
       </c>
       <c r="C182" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A182,"***")</f>
-        <v>REM SUBROUTINE ***RENDER4***</v>
+        <f>IF(ISBLANK(E182),_xlfn.CONCAT("SUB ",A181),_xlfn.CONCAT("SUB ",A181,"(",E182,")"))</f>
+        <v>SUB RENDER4(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E182" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -5354,12 +5352,8 @@
       <c r="B183">
         <v>1910</v>
       </c>
-      <c r="C183" s="11" t="str">
-        <f>IF(ISBLANK(E183),_xlfn.CONCAT("SUB ",A182),_xlfn.CONCAT("SUB ",A182,"(",E183,")"))</f>
-        <v>SUB RENDER4(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E183" t="s">
-        <v>786</v>
+      <c r="C183" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -5368,7 +5362,7 @@
         <v>1920</v>
       </c>
       <c r="C184" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -5377,7 +5371,7 @@
         <v>1930</v>
       </c>
       <c r="C185" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -5386,7 +5380,7 @@
         <v>1940</v>
       </c>
       <c r="C186" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -5394,29 +5388,33 @@
       <c r="B187">
         <v>1950</v>
       </c>
-      <c r="C187" t="s">
-        <v>186</v>
+      <c r="C187" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="26"/>
+      <c r="A188" s="28" t="s">
+        <v>580</v>
+      </c>
       <c r="B188">
         <v>1960</v>
       </c>
-      <c r="C188" s="11" t="s">
-        <v>779</v>
+      <c r="C188" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A188,"***")</f>
+        <v>REM SUBROUTINE ***RENDER5***</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="28" t="s">
-        <v>580</v>
-      </c>
+      <c r="A189" s="26"/>
       <c r="B189">
         <v>1970</v>
       </c>
       <c r="C189" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A189,"***")</f>
-        <v>REM SUBROUTINE ***RENDER5***</v>
+        <f>IF(ISBLANK(E189),_xlfn.CONCAT("SUB ",A188),_xlfn.CONCAT("SUB ",A188,"(",E189,")"))</f>
+        <v>SUB RENDER5(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E189" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -5424,12 +5422,16 @@
       <c r="B190">
         <v>1980</v>
       </c>
-      <c r="C190" s="11" t="str">
-        <f>IF(ISBLANK(E190),_xlfn.CONCAT("SUB ",A189),_xlfn.CONCAT("SUB ",A189,"(",E190,")"))</f>
-        <v>SUB RENDER5(ROW,COL,SUIT)</v>
+      <c r="C190" s="28" t="str">
+        <f>IF(ISBLANK(E190),_xlfn.CONCAT("CALL ",D190),_xlfn.CONCAT("CALL ",D190,"(",E190,")"))</f>
+        <v>CALL RENDER4((ROW),(COL),(SUIT))</v>
+      </c>
+      <c r="D190" s="28" t="str">
+        <f>A181</f>
+        <v>RENDER4</v>
       </c>
       <c r="E190" t="s">
-        <v>786</v>
+        <v>841</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -5437,16 +5439,8 @@
       <c r="B191">
         <v>1990</v>
       </c>
-      <c r="C191" s="28" t="str">
-        <f>IF(ISBLANK(E191),_xlfn.CONCAT("CALL ",D191),_xlfn.CONCAT("CALL ",D191,"(",E191,")"))</f>
-        <v>CALL RENDER4((ROW),(COL),(SUIT))</v>
-      </c>
-      <c r="D191" s="28" t="str">
-        <f>A182</f>
-        <v>RENDER4</v>
-      </c>
-      <c r="E191" t="s">
-        <v>841</v>
+      <c r="C191" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -5454,29 +5448,33 @@
       <c r="B192">
         <v>2000</v>
       </c>
-      <c r="C192" t="s">
-        <v>192</v>
+      <c r="C192" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="26"/>
+      <c r="A193" s="28" t="s">
+        <v>581</v>
+      </c>
       <c r="B193">
         <v>2010</v>
       </c>
-      <c r="C193" s="11" t="s">
-        <v>779</v>
+      <c r="C193" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A193,"***")</f>
+        <v>REM SUBROUTINE ***RENDER6***</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="28" t="s">
-        <v>581</v>
-      </c>
+      <c r="A194" s="26"/>
       <c r="B194">
         <v>2020</v>
       </c>
       <c r="C194" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A194,"***")</f>
-        <v>REM SUBROUTINE ***RENDER6***</v>
+        <f>IF(ISBLANK(E194),_xlfn.CONCAT("SUB ",A193),_xlfn.CONCAT("SUB ",A193,"(",E194,")"))</f>
+        <v>SUB RENDER6(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E194" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -5484,12 +5482,8 @@
       <c r="B195">
         <v>2030</v>
       </c>
-      <c r="C195" s="11" t="str">
-        <f>IF(ISBLANK(E195),_xlfn.CONCAT("SUB ",A194),_xlfn.CONCAT("SUB ",A194,"(",E195,")"))</f>
-        <v>SUB RENDER6(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E195" t="s">
-        <v>786</v>
+      <c r="C195" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -5498,7 +5492,7 @@
         <v>2040</v>
       </c>
       <c r="C196" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -5506,29 +5500,33 @@
       <c r="B197">
         <v>2050</v>
       </c>
-      <c r="C197" t="s">
-        <v>201</v>
+      <c r="C197" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="26"/>
+      <c r="A198" s="28" t="s">
+        <v>582</v>
+      </c>
       <c r="B198">
         <v>2060</v>
       </c>
-      <c r="C198" s="11" t="s">
-        <v>779</v>
+      <c r="C198" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A198,"***")</f>
+        <v>REM SUBROUTINE ***RENDER7***</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="28" t="s">
-        <v>582</v>
-      </c>
+      <c r="A199" s="26"/>
       <c r="B199">
         <v>2070</v>
       </c>
       <c r="C199" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A199,"***")</f>
-        <v>REM SUBROUTINE ***RENDER7***</v>
+        <f>IF(ISBLANK(E199),_xlfn.CONCAT("SUB ",A198),_xlfn.CONCAT("SUB ",A198,"(",E199,")"))</f>
+        <v>SUB RENDER7(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E199" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -5536,12 +5534,16 @@
       <c r="B200">
         <v>2080</v>
       </c>
-      <c r="C200" s="11" t="str">
-        <f>IF(ISBLANK(E200),_xlfn.CONCAT("SUB ",A199),_xlfn.CONCAT("SUB ",A199,"(",E200,")"))</f>
-        <v>SUB RENDER7(ROW,COL,SUIT)</v>
+      <c r="C200" s="28" t="str">
+        <f>IF(ISBLANK(E200),_xlfn.CONCAT("CALL ",D200),_xlfn.CONCAT("CALL ",D200,"(",E200,")"))</f>
+        <v>CALL RENDER6((ROW),(COL),(SUIT))</v>
+      </c>
+      <c r="D200" s="28" t="str">
+        <f>A193</f>
+        <v>RENDER6</v>
       </c>
       <c r="E200" t="s">
-        <v>786</v>
+        <v>841</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -5549,16 +5551,8 @@
       <c r="B201">
         <v>2090</v>
       </c>
-      <c r="C201" s="28" t="str">
-        <f>IF(ISBLANK(E201),_xlfn.CONCAT("CALL ",D201),_xlfn.CONCAT("CALL ",D201,"(",E201,")"))</f>
-        <v>CALL RENDER6((ROW),(COL),(SUIT))</v>
-      </c>
-      <c r="D201" s="28" t="str">
-        <f>A194</f>
-        <v>RENDER6</v>
-      </c>
-      <c r="E201" t="s">
-        <v>841</v>
+      <c r="C201" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -5566,29 +5560,33 @@
       <c r="B202">
         <v>2100</v>
       </c>
-      <c r="C202" t="s">
-        <v>207</v>
+      <c r="C202" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="26"/>
+      <c r="A203" s="28" t="s">
+        <v>583</v>
+      </c>
       <c r="B203">
         <v>2110</v>
       </c>
-      <c r="C203" s="11" t="s">
-        <v>779</v>
+      <c r="C203" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A203,"***")</f>
+        <v>REM SUBROUTINE ***RENDER8***</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="28" t="s">
-        <v>583</v>
-      </c>
+      <c r="A204" s="26"/>
       <c r="B204">
         <v>2120</v>
       </c>
       <c r="C204" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A204,"***")</f>
-        <v>REM SUBROUTINE ***RENDER8***</v>
+        <f>IF(ISBLANK(E204),_xlfn.CONCAT("SUB ",A203),_xlfn.CONCAT("SUB ",A203,"(",E204,")"))</f>
+        <v>SUB RENDER8(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E204" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -5596,12 +5594,8 @@
       <c r="B205">
         <v>2130</v>
       </c>
-      <c r="C205" s="11" t="str">
-        <f>IF(ISBLANK(E205),_xlfn.CONCAT("SUB ",A204),_xlfn.CONCAT("SUB ",A204,"(",E205,")"))</f>
-        <v>SUB RENDER8(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E205" t="s">
-        <v>786</v>
+      <c r="C205" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -5610,7 +5604,7 @@
         <v>2140</v>
       </c>
       <c r="C206" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -5619,7 +5613,7 @@
         <v>2150</v>
       </c>
       <c r="C207" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -5628,7 +5622,7 @@
         <v>2160</v>
       </c>
       <c r="C208" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -5637,7 +5631,7 @@
         <v>2170</v>
       </c>
       <c r="C209" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -5646,7 +5640,7 @@
         <v>2180</v>
       </c>
       <c r="C210" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -5655,7 +5649,7 @@
         <v>2190</v>
       </c>
       <c r="C211" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -5664,7 +5658,7 @@
         <v>2200</v>
       </c>
       <c r="C212" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -5672,29 +5666,33 @@
       <c r="B213">
         <v>2210</v>
       </c>
-      <c r="C213" t="s">
-        <v>226</v>
+      <c r="C213" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="26"/>
+      <c r="A214" s="28" t="s">
+        <v>584</v>
+      </c>
       <c r="B214">
         <v>2220</v>
       </c>
-      <c r="C214" s="11" t="s">
-        <v>779</v>
+      <c r="C214" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A214,"***")</f>
+        <v>REM SUBROUTINE ***RENDER9***</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="28" t="s">
-        <v>584</v>
-      </c>
+      <c r="A215" s="26"/>
       <c r="B215">
         <v>2230</v>
       </c>
       <c r="C215" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A215,"***")</f>
-        <v>REM SUBROUTINE ***RENDER9***</v>
+        <f>IF(ISBLANK(E215),_xlfn.CONCAT("SUB ",A214),_xlfn.CONCAT("SUB ",A214,"(",E215,")"))</f>
+        <v>SUB RENDER9(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E215" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -5702,12 +5700,8 @@
       <c r="B216">
         <v>2240</v>
       </c>
-      <c r="C216" s="11" t="str">
-        <f>IF(ISBLANK(E216),_xlfn.CONCAT("SUB ",A215),_xlfn.CONCAT("SUB ",A215,"(",E216,")"))</f>
-        <v>SUB RENDER9(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E216" t="s">
-        <v>786</v>
+      <c r="C216" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -5716,7 +5710,7 @@
         <v>2250</v>
       </c>
       <c r="C217" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -5725,7 +5719,7 @@
         <v>2260</v>
       </c>
       <c r="C218" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -5734,7 +5728,7 @@
         <v>2270</v>
       </c>
       <c r="C219" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -5743,7 +5737,7 @@
         <v>2280</v>
       </c>
       <c r="C220" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -5751,29 +5745,33 @@
       <c r="B221">
         <v>2290</v>
       </c>
-      <c r="C221" t="s">
-        <v>192</v>
+      <c r="C221" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="26"/>
+      <c r="A222" s="28" t="s">
+        <v>585</v>
+      </c>
       <c r="B222">
         <v>2300</v>
       </c>
-      <c r="C222" s="11" t="s">
-        <v>779</v>
+      <c r="C222" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A222,"***")</f>
+        <v>REM SUBROUTINE ***RENDER10***</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="28" t="s">
-        <v>585</v>
-      </c>
+      <c r="A223" s="26"/>
       <c r="B223">
         <v>2310</v>
       </c>
       <c r="C223" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A223,"***")</f>
-        <v>REM SUBROUTINE ***RENDER10***</v>
+        <f>IF(ISBLANK(E223),_xlfn.CONCAT("SUB ",A222),_xlfn.CONCAT("SUB ",A222,"(",E223,")"))</f>
+        <v>SUB RENDER10(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E223" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -5781,12 +5779,8 @@
       <c r="B224">
         <v>2320</v>
       </c>
-      <c r="C224" s="11" t="str">
-        <f>IF(ISBLANK(E224),_xlfn.CONCAT("SUB ",A223),_xlfn.CONCAT("SUB ",A223,"(",E224,")"))</f>
-        <v>SUB RENDER10(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E224" t="s">
-        <v>786</v>
+      <c r="C224" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -5795,7 +5789,7 @@
         <v>2330</v>
       </c>
       <c r="C225" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -5803,29 +5797,33 @@
       <c r="B226">
         <v>2340</v>
       </c>
-      <c r="C226" t="s">
-        <v>249</v>
+      <c r="C226" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="26"/>
+      <c r="A227" s="28" t="s">
+        <v>586</v>
+      </c>
       <c r="B227">
         <v>2350</v>
       </c>
-      <c r="C227" s="11" t="s">
-        <v>779</v>
+      <c r="C227" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A227,"***")</f>
+        <v>REM SUBROUTINE ***RENDERJACK***</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="28" t="s">
-        <v>586</v>
-      </c>
+      <c r="A228" s="26"/>
       <c r="B228">
         <v>2360</v>
       </c>
       <c r="C228" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A228,"***")</f>
-        <v>REM SUBROUTINE ***RENDERJACK***</v>
+        <f>IF(ISBLANK(E228),_xlfn.CONCAT("SUB ",A227),_xlfn.CONCAT("SUB ",A227,"(",E228,")"))</f>
+        <v>SUB RENDERJACK(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E228" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -5833,12 +5831,8 @@
       <c r="B229">
         <v>2370</v>
       </c>
-      <c r="C229" s="11" t="str">
-        <f>IF(ISBLANK(E229),_xlfn.CONCAT("SUB ",A228),_xlfn.CONCAT("SUB ",A228,"(",E229,")"))</f>
-        <v>SUB RENDERJACK(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E229" t="s">
-        <v>786</v>
+      <c r="C229" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -5847,7 +5841,7 @@
         <v>2380</v>
       </c>
       <c r="C230" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -5856,7 +5850,7 @@
         <v>2390</v>
       </c>
       <c r="C231" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -5864,29 +5858,33 @@
       <c r="B232">
         <v>2400</v>
       </c>
-      <c r="C232" t="s">
-        <v>182</v>
+      <c r="C232" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="26"/>
+      <c r="A233" s="28" t="s">
+        <v>587</v>
+      </c>
       <c r="B233">
         <v>2410</v>
       </c>
-      <c r="C233" s="11" t="s">
-        <v>779</v>
+      <c r="C233" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A233,"***")</f>
+        <v>REM SUBROUTINE ***RENDERQUEEN***</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="28" t="s">
-        <v>587</v>
-      </c>
+      <c r="A234" s="26"/>
       <c r="B234">
         <v>2420</v>
       </c>
       <c r="C234" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A234,"***")</f>
-        <v>REM SUBROUTINE ***RENDERQUEEN***</v>
+        <f>IF(ISBLANK(E234),_xlfn.CONCAT("SUB ",A233),_xlfn.CONCAT("SUB ",A233,"(",E234,")"))</f>
+        <v>SUB RENDERQUEEN(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E234" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -5894,12 +5892,8 @@
       <c r="B235">
         <v>2430</v>
       </c>
-      <c r="C235" s="11" t="str">
-        <f>IF(ISBLANK(E235),_xlfn.CONCAT("SUB ",A234),_xlfn.CONCAT("SUB ",A234,"(",E235,")"))</f>
-        <v>SUB RENDERQUEEN(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E235" t="s">
-        <v>786</v>
+      <c r="C235" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -5908,7 +5902,7 @@
         <v>2440</v>
       </c>
       <c r="C236" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -5917,7 +5911,7 @@
         <v>2450</v>
       </c>
       <c r="C237" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -5926,7 +5920,7 @@
         <v>2460</v>
       </c>
       <c r="C238" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -5934,29 +5928,33 @@
       <c r="B239">
         <v>2470</v>
       </c>
-      <c r="C239" t="s">
-        <v>269</v>
+      <c r="C239" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="26"/>
+      <c r="A240" s="28" t="s">
+        <v>588</v>
+      </c>
       <c r="B240">
         <v>2480</v>
       </c>
-      <c r="C240" s="11" t="s">
-        <v>779</v>
+      <c r="C240" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A240,"***")</f>
+        <v>REM SUBROUTINE ***RENDERKING***</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="28" t="s">
-        <v>588</v>
-      </c>
+      <c r="A241" s="26"/>
       <c r="B241">
         <v>2490</v>
       </c>
       <c r="C241" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A241,"***")</f>
-        <v>REM SUBROUTINE ***RENDERKING***</v>
+        <f>IF(ISBLANK(E241),_xlfn.CONCAT("SUB ",A240),_xlfn.CONCAT("SUB ",A240,"(",E241,")"))</f>
+        <v>SUB RENDERKING(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E241" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -5964,12 +5962,8 @@
       <c r="B242">
         <v>2500</v>
       </c>
-      <c r="C242" s="11" t="str">
-        <f>IF(ISBLANK(E242),_xlfn.CONCAT("SUB ",A241),_xlfn.CONCAT("SUB ",A241,"(",E242,")"))</f>
-        <v>SUB RENDERKING(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E242" t="s">
-        <v>786</v>
+      <c r="C242" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -5978,7 +5972,7 @@
         <v>2510</v>
       </c>
       <c r="C243" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -5987,7 +5981,7 @@
         <v>2520</v>
       </c>
       <c r="C244" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -5996,7 +5990,7 @@
         <v>2530</v>
       </c>
       <c r="C245" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -6004,29 +5998,33 @@
       <c r="B246">
         <v>2540</v>
       </c>
-      <c r="C246" t="s">
-        <v>279</v>
+      <c r="C246" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="26"/>
+      <c r="A247" s="28" t="s">
+        <v>589</v>
+      </c>
       <c r="B247">
         <v>2550</v>
       </c>
-      <c r="C247" s="11" t="s">
-        <v>779</v>
+      <c r="C247" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A247,"***")</f>
+        <v>REM SUBROUTINE ***RENDERACE***</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="28" t="s">
-        <v>589</v>
-      </c>
+      <c r="A248" s="26"/>
       <c r="B248">
         <v>2560</v>
       </c>
       <c r="C248" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A248,"***")</f>
-        <v>REM SUBROUTINE ***RENDERACE***</v>
+        <f>IF(ISBLANK(E248),_xlfn.CONCAT("SUB ",A247),_xlfn.CONCAT("SUB ",A247,"(",E248,")"))</f>
+        <v>SUB RENDERACE(ROW,COL,SUIT)</v>
+      </c>
+      <c r="E248" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -6034,12 +6032,8 @@
       <c r="B249">
         <v>2570</v>
       </c>
-      <c r="C249" s="11" t="str">
-        <f>IF(ISBLANK(E249),_xlfn.CONCAT("SUB ",A248),_xlfn.CONCAT("SUB ",A248,"(",E249,")"))</f>
-        <v>SUB RENDERACE(ROW,COL,SUIT)</v>
-      </c>
-      <c r="E249" t="s">
-        <v>786</v>
+      <c r="C249" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -6047,29 +6041,30 @@
       <c r="B250">
         <v>2580</v>
       </c>
-      <c r="C250" t="s">
-        <v>192</v>
+      <c r="C250" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="26"/>
+      <c r="A251" s="28" t="s">
+        <v>695</v>
+      </c>
       <c r="B251">
         <v>2590</v>
       </c>
-      <c r="C251" s="11" t="s">
-        <v>779</v>
+      <c r="C251" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A251,"***")</f>
+        <v>REM SUBROUTINE ***PLAY***</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="28" t="s">
-        <v>695</v>
-      </c>
+      <c r="A252" s="26"/>
       <c r="B252">
         <v>2600</v>
       </c>
       <c r="C252" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A252,"***")</f>
-        <v>REM SUBROUTINE ***PLAY***</v>
+        <f>IF(ISBLANK(E252),_xlfn.CONCAT("SUB ",A251),_xlfn.CONCAT("SUB ",A251,"(",E252,")"))</f>
+        <v>SUB PLAY</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -6077,9 +6072,8 @@
       <c r="B253">
         <v>2610</v>
       </c>
-      <c r="C253" s="11" t="str">
-        <f>IF(ISBLANK(E253),_xlfn.CONCAT("SUB ",A252),_xlfn.CONCAT("SUB ",A252,"(",E253,")"))</f>
-        <v>SUB PLAY</v>
+      <c r="C253" s="11" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -6087,8 +6081,8 @@
       <c r="B254">
         <v>2620</v>
       </c>
-      <c r="C254" s="11" t="s">
-        <v>708</v>
+      <c r="C254" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -6097,7 +6091,7 @@
         <v>2630</v>
       </c>
       <c r="C255" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -6105,8 +6099,16 @@
       <c r="B256">
         <v>2640</v>
       </c>
-      <c r="C256" t="s">
-        <v>707</v>
+      <c r="C256" s="28" t="str">
+        <f>IF(ISBLANK(E256),_xlfn.CONCAT("CALL ",D256),_xlfn.CONCAT("CALL ",D256,"(",E256,")"))</f>
+        <v>CALL CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
+      </c>
+      <c r="D256" s="28" t="str">
+        <f>A304</f>
+        <v>CLEARTABLE</v>
+      </c>
+      <c r="E256" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -6116,14 +6118,14 @@
       </c>
       <c r="C257" s="28" t="str">
         <f>IF(ISBLANK(E257),_xlfn.CONCAT("CALL ",D257),_xlfn.CONCAT("CALL ",D257,"(",E257,")"))</f>
-        <v>CALL CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
+        <v>CALL SHUFFLE(HANDS(,,))</v>
       </c>
       <c r="D257" s="28" t="str">
-        <f>A306</f>
-        <v>CLEARTABLE</v>
+        <f>A311</f>
+        <v>SHUFFLE</v>
       </c>
       <c r="E257" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -6131,16 +6133,8 @@
       <c r="B258">
         <v>2660</v>
       </c>
-      <c r="C258" s="28" t="str">
-        <f>IF(ISBLANK(E258),_xlfn.CONCAT("CALL ",D258),_xlfn.CONCAT("CALL ",D258,"(",E258,")"))</f>
-        <v>CALL SHUFFLE(HANDS(,,))</v>
-      </c>
-      <c r="D258" s="28" t="str">
-        <f>A313</f>
-        <v>SHUFFLE</v>
-      </c>
-      <c r="E258" t="s">
-        <v>844</v>
+      <c r="C258" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -6148,8 +6142,16 @@
       <c r="B259">
         <v>2670</v>
       </c>
-      <c r="C259" t="s">
-        <v>696</v>
+      <c r="C259" s="28" t="str">
+        <f>IF(ISBLANK(E259),_xlfn.CONCAT("CALL ",D259),_xlfn.CONCAT("CALL ",D259,"(",E259,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D259" s="28" t="str">
+        <f>A343</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E259" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -6162,7 +6164,7 @@
         <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
       </c>
       <c r="D260" s="28" t="str">
-        <f>A345</f>
+        <f>A343</f>
         <v>DEAL</v>
       </c>
       <c r="E260" t="s">
@@ -6174,16 +6176,8 @@
       <c r="B261">
         <v>2690</v>
       </c>
-      <c r="C261" s="28" t="str">
-        <f>IF(ISBLANK(E261),_xlfn.CONCAT("CALL ",D261),_xlfn.CONCAT("CALL ",D261,"(",E261,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D261" s="28" t="str">
-        <f>A345</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E261" t="s">
-        <v>845</v>
+      <c r="C261" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -6191,8 +6185,16 @@
       <c r="B262">
         <v>2700</v>
       </c>
-      <c r="C262" t="s">
-        <v>697</v>
+      <c r="C262" s="28" t="str">
+        <f>IF(ISBLANK(E262),_xlfn.CONCAT("CALL ",D262),_xlfn.CONCAT("CALL ",D262,"(",E262,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D262" s="28" t="str">
+        <f>A343</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E262" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -6200,16 +6202,8 @@
       <c r="B263">
         <v>2710</v>
       </c>
-      <c r="C263" s="28" t="str">
-        <f>IF(ISBLANK(E263),_xlfn.CONCAT("CALL ",D263),_xlfn.CONCAT("CALL ",D263,"(",E263,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D263" s="28" t="str">
-        <f>A345</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E263" t="s">
-        <v>845</v>
+      <c r="C263" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -6217,8 +6211,16 @@
       <c r="B264">
         <v>2720</v>
       </c>
-      <c r="C264" t="s">
-        <v>698</v>
+      <c r="C264" s="28" t="str">
+        <f>IF(ISBLANK(E264),_xlfn.CONCAT("CALL ",D264),_xlfn.CONCAT("CALL ",D264,"(",E264,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D264" s="28" t="str">
+        <f>A343</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E264" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -6226,16 +6228,8 @@
       <c r="B265">
         <v>2730</v>
       </c>
-      <c r="C265" s="28" t="str">
-        <f>IF(ISBLANK(E265),_xlfn.CONCAT("CALL ",D265),_xlfn.CONCAT("CALL ",D265,"(",E265,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D265" s="28" t="str">
-        <f>A345</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E265" t="s">
-        <v>845</v>
+      <c r="C265" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -6244,7 +6238,7 @@
         <v>2740</v>
       </c>
       <c r="C266" t="s">
-        <v>749</v>
+        <v>703</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -6253,7 +6247,7 @@
         <v>2750</v>
       </c>
       <c r="C267" t="s">
-        <v>703</v>
+        <v>753</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -6261,17 +6255,16 @@
       <c r="B268">
         <v>2760</v>
       </c>
-      <c r="C268" t="s">
-        <v>753</v>
+      <c r="C268" s="1" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="26"/>
       <c r="B269">
         <v>2770</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>872</v>
+      <c r="C269" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -6279,37 +6272,43 @@
         <v>2780</v>
       </c>
       <c r="C270" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B271">
         <v>2790</v>
       </c>
-      <c r="C271" t="s">
-        <v>870</v>
+      <c r="C271" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A272,"***")</f>
+        <v>REM LABEL ***ASKANOTHER***</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="29" t="s">
+        <v>858</v>
+      </c>
       <c r="B272">
         <v>2800</v>
       </c>
-      <c r="C272" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A273,"***")</f>
-        <v>REM LABEL ***ASKANOTHER***</v>
-      </c>
+      <c r="C272" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D272" s="29"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="29" t="s">
-        <v>858</v>
-      </c>
+      <c r="A273" s="26"/>
       <c r="B273">
         <v>2810</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="D273" s="29"/>
+      <c r="C273" s="1" t="str">
+        <f>_xlfn.CONCAT("IF S=0 OR S=-1 THEN ",INDEX(B:B,MATCH(D273,A:A,0),0)," :: REM GOTO ",D273,"")</f>
+        <v>IF S=0 OR S=-1 THEN 2800 :: REM GOTO ASKANOTHER</v>
+      </c>
+      <c r="D273" s="29" t="str">
+        <f>A272</f>
+        <v>ASKANOTHER</v>
+      </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="26"/>
@@ -6317,11 +6316,11 @@
         <v>2820</v>
       </c>
       <c r="C274" s="1" t="str">
-        <f>_xlfn.CONCAT("IF S=0  THEN ",INDEX(B:B,MATCH(D274,A:A,0),0)," :: REM GOTO ",D274,"")</f>
-        <v>IF S=0  THEN 2810 :: REM GOTO ASKANOTHER</v>
+        <f>_xlfn.CONCAT("IF K&lt;&gt;78 AND K&lt;&gt;89 THEN ",INDEX(B:B,MATCH(D274,A:A,0),0)," :: REM GOTO ",D274,"")</f>
+        <v>IF K&lt;&gt;78 AND K&lt;&gt;89 THEN 2800 :: REM GOTO ASKANOTHER</v>
       </c>
       <c r="D274" s="29" t="str">
-        <f>A273</f>
+        <f>A272</f>
         <v>ASKANOTHER</v>
       </c>
     </row>
@@ -6330,14 +6329,10 @@
       <c r="B275">
         <v>2830</v>
       </c>
-      <c r="C275" s="1" t="str">
-        <f>_xlfn.CONCAT("IF K&lt;&gt;78 AND K&lt;&gt;89 AND K&lt;&gt;13 THEN ",INDEX(B:B,MATCH(D275,A:A,0),0)," :: REM GOTO ",D275,"")</f>
-        <v>IF K&lt;&gt;78 AND K&lt;&gt;89 AND K&lt;&gt;13 THEN 2810 :: REM GOTO ASKANOTHER</v>
-      </c>
-      <c r="D275" s="29" t="str">
-        <f>A273</f>
-        <v>ASKANOTHER</v>
-      </c>
+      <c r="C275" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D275" s="29"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="26"/>
@@ -6345,22 +6340,17 @@
         <v>2840</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D276" s="29"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="26"/>
       <c r="B277">
         <v>2850</v>
       </c>
-      <c r="C277" s="1" t="str">
-        <f>_xlfn.CONCAT("IF K&lt;&gt;13 THEN ",INDEX(B:B,MATCH(D277,A:A,0),0)," :: REM GOTO ",D277,"")</f>
-        <v>IF K&lt;&gt;13 THEN 2810 :: REM GOTO ASKANOTHER</v>
-      </c>
-      <c r="D277" s="29" t="str">
-        <f>A273</f>
-        <v>ASKANOTHER</v>
+      <c r="C277" s="1" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -6369,21 +6359,21 @@
         <v>2860</v>
       </c>
       <c r="C278" s="1" t="str">
-        <f>_xlfn.CONCAT("IF A$="""" THEN ",INDEX(B:B,MATCH(D278,A:A,0),0)," :: REM GOTO ",D278,"")</f>
-        <v>IF A$="" THEN 2810 :: REM GOTO ASKANOTHER</v>
+        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D278,A:A,0),0)," :: REM GOTO ",D278,"")</f>
+        <v>IF A$="N" THEN 2940 :: REM GOTO REVEAL</v>
       </c>
       <c r="D278" s="29" t="str">
-        <f>A273</f>
-        <v>ASKANOTHER</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <f>A286</f>
+        <v>REVEAL</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="26"/>
       <c r="B279">
         <v>2870</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>871</v>
+        <v>696</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -6391,13 +6381,16 @@
       <c r="B280">
         <v>2880</v>
       </c>
-      <c r="C280" s="1" t="str">
-        <f>_xlfn.CONCAT("IF A$=""N"" THEN ",INDEX(B:B,MATCH(D280,A:A,0),0)," :: REM GOTO ",D280,"")</f>
-        <v>IF A$="N" THEN 2960 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D280" s="29" t="str">
-        <f>A288</f>
-        <v>REVEAL</v>
+      <c r="C280" s="28" t="str">
+        <f>IF(ISBLANK(E280),_xlfn.CONCAT("CALL ",D280),_xlfn.CONCAT("CALL ",D280,"(",E280,")"))</f>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D280" s="28" t="str">
+        <f>A343</f>
+        <v>DEAL</v>
+      </c>
+      <c r="E280" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -6406,7 +6399,7 @@
         <v>2890</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>696</v>
+        <v>852</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -6414,16 +6407,8 @@
       <c r="B282">
         <v>2900</v>
       </c>
-      <c r="C282" s="28" t="str">
-        <f>IF(ISBLANK(E282),_xlfn.CONCAT("CALL ",D282),_xlfn.CONCAT("CALL ",D282,"(",E282,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D282" s="28" t="str">
-        <f>A345</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E282" t="s">
-        <v>845</v>
+      <c r="C282" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -6431,8 +6416,13 @@
       <c r="B283">
         <v>2910</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>852</v>
+      <c r="C283" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D283,A:A,0),0)," :: REM GOTO ",D283,"")</f>
+        <v>IF BUSTED=1 THEN 2940 :: REM GOTO REVEAL</v>
+      </c>
+      <c r="D283" s="29" t="str">
+        <f>A286</f>
+        <v>REVEAL</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -6440,82 +6430,77 @@
       <c r="B284">
         <v>2920</v>
       </c>
-      <c r="C284" t="s">
-        <v>770</v>
+      <c r="C284" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="26"/>
       <c r="B285">
         <v>2930</v>
       </c>
-      <c r="C285" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D285,A:A,0),0)," :: REM GOTO ",D285,"")</f>
-        <v>IF BUSTED=1 THEN 2960 :: REM GOTO REVEAL</v>
-      </c>
-      <c r="D285" s="29" t="str">
-        <f>A288</f>
-        <v>REVEAL</v>
+      <c r="C285" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A286,"***")</f>
+        <v>REM LABEL ***REVEAL***</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="26"/>
+      <c r="A286" s="27" t="s">
+        <v>701</v>
+      </c>
       <c r="B286">
         <v>2940</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>754</v>
+        <v>715</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="26"/>
       <c r="B287">
         <v>2950</v>
       </c>
-      <c r="C287" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A288,"***")</f>
-        <v>REM LABEL ***REVEAL***</v>
+      <c r="C287" s="28" t="str">
+        <f>IF(ISBLANK(E287),_xlfn.CONCAT("CALL ",D287),_xlfn.CONCAT("CALL ",D287,"(",E287,")"))</f>
+        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D287" s="28" t="str">
+        <f>A132</f>
+        <v>RENDERCARD</v>
+      </c>
+      <c r="E287" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="27" t="s">
-        <v>701</v>
-      </c>
+      <c r="A288" s="26"/>
       <c r="B288">
         <v>2960</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>715</v>
+      <c r="C288" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D288,A:A,0),0)," :: REM GOTO ",D288,"")</f>
+        <v>IF BUSTED=1 THEN 3110 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D288" s="29" t="str">
+        <f>A303</f>
+        <v>GAMEOVER</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="26"/>
+      <c r="A289" s="27"/>
       <c r="B289">
         <v>2970</v>
       </c>
-      <c r="C289" s="28" t="str">
-        <f>IF(ISBLANK(E289),_xlfn.CONCAT("CALL ",D289),_xlfn.CONCAT("CALL ",D289,"(",E289,")"))</f>
-        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D289" s="28" t="str">
-        <f>A133</f>
-        <v>RENDERCARD</v>
-      </c>
-      <c r="E289" t="s">
-        <v>842</v>
+      <c r="C289" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="26"/>
+      <c r="A290" s="27"/>
       <c r="B290">
         <v>2980</v>
       </c>
-      <c r="C290" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D290,A:A,0),0)," :: REM GOTO ",D290,"")</f>
-        <v>IF BUSTED=1 THEN 3130 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D290" s="29" t="str">
-        <f>A305</f>
-        <v>GAMEOVER</v>
+      <c r="C290" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -6524,7 +6509,7 @@
         <v>2990</v>
       </c>
       <c r="C291" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -6532,8 +6517,8 @@
       <c r="B292">
         <v>3000</v>
       </c>
-      <c r="C292" t="s">
-        <v>703</v>
+      <c r="C292" s="1" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -6541,8 +6526,16 @@
       <c r="B293">
         <v>3010</v>
       </c>
-      <c r="C293" t="s">
-        <v>753</v>
+      <c r="C293" s="28" t="str">
+        <f>IF(ISBLANK(E293),_xlfn.CONCAT("CALL ",D293),_xlfn.CONCAT("CALL ",D293,"(",E293,")"))</f>
+        <v>CALL CALCSCORE(SCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D293" s="28" t="str">
+        <f>A352</f>
+        <v>CALCSCORE</v>
+      </c>
+      <c r="E293" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -6550,8 +6543,13 @@
       <c r="B294">
         <v>3020</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>697</v>
+      <c r="C294" t="str">
+        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D294,A:A,0),0)," :: REM GOTO ",D294,"")</f>
+        <v>IF SCORE&gt;=17 THEN 3090 :: REM GOTO TALLY</v>
+      </c>
+      <c r="D294" s="29" t="str">
+        <f>A301</f>
+        <v>TALLY</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -6561,14 +6559,14 @@
       </c>
       <c r="C295" s="28" t="str">
         <f>IF(ISBLANK(E295),_xlfn.CONCAT("CALL ",D295),_xlfn.CONCAT("CALL ",D295,"(",E295,")"))</f>
-        <v>CALL CALCSCORE(SCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
       </c>
       <c r="D295" s="28" t="str">
-        <f>A354</f>
-        <v>CALCSCORE</v>
+        <f>A343</f>
+        <v>DEAL</v>
       </c>
       <c r="E295" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -6576,13 +6574,8 @@
       <c r="B296">
         <v>3040</v>
       </c>
-      <c r="C296" t="str">
-        <f>_xlfn.CONCAT("IF SCORE&gt;=17 THEN ",,INDEX(B:B,MATCH(D296,A:A,0),0)," :: REM GOTO ",D296,"")</f>
-        <v>IF SCORE&gt;=17 THEN 3110 :: REM GOTO TALLY</v>
-      </c>
-      <c r="D296" s="29" t="str">
-        <f>A303</f>
-        <v>TALLY</v>
+      <c r="C296" s="1" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -6590,16 +6583,8 @@
       <c r="B297">
         <v>3050</v>
       </c>
-      <c r="C297" s="28" t="str">
-        <f>IF(ISBLANK(E297),_xlfn.CONCAT("CALL ",D297),_xlfn.CONCAT("CALL ",D297,"(",E297,")"))</f>
-        <v>CALL DEAL(CARDS(),SUMS(),(PLAYER),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D297" s="28" t="str">
-        <f>A345</f>
-        <v>DEAL</v>
-      </c>
-      <c r="E297" t="s">
-        <v>845</v>
+      <c r="C297" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -6607,8 +6592,13 @@
       <c r="B298">
         <v>3060</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>852</v>
+      <c r="C298" s="1" t="str">
+        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D298,A:A,0),0)," :: REM GOTO ",D298,"")</f>
+        <v>IF BUSTED=1 THEN 3110 :: REM GOTO GAMEOVER</v>
+      </c>
+      <c r="D298" s="29" t="str">
+        <f>A303</f>
+        <v>GAMEOVER</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -6616,31 +6606,36 @@
       <c r="B299">
         <v>3070</v>
       </c>
-      <c r="C299" t="s">
-        <v>771</v>
+      <c r="C299" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="27"/>
       <c r="B300">
         <v>3080</v>
       </c>
-      <c r="C300" s="1" t="str">
-        <f>_xlfn.CONCAT("IF BUSTED=1 THEN ",INDEX(B:B,MATCH(D300,A:A,0),0)," :: REM GOTO ",D300,"")</f>
-        <v>IF BUSTED=1 THEN 3130 :: REM GOTO GAMEOVER</v>
-      </c>
-      <c r="D300" s="29" t="str">
-        <f>A305</f>
-        <v>GAMEOVER</v>
+      <c r="C300" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A301,"***")</f>
+        <v>REM LABEL ***TALLY***</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="27"/>
+      <c r="A301" s="27" t="s">
+        <v>718</v>
+      </c>
       <c r="B301">
         <v>3090</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>754</v>
+      <c r="C301" s="28" t="str">
+        <f>IF(ISBLANK(E301),_xlfn.CONCAT("CALL ",D301),_xlfn.CONCAT("CALL ",D301,"(",E301,")"))</f>
+        <v>CALL WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D301" s="28" t="str">
+        <f>A360</f>
+        <v>WHOWON</v>
+      </c>
+      <c r="E301" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -6649,58 +6644,52 @@
       </c>
       <c r="C302" t="str">
         <f>_xlfn.CONCAT("REM LABEL ***",A303,"***")</f>
-        <v>REM LABEL ***TALLY***</v>
+        <v>REM LABEL ***GAMEOVER***</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="27" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B303">
         <v>3110</v>
       </c>
-      <c r="C303" s="28" t="str">
-        <f>IF(ISBLANK(E303),_xlfn.CONCAT("CALL ",D303),_xlfn.CONCAT("CALL ",D303,"(",E303,")"))</f>
-        <v>CALL WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="D303" s="28" t="str">
-        <f>A362</f>
-        <v>WHOWON</v>
-      </c>
-      <c r="E303" t="s">
-        <v>785</v>
+      <c r="C303" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="28" t="s">
+        <v>693</v>
+      </c>
       <c r="B304">
         <v>3120</v>
       </c>
-      <c r="C304" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A305,"***")</f>
-        <v>REM LABEL ***GAMEOVER***</v>
+      <c r="C304" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A304,"***")</f>
+        <v>REM SUBROUTINE ***CLEARTABLE***</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="27" t="s">
-        <v>716</v>
-      </c>
+      <c r="A305" s="26"/>
       <c r="B305">
         <v>3130</v>
       </c>
-      <c r="C305" t="s">
-        <v>779</v>
+      <c r="C305" s="11" t="str">
+        <f>IF(ISBLANK(E305),_xlfn.CONCAT("SUB ",A304),_xlfn.CONCAT("SUB ",A304,"(",E305,")"))</f>
+        <v>SUB CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
+      </c>
+      <c r="E305" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="28" t="s">
-        <v>693</v>
-      </c>
+      <c r="A306" s="26"/>
       <c r="B306">
         <v>3140</v>
       </c>
-      <c r="C306" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A306,"***")</f>
-        <v>REM SUBROUTINE ***CLEARTABLE***</v>
+      <c r="C306" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -6708,12 +6697,8 @@
       <c r="B307">
         <v>3150</v>
       </c>
-      <c r="C307" s="11" t="str">
-        <f>IF(ISBLANK(E307),_xlfn.CONCAT("SUB ",A306),_xlfn.CONCAT("SUB ",A306,"(",E307,")"))</f>
-        <v>SUB CLEARTABLE(HANDS(,,),CARDS(),SUMS())</v>
-      </c>
-      <c r="E307" t="s">
-        <v>846</v>
+      <c r="C307" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -6722,7 +6707,7 @@
         <v>3160</v>
       </c>
       <c r="C308" t="s">
-        <v>7</v>
+        <v>848</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -6731,7 +6716,7 @@
         <v>3170</v>
       </c>
       <c r="C309" t="s">
-        <v>778</v>
+        <v>847</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -6740,16 +6725,19 @@
         <v>3180</v>
       </c>
       <c r="C310" t="s">
-        <v>848</v>
+        <v>779</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" s="26"/>
+      <c r="A311" s="28" t="s">
+        <v>776</v>
+      </c>
       <c r="B311">
         <v>3190</v>
       </c>
-      <c r="C311" t="s">
-        <v>847</v>
+      <c r="C311" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A311,"***")</f>
+        <v>REM SUBROUTINE ***SHUFFLE***</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -6757,20 +6745,21 @@
       <c r="B312">
         <v>3200</v>
       </c>
-      <c r="C312" t="s">
-        <v>779</v>
+      <c r="C312" s="11" t="str">
+        <f>IF(ISBLANK(E312),_xlfn.CONCAT("SUB ",A311),_xlfn.CONCAT("SUB ",A311,"(",E312,")"))</f>
+        <v>SUB SHUFFLE(HANDS(,,))</v>
+      </c>
+      <c r="E312" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="28" t="s">
-        <v>776</v>
-      </c>
+      <c r="A313" s="26"/>
       <c r="B313">
         <v>3210</v>
       </c>
-      <c r="C313" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A313,"***")</f>
-        <v>REM SUBROUTINE ***SHUFFLE***</v>
+      <c r="C313" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -6778,12 +6767,8 @@
       <c r="B314">
         <v>3220</v>
       </c>
-      <c r="C314" s="11" t="str">
-        <f>IF(ISBLANK(E314),_xlfn.CONCAT("SUB ",A313),_xlfn.CONCAT("SUB ",A313,"(",E314,")"))</f>
-        <v>SUB SHUFFLE(HANDS(,,))</v>
-      </c>
-      <c r="E314" t="s">
-        <v>844</v>
+      <c r="C314" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -6792,45 +6777,45 @@
         <v>3230</v>
       </c>
       <c r="C315" t="s">
-        <v>96</v>
+        <v>758</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="26"/>
       <c r="B316">
         <v>3240</v>
       </c>
-      <c r="C316" t="s">
-        <v>840</v>
+      <c r="C316" t="str">
+        <f>_xlfn.CONCAT("REM LABEL ***",A317,"***")</f>
+        <v>REM LABEL ***DRAWLOOP***</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="26"/>
+      <c r="A317" s="29" t="s">
+        <v>759</v>
+      </c>
       <c r="B317">
         <v>3250</v>
       </c>
       <c r="C317" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="26"/>
       <c r="B318">
         <v>3260</v>
       </c>
-      <c r="C318" t="str">
-        <f>_xlfn.CONCAT("REM LABEL ***",A319,"***")</f>
-        <v>REM LABEL ***DRAWLOOP***</v>
+      <c r="C318" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="29" t="s">
-        <v>759</v>
-      </c>
+      <c r="A319" s="26"/>
       <c r="B319">
         <v>3270</v>
       </c>
       <c r="C319" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -6839,7 +6824,7 @@
         <v>3280</v>
       </c>
       <c r="C320" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -6848,7 +6833,7 @@
         <v>3290</v>
       </c>
       <c r="C321" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -6856,8 +6841,16 @@
       <c r="B322">
         <v>3300</v>
       </c>
-      <c r="C322" t="s">
-        <v>763</v>
+      <c r="C322" s="28" t="str">
+        <f>IF(ISBLANK(E322),_xlfn.CONCAT("CALL ",D322),_xlfn.CONCAT("CALL ",D322,"(",E322,")"))</f>
+        <v>CALL CHECKDUP(DUP,(X),DECK())</v>
+      </c>
+      <c r="D322" s="28" t="str">
+        <f>A336</f>
+        <v>CHECKDUP</v>
+      </c>
+      <c r="E322" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -6865,8 +6858,13 @@
       <c r="B323">
         <v>3310</v>
       </c>
-      <c r="C323" t="s">
-        <v>756</v>
+      <c r="C323" t="str">
+        <f>_xlfn.CONCAT("IF DUP=1 THEN ",INDEX(B:B,MATCH(D323,A:A,0),0)," :: REM GOTO ",D323,"")</f>
+        <v>IF DUP=1 THEN 3250 :: REM GOTO DRAWLOOP</v>
+      </c>
+      <c r="D323" s="29" t="str">
+        <f>A317</f>
+        <v>DRAWLOOP</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -6874,16 +6872,8 @@
       <c r="B324">
         <v>3320</v>
       </c>
-      <c r="C324" s="28" t="str">
-        <f>IF(ISBLANK(E324),_xlfn.CONCAT("CALL ",D324),_xlfn.CONCAT("CALL ",D324,"(",E324,")"))</f>
-        <v>CALL CHECKDUP(DUP,(X),DECK())</v>
-      </c>
-      <c r="D324" s="28" t="str">
-        <f>A338</f>
-        <v>CHECKDUP</v>
-      </c>
-      <c r="E324" t="s">
-        <v>839</v>
+      <c r="C324" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -6891,13 +6881,8 @@
       <c r="B325">
         <v>3330</v>
       </c>
-      <c r="C325" t="str">
-        <f>_xlfn.CONCAT("IF DUP=1 THEN ",INDEX(B:B,MATCH(D325,A:A,0),0)," :: REM GOTO ",D325,"")</f>
-        <v>IF DUP=1 THEN 3270 :: REM GOTO DRAWLOOP</v>
-      </c>
-      <c r="D325" s="29" t="str">
-        <f>A319</f>
-        <v>DRAWLOOP</v>
+      <c r="C325" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -6906,7 +6891,7 @@
         <v>3340</v>
       </c>
       <c r="C326" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -6915,7 +6900,7 @@
         <v>3350</v>
       </c>
       <c r="C327" t="s">
-        <v>699</v>
+        <v>765</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -6924,7 +6909,7 @@
         <v>3360</v>
       </c>
       <c r="C328" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -6933,7 +6918,7 @@
         <v>3370</v>
       </c>
       <c r="C329" t="s">
-        <v>765</v>
+        <v>699</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -6942,7 +6927,7 @@
         <v>3380</v>
       </c>
       <c r="C330" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -6951,7 +6936,7 @@
         <v>3390</v>
       </c>
       <c r="C331" t="s">
-        <v>699</v>
+        <v>767</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -6960,7 +6945,7 @@
         <v>3400</v>
       </c>
       <c r="C332" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -6969,7 +6954,7 @@
         <v>3410</v>
       </c>
       <c r="C333" t="s">
-        <v>767</v>
+        <v>699</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -6978,7 +6963,7 @@
         <v>3420</v>
       </c>
       <c r="C334" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -6986,17 +6971,20 @@
       <c r="B335">
         <v>3430</v>
       </c>
-      <c r="C335" t="s">
-        <v>699</v>
+      <c r="C335" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="26"/>
+      <c r="A336" s="28" t="s">
+        <v>755</v>
+      </c>
       <c r="B336">
         <v>3440</v>
       </c>
-      <c r="C336" t="s">
-        <v>773</v>
+      <c r="C336" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A336,"***")</f>
+        <v>REM SUBROUTINE ***CHECKDUP***</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -7004,20 +6992,21 @@
       <c r="B337">
         <v>3450</v>
       </c>
-      <c r="C337" s="11" t="s">
-        <v>779</v>
+      <c r="C337" s="11" t="str">
+        <f>IF(ISBLANK(E337),_xlfn.CONCAT("SUB ",A336),_xlfn.CONCAT("SUB ",A336,"(",E337,")"))</f>
+        <v>SUB CHECKDUP(DUP,X,DECK())</v>
+      </c>
+      <c r="E337" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="28" t="s">
-        <v>755</v>
-      </c>
+      <c r="A338" s="26"/>
       <c r="B338">
         <v>3460</v>
       </c>
-      <c r="C338" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A338,"***")</f>
-        <v>REM SUBROUTINE ***CHECKDUP***</v>
+      <c r="C338" s="11" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -7025,12 +7014,8 @@
       <c r="B339">
         <v>3470</v>
       </c>
-      <c r="C339" s="11" t="str">
-        <f>IF(ISBLANK(E339),_xlfn.CONCAT("SUB ",A338),_xlfn.CONCAT("SUB ",A338,"(",E339,")"))</f>
-        <v>SUB CHECKDUP(DUP,X,DECK())</v>
-      </c>
-      <c r="E339" t="s">
-        <v>838</v>
+      <c r="C339" s="11" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -7038,8 +7023,13 @@
       <c r="B340">
         <v>3480</v>
       </c>
-      <c r="C340" s="11" t="s">
-        <v>756</v>
+      <c r="C340" s="11" t="str">
+        <f>_xlfn.CONCAT("IF DECK(I)=X THEN DUP=1 :: GOTO ",INDEX(B:B,MATCH(D340,A:A,0),0)," :: REM SUBEND")</f>
+        <v>IF DECK(I)=X THEN DUP=1 :: GOTO 3500 :: REM SUBEND</v>
+      </c>
+      <c r="D340" s="29" t="str">
+        <f>A342</f>
+        <v>CHECKDUP.SUBEND</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -7048,54 +7038,53 @@
         <v>3490</v>
       </c>
       <c r="C341" s="11" t="s">
-        <v>757</v>
+        <v>57</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="26"/>
+      <c r="A342" s="29" t="str">
+        <f>_xlfn.CONCAT(A336,".SUBEND")</f>
+        <v>CHECKDUP.SUBEND</v>
+      </c>
       <c r="B342">
         <v>3500</v>
       </c>
-      <c r="C342" s="11" t="str">
-        <f>_xlfn.CONCAT("IF DECK(I)=X THEN DUP=1 :: GOTO ",INDEX(B:B,MATCH(D342,A:A,0),0)," :: REM SUBEND")</f>
-        <v>IF DECK(I)=X THEN DUP=1 :: GOTO 3520 :: REM SUBEND</v>
-      </c>
-      <c r="D342" s="29" t="str">
-        <f>A344</f>
-        <v>CHECKDUP.SUBEND</v>
+      <c r="C342" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="26"/>
+      <c r="A343" s="28" t="s">
+        <v>694</v>
+      </c>
       <c r="B343">
         <v>3510</v>
       </c>
-      <c r="C343" s="11" t="s">
-        <v>57</v>
+      <c r="C343" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A343,"***")</f>
+        <v>REM SUBROUTINE ***DEAL***</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="29" t="str">
-        <f>_xlfn.CONCAT(A338,".SUBEND")</f>
-        <v>CHECKDUP.SUBEND</v>
-      </c>
+      <c r="A344" s="26"/>
       <c r="B344">
         <v>3520</v>
       </c>
-      <c r="C344" s="11" t="s">
-        <v>779</v>
+      <c r="C344" s="11" t="str">
+        <f>IF(ISBLANK(E344),_xlfn.CONCAT("SUB ",A343),_xlfn.CONCAT("SUB ",A343,"(",E344,")"))</f>
+        <v>SUB DEAL(CARDS(),SUMS(),PLAYER,FACEDOWN,HANDS(,,))</v>
+      </c>
+      <c r="E344" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="28" t="s">
-        <v>694</v>
-      </c>
+      <c r="A345" s="26"/>
       <c r="B345">
         <v>3530</v>
       </c>
-      <c r="C345" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A345,"***")</f>
-        <v>REM SUBROUTINE ***DEAL***</v>
+      <c r="C345" s="11" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -7103,12 +7092,8 @@
       <c r="B346">
         <v>3540</v>
       </c>
-      <c r="C346" s="11" t="str">
-        <f>IF(ISBLANK(E346),_xlfn.CONCAT("SUB ",A345),_xlfn.CONCAT("SUB ",A345,"(",E346,")"))</f>
-        <v>SUB DEAL(CARDS(),SUMS(),PLAYER,FACEDOWN,HANDS(,,))</v>
-      </c>
-      <c r="E346" t="s">
-        <v>843</v>
+      <c r="C346" s="11" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -7117,7 +7102,7 @@
         <v>3550</v>
       </c>
       <c r="C347" s="11" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -7126,7 +7111,7 @@
         <v>3560</v>
       </c>
       <c r="C348" s="11" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -7135,7 +7120,7 @@
         <v>3570</v>
       </c>
       <c r="C349" s="11" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -7143,8 +7128,16 @@
       <c r="B350">
         <v>3580</v>
       </c>
-      <c r="C350" s="11" t="s">
-        <v>752</v>
+      <c r="C350" s="28" t="str">
+        <f>IF(ISBLANK(E350),_xlfn.CONCAT("CALL ",D350),_xlfn.CONCAT("CALL ",D350,"(",E350,")"))</f>
+        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
+      </c>
+      <c r="D350" s="28" t="str">
+        <f>A132</f>
+        <v>RENDERCARD</v>
+      </c>
+      <c r="E350" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -7153,24 +7146,19 @@
         <v>3590</v>
       </c>
       <c r="C351" s="11" t="s">
-        <v>711</v>
+        <v>779</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="26"/>
+      <c r="A352" s="28" t="s">
+        <v>702</v>
+      </c>
       <c r="B352">
         <v>3600</v>
       </c>
-      <c r="C352" s="28" t="str">
-        <f>IF(ISBLANK(E352),_xlfn.CONCAT("CALL ",D352),_xlfn.CONCAT("CALL ",D352,"(",E352,")"))</f>
-        <v>CALL RENDERCARD((PLAYER),(CARD),(FACEDOWN),HANDS(,,))</v>
-      </c>
-      <c r="D352" s="28" t="str">
-        <f>A133</f>
-        <v>RENDERCARD</v>
-      </c>
-      <c r="E352" t="s">
-        <v>842</v>
+      <c r="C352" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A352,"***")</f>
+        <v>REM SUBROUTINE ***CALCSCORE***</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -7178,20 +7166,21 @@
       <c r="B353">
         <v>3610</v>
       </c>
-      <c r="C353" s="11" t="s">
-        <v>779</v>
+      <c r="C353" s="11" t="str">
+        <f>IF(ISBLANK(E353),_xlfn.CONCAT("SUB ",A352),_xlfn.CONCAT("SUB ",A352,"(",E353,")"))</f>
+        <v>SUB CALCSCORE(SCORE,PLAYER,SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="E353" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="28" t="s">
-        <v>702</v>
-      </c>
+      <c r="A354" s="26"/>
       <c r="B354">
         <v>3620</v>
       </c>
-      <c r="C354" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A354,"***")</f>
-        <v>REM SUBROUTINE ***CALCSCORE***</v>
+      <c r="C354" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -7199,12 +7188,13 @@
       <c r="B355">
         <v>3630</v>
       </c>
-      <c r="C355" s="11" t="str">
-        <f>IF(ISBLANK(E355),_xlfn.CONCAT("SUB ",A354),_xlfn.CONCAT("SUB ",A354,"(",E355,")"))</f>
-        <v>SUB CALCSCORE(SCORE,PLAYER,SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="E355" t="s">
-        <v>854</v>
+      <c r="C355" t="str">
+        <f>_xlfn.CONCAT("IF SCORE+10&gt;21 THEN ",INDEX(B:B,MATCH(D355,A:A,0),0)," :: REM GOTO ",D355,"")</f>
+        <v>IF SCORE+10&gt;21 THEN 3670 :: REM GOTO CALCSCORE.SUBEND</v>
+      </c>
+      <c r="D355" s="29" t="str">
+        <f>A359</f>
+        <v>CALCSCORE.SUBEND</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -7213,7 +7203,7 @@
         <v>3640</v>
       </c>
       <c r="C356" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -7222,11 +7212,11 @@
         <v>3650</v>
       </c>
       <c r="C357" t="str">
-        <f>_xlfn.CONCAT("IF SCORE+10&gt;21 THEN ",INDEX(B:B,MATCH(D357,A:A,0),0)," :: REM GOTO ",D357,"")</f>
-        <v>IF SCORE+10&gt;21 THEN 3690 :: REM GOTO CALCSCORE.SUBEND</v>
+        <f>_xlfn.CONCAT("IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO ",INDEX(B:B,MATCH(D357,A:A,0),0)," :: REM GOTO ",D357,"")</f>
+        <v>IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO 3670 :: REM GOTO CALCSCORE.SUBEND</v>
       </c>
       <c r="D357" s="29" t="str">
-        <f>A361</f>
+        <f>A359</f>
         <v>CALCSCORE.SUBEND</v>
       </c>
     </row>
@@ -7235,55 +7225,54 @@
       <c r="B358">
         <v>3660</v>
       </c>
-      <c r="C358" t="s">
-        <v>713</v>
+      <c r="C358" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="26"/>
+      <c r="A359" s="29" t="str">
+        <f>_xlfn.CONCAT(A352,".SUBEND")</f>
+        <v>CALCSCORE.SUBEND</v>
+      </c>
       <c r="B359">
         <v>3670</v>
       </c>
-      <c r="C359" t="str">
-        <f>_xlfn.CONCAT("IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO ",INDEX(B:B,MATCH(D359,A:A,0),0)," :: REM GOTO ",D359,"")</f>
-        <v>IF HANDS(PLAYER,I,0)=14 THEN SCORE=SCORE+10 :: GOTO 3690 :: REM GOTO CALCSCORE.SUBEND</v>
-      </c>
-      <c r="D359" s="29" t="str">
-        <f>A361</f>
-        <v>CALCSCORE.SUBEND</v>
+      <c r="C359" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="26"/>
+      <c r="A360" s="28" t="s">
+        <v>614</v>
+      </c>
       <c r="B360">
         <v>3680</v>
       </c>
-      <c r="C360" s="11" t="s">
-        <v>57</v>
+      <c r="C360" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A360,"***")</f>
+        <v>REM SUBROUTINE ***WHOWON***</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="29" t="str">
-        <f>_xlfn.CONCAT(A354,".SUBEND")</f>
-        <v>CALCSCORE.SUBEND</v>
-      </c>
+      <c r="A361" s="26"/>
       <c r="B361">
         <v>3690</v>
       </c>
-      <c r="C361" s="11" t="s">
-        <v>779</v>
+      <c r="C361" s="11" t="str">
+        <f>IF(ISBLANK(E361),_xlfn.CONCAT("SUB ",A360),_xlfn.CONCAT("SUB ",A360,"(",E361,")"))</f>
+        <v>SUB WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="E361" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="28" t="s">
-        <v>614</v>
-      </c>
+      <c r="A362" s="26"/>
       <c r="B362">
         <v>3700</v>
       </c>
-      <c r="C362" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A362,"***")</f>
-        <v>REM SUBROUTINE ***WHOWON***</v>
+      <c r="C362" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -7291,12 +7280,16 @@
       <c r="B363">
         <v>3710</v>
       </c>
-      <c r="C363" s="11" t="str">
-        <f>IF(ISBLANK(E363),_xlfn.CONCAT("SUB ",A362),_xlfn.CONCAT("SUB ",A362,"(",E363,")"))</f>
-        <v>SUB WHOWON(SUMS(),CARDS(),HANDS(,,))</v>
+      <c r="C363" t="str">
+        <f>IF(ISBLANK(E363),_xlfn.CONCAT("CALL ",D363),_xlfn.CONCAT("CALL ",D363,"(",E363,")"))</f>
+        <v>CALL CALCSCORE(PSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D363" s="28" t="str">
+        <f>A352</f>
+        <v>CALCSCORE</v>
       </c>
       <c r="E363" t="s">
-        <v>785</v>
+        <v>855</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -7305,7 +7298,7 @@
         <v>3720</v>
       </c>
       <c r="C364" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -7313,16 +7306,8 @@
       <c r="B365">
         <v>3730</v>
       </c>
-      <c r="C365" t="str">
-        <f>IF(ISBLANK(E365),_xlfn.CONCAT("CALL ",D365),_xlfn.CONCAT("CALL ",D365,"(",E365,")"))</f>
-        <v>CALL CALCSCORE(PSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="D365" s="28" t="str">
-        <f>A354</f>
-        <v>CALCSCORE</v>
-      </c>
-      <c r="E365" t="s">
-        <v>855</v>
+      <c r="C365" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -7330,8 +7315,16 @@
       <c r="B366">
         <v>3740</v>
       </c>
-      <c r="C366" t="s">
-        <v>774</v>
+      <c r="C366" t="str">
+        <f>IF(ISBLANK(E366),_xlfn.CONCAT("CALL ",D366),_xlfn.CONCAT("CALL ",D366,"(",E366,")"))</f>
+        <v>CALL CALCSCORE(DSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
+      </c>
+      <c r="D366" s="28" t="str">
+        <f>A352</f>
+        <v>CALCSCORE</v>
+      </c>
+      <c r="E366" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -7340,7 +7333,7 @@
         <v>3750</v>
       </c>
       <c r="C367" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -7348,16 +7341,8 @@
       <c r="B368">
         <v>3760</v>
       </c>
-      <c r="C368" t="str">
-        <f>IF(ISBLANK(E368),_xlfn.CONCAT("CALL ",D368),_xlfn.CONCAT("CALL ",D368,"(",E368,")"))</f>
-        <v>CALL CALCSCORE(DSCORE,(PLAYER),SUMS(),CARDS(),HANDS(,,))</v>
-      </c>
-      <c r="D368" s="28" t="str">
-        <f>A354</f>
-        <v>CALCSCORE</v>
-      </c>
-      <c r="E368" t="s">
-        <v>856</v>
+      <c r="C368" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -7366,7 +7351,7 @@
         <v>3770</v>
       </c>
       <c r="C369" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -7375,7 +7360,7 @@
         <v>3780</v>
       </c>
       <c r="C370" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -7384,16 +7369,19 @@
         <v>3790</v>
       </c>
       <c r="C371" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="26"/>
+      <c r="A372" s="28" t="s">
+        <v>700</v>
+      </c>
       <c r="B372">
         <v>3800</v>
       </c>
-      <c r="C372" t="s">
-        <v>784</v>
+      <c r="C372" s="11" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A372,"***")</f>
+        <v>REM SUBROUTINE ***TERMINATE***</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -7401,20 +7389,18 @@
       <c r="B373">
         <v>3810</v>
       </c>
-      <c r="C373" t="s">
-        <v>779</v>
+      <c r="C373" s="11" t="str">
+        <f>IF(ISBLANK(E373),_xlfn.CONCAT("SUB ",A372),_xlfn.CONCAT("SUB ",A372,"(",E373,")"))</f>
+        <v>SUB TERMINATE</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="28" t="s">
-        <v>700</v>
-      </c>
+      <c r="A374" s="26"/>
       <c r="B374">
         <v>3820</v>
       </c>
-      <c r="C374" s="11" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A374,"***")</f>
-        <v>REM SUBROUTINE ***TERMINATE***</v>
+      <c r="C374" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
@@ -7422,9 +7408,8 @@
       <c r="B375">
         <v>3830</v>
       </c>
-      <c r="C375" s="11" t="str">
-        <f>IF(ISBLANK(E375),_xlfn.CONCAT("SUB ",A374),_xlfn.CONCAT("SUB ",A374,"(",E375,")"))</f>
-        <v>SUB TERMINATE</v>
+      <c r="C375" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
@@ -7432,8 +7417,8 @@
       <c r="B376">
         <v>3840</v>
       </c>
-      <c r="C376" t="s">
-        <v>868</v>
+      <c r="C376" s="11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
@@ -7442,424 +7427,406 @@
         <v>3850</v>
       </c>
       <c r="C377" t="s">
-        <v>869</v>
+        <v>779</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="26"/>
+      <c r="A378" s="28" t="s">
+        <v>805</v>
+      </c>
       <c r="B378">
         <v>3860</v>
       </c>
-      <c r="C378" s="11" t="s">
-        <v>679</v>
+      <c r="C378" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A378,"***")</f>
+        <v>REM SUBROUTINE ***GETHEART***</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="26"/>
       <c r="B379">
         <v>3870</v>
       </c>
-      <c r="C379" t="s">
-        <v>779</v>
+      <c r="C379" t="str">
+        <f>IF(ISBLANK(E379),_xlfn.CONCAT("SUB ",A378),_xlfn.CONCAT("SUB ",A378,"(",E379,")"))</f>
+        <v>SUB GETHEART(CHARVAL)</v>
+      </c>
+      <c r="E379" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="28" t="s">
-        <v>805</v>
-      </c>
       <c r="B380">
         <v>3880</v>
       </c>
-      <c r="C380" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A380,"***")</f>
-        <v>REM SUBROUTINE ***GETHEART***</v>
+      <c r="C380" s="11" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B381">
         <v>3890</v>
       </c>
-      <c r="C381" t="str">
-        <f>IF(ISBLANK(E381),_xlfn.CONCAT("SUB ",A380),_xlfn.CONCAT("SUB ",A380,"(",E381,")"))</f>
-        <v>SUB GETHEART(CHARVAL)</v>
-      </c>
-      <c r="E381" t="s">
-        <v>788</v>
+      <c r="C381" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A382" s="28" t="s">
+        <v>804</v>
+      </c>
       <c r="B382">
         <v>3900</v>
       </c>
-      <c r="C382" s="11" t="s">
-        <v>787</v>
+      <c r="C382" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A382,"***")</f>
+        <v>REM SUBROUTINE ***GETDIAMOND***</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B383">
         <v>3910</v>
       </c>
-      <c r="C383" s="11" t="s">
-        <v>779</v>
+      <c r="C383" t="str">
+        <f>IF(ISBLANK(E383),_xlfn.CONCAT("SUB ",A382),_xlfn.CONCAT("SUB ",A382,"(",E383,")"))</f>
+        <v>SUB GETDIAMOND(CHARVAL)</v>
+      </c>
+      <c r="E383" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="28" t="s">
-        <v>804</v>
-      </c>
       <c r="B384">
         <v>3920</v>
       </c>
-      <c r="C384" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A384,"***")</f>
-        <v>REM SUBROUTINE ***GETDIAMOND***</v>
+      <c r="C384" s="11" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B385">
         <v>3930</v>
       </c>
-      <c r="C385" t="str">
-        <f>IF(ISBLANK(E385),_xlfn.CONCAT("SUB ",A384),_xlfn.CONCAT("SUB ",A384,"(",E385,")"))</f>
-        <v>SUB GETDIAMOND(CHARVAL)</v>
-      </c>
-      <c r="E385" t="s">
-        <v>788</v>
+      <c r="C385" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A386" s="28" t="s">
+        <v>803</v>
+      </c>
       <c r="B386">
         <v>3940</v>
       </c>
-      <c r="C386" s="11" t="s">
-        <v>789</v>
+      <c r="C386" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A386,"***")</f>
+        <v>REM SUBROUTINE ***GETREDVALS***</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B387">
         <v>3950</v>
       </c>
-      <c r="C387" s="11" t="s">
-        <v>779</v>
+      <c r="C387" t="str">
+        <f>IF(ISBLANK(E387),_xlfn.CONCAT("SUB ",A386),_xlfn.CONCAT("SUB ",A386,"(",E387,")"))</f>
+        <v>SUB GETREDVALS(CHARVAL)</v>
+      </c>
+      <c r="E387" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="28" t="s">
-        <v>803</v>
-      </c>
       <c r="B388">
         <v>3960</v>
       </c>
-      <c r="C388" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A388,"***")</f>
-        <v>REM SUBROUTINE ***GETREDVALS***</v>
+      <c r="C388" s="11" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B389">
         <v>3970</v>
       </c>
-      <c r="C389" t="str">
-        <f>IF(ISBLANK(E389),_xlfn.CONCAT("SUB ",A388),_xlfn.CONCAT("SUB ",A388,"(",E389,")"))</f>
-        <v>SUB GETREDVALS(CHARVAL)</v>
-      </c>
-      <c r="E389" t="s">
-        <v>788</v>
+      <c r="C389" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A390" s="28" t="s">
+        <v>802</v>
+      </c>
       <c r="B390">
         <v>3980</v>
       </c>
-      <c r="C390" s="11" t="s">
-        <v>790</v>
+      <c r="C390" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A390,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDBACK***</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B391">
         <v>3990</v>
       </c>
-      <c r="C391" s="11" t="s">
-        <v>779</v>
+      <c r="C391" t="str">
+        <f>IF(ISBLANK(E391),_xlfn.CONCAT("SUB ",A390),_xlfn.CONCAT("SUB ",A390,"(",E391,")"))</f>
+        <v>SUB GETCARDBACK(CHARVAL)</v>
+      </c>
+      <c r="E391" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="28" t="s">
-        <v>802</v>
-      </c>
       <c r="B392">
         <v>4000</v>
       </c>
-      <c r="C392" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A392,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDBACK***</v>
+      <c r="C392" s="11" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B393">
         <v>4010</v>
       </c>
-      <c r="C393" t="str">
-        <f>IF(ISBLANK(E393),_xlfn.CONCAT("SUB ",A392),_xlfn.CONCAT("SUB ",A392,"(",E393,")"))</f>
-        <v>SUB GETCARDBACK(CHARVAL)</v>
-      </c>
-      <c r="E393" t="s">
-        <v>788</v>
+      <c r="C393" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A394" s="28" t="s">
+        <v>801</v>
+      </c>
       <c r="B394">
         <v>4020</v>
       </c>
-      <c r="C394" s="11" t="s">
-        <v>792</v>
+      <c r="C394" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A394,"***")</f>
+        <v>REM SUBROUTINE ***GETSPADE***</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B395">
         <v>4030</v>
       </c>
-      <c r="C395" s="11" t="s">
-        <v>779</v>
+      <c r="C395" t="str">
+        <f>IF(ISBLANK(E395),_xlfn.CONCAT("SUB ",A394),_xlfn.CONCAT("SUB ",A394,"(",E395,")"))</f>
+        <v>SUB GETSPADE(CHARVAL)</v>
+      </c>
+      <c r="E395" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="28" t="s">
-        <v>801</v>
-      </c>
       <c r="B396">
         <v>4040</v>
       </c>
-      <c r="C396" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A396,"***")</f>
-        <v>REM SUBROUTINE ***GETSPADE***</v>
+      <c r="C396" s="11" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B397">
         <v>4050</v>
       </c>
-      <c r="C397" t="str">
-        <f>IF(ISBLANK(E397),_xlfn.CONCAT("SUB ",A396),_xlfn.CONCAT("SUB ",A396,"(",E397,")"))</f>
-        <v>SUB GETSPADE(CHARVAL)</v>
-      </c>
-      <c r="E397" t="s">
-        <v>788</v>
+      <c r="C397" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A398" s="28" t="s">
+        <v>800</v>
+      </c>
       <c r="B398">
         <v>4060</v>
       </c>
-      <c r="C398" s="11" t="s">
-        <v>791</v>
+      <c r="C398" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A398,"***")</f>
+        <v>REM SUBROUTINE ***GETCLUB***</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B399">
         <v>4070</v>
       </c>
-      <c r="C399" s="11" t="s">
-        <v>779</v>
+      <c r="C399" t="str">
+        <f>IF(ISBLANK(E399),_xlfn.CONCAT("SUB ",A398),_xlfn.CONCAT("SUB ",A398,"(",E399,")"))</f>
+        <v>SUB GETCLUB(CHARVAL)</v>
+      </c>
+      <c r="E399" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="28" t="s">
-        <v>800</v>
-      </c>
       <c r="B400">
         <v>4080</v>
       </c>
-      <c r="C400" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A400,"***")</f>
-        <v>REM SUBROUTINE ***GETCLUB***</v>
+      <c r="C400" s="11" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B401">
         <v>4090</v>
       </c>
-      <c r="C401" t="str">
-        <f>IF(ISBLANK(E401),_xlfn.CONCAT("SUB ",A400),_xlfn.CONCAT("SUB ",A400,"(",E401,")"))</f>
-        <v>SUB GETCLUB(CHARVAL)</v>
-      </c>
-      <c r="E401" t="s">
-        <v>788</v>
+      <c r="C401" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A402" s="28" t="s">
+        <v>797</v>
+      </c>
       <c r="B402">
         <v>4100</v>
       </c>
-      <c r="C402" s="11" t="s">
-        <v>793</v>
+      <c r="C402" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A402,"***")</f>
+        <v>REM SUBROUTINE ***GETBLACKVALS***</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B403">
         <v>4110</v>
       </c>
-      <c r="C403" s="11" t="s">
-        <v>779</v>
+      <c r="C403" t="str">
+        <f>IF(ISBLANK(E403),_xlfn.CONCAT("SUB ",A402),_xlfn.CONCAT("SUB ",A402,"(",E403,")"))</f>
+        <v>SUB GETBLACKVALS(CHARVAL)</v>
+      </c>
+      <c r="E403" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" s="28" t="s">
-        <v>797</v>
-      </c>
       <c r="B404">
         <v>4120</v>
       </c>
-      <c r="C404" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A404,"***")</f>
-        <v>REM SUBROUTINE ***GETBLACKVALS***</v>
+      <c r="C404" s="11" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B405">
         <v>4130</v>
       </c>
-      <c r="C405" t="str">
-        <f>IF(ISBLANK(E405),_xlfn.CONCAT("SUB ",A404),_xlfn.CONCAT("SUB ",A404,"(",E405,")"))</f>
-        <v>SUB GETBLACKVALS(CHARVAL)</v>
-      </c>
-      <c r="E405" t="s">
-        <v>788</v>
+      <c r="C405" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A406" s="28" t="s">
+        <v>798</v>
+      </c>
       <c r="B406">
         <v>4140</v>
       </c>
-      <c r="C406" s="11" t="s">
-        <v>794</v>
+      <c r="C406" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A406,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDEDGE***</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B407">
         <v>4150</v>
       </c>
-      <c r="C407" s="11" t="s">
-        <v>779</v>
+      <c r="C407" t="str">
+        <f>IF(ISBLANK(E407),_xlfn.CONCAT("SUB ",A406),_xlfn.CONCAT("SUB ",A406,"(",E407,")"))</f>
+        <v>SUB GETCARDEDGE(CHARVAL)</v>
+      </c>
+      <c r="E407" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A408" s="28" t="s">
-        <v>798</v>
-      </c>
       <c r="B408">
         <v>4160</v>
       </c>
-      <c r="C408" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A408,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDEDGE***</v>
+      <c r="C408" s="11" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B409">
         <v>4170</v>
       </c>
-      <c r="C409" t="str">
-        <f>IF(ISBLANK(E409),_xlfn.CONCAT("SUB ",A408),_xlfn.CONCAT("SUB ",A408,"(",E409,")"))</f>
-        <v>SUB GETCARDEDGE(CHARVAL)</v>
-      </c>
-      <c r="E409" t="s">
-        <v>788</v>
+      <c r="C409" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A410" s="28" t="s">
+        <v>799</v>
+      </c>
       <c r="B410">
         <v>4180</v>
       </c>
-      <c r="C410" s="11" t="s">
-        <v>795</v>
+      <c r="C410" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A410,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDTOP***</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B411">
         <v>4190</v>
       </c>
-      <c r="C411" s="11" t="s">
-        <v>779</v>
+      <c r="C411" t="str">
+        <f>IF(ISBLANK(E411),_xlfn.CONCAT("SUB ",A410),_xlfn.CONCAT("SUB ",A410,"(",E411,")"))</f>
+        <v>SUB GETCARDTOP(CHARVAL)</v>
+      </c>
+      <c r="E411" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A412" s="28" t="s">
-        <v>799</v>
-      </c>
       <c r="B412">
         <v>4200</v>
       </c>
-      <c r="C412" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A412,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDTOP***</v>
+      <c r="C412" s="11" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B413">
         <v>4210</v>
       </c>
-      <c r="C413" t="str">
-        <f>IF(ISBLANK(E413),_xlfn.CONCAT("SUB ",A412),_xlfn.CONCAT("SUB ",A412,"(",E413,")"))</f>
-        <v>SUB GETCARDTOP(CHARVAL)</v>
-      </c>
-      <c r="E413" t="s">
-        <v>788</v>
+      <c r="C413" s="11" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A414" s="28" t="s">
+        <v>807</v>
+      </c>
       <c r="B414">
         <v>4220</v>
       </c>
-      <c r="C414" s="11" t="s">
-        <v>796</v>
+      <c r="C414" t="str">
+        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A414,"***")</f>
+        <v>REM SUBROUTINE ***GETCARDFRONT***</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B415">
         <v>4230</v>
       </c>
-      <c r="C415" s="11" t="s">
-        <v>779</v>
+      <c r="C415" t="str">
+        <f>IF(ISBLANK(E415),_xlfn.CONCAT("SUB ",A414),_xlfn.CONCAT("SUB ",A414,"(",E415,")"))</f>
+        <v>SUB GETCARDFRONT(CHARVAL)</v>
+      </c>
+      <c r="E415" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A416" s="28" t="s">
-        <v>807</v>
-      </c>
       <c r="B416">
         <v>4240</v>
       </c>
-      <c r="C416" t="str">
-        <f>_xlfn.CONCAT("REM SUBROUTINE ***",A416,"***")</f>
-        <v>REM SUBROUTINE ***GETCARDFRONT***</v>
-      </c>
-    </row>
-    <row r="417" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C416" s="11" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B417">
         <v>4250</v>
       </c>
-      <c r="C417" t="str">
-        <f>IF(ISBLANK(E417),_xlfn.CONCAT("SUB ",A416),_xlfn.CONCAT("SUB ",A416,"(",E417,")"))</f>
-        <v>SUB GETCARDFRONT(CHARVAL)</v>
-      </c>
-      <c r="E417" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="418" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B418">
-        <v>4260</v>
-      </c>
-      <c r="C418" s="11" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="419" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B419">
-        <v>4270</v>
-      </c>
-      <c r="C419" s="11" t="s">
+      <c r="C417" s="11" t="s">
         <v>779</v>
       </c>
     </row>
@@ -12757,14 +12724,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D50:D272">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
-      <formula>LEN(TRIM(D50))&gt;0</formula>
+  <conditionalFormatting sqref="D2:D36">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D36">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(D2))&gt;0</formula>
+  <conditionalFormatting sqref="D50:D272">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(D50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
